--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -8536,9 +8536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>263160</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8552,7 +8552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="759240" cy="215640"/>
+          <a:ext cx="758880" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8573,9 +8573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>149400</xdr:colOff>
+      <xdr:colOff>149040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>263160</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8589,7 +8589,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1102320" cy="215640"/>
+          <a:ext cx="1101960" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8610,9 +8610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>22320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:rowOff>263880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8626,7 +8626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1409400" cy="215640"/>
+          <a:ext cx="1409040" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8647,9 +8647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
+      <xdr:colOff>346320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:rowOff>263880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8663,7 +8663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1733400" cy="215640"/>
+          <a:ext cx="1733040" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8684,9 +8684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
+      <xdr:colOff>219600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>277200</xdr:rowOff>
+      <xdr:rowOff>276840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8700,7 +8700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2040480" cy="228600"/>
+          <a:ext cx="2040120" cy="228240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8721,9 +8721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:rowOff>263880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8737,7 +8737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2385360" cy="215640"/>
+          <a:ext cx="2385000" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8758,9 +8758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>263160</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8774,7 +8774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2698560" cy="215640"/>
+          <a:ext cx="2698200" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9174,9 +9174,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319680</xdr:colOff>
+      <xdr:colOff>319320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9186,7 +9186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="7001640" cy="10064880"/>
+          <a:ext cx="7001280" cy="10064520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9272,9 +9272,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9284,7 +9284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7018920" cy="268560"/>
+          <a:ext cx="7018560" cy="268200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9338,9 +9338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>435960</xdr:colOff>
+      <xdr:colOff>435600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9350,7 +9350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="797760" cy="269640"/>
+          <a:ext cx="797400" cy="269280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9402,9 +9402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>434880</xdr:colOff>
+      <xdr:colOff>434520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>198720</xdr:rowOff>
+      <xdr:rowOff>198360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9414,7 +9414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="797760" cy="269640"/>
+          <a:ext cx="797400" cy="269280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9467,7 +9467,7 @@
   </sheetPr>
   <dimension ref="A1:AK262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -19276,8 +19276,8 @@
   </sheetPr>
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19720,10 +19720,7 @@
       <c r="D14" s="113"/>
       <c r="E14" s="113"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="114" t="str">
-        <f aca="false">IF(AND('4) E-luvun laskennan tulokset '!E18&lt;&gt;"*",'4) E-luvun laskennan tulokset '!E18&lt;&gt;0),'4) E-luvun laskennan tulokset '!E18,"")</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo]</v>
-      </c>
+      <c r="G14" s="114"/>
       <c r="H14" s="115" t="str">
         <f aca="false">IF(ISNUMBER(G14/'3) E-luvun laskennan lähtöt.'!$G$7),CEILING(G14/'3) E-luvun laskennan lähtöt.'!$G$7,1),"")</f>
         <v/>
@@ -22118,7 +22115,7 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -24516,7 +24513,7 @@
   </sheetPr>
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F77" activeCellId="0" sqref="F77"/>
     </sheetView>
   </sheetViews>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -4186,7 +4186,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -4866,7 +4866,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -19276,8 +19276,8 @@
   </sheetPr>
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24513,7 +24513,7 @@
   </sheetPr>
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F77" activeCellId="0" sqref="F77"/>
     </sheetView>
   </sheetViews>
@@ -29003,8 +29003,8 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30104,7 +30104,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31025,7 +31025,7 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -3568,7 +3568,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="339">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4907,6 +4907,10 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8536,9 +8540,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8552,7 +8556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="758880" cy="215280"/>
+          <a:ext cx="758520" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8573,9 +8577,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8589,7 +8593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1101960" cy="215280"/>
+          <a:ext cx="1101600" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8610,9 +8614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22320</xdr:colOff>
+      <xdr:colOff>21960</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>263880</xdr:rowOff>
+      <xdr:rowOff>263520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8626,7 +8630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1409040" cy="215280"/>
+          <a:ext cx="1408680" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8647,9 +8651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>346320</xdr:colOff>
+      <xdr:colOff>345960</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>263880</xdr:rowOff>
+      <xdr:rowOff>263520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8663,7 +8667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1733040" cy="215280"/>
+          <a:ext cx="1732680" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8684,9 +8688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>219600</xdr:colOff>
+      <xdr:colOff>219240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>276840</xdr:rowOff>
+      <xdr:rowOff>276480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8700,7 +8704,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2040120" cy="228240"/>
+          <a:ext cx="2039760" cy="227880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8721,9 +8725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>263880</xdr:rowOff>
+      <xdr:rowOff>263520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8737,7 +8741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2385000" cy="215280"/>
+          <a:ext cx="2384640" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8758,9 +8762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8774,7 +8778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2698200" cy="215280"/>
+          <a:ext cx="2697840" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9174,9 +9178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319320</xdr:colOff>
+      <xdr:colOff>318960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9186,7 +9190,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="7001280" cy="10064520"/>
+          <a:ext cx="7000920" cy="10064160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9272,9 +9276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9284,7 +9288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7018560" cy="268200"/>
+          <a:ext cx="7018200" cy="267840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9338,9 +9342,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>435600</xdr:colOff>
+      <xdr:colOff>435240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9350,7 +9354,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="797400" cy="269280"/>
+          <a:ext cx="797040" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9402,9 +9406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>434520</xdr:colOff>
+      <xdr:colOff>434160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>198360</xdr:rowOff>
+      <xdr:rowOff>198000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9414,7 +9418,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="797400" cy="269280"/>
+          <a:ext cx="797040" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29003,8 +29007,8 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K64" activeCellId="0" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29864,7 +29868,7 @@
         <f aca="false">A56</f>
         <v>[:huomiot :lammitys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G63" s="0" t="str">
+      <c r="G63" s="335" t="str">
         <f aca="false">A57</f>
         <v>[:huomiot :lammitys :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -30242,13 +30246,13 @@
       <c r="A13" s="150" t="s">
         <v>613</v>
       </c>
-      <c r="C13" s="335" t="s">
+      <c r="C13" s="336" t="s">
         <v>548</v>
       </c>
-      <c r="D13" s="335"/>
-      <c r="E13" s="335"/>
-      <c r="F13" s="335"/>
-      <c r="G13" s="335"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="150" t="s">
@@ -30257,13 +30261,13 @@
       <c r="C14" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="336" t="str">
+      <c r="D14" s="337" t="str">
         <f aca="false">A4</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :nimi-fi]</v>
       </c>
-      <c r="E14" s="336"/>
-      <c r="F14" s="336"/>
-      <c r="G14" s="336"/>
+      <c r="E14" s="337"/>
+      <c r="F14" s="337"/>
+      <c r="G14" s="337"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="150" t="s">
@@ -30272,13 +30276,13 @@
       <c r="C15" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="336" t="str">
+      <c r="D15" s="337" t="str">
         <f aca="false">A6</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :nimi-fi]</v>
       </c>
-      <c r="E15" s="336"/>
-      <c r="F15" s="336"/>
-      <c r="G15" s="336"/>
+      <c r="E15" s="337"/>
+      <c r="F15" s="337"/>
+      <c r="G15" s="337"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="150" t="s">
@@ -30287,13 +30291,13 @@
       <c r="C16" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="336" t="str">
+      <c r="D16" s="337" t="str">
         <f aca="false">A8</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :nimi-fi]</v>
       </c>
-      <c r="E16" s="336"/>
-      <c r="F16" s="336"/>
-      <c r="G16" s="336"/>
+      <c r="E16" s="337"/>
+      <c r="F16" s="337"/>
+      <c r="G16" s="337"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="150" t="s">
@@ -30522,13 +30526,13 @@
       <c r="A33" s="150" t="s">
         <v>634</v>
       </c>
-      <c r="C33" s="335" t="s">
+      <c r="C33" s="336" t="s">
         <v>548</v>
       </c>
-      <c r="D33" s="335"/>
-      <c r="E33" s="335"/>
-      <c r="F33" s="335"/>
-      <c r="G33" s="335"/>
+      <c r="D33" s="336"/>
+      <c r="E33" s="336"/>
+      <c r="F33" s="336"/>
+      <c r="G33" s="336"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="150" t="s">
@@ -30537,13 +30541,13 @@
       <c r="C34" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="336" t="str">
+      <c r="D34" s="337" t="str">
         <f aca="false">A24</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :nimi-fi]</v>
       </c>
-      <c r="E34" s="336"/>
-      <c r="F34" s="336"/>
-      <c r="G34" s="336"/>
+      <c r="E34" s="337"/>
+      <c r="F34" s="337"/>
+      <c r="G34" s="337"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="150" t="s">
@@ -30552,13 +30556,13 @@
       <c r="C35" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="336" t="str">
+      <c r="D35" s="337" t="str">
         <f aca="false">A26</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :nimi-fi]</v>
       </c>
-      <c r="E35" s="336"/>
-      <c r="F35" s="336"/>
-      <c r="G35" s="336"/>
+      <c r="E35" s="337"/>
+      <c r="F35" s="337"/>
+      <c r="G35" s="337"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="150" t="s">
@@ -30567,13 +30571,13 @@
       <c r="C36" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="336" t="str">
+      <c r="D36" s="337" t="str">
         <f aca="false">A28</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-fi]</v>
       </c>
-      <c r="E36" s="336"/>
-      <c r="F36" s="336"/>
-      <c r="G36" s="336"/>
+      <c r="E36" s="337"/>
+      <c r="F36" s="337"/>
+      <c r="G36" s="337"/>
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="150" t="s">
@@ -31025,7 +31029,7 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -31049,15 +31053,15 @@
       <c r="A2" s="150" t="s">
         <v>648</v>
       </c>
-      <c r="C2" s="337" t="s">
+      <c r="C2" s="338" t="s">
         <v>649</v>
       </c>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338"/>
+      <c r="I2" s="338"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="318" t="s">

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="653">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -2894,6 +2894,12 @@
   </si>
   <si>
     <t xml:space="preserve">[:huomiot :suositukset-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:huomiot :lisatietoja-fi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:huomiot :lisatietoja-sv]</t>
   </si>
   <si>
     <t xml:space="preserve">Lisätietoja energiatehokkuudesta</t>
@@ -3568,7 +3574,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="340">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4919,6 +4925,10 @@
     </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8540,9 +8550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8556,7 +8566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="758520" cy="214920"/>
+          <a:ext cx="758160" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8577,9 +8587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8593,7 +8603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1101600" cy="214920"/>
+          <a:ext cx="1101240" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8614,9 +8624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>263160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8630,7 +8640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1408680" cy="214920"/>
+          <a:ext cx="1408320" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8651,9 +8661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>345960</xdr:colOff>
+      <xdr:colOff>345600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>263160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8667,7 +8677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1732680" cy="214920"/>
+          <a:ext cx="1732320" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8688,9 +8698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>219240</xdr:colOff>
+      <xdr:colOff>218880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>276480</xdr:rowOff>
+      <xdr:rowOff>276120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8704,7 +8714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2039760" cy="227880"/>
+          <a:ext cx="2039400" cy="227520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8725,9 +8735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>263160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8741,7 +8751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2384640" cy="214920"/>
+          <a:ext cx="2384280" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8762,9 +8772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>102600</xdr:colOff>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8778,7 +8788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2697840" cy="214920"/>
+          <a:ext cx="2697480" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9178,9 +9188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318960</xdr:colOff>
+      <xdr:colOff>318600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9190,7 +9200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="7000920" cy="10064160"/>
+          <a:ext cx="7000560" cy="10063800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9276,9 +9286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9288,7 +9298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7018200" cy="267840"/>
+          <a:ext cx="7017840" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9342,9 +9352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>435240</xdr:colOff>
+      <xdr:colOff>434880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9354,7 +9364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="797040" cy="268920"/>
+          <a:ext cx="796680" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9406,9 +9416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>434160</xdr:colOff>
+      <xdr:colOff>433800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>198000</xdr:rowOff>
+      <xdr:rowOff>197640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9418,7 +9428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="797040" cy="268920"/>
+          <a:ext cx="796680" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29007,7 +29017,7 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K64" activeCellId="0" sqref="K64"/>
     </sheetView>
   </sheetViews>
@@ -30107,8 +30117,8 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30713,7 +30723,9 @@
       <c r="G43" s="324"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="150"/>
+      <c r="A44" s="150" t="s">
+        <v>646</v>
+      </c>
       <c r="C44" s="324"/>
       <c r="D44" s="324"/>
       <c r="E44" s="324"/>
@@ -30721,7 +30733,9 @@
       <c r="G44" s="324"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="150"/>
+      <c r="A45" s="150" t="s">
+        <v>647</v>
+      </c>
       <c r="C45" s="324"/>
       <c r="D45" s="324"/>
       <c r="E45" s="324"/>
@@ -30826,7 +30840,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="323" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="167"/>
@@ -30844,7 +30858,7 @@
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="150"/>
       <c r="C60" s="299" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D60" s="299"/>
       <c r="E60" s="299"/>
@@ -30853,35 +30867,38 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150"/>
-      <c r="C61" s="307"/>
-      <c r="D61" s="307"/>
-      <c r="E61" s="307"/>
-      <c r="F61" s="307"/>
-      <c r="G61" s="307"/>
+      <c r="C61" s="338" t="str">
+        <f aca="false">A44</f>
+        <v>[:huomiot :lisatietoja-fi]</v>
+      </c>
+      <c r="D61" s="338"/>
+      <c r="E61" s="338"/>
+      <c r="F61" s="338"/>
+      <c r="G61" s="338"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="307"/>
-      <c r="D62" s="307"/>
-      <c r="E62" s="307"/>
-      <c r="F62" s="307"/>
-      <c r="G62" s="307"/>
+      <c r="C62" s="338"/>
+      <c r="D62" s="338"/>
+      <c r="E62" s="338"/>
+      <c r="F62" s="338"/>
+      <c r="G62" s="338"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="307"/>
-      <c r="D63" s="307"/>
-      <c r="E63" s="307"/>
-      <c r="F63" s="307"/>
-      <c r="G63" s="307"/>
+      <c r="C63" s="338"/>
+      <c r="D63" s="338"/>
+      <c r="E63" s="338"/>
+      <c r="F63" s="338"/>
+      <c r="G63" s="338"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="307"/>
-      <c r="D64" s="307"/>
-      <c r="E64" s="307"/>
-      <c r="F64" s="307"/>
-      <c r="G64" s="307"/>
+      <c r="C64" s="338"/>
+      <c r="D64" s="338"/>
+      <c r="E64" s="338"/>
+      <c r="F64" s="338"/>
+      <c r="G64" s="338"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="143"/>
@@ -30892,7 +30909,7 @@
     </row>
     <row r="66" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="15">
     <mergeCell ref="C3:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="D14:G14"/>
@@ -30907,10 +30924,7 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C43:G57"/>
     <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C61:G64"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:D16 B13:C16 H13:AMJ17 B17 C45:C49 A65:AMJ1048576 A1:AMJ12 C42:G44 C57:G57 E59:AMJ59 A58:AMJ58 B59:B63 H60:AMJ64 C61:C63 B39:B57 H39:AMJ57 B19:B37 H19:AMJ37 C22:G22 C19:F21 D14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="472">
@@ -31051,21 +31065,21 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="150" t="s">
-        <v>648</v>
-      </c>
-      <c r="C2" s="338" t="s">
-        <v>649</v>
-      </c>
-      <c r="D2" s="338"/>
-      <c r="E2" s="338"/>
-      <c r="F2" s="338"/>
-      <c r="G2" s="338"/>
-      <c r="H2" s="338"/>
-      <c r="I2" s="338"/>
+        <v>650</v>
+      </c>
+      <c r="C2" s="339" t="s">
+        <v>651</v>
+      </c>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="318" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C3" s="324" t="str">
         <f aca="false">A2</f>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -4927,8 +4927,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8550,9 +8550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8566,7 +8566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="758160" cy="214560"/>
+          <a:ext cx="757800" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8587,9 +8587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8603,7 +8603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1101240" cy="214560"/>
+          <a:ext cx="1100880" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8624,9 +8624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:colOff>21240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>263160</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8640,7 +8640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1408320" cy="214560"/>
+          <a:ext cx="1407960" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8661,9 +8661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>345600</xdr:colOff>
+      <xdr:colOff>345240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>263160</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8677,7 +8677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1732320" cy="214560"/>
+          <a:ext cx="1731960" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8698,9 +8698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>218880</xdr:colOff>
+      <xdr:colOff>218520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>276120</xdr:rowOff>
+      <xdr:rowOff>275760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8714,7 +8714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2039400" cy="227520"/>
+          <a:ext cx="2039040" cy="227160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8735,9 +8735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>161640</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>263160</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8751,7 +8751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2384280" cy="214560"/>
+          <a:ext cx="2383920" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8772,9 +8772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8788,7 +8788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2697480" cy="214560"/>
+          <a:ext cx="2697120" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9188,9 +9188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318600</xdr:colOff>
+      <xdr:colOff>318240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9200,7 +9200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="7000560" cy="10063800"/>
+          <a:ext cx="7000200" cy="10063440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9286,9 +9286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9298,7 +9298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7017840" cy="267480"/>
+          <a:ext cx="7017480" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9352,9 +9352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>434880</xdr:colOff>
+      <xdr:colOff>434520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9364,7 +9364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="796680" cy="268560"/>
+          <a:ext cx="796320" cy="268200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9416,9 +9416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433800</xdr:colOff>
+      <xdr:colOff>433440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>197640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9428,7 +9428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="796680" cy="268560"/>
+          <a:ext cx="796320" cy="268200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30118,7 +30118,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="790">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">[:perustiedot :katuosoite-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29169]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61210]</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
@@ -80,31 +80,31 @@
     <t xml:space="preserve">[:perustiedot :alakayttotarkoitus-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29171]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29173]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29175]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29177]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61212]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61214]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61216]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61218]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennustunnus:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29179]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61220]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennuksen valmistumisvuosi:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29181]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29183]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61222]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61224]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennuksen käyttötarkoitusluokka:</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">[:perustiedot :yritys :nimi]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29186]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61227]</t>
   </si>
   <si>
     <t xml:space="preserve">             Energiatehokkuusluokka</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29188]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61230]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennuksen laskennallinen kokonaisenergiankulutus (E-luku)</t>
@@ -356,28 +356,28 @@
     <t xml:space="preserve">Muut sairaalat</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29190]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61234]</t>
   </si>
   <si>
     <t xml:space="preserve">YHTEENVETO RAKENNUKSEN ENERGIATEHOKKUUDESTA</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :kuvaus-fi]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :label-fi]</t>
   </si>
   <si>
     <t xml:space="preserve">Laskettu kokonaisenergiankulutus ja ostoenergiankulutus</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :kuvaus-sv]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :kuvaus-fi]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :label-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :label-fi]</t>
   </si>
   <si>
     <t xml:space="preserve">Lämmitetty nettoala</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :kuvaus-sv]</t>
+    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :label-sv]</t>
   </si>
   <si>
     <t xml:space="preserve">Lämmitysjärjestelmän kuvaus</t>
@@ -645,25 +645,25 @@
     <t xml:space="preserve">[:tulokset :e-luokka-info :luokittelu :label-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29192]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29195]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29198]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29201]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29204]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29207]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29210]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61236]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61239]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61242]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61245]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61248]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61251]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61254]</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :e-luokka-info :e-luokka]</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :takka :tuotto]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmanlampopumppu :maara]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmanlampopumppu :tuotto]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :maara]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">Lämmitysenergian nettotarve</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29213]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61257]</t>
   </si>
   <si>
     <r>
@@ -1526,25 +1526,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29215]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29217]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29219]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29221]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61259]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61261]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61263]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61265]</t>
   </si>
   <si>
     <t xml:space="preserve">Sisäiset lämpökuormat eri käyttöasteilla</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29223]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29225]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61267]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61269]</t>
   </si>
   <si>
     <t xml:space="preserve">Käyttöaste</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">Valaistus</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29227]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61271]</t>
   </si>
   <si>
     <r>
@@ -1585,16 +1585,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29229]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29231]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29233]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29235]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61273]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61275]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61277]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61279]</t>
   </si>
   <si>
     <t xml:space="preserve">E-LUVUN LASKENNAN TULOKSET</t>
@@ -2165,13 +2165,13 @@
     <t xml:space="preserve">[:tulokset :laskentatyokalu]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29237]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61281]</t>
   </si>
   <si>
     <t xml:space="preserve">TOTEUTUNUT ENERGIANKULUTUS</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29239]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61283]</t>
   </si>
   <si>
     <t xml:space="preserve">Saatavilla olevat ostoenergian määrät ilmoitetaan sellaisenaan ilman lämmöntarvelukukorjausta.</t>
@@ -2935,6 +2935,417 @@
   </si>
   <si>
     <t xml:space="preserve">[:lisamerkintoja-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :rakennusvaippa :lampokapasiteetti]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :rakennusvaippa :ilmatilavuus]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :tuloilma-lampotila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampopumppu-tuotto-osuus]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampopumppu-tuotto-osuus]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampohavio-lammittamaton-tila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampohavio-lammittamaton-tila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :lampo]</t>
   </si>
 </sst>
 </file>
@@ -3574,7 +3985,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="339">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4925,10 +5336,6 @@
     </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8550,9 +8957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8566,7 +8973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="757800" cy="214200"/>
+          <a:ext cx="757080" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8587,9 +8994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>147240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8603,7 +9010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1100880" cy="214200"/>
+          <a:ext cx="1100160" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8624,9 +9031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8640,7 +9047,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1407960" cy="214200"/>
+          <a:ext cx="1407240" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8661,9 +9068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>345240</xdr:colOff>
+      <xdr:colOff>344520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8677,7 +9084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1731960" cy="214200"/>
+          <a:ext cx="1731240" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8698,9 +9105,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>217800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>275760</xdr:rowOff>
+      <xdr:rowOff>275040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8714,7 +9121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2039040" cy="227160"/>
+          <a:ext cx="2038320" cy="226440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8735,9 +9142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8751,7 +9158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2383920" cy="214200"/>
+          <a:ext cx="2383200" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8772,9 +9179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8788,7 +9195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2697120" cy="214200"/>
+          <a:ext cx="2696400" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9188,9 +9595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318240</xdr:colOff>
+      <xdr:colOff>317520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9200,7 +9607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="7000200" cy="10063440"/>
+          <a:ext cx="6999480" cy="10062720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9286,9 +9693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9298,7 +9705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7017480" cy="267120"/>
+          <a:ext cx="7016760" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9352,9 +9759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>434520</xdr:colOff>
+      <xdr:colOff>433800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9364,7 +9771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="796320" cy="268200"/>
+          <a:ext cx="795600" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9416,9 +9823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433440</xdr:colOff>
+      <xdr:colOff>432720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>196560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9428,7 +9835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="796320" cy="268200"/>
+          <a:ext cx="795600" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9475,7 +9882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -9879,7 +10286,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="16" t="str">
         <f aca="false">A5</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29169]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61210]</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -11325,7 +11732,7 @@
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="79" t="str">
         <f aca="false">A21</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29186]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61227]</v>
       </c>
       <c r="D48" s="79"/>
       <c r="E48" s="79"/>
@@ -11337,7 +11744,7 @@
       <c r="K48" s="74"/>
       <c r="L48" s="80" t="str">
         <f aca="false">A22</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29188]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61230]</v>
       </c>
       <c r="M48" s="80"/>
       <c r="N48" s="80"/>
@@ -19284,7 +19691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -19428,7 +19835,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="99" t="str">
         <f aca="false">A2</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29190]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61234]</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="14"/>
@@ -19464,7 +19871,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="100" t="str">
         <f aca="false">A3</f>
-        <v>[:lahtotiedot :lammitys :kuvaus-fi]</v>
+        <v>[:lahtotiedot :lammitys :label-fi]</v>
       </c>
       <c r="H6" s="100"/>
       <c r="I6" s="100"/>
@@ -19500,7 +19907,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="101" t="str">
         <f aca="false">A5</f>
-        <v>[:lahtotiedot :ilmanvaihto :kuvaus-fi]</v>
+        <v>[:lahtotiedot :ilmanvaihto :label-fi]</v>
       </c>
       <c r="H7" s="101"/>
       <c r="I7" s="101"/>
@@ -20335,15 +20742,15 @@
       <c r="F29" s="14"/>
       <c r="H29" s="131" t="str">
         <f aca="false">A45</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29192]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61236]</v>
       </c>
       <c r="I29" s="132" t="str">
         <f aca="false">A46</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29195]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61239]</v>
       </c>
       <c r="J29" s="133" t="str">
         <f aca="false">A47</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29198]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61242]</v>
       </c>
       <c r="K29" s="129"/>
       <c r="M29" s="0"/>
@@ -20374,15 +20781,15 @@
       <c r="F30" s="14"/>
       <c r="H30" s="134" t="str">
         <f aca="false">A48</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29201]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61245]</v>
       </c>
       <c r="I30" s="135" t="str">
         <f aca="false">A49</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29204]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61248]</v>
       </c>
       <c r="J30" s="136" t="str">
         <f aca="false">A50</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29207]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61251]</v>
       </c>
       <c r="K30" s="129"/>
       <c r="M30" s="0"/>
@@ -20413,7 +20820,7 @@
       <c r="F31" s="14"/>
       <c r="H31" s="137" t="str">
         <f aca="false">A51</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29210]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61254]</v>
       </c>
       <c r="I31" s="138"/>
       <c r="J31" s="138"/>
@@ -22123,14 +22530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M43" activeCellId="0" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22294,7 +22701,10 @@
       <c r="D11" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="179"/>
+      <c r="E11" s="179" t="str">
+        <f aca="false">A6</f>
+        <v>[:lahtotiedot :rakennusvaippa :ilmanvuotoluku]</v>
+      </c>
       <c r="F11" s="173"/>
       <c r="G11" s="170"/>
       <c r="H11" s="177"/>
@@ -22842,7 +23252,7 @@
       </c>
       <c r="E39" s="194" t="str">
         <f aca="false">A53</f>
-        <v>[:lahtotiedot :ilmanvaihto :kuvaus-fi]</v>
+        <v>[:lahtotiedot :ilmanvaihto :label-fi]</v>
       </c>
       <c r="F39" s="194"/>
       <c r="G39" s="194"/>
@@ -23084,7 +23494,7 @@
       </c>
       <c r="E53" s="194" t="str">
         <f aca="false">A64</f>
-        <v>[:lahtotiedot :lammitys :kuvaus-fi]</v>
+        <v>[:lahtotiedot :lammitys :label-fi]</v>
       </c>
       <c r="F53" s="194"/>
       <c r="G53" s="194"/>
@@ -23352,11 +23762,11 @@
       </c>
       <c r="E69" s="212" t="str">
         <f aca="false">A76</f>
-        <v>[:lahtotiedot :lammitys :ilmanlampopumppu :maara]</v>
+        <v>[:lahtotiedot :lammitys :ilmalampopumppu :maara]</v>
       </c>
       <c r="F69" s="212" t="str">
         <f aca="false">A77</f>
-        <v>[:lahtotiedot :lammitys :ilmanlampopumppu :tuotto]</v>
+        <v>[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</v>
       </c>
       <c r="G69" s="180"/>
       <c r="H69" s="177"/>
@@ -23662,19 +24072,19 @@
       <c r="D90" s="217"/>
       <c r="E90" s="197" t="str">
         <f aca="false">A81</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29213]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61257]</v>
       </c>
       <c r="F90" s="186" t="str">
         <f aca="false">A82</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29215]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61259]</v>
       </c>
       <c r="G90" s="186" t="str">
         <f aca="false">A83</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29217]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61261]</v>
       </c>
       <c r="H90" s="186" t="str">
         <f aca="false">A84</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29219]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61263]</v>
       </c>
       <c r="I90" s="175"/>
     </row>
@@ -23686,19 +24096,19 @@
       <c r="D91" s="217"/>
       <c r="E91" s="197" t="str">
         <f aca="false">A85</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29221]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61265]</v>
       </c>
       <c r="F91" s="186" t="str">
         <f aca="false">A86</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29223]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61267]</v>
       </c>
       <c r="G91" s="186" t="str">
         <f aca="false">A87</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29225]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61269]</v>
       </c>
       <c r="H91" s="186" t="str">
         <f aca="false">A88</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29227]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61271]</v>
       </c>
       <c r="I91" s="175"/>
     </row>
@@ -23710,19 +24120,19 @@
       <c r="D92" s="217"/>
       <c r="E92" s="197" t="str">
         <f aca="false">A89</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29229]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61273]</v>
       </c>
       <c r="F92" s="186" t="str">
         <f aca="false">A90</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29231]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61275]</v>
       </c>
       <c r="G92" s="186" t="str">
         <f aca="false">A91</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29233]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61277]</v>
       </c>
       <c r="H92" s="186" t="str">
         <f aca="false">A92</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29235]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61279]</v>
       </c>
       <c r="I92" s="175"/>
     </row>
@@ -24521,13 +24931,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F77" activeCellId="0" sqref="F77"/>
     </sheetView>
   </sheetViews>
@@ -27108,14 +27518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27219,7 +27629,7 @@
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="str">
         <f aca="false">A2</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29237]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61281]</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="268"/>
@@ -29011,7 +29421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -30111,13 +30521,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -30867,38 +31277,38 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150"/>
-      <c r="C61" s="338" t="str">
+      <c r="C61" s="324" t="str">
         <f aca="false">A44</f>
         <v>[:huomiot :lisatietoja-fi]</v>
       </c>
-      <c r="D61" s="338"/>
-      <c r="E61" s="338"/>
-      <c r="F61" s="338"/>
-      <c r="G61" s="338"/>
+      <c r="D61" s="324"/>
+      <c r="E61" s="324"/>
+      <c r="F61" s="324"/>
+      <c r="G61" s="324"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="338"/>
-      <c r="D62" s="338"/>
-      <c r="E62" s="338"/>
-      <c r="F62" s="338"/>
-      <c r="G62" s="338"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="338"/>
-      <c r="D63" s="338"/>
-      <c r="E63" s="338"/>
-      <c r="F63" s="338"/>
-      <c r="G63" s="338"/>
+      <c r="C63" s="324"/>
+      <c r="D63" s="324"/>
+      <c r="E63" s="324"/>
+      <c r="F63" s="324"/>
+      <c r="G63" s="324"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="338"/>
-      <c r="D64" s="338"/>
-      <c r="E64" s="338"/>
-      <c r="F64" s="338"/>
-      <c r="G64" s="338"/>
+      <c r="C64" s="324"/>
+      <c r="D64" s="324"/>
+      <c r="E64" s="324"/>
+      <c r="F64" s="324"/>
+      <c r="G64" s="324"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="143"/>
@@ -31037,11 +31447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
@@ -31067,15 +31477,15 @@
       <c r="A2" s="150" t="s">
         <v>650</v>
       </c>
-      <c r="C2" s="339" t="s">
+      <c r="C2" s="338" t="s">
         <v>651</v>
       </c>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338"/>
+      <c r="I2" s="338"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="318" t="s">
@@ -31093,6 +31503,9 @@
       <c r="I3" s="324"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="318" t="s">
+        <v>653</v>
+      </c>
       <c r="C4" s="324"/>
       <c r="D4" s="324"/>
       <c r="E4" s="324"/>
@@ -31102,6 +31515,9 @@
       <c r="I4" s="324"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="318" t="s">
+        <v>654</v>
+      </c>
       <c r="C5" s="324"/>
       <c r="D5" s="324"/>
       <c r="E5" s="324"/>
@@ -31111,6 +31527,9 @@
       <c r="I5" s="324"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="318" t="s">
+        <v>655</v>
+      </c>
       <c r="C6" s="324"/>
       <c r="D6" s="324"/>
       <c r="E6" s="324"/>
@@ -31120,6 +31539,9 @@
       <c r="I6" s="324"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="318" t="s">
+        <v>656</v>
+      </c>
       <c r="C7" s="324"/>
       <c r="D7" s="324"/>
       <c r="E7" s="324"/>
@@ -31129,6 +31551,9 @@
       <c r="I7" s="324"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="318" t="s">
+        <v>657</v>
+      </c>
       <c r="C8" s="324"/>
       <c r="D8" s="324"/>
       <c r="E8" s="324"/>
@@ -31138,6 +31563,9 @@
       <c r="I8" s="324"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="318" t="s">
+        <v>658</v>
+      </c>
       <c r="C9" s="324"/>
       <c r="D9" s="324"/>
       <c r="E9" s="324"/>
@@ -31147,6 +31575,9 @@
       <c r="I9" s="324"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="318" t="s">
+        <v>659</v>
+      </c>
       <c r="C10" s="324"/>
       <c r="D10" s="324"/>
       <c r="E10" s="324"/>
@@ -31156,6 +31587,9 @@
       <c r="I10" s="324"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="318" t="s">
+        <v>660</v>
+      </c>
       <c r="C11" s="324"/>
       <c r="D11" s="324"/>
       <c r="E11" s="324"/>
@@ -31165,6 +31599,9 @@
       <c r="I11" s="324"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="318" t="s">
+        <v>661</v>
+      </c>
       <c r="C12" s="324"/>
       <c r="D12" s="324"/>
       <c r="E12" s="324"/>
@@ -31174,6 +31611,9 @@
       <c r="I12" s="324"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="318" t="s">
+        <v>662</v>
+      </c>
       <c r="C13" s="324"/>
       <c r="D13" s="324"/>
       <c r="E13" s="324"/>
@@ -31183,6 +31623,9 @@
       <c r="I13" s="324"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="318" t="s">
+        <v>663</v>
+      </c>
       <c r="C14" s="324"/>
       <c r="D14" s="324"/>
       <c r="E14" s="324"/>
@@ -31192,6 +31635,9 @@
       <c r="I14" s="324"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="318" t="s">
+        <v>664</v>
+      </c>
       <c r="C15" s="324"/>
       <c r="D15" s="324"/>
       <c r="E15" s="324"/>
@@ -31201,6 +31647,9 @@
       <c r="I15" s="324"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="318" t="s">
+        <v>665</v>
+      </c>
       <c r="C16" s="324"/>
       <c r="D16" s="324"/>
       <c r="E16" s="324"/>
@@ -31210,6 +31659,9 @@
       <c r="I16" s="324"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="318" t="s">
+        <v>666</v>
+      </c>
       <c r="C17" s="324"/>
       <c r="D17" s="324"/>
       <c r="E17" s="324"/>
@@ -31219,6 +31671,9 @@
       <c r="I17" s="324"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="318" t="s">
+        <v>667</v>
+      </c>
       <c r="C18" s="324"/>
       <c r="D18" s="324"/>
       <c r="E18" s="324"/>
@@ -31228,6 +31683,9 @@
       <c r="I18" s="324"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="318" t="s">
+        <v>668</v>
+      </c>
       <c r="C19" s="324"/>
       <c r="D19" s="324"/>
       <c r="E19" s="324"/>
@@ -31237,6 +31695,9 @@
       <c r="I19" s="324"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="318" t="s">
+        <v>669</v>
+      </c>
       <c r="C20" s="324"/>
       <c r="D20" s="324"/>
       <c r="E20" s="324"/>
@@ -31246,6 +31707,9 @@
       <c r="I20" s="324"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="318" t="s">
+        <v>670</v>
+      </c>
       <c r="C21" s="324"/>
       <c r="D21" s="324"/>
       <c r="E21" s="324"/>
@@ -31255,6 +31719,9 @@
       <c r="I21" s="324"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="318" t="s">
+        <v>671</v>
+      </c>
       <c r="C22" s="324"/>
       <c r="D22" s="324"/>
       <c r="E22" s="324"/>
@@ -31264,6 +31731,9 @@
       <c r="I22" s="324"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="318" t="s">
+        <v>672</v>
+      </c>
       <c r="C23" s="324"/>
       <c r="D23" s="324"/>
       <c r="E23" s="324"/>
@@ -31273,6 +31743,9 @@
       <c r="I23" s="324"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="318" t="s">
+        <v>673</v>
+      </c>
       <c r="C24" s="324"/>
       <c r="D24" s="324"/>
       <c r="E24" s="324"/>
@@ -31282,6 +31755,9 @@
       <c r="I24" s="324"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="318" t="s">
+        <v>674</v>
+      </c>
       <c r="C25" s="324"/>
       <c r="D25" s="324"/>
       <c r="E25" s="324"/>
@@ -31291,6 +31767,9 @@
       <c r="I25" s="324"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="318" t="s">
+        <v>675</v>
+      </c>
       <c r="C26" s="324"/>
       <c r="D26" s="324"/>
       <c r="E26" s="324"/>
@@ -31300,6 +31779,9 @@
       <c r="I26" s="324"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="318" t="s">
+        <v>676</v>
+      </c>
       <c r="C27" s="324"/>
       <c r="D27" s="324"/>
       <c r="E27" s="324"/>
@@ -31309,6 +31791,9 @@
       <c r="I27" s="324"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="318" t="s">
+        <v>677</v>
+      </c>
       <c r="C28" s="324"/>
       <c r="D28" s="324"/>
       <c r="E28" s="324"/>
@@ -31318,6 +31803,9 @@
       <c r="I28" s="324"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="318" t="s">
+        <v>678</v>
+      </c>
       <c r="C29" s="324"/>
       <c r="D29" s="324"/>
       <c r="E29" s="324"/>
@@ -31327,6 +31815,9 @@
       <c r="I29" s="324"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="318" t="s">
+        <v>679</v>
+      </c>
       <c r="C30" s="324"/>
       <c r="D30" s="324"/>
       <c r="E30" s="324"/>
@@ -31336,6 +31827,9 @@
       <c r="I30" s="324"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="318" t="s">
+        <v>680</v>
+      </c>
       <c r="C31" s="324"/>
       <c r="D31" s="324"/>
       <c r="E31" s="324"/>
@@ -31345,6 +31839,9 @@
       <c r="I31" s="324"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="318" t="s">
+        <v>681</v>
+      </c>
       <c r="C32" s="324"/>
       <c r="D32" s="324"/>
       <c r="E32" s="324"/>
@@ -31354,6 +31851,9 @@
       <c r="I32" s="324"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="318" t="s">
+        <v>682</v>
+      </c>
       <c r="C33" s="324"/>
       <c r="D33" s="324"/>
       <c r="E33" s="324"/>
@@ -31363,6 +31863,9 @@
       <c r="I33" s="324"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="318" t="s">
+        <v>683</v>
+      </c>
       <c r="C34" s="324"/>
       <c r="D34" s="324"/>
       <c r="E34" s="324"/>
@@ -31372,6 +31875,9 @@
       <c r="I34" s="324"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="318" t="s">
+        <v>684</v>
+      </c>
       <c r="C35" s="324"/>
       <c r="D35" s="324"/>
       <c r="E35" s="324"/>
@@ -31381,6 +31887,9 @@
       <c r="I35" s="324"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="318" t="s">
+        <v>685</v>
+      </c>
       <c r="C36" s="324"/>
       <c r="D36" s="324"/>
       <c r="E36" s="324"/>
@@ -31390,6 +31899,9 @@
       <c r="I36" s="324"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="318" t="s">
+        <v>686</v>
+      </c>
       <c r="C37" s="324"/>
       <c r="D37" s="324"/>
       <c r="E37" s="324"/>
@@ -31399,6 +31911,9 @@
       <c r="I37" s="324"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="318" t="s">
+        <v>687</v>
+      </c>
       <c r="C38" s="324"/>
       <c r="D38" s="324"/>
       <c r="E38" s="324"/>
@@ -31408,6 +31923,9 @@
       <c r="I38" s="324"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="318" t="s">
+        <v>688</v>
+      </c>
       <c r="C39" s="324"/>
       <c r="D39" s="324"/>
       <c r="E39" s="324"/>
@@ -31417,6 +31935,9 @@
       <c r="I39" s="324"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="318" t="s">
+        <v>689</v>
+      </c>
       <c r="C40" s="324"/>
       <c r="D40" s="324"/>
       <c r="E40" s="324"/>
@@ -31426,6 +31947,9 @@
       <c r="I40" s="324"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="318" t="s">
+        <v>690</v>
+      </c>
       <c r="C41" s="324"/>
       <c r="D41" s="324"/>
       <c r="E41" s="324"/>
@@ -31435,6 +31959,9 @@
       <c r="I41" s="324"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="318" t="s">
+        <v>691</v>
+      </c>
       <c r="C42" s="324"/>
       <c r="D42" s="324"/>
       <c r="E42" s="324"/>
@@ -31444,6 +31971,9 @@
       <c r="I42" s="324"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="318" t="s">
+        <v>692</v>
+      </c>
       <c r="C43" s="324"/>
       <c r="D43" s="324"/>
       <c r="E43" s="324"/>
@@ -31453,6 +31983,9 @@
       <c r="I43" s="324"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="318" t="s">
+        <v>693</v>
+      </c>
       <c r="C44" s="324"/>
       <c r="D44" s="324"/>
       <c r="E44" s="324"/>
@@ -31462,6 +31995,9 @@
       <c r="I44" s="324"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="318" t="s">
+        <v>694</v>
+      </c>
       <c r="C45" s="324"/>
       <c r="D45" s="324"/>
       <c r="E45" s="324"/>
@@ -31471,6 +32007,9 @@
       <c r="I45" s="324"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="318" t="s">
+        <v>695</v>
+      </c>
       <c r="C46" s="324"/>
       <c r="D46" s="324"/>
       <c r="E46" s="324"/>
@@ -31480,6 +32019,9 @@
       <c r="I46" s="324"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="318" t="s">
+        <v>696</v>
+      </c>
       <c r="C47" s="324"/>
       <c r="D47" s="324"/>
       <c r="E47" s="324"/>
@@ -31489,6 +32031,9 @@
       <c r="I47" s="324"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="318" t="s">
+        <v>697</v>
+      </c>
       <c r="C48" s="324"/>
       <c r="D48" s="324"/>
       <c r="E48" s="324"/>
@@ -31498,6 +32043,9 @@
       <c r="I48" s="324"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="318" t="s">
+        <v>698</v>
+      </c>
       <c r="C49" s="324"/>
       <c r="D49" s="324"/>
       <c r="E49" s="324"/>
@@ -31507,6 +32055,9 @@
       <c r="I49" s="324"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="318" t="s">
+        <v>699</v>
+      </c>
       <c r="C50" s="324"/>
       <c r="D50" s="324"/>
       <c r="E50" s="324"/>
@@ -31516,6 +32067,9 @@
       <c r="I50" s="324"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="318" t="s">
+        <v>700</v>
+      </c>
       <c r="C51" s="324"/>
       <c r="D51" s="324"/>
       <c r="E51" s="324"/>
@@ -31525,6 +32079,9 @@
       <c r="I51" s="324"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="318" t="s">
+        <v>701</v>
+      </c>
       <c r="C52" s="324"/>
       <c r="D52" s="324"/>
       <c r="E52" s="324"/>
@@ -31534,6 +32091,9 @@
       <c r="I52" s="324"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="318" t="s">
+        <v>702</v>
+      </c>
       <c r="C53" s="324"/>
       <c r="D53" s="324"/>
       <c r="E53" s="324"/>
@@ -31543,6 +32103,9 @@
       <c r="I53" s="324"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="318" t="s">
+        <v>703</v>
+      </c>
       <c r="C54" s="324"/>
       <c r="D54" s="324"/>
       <c r="E54" s="324"/>
@@ -31552,6 +32115,9 @@
       <c r="I54" s="324"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="318" t="s">
+        <v>704</v>
+      </c>
       <c r="C55" s="324"/>
       <c r="D55" s="324"/>
       <c r="E55" s="324"/>
@@ -31561,6 +32127,9 @@
       <c r="I55" s="324"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="318" t="s">
+        <v>705</v>
+      </c>
       <c r="C56" s="324"/>
       <c r="D56" s="324"/>
       <c r="E56" s="324"/>
@@ -31570,6 +32139,9 @@
       <c r="I56" s="324"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="318" t="s">
+        <v>706</v>
+      </c>
       <c r="C57" s="324"/>
       <c r="D57" s="324"/>
       <c r="E57" s="324"/>
@@ -31579,6 +32151,9 @@
       <c r="I57" s="324"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="318" t="s">
+        <v>707</v>
+      </c>
       <c r="C58" s="324"/>
       <c r="D58" s="324"/>
       <c r="E58" s="324"/>
@@ -31588,6 +32163,9 @@
       <c r="I58" s="324"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="318" t="s">
+        <v>708</v>
+      </c>
       <c r="C59" s="324"/>
       <c r="D59" s="324"/>
       <c r="E59" s="324"/>
@@ -31597,6 +32175,9 @@
       <c r="I59" s="324"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="318" t="s">
+        <v>709</v>
+      </c>
       <c r="C60" s="324"/>
       <c r="D60" s="324"/>
       <c r="E60" s="324"/>
@@ -31606,6 +32187,9 @@
       <c r="I60" s="324"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="318" t="s">
+        <v>710</v>
+      </c>
       <c r="C61" s="324"/>
       <c r="D61" s="324"/>
       <c r="E61" s="324"/>
@@ -31615,6 +32199,9 @@
       <c r="I61" s="324"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="318" t="s">
+        <v>711</v>
+      </c>
       <c r="C62" s="324"/>
       <c r="D62" s="324"/>
       <c r="E62" s="324"/>
@@ -31624,6 +32211,9 @@
       <c r="I62" s="324"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="318" t="s">
+        <v>712</v>
+      </c>
       <c r="C63" s="324"/>
       <c r="D63" s="324"/>
       <c r="E63" s="324"/>
@@ -31633,6 +32223,9 @@
       <c r="I63" s="324"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="318" t="s">
+        <v>713</v>
+      </c>
       <c r="C64" s="324"/>
       <c r="D64" s="324"/>
       <c r="E64" s="324"/>
@@ -31642,6 +32235,9 @@
       <c r="I64" s="324"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="318" t="s">
+        <v>714</v>
+      </c>
       <c r="C65" s="324"/>
       <c r="D65" s="324"/>
       <c r="E65" s="324"/>
@@ -31651,6 +32247,9 @@
       <c r="I65" s="324"/>
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="318" t="s">
+        <v>715</v>
+      </c>
       <c r="C66" s="143"/>
       <c r="D66" s="144"/>
       <c r="E66" s="144"/>
@@ -31659,7 +32258,376 @@
       <c r="H66" s="144"/>
       <c r="I66" s="157"/>
     </row>
-    <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="318" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="318" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="318" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="318" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="318" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="318" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="318" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="318" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="318" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="318" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="318" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="318" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="318" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="318" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="318" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="318" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="318" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="318" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="318" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="318" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="318" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="318" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="318" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="318" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="318" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="318" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="318" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="318" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="318" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="318" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="318" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="318" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="318" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="318" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="318" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="318" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="318" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="318" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="318" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="318" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="318" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="318" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="318" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="318" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="318" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="318" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="318" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="318" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="318" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="318" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="318" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="318" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="318" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="318" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="318" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="318" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="318" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="318" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="318" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="318" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="318" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="318" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="318" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="318" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="318" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="318" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="318" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="318" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="318" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="318" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="318" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="318" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="318" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="318" t="s">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:I2"/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -8957,9 +8957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>247320</xdr:colOff>
+      <xdr:colOff>246960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8973,7 +8973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="757080" cy="213480"/>
+          <a:ext cx="756720" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8994,9 +8994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9010,7 +9010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1100160" cy="213480"/>
+          <a:ext cx="1099800" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9031,9 +9031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9047,7 +9047,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1407240" cy="213480"/>
+          <a:ext cx="1406880" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9068,9 +9068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
+      <xdr:colOff>344160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9084,7 +9084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1731240" cy="213480"/>
+          <a:ext cx="1730880" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9105,9 +9105,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>275040</xdr:rowOff>
+      <xdr:rowOff>274680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9121,7 +9121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2038320" cy="226440"/>
+          <a:ext cx="2037960" cy="226080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9142,9 +9142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9158,7 +9158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2383200" cy="213480"/>
+          <a:ext cx="2382840" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9179,9 +9179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>100800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9195,7 +9195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2696400" cy="213480"/>
+          <a:ext cx="2696040" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9595,9 +9595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9607,7 +9607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6999480" cy="10062720"/>
+          <a:ext cx="6999120" cy="10062360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9693,9 +9693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9705,7 +9705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7016760" cy="266400"/>
+          <a:ext cx="7016400" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9759,9 +9759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433800</xdr:colOff>
+      <xdr:colOff>433440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9771,7 +9771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="795600" cy="267480"/>
+          <a:ext cx="795240" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9823,9 +9823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>196560</xdr:rowOff>
+      <xdr:rowOff>196200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9835,7 +9835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="795600" cy="267480"/>
+          <a:ext cx="795240" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22536,8 +22536,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M43" activeCellId="0" sqref="M43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2) E-luokka'!$B$1:$L$73</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$1:$J$94</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$J$79</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$1:$L$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$1:$M$59</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$1:$H$65</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$1:$H$66</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$J$67</definedName>
@@ -30,7 +30,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$1:$L$73</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'3) E-luvun laskennan lähtöt.'!$B$1:$J$94</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$J$79</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$1:$L$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$1:$M$59</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$1:$H$65</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$1:$H$66</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'8) lisämerkintöjä'!$B$1:$J$67</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="791">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -2192,6 +2192,29 @@
     <t xml:space="preserve">[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</t>
   </si>
   <si>
@@ -3365,7 +3388,7 @@
     <numFmt numFmtId="173" formatCode="#,##0.00"/>
     <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3618,6 +3641,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3985,7 +4023,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="340">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5058,6 +5096,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5082,7 +5124,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5174,7 +5216,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5250,11 +5292,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5351,7 +5393,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="493">
+  <dxfs count="492">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -7644,13 +7686,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
@@ -8957,9 +8992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
+      <xdr:colOff>246600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8973,7 +9008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="756720" cy="213120"/>
+          <a:ext cx="756360" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8994,9 +9029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
+      <xdr:colOff>146520</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9010,7 +9045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1099800" cy="213120"/>
+          <a:ext cx="1099440" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9031,9 +9066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9047,7 +9082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1406880" cy="213120"/>
+          <a:ext cx="1406520" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9068,9 +9103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>344160</xdr:colOff>
+      <xdr:colOff>343800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9084,7 +9119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1730880" cy="213120"/>
+          <a:ext cx="1730520" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9105,9 +9140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>217080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>274680</xdr:rowOff>
+      <xdr:rowOff>274320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9121,7 +9156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2037960" cy="226080"/>
+          <a:ext cx="2037600" cy="225720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9142,9 +9177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160560</xdr:colOff>
+      <xdr:colOff>160200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9158,7 +9193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2382840" cy="213120"/>
+          <a:ext cx="2382480" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9179,9 +9214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>100800</xdr:colOff>
+      <xdr:colOff>100440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9195,7 +9230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2696040" cy="213120"/>
+          <a:ext cx="2695680" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9595,9 +9630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
+      <xdr:colOff>316800</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9607,7 +9642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6999120" cy="10062360"/>
+          <a:ext cx="6998760" cy="10062000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9693,9 +9728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9705,7 +9740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7016400" cy="266040"/>
+          <a:ext cx="7016040" cy="265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9759,9 +9794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433440</xdr:colOff>
+      <xdr:colOff>433080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9771,7 +9806,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="795240" cy="267120"/>
+          <a:ext cx="794880" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9823,9 +9858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432360</xdr:colOff>
+      <xdr:colOff>432000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>196200</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9835,7 +9870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="795240" cy="267120"/>
+          <a:ext cx="794880" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22536,7 +22571,7 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -27522,10 +27557,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27533,12 +27568,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="90" width="61.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="26" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="26" width="2.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="26" width="0.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="26" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="26" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="26" width="2.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="26" width="0.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="26" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27555,12 +27591,13 @@
         <v>441</v>
       </c>
       <c r="E2" s="264"/>
-      <c r="F2" s="265"/>
+      <c r="F2" s="264"/>
       <c r="G2" s="265"/>
       <c r="H2" s="265"/>
       <c r="I2" s="265"/>
       <c r="J2" s="265"/>
-      <c r="K2" s="266"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="266"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
@@ -27570,13 +27607,14 @@
       <c r="D3" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="E3" s="267"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="267"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="98"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="98"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
@@ -27590,7 +27628,8 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="98"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="98"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
@@ -27601,12 +27640,13 @@
         <v>446</v>
       </c>
       <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="95"/>
       <c r="H5" s="95"/>
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
@@ -27620,39 +27660,46 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="98"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
         <v>448</v>
       </c>
       <c r="C7" s="97"/>
-      <c r="D7" s="61" t="str">
+      <c r="D7" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="29" t="str">
         <f aca="false">A2</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61281]</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="G7" s="268"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="98"/>
-      <c r="O7" s="29"/>
+      <c r="F7" s="268" t="s">
+        <v>449</v>
+      </c>
+      <c r="H7" s="269"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="98"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="98"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="98"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="14"/>
@@ -27662,954 +27709,998 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="98"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="98"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>452</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="269"/>
+        <v>453</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="270"/>
       <c r="H10" s="271"/>
-      <c r="I10" s="272" t="s">
+      <c r="I10" s="272"/>
+      <c r="J10" s="273" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="273" t="s">
+      <c r="K10" s="274" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="274"/>
+      <c r="L10" s="275"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="275"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="276"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="276"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="277"/>
-      <c r="K11" s="112"/>
+      <c r="K11" s="278"/>
+      <c r="L11" s="112"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C12" s="97"/>
-      <c r="D12" s="278" t="s">
-        <v>455</v>
-      </c>
-      <c r="E12" s="278"/>
+      <c r="D12" s="279" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" s="279"/>
       <c r="F12" s="279"/>
       <c r="G12" s="280"/>
       <c r="H12" s="281"/>
-      <c r="I12" s="282" t="str">
+      <c r="I12" s="282"/>
+      <c r="J12" s="283" t="str">
         <f aca="false">A4</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus]</v>
       </c>
-      <c r="J12" s="283" t="str">
+      <c r="K12" s="284" t="str">
         <f aca="false">A5</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K12" s="284"/>
-      <c r="Y12" s="23"/>
+      <c r="L12" s="285"/>
+      <c r="Z12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="278" t="s">
-        <v>457</v>
-      </c>
-      <c r="E13" s="278"/>
+      <c r="D13" s="279" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" s="279"/>
       <c r="F13" s="279"/>
       <c r="G13" s="280"/>
       <c r="H13" s="281"/>
-      <c r="I13" s="282" t="str">
+      <c r="I13" s="282"/>
+      <c r="J13" s="283" t="str">
         <f aca="false">A6</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus]</v>
       </c>
-      <c r="J13" s="283" t="str">
+      <c r="K13" s="284" t="str">
         <f aca="false">A7</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K13" s="284"/>
-      <c r="Y13" s="23"/>
+      <c r="L13" s="285"/>
+      <c r="Z13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C14" s="97"/>
-      <c r="D14" s="270" t="s">
-        <v>459</v>
-      </c>
-      <c r="E14" s="278"/>
+      <c r="D14" s="271" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" s="271"/>
       <c r="F14" s="279"/>
       <c r="G14" s="280"/>
       <c r="H14" s="281"/>
-      <c r="I14" s="282" t="str">
+      <c r="I14" s="282"/>
+      <c r="J14" s="283" t="str">
         <f aca="false">A8</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</v>
       </c>
-      <c r="J14" s="283" t="str">
+      <c r="K14" s="284" t="str">
         <f aca="false">A9</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K14" s="284"/>
-      <c r="Y14" s="23"/>
+      <c r="L14" s="285"/>
+      <c r="Z14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="270" t="s">
-        <v>461</v>
-      </c>
-      <c r="E15" s="278"/>
+      <c r="D15" s="271" t="s">
+        <v>462</v>
+      </c>
+      <c r="E15" s="271"/>
       <c r="F15" s="279"/>
       <c r="G15" s="280"/>
       <c r="H15" s="281"/>
-      <c r="I15" s="282" t="str">
+      <c r="I15" s="282"/>
+      <c r="J15" s="283" t="str">
         <f aca="false">A10</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus]</v>
       </c>
-      <c r="J15" s="283" t="str">
+      <c r="K15" s="284" t="str">
         <f aca="false">A11</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K15" s="284"/>
-      <c r="Y15" s="23"/>
+      <c r="L15" s="285"/>
+      <c r="Z15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C16" s="97"/>
-      <c r="D16" s="278" t="s">
+      <c r="D16" s="279" t="s">
         <v>351</v>
       </c>
-      <c r="E16" s="278"/>
-      <c r="F16" s="278"/>
-      <c r="G16" s="278"/>
-      <c r="H16" s="278"/>
-      <c r="I16" s="282" t="str">
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="283" t="str">
         <f aca="false">A12</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus]</v>
       </c>
-      <c r="J16" s="283" t="str">
+      <c r="K16" s="284" t="str">
         <f aca="false">A13</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K16" s="284"/>
-      <c r="Y16" s="23"/>
+      <c r="L16" s="285"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C17" s="97"/>
-      <c r="D17" s="285" t="str">
+      <c r="D17" s="286" t="str">
         <f aca="false">A14</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :nimi-fi]</v>
       </c>
-      <c r="E17" s="285"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="285"/>
-      <c r="H17" s="285"/>
-      <c r="I17" s="282" t="str">
+      <c r="E17" s="286"/>
+      <c r="F17" s="286"/>
+      <c r="G17" s="286"/>
+      <c r="H17" s="286"/>
+      <c r="I17" s="286"/>
+      <c r="J17" s="283" t="str">
         <f aca="false">A16</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :vuosikulutus]</v>
       </c>
-      <c r="J17" s="283" t="str">
+      <c r="K17" s="284" t="str">
         <f aca="false">A17</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K17" s="284"/>
-      <c r="Y17" s="23"/>
+      <c r="L17" s="285"/>
+      <c r="Z17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C18" s="97"/>
-      <c r="D18" s="285" t="str">
+      <c r="D18" s="286" t="str">
         <f aca="false">A18</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :nimi-fi]</v>
       </c>
-      <c r="E18" s="285"/>
-      <c r="F18" s="285"/>
-      <c r="G18" s="285"/>
-      <c r="H18" s="285"/>
-      <c r="I18" s="282" t="str">
+      <c r="E18" s="286"/>
+      <c r="F18" s="286"/>
+      <c r="G18" s="286"/>
+      <c r="H18" s="286"/>
+      <c r="I18" s="286"/>
+      <c r="J18" s="283" t="str">
         <f aca="false">A20</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :vuosikulutus]</v>
       </c>
-      <c r="J18" s="283" t="str">
+      <c r="K18" s="284" t="str">
         <f aca="false">A21</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K18" s="284"/>
-      <c r="Y18" s="23"/>
+      <c r="L18" s="285"/>
+      <c r="Z18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C19" s="97"/>
-      <c r="D19" s="285" t="str">
+      <c r="D19" s="286" t="str">
         <f aca="false">A22</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :nimi-fi]</v>
       </c>
-      <c r="E19" s="285"/>
-      <c r="F19" s="285"/>
-      <c r="G19" s="285"/>
-      <c r="H19" s="285"/>
-      <c r="I19" s="282" t="str">
+      <c r="E19" s="286"/>
+      <c r="F19" s="286"/>
+      <c r="G19" s="286"/>
+      <c r="H19" s="286"/>
+      <c r="I19" s="286"/>
+      <c r="J19" s="283" t="str">
         <f aca="false">A24</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :vuosikulutus]</v>
       </c>
-      <c r="J19" s="283" t="str">
+      <c r="K19" s="284" t="str">
         <f aca="false">A25</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K19" s="284"/>
-      <c r="Y19" s="23"/>
+      <c r="L19" s="285"/>
+      <c r="Z19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C20" s="97"/>
-      <c r="D20" s="285" t="str">
+      <c r="D20" s="286" t="str">
         <f aca="false">A26</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :nimi-fi]</v>
       </c>
-      <c r="E20" s="285"/>
-      <c r="F20" s="285"/>
-      <c r="G20" s="285"/>
-      <c r="H20" s="285"/>
-      <c r="I20" s="282" t="str">
+      <c r="E20" s="286"/>
+      <c r="F20" s="286"/>
+      <c r="G20" s="286"/>
+      <c r="H20" s="286"/>
+      <c r="I20" s="286"/>
+      <c r="J20" s="283" t="str">
         <f aca="false">A28</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :vuosikulutus]</v>
       </c>
-      <c r="J20" s="283" t="str">
+      <c r="K20" s="284" t="str">
         <f aca="false">A29</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K20" s="284"/>
-      <c r="Y20" s="23"/>
+      <c r="L20" s="285"/>
+      <c r="Z20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C21" s="97"/>
-      <c r="D21" s="285" t="str">
+      <c r="D21" s="286" t="str">
         <f aca="false">A30</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :nimi-fi]</v>
       </c>
-      <c r="E21" s="285"/>
-      <c r="F21" s="285"/>
-      <c r="G21" s="285"/>
-      <c r="H21" s="285"/>
-      <c r="I21" s="282" t="str">
+      <c r="E21" s="286"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="286"/>
+      <c r="H21" s="286"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="283" t="str">
         <f aca="false">A32</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :vuosikulutus]</v>
       </c>
-      <c r="J21" s="283" t="str">
+      <c r="K21" s="284" t="str">
         <f aca="false">A33</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K21" s="284"/>
-      <c r="Y21" s="23"/>
+      <c r="L21" s="285"/>
+      <c r="Z21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C22" s="97"/>
-      <c r="D22" s="286"/>
-      <c r="E22" s="286"/>
-      <c r="F22" s="286"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="286"/>
+      <c r="D22" s="287"/>
+      <c r="E22" s="287"/>
+      <c r="F22" s="287"/>
+      <c r="G22" s="287"/>
+      <c r="H22" s="287"/>
       <c r="I22" s="287"/>
-      <c r="J22" s="288" t="str">
-        <f aca="false">IF(AND(I22&lt;&gt;0,ISNUMBER(I22/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I22/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
+      <c r="J22" s="288"/>
+      <c r="K22" s="289" t="str">
+        <f aca="false">IF(AND(J22&lt;&gt;0,ISNUMBER(J22/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(J22/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K22" s="289"/>
-      <c r="Y22" s="23"/>
+      <c r="L22" s="290"/>
+      <c r="Z22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C23" s="97"/>
-      <c r="D23" s="290"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="279"/>
+      <c r="D23" s="291"/>
+      <c r="E23" s="291"/>
+      <c r="F23" s="291"/>
       <c r="G23" s="280"/>
-      <c r="H23" s="279"/>
-      <c r="I23" s="291"/>
+      <c r="H23" s="281"/>
+      <c r="I23" s="280"/>
       <c r="J23" s="292"/>
-      <c r="K23" s="284"/>
-      <c r="Y23" s="23"/>
+      <c r="K23" s="293"/>
+      <c r="L23" s="285"/>
+      <c r="Z23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C24" s="97"/>
-      <c r="D24" s="293" t="s">
-        <v>471</v>
-      </c>
-      <c r="E24" s="293"/>
-      <c r="F24" s="294" t="s">
+      <c r="D24" s="294" t="s">
         <v>472</v>
       </c>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
       <c r="G24" s="295" t="s">
         <v>473</v>
       </c>
-      <c r="H24" s="294" t="s">
+      <c r="H24" s="296" t="s">
         <v>474</v>
       </c>
       <c r="I24" s="295" t="s">
+        <v>475</v>
+      </c>
+      <c r="J24" s="296" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="296" t="s">
+      <c r="K24" s="297" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="297"/>
-      <c r="Y24" s="23"/>
+      <c r="L24" s="298"/>
+      <c r="Z24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
-      <c r="F25" s="298"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="299"/>
-      <c r="H25" s="272"/>
-      <c r="I25" s="272"/>
-      <c r="J25" s="300"/>
-      <c r="K25" s="274"/>
-      <c r="Y25" s="23"/>
+      <c r="H25" s="300"/>
+      <c r="I25" s="273"/>
+      <c r="J25" s="273"/>
+      <c r="K25" s="301"/>
+      <c r="L25" s="275"/>
+      <c r="Z25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C26" s="97"/>
-      <c r="D26" s="278" t="s">
-        <v>477</v>
-      </c>
-      <c r="E26" s="278"/>
-      <c r="F26" s="282" t="str">
+      <c r="D26" s="279" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="283" t="str">
         <f aca="false">A34</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
-      <c r="G26" s="299" t="s">
-        <v>478</v>
-      </c>
-      <c r="H26" s="272" t="n">
+      <c r="H26" s="300" t="s">
+        <v>479</v>
+      </c>
+      <c r="I26" s="273" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="301" t="str">
+      <c r="J26" s="302" t="str">
         <f aca="false">A35</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh]</v>
       </c>
-      <c r="J26" s="283" t="str">
+      <c r="K26" s="284" t="str">
         <f aca="false">A36</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh-nettoala]</v>
       </c>
-      <c r="K26" s="302"/>
-      <c r="Y26" s="23"/>
+      <c r="L26" s="303"/>
+      <c r="Z26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C27" s="97"/>
-      <c r="D27" s="278" t="s">
-        <v>480</v>
-      </c>
-      <c r="E27" s="278"/>
-      <c r="F27" s="282" t="str">
+      <c r="D27" s="279" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="283" t="str">
         <f aca="false">A37</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
-      <c r="G27" s="299" t="s">
-        <v>481</v>
-      </c>
-      <c r="H27" s="272" t="n">
+      <c r="H27" s="300" t="s">
+        <v>482</v>
+      </c>
+      <c r="I27" s="273" t="n">
         <v>1300</v>
       </c>
-      <c r="I27" s="301" t="str">
+      <c r="J27" s="302" t="str">
         <f aca="false">A38</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh]</v>
       </c>
-      <c r="J27" s="283" t="str">
+      <c r="K27" s="284" t="str">
         <f aca="false">A39</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh-nettoala]</v>
       </c>
-      <c r="K27" s="302"/>
-      <c r="Y27" s="23"/>
+      <c r="L27" s="303"/>
+      <c r="Z27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C28" s="97"/>
-      <c r="D28" s="278" t="s">
-        <v>483</v>
-      </c>
-      <c r="E28" s="278"/>
-      <c r="F28" s="282" t="str">
+      <c r="D28" s="279" t="s">
+        <v>484</v>
+      </c>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="283" t="str">
         <f aca="false">A40</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
-      <c r="G28" s="299" t="s">
-        <v>481</v>
-      </c>
-      <c r="H28" s="272" t="n">
+      <c r="H28" s="300" t="s">
+        <v>482</v>
+      </c>
+      <c r="I28" s="273" t="n">
         <v>1700</v>
       </c>
-      <c r="I28" s="301" t="str">
+      <c r="J28" s="302" t="str">
         <f aca="false">A41</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh]</v>
       </c>
-      <c r="J28" s="283" t="str">
+      <c r="K28" s="284" t="str">
         <f aca="false">A42</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh-nettoala]</v>
       </c>
-      <c r="K28" s="302"/>
-      <c r="Y28" s="23"/>
+      <c r="L28" s="303"/>
+      <c r="Z28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C29" s="97"/>
-      <c r="D29" s="278" t="s">
-        <v>485</v>
-      </c>
-      <c r="E29" s="278"/>
-      <c r="F29" s="282" t="str">
+      <c r="D29" s="279" t="s">
+        <v>486</v>
+      </c>
+      <c r="E29" s="279"/>
+      <c r="F29" s="279"/>
+      <c r="G29" s="283" t="str">
         <f aca="false">A43</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
-      <c r="G29" s="299" t="s">
-        <v>486</v>
-      </c>
-      <c r="H29" s="272" t="n">
+      <c r="H29" s="300" t="s">
+        <v>487</v>
+      </c>
+      <c r="I29" s="273" t="n">
         <v>4.7</v>
       </c>
-      <c r="I29" s="301" t="str">
+      <c r="J29" s="302" t="str">
         <f aca="false">A44</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh]</v>
       </c>
-      <c r="J29" s="283" t="str">
+      <c r="K29" s="284" t="str">
         <f aca="false">A45</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh-nettoala]</v>
       </c>
-      <c r="K29" s="302"/>
-      <c r="Y29" s="23"/>
+      <c r="L29" s="303"/>
+      <c r="Z29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C30" s="97"/>
-      <c r="D30" s="303" t="str">
+      <c r="D30" s="304" t="str">
         <f aca="false">A46</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :nimi]</v>
       </c>
-      <c r="E30" s="303"/>
-      <c r="F30" s="282" t="str">
+      <c r="E30" s="304"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="283" t="str">
         <f aca="false">A47</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :maara-vuodessa]</v>
       </c>
-      <c r="G30" s="304" t="str">
+      <c r="H30" s="305" t="str">
         <f aca="false">A48</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :yksikko]</v>
       </c>
-      <c r="H30" s="305" t="str">
+      <c r="I30" s="306" t="str">
         <f aca="false">A49</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :muunnoskerroin]</v>
       </c>
-      <c r="I30" s="301" t="str">
+      <c r="J30" s="302" t="str">
         <f aca="false">A50</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh]</v>
       </c>
-      <c r="J30" s="283" t="str">
+      <c r="K30" s="284" t="str">
         <f aca="false">A51</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh-nettoala]</v>
       </c>
-      <c r="K30" s="302"/>
-      <c r="Y30" s="23"/>
+      <c r="L30" s="303"/>
+      <c r="Z30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C31" s="97"/>
-      <c r="D31" s="303" t="str">
+      <c r="D31" s="304" t="str">
         <f aca="false">A52</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :nimi]</v>
       </c>
-      <c r="E31" s="303"/>
-      <c r="F31" s="282" t="str">
+      <c r="E31" s="304"/>
+      <c r="F31" s="304"/>
+      <c r="G31" s="283" t="str">
         <f aca="false">A53</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :maara-vuodessa]</v>
       </c>
-      <c r="G31" s="304" t="str">
+      <c r="H31" s="305" t="str">
         <f aca="false">A54</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :yksikko]</v>
       </c>
-      <c r="H31" s="305" t="str">
+      <c r="I31" s="306" t="str">
         <f aca="false">A55</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :muunnoskerroin]</v>
       </c>
-      <c r="I31" s="301" t="str">
+      <c r="J31" s="302" t="str">
         <f aca="false">A56</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh]</v>
       </c>
-      <c r="J31" s="283" t="str">
+      <c r="K31" s="284" t="str">
         <f aca="false">A57</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh-nettoala]</v>
       </c>
-      <c r="K31" s="302"/>
-      <c r="Y31" s="23"/>
+      <c r="L31" s="303"/>
+      <c r="Z31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C32" s="97"/>
-      <c r="D32" s="306"/>
-      <c r="E32" s="306"/>
-      <c r="F32" s="282"/>
-      <c r="G32" s="307"/>
-      <c r="H32" s="305"/>
-      <c r="I32" s="301" t="str">
-        <f aca="false">IF(ISNUMBER(H32*F32),IF(H32*F32&lt;&gt;0,CEILING(H32*F32,1),""),"")</f>
+      <c r="D32" s="307"/>
+      <c r="E32" s="307"/>
+      <c r="F32" s="307"/>
+      <c r="G32" s="283"/>
+      <c r="H32" s="308"/>
+      <c r="I32" s="306"/>
+      <c r="J32" s="302" t="str">
+        <f aca="false">IF(ISNUMBER(I32*G32),IF(I32*G32&lt;&gt;0,CEILING(I32*G32,1),""),"")</f>
         <v/>
       </c>
-      <c r="J32" s="283" t="str">
-        <f aca="false">IF(AND(I32&lt;&gt;0,ISNUMBER(I32/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I32/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
+      <c r="K32" s="284" t="str">
+        <f aca="false">IF(AND(J32&lt;&gt;0,ISNUMBER(J32/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(J32/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K32" s="302"/>
-      <c r="Y32" s="23"/>
+      <c r="L32" s="303"/>
+      <c r="Z32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C33" s="97"/>
-      <c r="D33" s="306"/>
-      <c r="E33" s="306"/>
-      <c r="F33" s="282"/>
-      <c r="G33" s="307"/>
-      <c r="H33" s="305"/>
-      <c r="I33" s="301" t="str">
-        <f aca="false">IF(ISNUMBER(H33*F33),IF(H33*F33&lt;&gt;0,CEILING(H33*F33,1),""),"")</f>
+      <c r="D33" s="307"/>
+      <c r="E33" s="307"/>
+      <c r="F33" s="307"/>
+      <c r="G33" s="283"/>
+      <c r="H33" s="308"/>
+      <c r="I33" s="306"/>
+      <c r="J33" s="302" t="str">
+        <f aca="false">IF(ISNUMBER(I33*G33),IF(I33*G33&lt;&gt;0,CEILING(I33*G33,1),""),"")</f>
         <v/>
       </c>
-      <c r="J33" s="283" t="str">
-        <f aca="false">IF(AND(I33&lt;&gt;0,ISNUMBER(I33/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I33/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
+      <c r="K33" s="284" t="str">
+        <f aca="false">IF(AND(J33&lt;&gt;0,ISNUMBER(J33/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(J33/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K33" s="302"/>
-      <c r="Y33" s="23"/>
+      <c r="L33" s="303"/>
+      <c r="Z33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C34" s="97"/>
-      <c r="D34" s="306"/>
-      <c r="E34" s="306"/>
-      <c r="F34" s="282"/>
-      <c r="G34" s="307"/>
-      <c r="H34" s="305"/>
-      <c r="I34" s="301" t="str">
-        <f aca="false">IF(ISNUMBER(H34*F34),IF(H34*F34&lt;&gt;0,CEILING(H34*F34,1),""),"")</f>
+      <c r="D34" s="307"/>
+      <c r="E34" s="307"/>
+      <c r="F34" s="307"/>
+      <c r="G34" s="283"/>
+      <c r="H34" s="308"/>
+      <c r="I34" s="306"/>
+      <c r="J34" s="302" t="str">
+        <f aca="false">IF(ISNUMBER(I34*G34),IF(I34*G34&lt;&gt;0,CEILING(I34*G34,1),""),"")</f>
         <v/>
       </c>
-      <c r="J34" s="283" t="str">
-        <f aca="false">IF(AND(I34&lt;&gt;0,ISNUMBER(I34/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I34/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
+      <c r="K34" s="284" t="str">
+        <f aca="false">IF(AND(J34&lt;&gt;0,ISNUMBER(J34/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(J34/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K34" s="302"/>
-      <c r="Y34" s="23"/>
+      <c r="L34" s="303"/>
+      <c r="Z34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C35" s="97"/>
-      <c r="D35" s="306"/>
-      <c r="E35" s="306"/>
-      <c r="F35" s="282"/>
-      <c r="G35" s="307"/>
-      <c r="H35" s="305"/>
-      <c r="I35" s="301" t="str">
-        <f aca="false">IF(ISNUMBER(H35*F35),IF(H35*F35&lt;&gt;0,CEILING(H35*F35,1),""),"")</f>
+      <c r="D35" s="307"/>
+      <c r="E35" s="307"/>
+      <c r="F35" s="307"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="308"/>
+      <c r="I35" s="306"/>
+      <c r="J35" s="302" t="str">
+        <f aca="false">IF(ISNUMBER(I35*G35),IF(I35*G35&lt;&gt;0,CEILING(I35*G35,1),""),"")</f>
         <v/>
       </c>
-      <c r="J35" s="283" t="str">
-        <f aca="false">IF(AND(I35&lt;&gt;0,ISNUMBER(I35/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I35/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
+      <c r="K35" s="284" t="str">
+        <f aca="false">IF(AND(J35&lt;&gt;0,ISNUMBER(J35/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(J35/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K35" s="302"/>
-      <c r="Y35" s="23"/>
+      <c r="L35" s="303"/>
+      <c r="Z35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C36" s="97"/>
-      <c r="D36" s="306"/>
-      <c r="E36" s="306"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="307"/>
-      <c r="H36" s="305"/>
-      <c r="I36" s="301" t="str">
-        <f aca="false">IF(ISNUMBER(H36*F36),IF(H36*F36&lt;&gt;0,CEILING(H36*F36,1),""),"")</f>
+      <c r="D36" s="307"/>
+      <c r="E36" s="307"/>
+      <c r="F36" s="307"/>
+      <c r="G36" s="283"/>
+      <c r="H36" s="308"/>
+      <c r="I36" s="306"/>
+      <c r="J36" s="302" t="str">
+        <f aca="false">IF(ISNUMBER(I36*G36),IF(I36*G36&lt;&gt;0,CEILING(I36*G36,1),""),"")</f>
         <v/>
       </c>
-      <c r="J36" s="283" t="str">
-        <f aca="false">IF(AND(I36&lt;&gt;0,ISNUMBER(I36/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I36/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
+      <c r="K36" s="284" t="str">
+        <f aca="false">IF(AND(J36&lt;&gt;0,ISNUMBER(J36/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(J36/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K36" s="302"/>
-      <c r="Y36" s="23"/>
+      <c r="L36" s="303"/>
+      <c r="Z36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C37" s="97"/>
-      <c r="D37" s="306"/>
-      <c r="E37" s="306"/>
-      <c r="F37" s="282"/>
-      <c r="G37" s="307"/>
-      <c r="H37" s="305"/>
-      <c r="I37" s="301" t="str">
-        <f aca="false">IF(ISNUMBER(H37*F37),IF(H37*F37&lt;&gt;0,CEILING(H37*F37,1),""),"")</f>
+      <c r="D37" s="307"/>
+      <c r="E37" s="307"/>
+      <c r="F37" s="307"/>
+      <c r="G37" s="283"/>
+      <c r="H37" s="308"/>
+      <c r="I37" s="306"/>
+      <c r="J37" s="302" t="str">
+        <f aca="false">IF(ISNUMBER(I37*G37),IF(I37*G37&lt;&gt;0,CEILING(I37*G37,1),""),"")</f>
         <v/>
       </c>
-      <c r="J37" s="283" t="str">
-        <f aca="false">IF(AND(I37&lt;&gt;0,ISNUMBER(I37/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I37/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
+      <c r="K37" s="284" t="str">
+        <f aca="false">IF(AND(J37&lt;&gt;0,ISNUMBER(J37/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(J37/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K37" s="302"/>
-      <c r="Y37" s="23"/>
+      <c r="L37" s="303"/>
+      <c r="Z37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C38" s="97"/>
-      <c r="D38" s="306"/>
-      <c r="E38" s="306"/>
-      <c r="F38" s="282"/>
-      <c r="G38" s="307"/>
-      <c r="H38" s="305"/>
-      <c r="I38" s="301" t="str">
-        <f aca="false">IF(ISNUMBER(H38*F38),IF(H38*F38&lt;&gt;0,CEILING(H38*F38,1),""),"")</f>
+      <c r="D38" s="307"/>
+      <c r="E38" s="307"/>
+      <c r="F38" s="307"/>
+      <c r="G38" s="283"/>
+      <c r="H38" s="308"/>
+      <c r="I38" s="306"/>
+      <c r="J38" s="302" t="str">
+        <f aca="false">IF(ISNUMBER(I38*G38),IF(I38*G38&lt;&gt;0,CEILING(I38*G38,1),""),"")</f>
         <v/>
       </c>
-      <c r="J38" s="283" t="str">
-        <f aca="false">IF(AND(I38&lt;&gt;0,ISNUMBER(I38/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I38/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
+      <c r="K38" s="284" t="str">
+        <f aca="false">IF(AND(J38&lt;&gt;0,ISNUMBER(J38/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(J38/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K38" s="302"/>
-      <c r="Y38" s="23"/>
+      <c r="L38" s="303"/>
+      <c r="Z38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C39" s="97"/>
-      <c r="D39" s="306"/>
-      <c r="E39" s="306"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="307"/>
-      <c r="H39" s="305"/>
-      <c r="I39" s="301" t="str">
-        <f aca="false">IF(ISNUMBER(H39*F39),IF(H39*F39&lt;&gt;0,CEILING(H39*F39,1),""),"")</f>
+      <c r="D39" s="307"/>
+      <c r="E39" s="307"/>
+      <c r="F39" s="307"/>
+      <c r="G39" s="283"/>
+      <c r="H39" s="308"/>
+      <c r="I39" s="306"/>
+      <c r="J39" s="302" t="str">
+        <f aca="false">IF(ISNUMBER(I39*G39),IF(I39*G39&lt;&gt;0,CEILING(I39*G39,1),""),"")</f>
         <v/>
       </c>
-      <c r="J39" s="283" t="str">
-        <f aca="false">IF(AND(I39&lt;&gt;0,ISNUMBER(I39/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I39/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
+      <c r="K39" s="284" t="str">
+        <f aca="false">IF(AND(J39&lt;&gt;0,ISNUMBER(J39/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(J39/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K39" s="302"/>
-      <c r="Y39" s="23"/>
+      <c r="L39" s="303"/>
+      <c r="Z39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C40" s="97"/>
-      <c r="D40" s="290"/>
-      <c r="E40" s="290"/>
-      <c r="F40" s="279"/>
+      <c r="D40" s="291"/>
+      <c r="E40" s="291"/>
+      <c r="F40" s="291"/>
       <c r="G40" s="280"/>
-      <c r="H40" s="279"/>
-      <c r="I40" s="291"/>
+      <c r="H40" s="281"/>
+      <c r="I40" s="280"/>
       <c r="J40" s="292"/>
-      <c r="K40" s="284"/>
-      <c r="Y40" s="23"/>
+      <c r="K40" s="293"/>
+      <c r="L40" s="285"/>
+      <c r="Z40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C41" s="97"/>
-      <c r="D41" s="308" t="s">
-        <v>499</v>
-      </c>
-      <c r="E41" s="290"/>
-      <c r="F41" s="279"/>
+      <c r="D41" s="309" t="s">
+        <v>500</v>
+      </c>
+      <c r="E41" s="309"/>
+      <c r="F41" s="291"/>
       <c r="G41" s="280"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="291"/>
+      <c r="H41" s="281"/>
+      <c r="I41" s="280"/>
       <c r="J41" s="292"/>
-      <c r="K41" s="284"/>
-      <c r="Y41" s="23"/>
+      <c r="K41" s="293"/>
+      <c r="L41" s="285"/>
+      <c r="Z41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C42" s="97"/>
-      <c r="D42" s="309"/>
-      <c r="E42" s="309"/>
+      <c r="D42" s="310"/>
+      <c r="E42" s="310"/>
       <c r="F42" s="310"/>
       <c r="G42" s="311"/>
-      <c r="H42" s="310"/>
-      <c r="I42" s="312"/>
+      <c r="H42" s="312"/>
+      <c r="I42" s="311"/>
       <c r="J42" s="313"/>
-      <c r="K42" s="289"/>
-      <c r="Y42" s="23"/>
+      <c r="K42" s="314"/>
+      <c r="L42" s="290"/>
+      <c r="Z42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C43" s="97"/>
-      <c r="D43" s="290"/>
-      <c r="E43" s="290"/>
-      <c r="F43" s="279"/>
+      <c r="D43" s="291"/>
+      <c r="E43" s="291"/>
+      <c r="F43" s="291"/>
       <c r="G43" s="280"/>
-      <c r="H43" s="279"/>
-      <c r="I43" s="291"/>
+      <c r="H43" s="281"/>
+      <c r="I43" s="280"/>
       <c r="J43" s="292"/>
-      <c r="K43" s="284"/>
-      <c r="Y43" s="23"/>
+      <c r="K43" s="293"/>
+      <c r="L43" s="285"/>
+      <c r="Z43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="E44" s="290"/>
-      <c r="F44" s="279"/>
+        <v>504</v>
+      </c>
+      <c r="E44" s="61"/>
+      <c r="F44" s="291"/>
       <c r="G44" s="280"/>
-      <c r="H44" s="279"/>
-      <c r="I44" s="291"/>
+      <c r="H44" s="281"/>
+      <c r="I44" s="280"/>
       <c r="J44" s="292"/>
-      <c r="K44" s="284"/>
-      <c r="Y44" s="23"/>
+      <c r="K44" s="293"/>
+      <c r="L44" s="285"/>
+      <c r="Z44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
-      <c r="E45" s="290"/>
-      <c r="F45" s="279"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="291"/>
       <c r="G45" s="280"/>
-      <c r="H45" s="279"/>
-      <c r="I45" s="291"/>
+      <c r="H45" s="281"/>
+      <c r="I45" s="280"/>
       <c r="J45" s="292"/>
-      <c r="K45" s="284"/>
-      <c r="Y45" s="23"/>
+      <c r="K45" s="293"/>
+      <c r="L45" s="285"/>
+      <c r="Z45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
-      <c r="E46" s="290"/>
-      <c r="F46" s="279"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="291"/>
       <c r="G46" s="280"/>
-      <c r="H46" s="279"/>
-      <c r="I46" s="272" t="s">
+      <c r="H46" s="281"/>
+      <c r="I46" s="280"/>
+      <c r="J46" s="273" t="s">
         <v>106</v>
       </c>
-      <c r="J46" s="273" t="s">
+      <c r="K46" s="274" t="s">
         <v>107</v>
       </c>
-      <c r="K46" s="274"/>
-      <c r="Y46" s="23"/>
+      <c r="L46" s="275"/>
+      <c r="Z46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="314"/>
+      <c r="F47" s="23"/>
       <c r="G47" s="315"/>
-      <c r="H47" s="315"/>
-      <c r="I47" s="282" t="str">
+      <c r="H47" s="316"/>
+      <c r="I47" s="316"/>
+      <c r="J47" s="283" t="str">
         <f aca="false">A58</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J47" s="283" t="str">
+      <c r="K47" s="284" t="str">
         <f aca="false">A59</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K47" s="284"/>
-      <c r="Y47" s="23"/>
+      <c r="L47" s="285"/>
+      <c r="Z47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E48" s="23"/>
-      <c r="F48" s="314"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="315"/>
-      <c r="H48" s="315"/>
-      <c r="I48" s="282" t="str">
+      <c r="H48" s="316"/>
+      <c r="I48" s="316"/>
+      <c r="J48" s="283" t="str">
         <f aca="false">A60</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J48" s="283" t="str">
+      <c r="K48" s="284" t="str">
         <f aca="false">A61</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K48" s="284"/>
-      <c r="Y48" s="23"/>
+      <c r="L48" s="285"/>
+      <c r="Z48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E49" s="23"/>
-      <c r="F49" s="314"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="315"/>
-      <c r="H49" s="315"/>
-      <c r="I49" s="282" t="str">
+      <c r="H49" s="316"/>
+      <c r="I49" s="316"/>
+      <c r="J49" s="283" t="str">
         <f aca="false">A62</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J49" s="283" t="str">
+      <c r="K49" s="284" t="str">
         <f aca="false">A63</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K49" s="284"/>
-      <c r="Y49" s="23"/>
+      <c r="L49" s="285"/>
+      <c r="Z49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
         <v>351</v>
       </c>
       <c r="E50" s="23"/>
-      <c r="F50" s="314"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="315"/>
-      <c r="H50" s="315"/>
-      <c r="I50" s="282" t="str">
+      <c r="H50" s="316"/>
+      <c r="I50" s="316"/>
+      <c r="J50" s="283" t="str">
         <f aca="false">A64</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J50" s="283" t="str">
+      <c r="K50" s="284" t="str">
         <f aca="false">A65</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K50" s="284"/>
-      <c r="Y50" s="23"/>
+      <c r="L50" s="285"/>
+      <c r="Z50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
         <v>343</v>
       </c>
       <c r="E51" s="61"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="38"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="301" t="str">
+      <c r="I51" s="38"/>
+      <c r="J51" s="302" t="str">
         <f aca="false">A66</f>
         <v>[:toteutunut-ostoenergiankulutus :summa]</v>
       </c>
-      <c r="J51" s="283" t="str">
+      <c r="K51" s="284" t="str">
         <f aca="false">A67</f>
         <v>[:toteutunut-ostoenergiankulutus :summa-nettoala]</v>
       </c>
-      <c r="K51" s="316"/>
+      <c r="L51" s="317"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="38"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
-      <c r="K52" s="112"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="112"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="142" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E53" s="142"/>
       <c r="F53" s="142"/>
@@ -28617,11 +28708,12 @@
       <c r="H53" s="142"/>
       <c r="I53" s="142"/>
       <c r="J53" s="142"/>
-      <c r="K53" s="129"/>
+      <c r="K53" s="142"/>
+      <c r="L53" s="129"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="142"/>
@@ -28631,11 +28723,12 @@
       <c r="H54" s="142"/>
       <c r="I54" s="142"/>
       <c r="J54" s="142"/>
-      <c r="K54" s="129"/>
+      <c r="K54" s="142"/>
+      <c r="L54" s="129"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="142"/>
@@ -28645,11 +28738,12 @@
       <c r="H55" s="142"/>
       <c r="I55" s="142"/>
       <c r="J55" s="142"/>
-      <c r="K55" s="129"/>
+      <c r="K55" s="142"/>
+      <c r="L55" s="129"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="142"/>
@@ -28659,11 +28753,12 @@
       <c r="H56" s="142"/>
       <c r="I56" s="142"/>
       <c r="J56" s="142"/>
-      <c r="K56" s="129"/>
+      <c r="K56" s="142"/>
+      <c r="L56" s="129"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="142"/>
@@ -28673,11 +28768,12 @@
       <c r="H57" s="142"/>
       <c r="I57" s="142"/>
       <c r="J57" s="142"/>
-      <c r="K57" s="129"/>
+      <c r="K57" s="142"/>
+      <c r="L57" s="129"/>
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C58" s="143"/>
       <c r="D58" s="144"/>
@@ -28687,100 +28783,101 @@
       <c r="H58" s="144"/>
       <c r="I58" s="144"/>
       <c r="J58" s="144"/>
-      <c r="K58" s="317"/>
-      <c r="L58" s="146"/>
+      <c r="K58" s="144"/>
+      <c r="L58" s="318"/>
+      <c r="M58" s="146"/>
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D53:J57"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D53:K57"/>
   </mergeCells>
-  <conditionalFormatting sqref="L51:IV52 L12:X27 Z12:IV27 R58:IV59 L58:Q58 Z47:IV50 L47:X50 K5:K9 D10 I10 C60:IV65516 C2:K4 C59:K59 C5:J6 C9:J9 F11:I11 C51:F52 G12 L2:IV6 L35:IV46 C35:C46 F40:F46 H40:H46 C47:E50 C8:E8 G8:J8 L8:IV11 L7:N7 P7:IV7 I26:J45">
+  <conditionalFormatting sqref="M51:IW52 M12:Y27 AA12:IW27 S58:IW59 M58:R58 AA47:IW50 M47:Y50 L5:L9 D10:E10 J10 C60:IW65516 C2:L4 C59:L59 C5:K6 C9:K9 G11:J11 C51:G52 H12 M2:IW6 M35:IW46 C35:C46 G40:G46 I40:I46 C47:F50 C8:F8 H8:K8 M8:IW11 M7:O7 Q7:IW7 J26:K45">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7 J7">
+  <conditionalFormatting sqref="C7 K7">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:H51">
+  <conditionalFormatting sqref="H51:I51">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52:J52">
+  <conditionalFormatting sqref="H52:K52">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
+  <conditionalFormatting sqref="K10:K11">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:E56 C57 K53:IV57">
+  <conditionalFormatting sqref="C53:F56 C57 L53:IW57">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
       <formula>"*"</formula>
     </cfRule>
@@ -28790,42 +28887,42 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
+  <conditionalFormatting sqref="H27:I27">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58:J58">
+  <conditionalFormatting sqref="C58:K58">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
+  <conditionalFormatting sqref="M59">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M59:Q59">
+  <conditionalFormatting sqref="N59:R59">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12:Y27 Y47:Y50">
+  <conditionalFormatting sqref="Z12:Z27 Z47:Z50">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28 D35:E43 G35:G46">
+  <conditionalFormatting sqref="D28:F28 D35:F43 H35:H46">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
       <formula>LEFT(D28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27">
+  <conditionalFormatting sqref="D27:F27">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
       <formula>LEFT(D27,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:X30 Z28:IV30">
+  <conditionalFormatting sqref="M28:Y30 AA28:IW30">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
       <formula>"*"</formula>
     </cfRule>
@@ -28835,578 +28932,573 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29 H28">
+  <conditionalFormatting sqref="H29:I29 I28">
     <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y28:Y30">
+  <conditionalFormatting sqref="Z28:Z30">
     <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28">
+  <conditionalFormatting sqref="D28:F28">
     <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
       <formula>LEFT(D28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:E31 E44:E46">
+  <conditionalFormatting sqref="D29:F31 F44:F46">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
       <formula>LEFT(D29,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="P7">
     <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:E12">
+  <conditionalFormatting sqref="H13">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="D13:F13">
     <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:E13">
+  <conditionalFormatting sqref="D26:F26">
     <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:I26">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E15">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:F15">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:I26">
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:F26">
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:E27">
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:F29">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
+      <formula>LEFT(D29,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F27">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H26">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E15">
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H26">
-    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
-      <formula>"*"</formula>
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:I26">
+    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:F26">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F27">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:I29">
+    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:F29">
+    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E28">
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H31">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
+      <formula>LEFT(H30,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
+    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:E29">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
-      <formula>LEFT(D29,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27">
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H26">
-    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27">
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
-    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:E29">
-    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
-      <formula>LEFT(G30,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="H28">
     <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="AA31:IW34 M31:Y34">
     <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z31:IV34 L31:X34">
+  <conditionalFormatting sqref="C31:C34">
     <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C34">
+  <conditionalFormatting sqref="Z31:Z34">
     <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y31:Y34">
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:E34">
+  <conditionalFormatting sqref="D32:F34">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
+      <formula>LEFT(D32,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
     <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
-      <formula>LEFT(D32,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G34">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
-      <formula>LEFT(G32,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+      <formula>LEFT(H32,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
     <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="K51">
     <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="379">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K15">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K15">
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="383">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J39">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J39">
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="385">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J39">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J39">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="391">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H15">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H15">
+    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H15">
+    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H15">
+    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G48">
+    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="401">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="379">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J15">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J15">
-    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="383">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I29">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I39">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="385">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I39">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I39">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="391">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I39">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G15">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G15">
-    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G15">
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G15">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="401">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F48">
     <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
+  <conditionalFormatting sqref="G12">
     <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="G13:G15">
     <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15">
+  <conditionalFormatting sqref="I12:I15">
     <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H15">
+  <conditionalFormatting sqref="J47 J49:J50">
     <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47 I49:I50">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23 D17:D22">
+  <conditionalFormatting sqref="D23:F23 D17:E22">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
+      <formula>LEFT(D17,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
-      <formula>LEFT(D17,1)="*"</formula>
+      <formula>LEFT(H23,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K23">
+    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K23">
+    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="112" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
+      <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
-      <formula>LEFT(G23,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J23">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J23">
-    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="112" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
     <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="422">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="D24:F25">
     <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E25">
+  <conditionalFormatting sqref="G24:G25">
     <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25">
+  <conditionalFormatting sqref="I24:I25">
     <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
+  <conditionalFormatting sqref="J12:J22">
     <cfRule type="cellIs" priority="120" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I22">
+  <conditionalFormatting sqref="J24:J25">
     <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I25">
+  <conditionalFormatting sqref="K24:K25">
     <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="428">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J25">
+  <conditionalFormatting sqref="D44:E46">
     <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D46">
+  <conditionalFormatting sqref="J46">
     <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="K46">
     <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="D16:I16">
     <cfRule type="cellIs" priority="126" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H16">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="G26:G39">
     <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F39">
+  <conditionalFormatting sqref="I30:I39">
     <cfRule type="cellIs" priority="129" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H39">
+  <conditionalFormatting sqref="K48:K50">
     <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="436">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J50">
+  <conditionalFormatting sqref="K48:K50">
     <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="437">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J50">
-    <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29433,7 +29525,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="318" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="319" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="4" width="23.28"/>
@@ -29442,38 +29534,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" s="320" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="319" t="s">
-        <v>531</v>
-      </c>
-      <c r="C2" s="321" t="s">
+    <row r="2" s="321" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="320" t="s">
         <v>532</v>
       </c>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
+      <c r="C2" s="322" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="322"/>
+      <c r="G2" s="322"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="150" t="s">
-        <v>533</v>
-      </c>
-      <c r="C3" s="322" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="323" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="323"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="318" t="s">
-        <v>534</v>
+      <c r="A4" s="319" t="s">
+        <v>535</v>
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="5"/>
@@ -29482,11 +29574,11 @@
       <c r="G4" s="152"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="318" t="s">
-        <v>535</v>
-      </c>
-      <c r="C5" s="323" t="s">
+      <c r="A5" s="319" t="s">
         <v>536</v>
+      </c>
+      <c r="C5" s="324" t="s">
+        <v>537</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="167"/>
@@ -29494,188 +29586,188 @@
       <c r="G5" s="168"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="318" t="s">
-        <v>537</v>
-      </c>
-      <c r="C6" s="324" t="str">
+      <c r="A6" s="319" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="325" t="str">
         <f aca="false">A2</f>
         <v>[:huomiot :ymparys :teksti-fi]</v>
       </c>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="318" t="s">
-        <v>538</v>
-      </c>
-      <c r="C7" s="324"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
+      <c r="A7" s="319" t="s">
+        <v>539</v>
+      </c>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="325"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="318" t="s">
-        <v>539</v>
-      </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
+      <c r="A8" s="319" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="325"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="318" t="s">
-        <v>540</v>
-      </c>
-      <c r="C9" s="324"/>
-      <c r="D9" s="324"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="324"/>
-      <c r="G9" s="324"/>
+      <c r="A9" s="319" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
+      <c r="G9" s="325"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="318" t="s">
-        <v>541</v>
-      </c>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
+      <c r="A10" s="319" t="s">
+        <v>542</v>
+      </c>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
+      <c r="G10" s="325"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="318" t="s">
-        <v>542</v>
-      </c>
-      <c r="C11" s="324"/>
-      <c r="D11" s="324"/>
-      <c r="E11" s="324"/>
-      <c r="F11" s="324"/>
-      <c r="G11" s="324"/>
+      <c r="A11" s="319" t="s">
+        <v>543</v>
+      </c>
+      <c r="C11" s="325"/>
+      <c r="D11" s="325"/>
+      <c r="E11" s="325"/>
+      <c r="F11" s="325"/>
+      <c r="G11" s="325"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="318" t="s">
-        <v>543</v>
-      </c>
-      <c r="C12" s="324"/>
-      <c r="D12" s="324"/>
-      <c r="E12" s="324"/>
-      <c r="F12" s="324"/>
-      <c r="G12" s="324"/>
+      <c r="A12" s="319" t="s">
+        <v>544</v>
+      </c>
+      <c r="C12" s="325"/>
+      <c r="D12" s="325"/>
+      <c r="E12" s="325"/>
+      <c r="F12" s="325"/>
+      <c r="G12" s="325"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="318" t="s">
-        <v>544</v>
-      </c>
-      <c r="C13" s="324"/>
-      <c r="D13" s="324"/>
-      <c r="E13" s="324"/>
-      <c r="F13" s="324"/>
-      <c r="G13" s="324"/>
+      <c r="A13" s="319" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="325"/>
+      <c r="D13" s="325"/>
+      <c r="E13" s="325"/>
+      <c r="F13" s="325"/>
+      <c r="G13" s="325"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="318" t="s">
-        <v>545</v>
-      </c>
-      <c r="C14" s="324"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="324"/>
-      <c r="G14" s="324"/>
+      <c r="A14" s="319" t="s">
+        <v>546</v>
+      </c>
+      <c r="C14" s="325"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="325"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="325"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="318" t="s">
-        <v>546</v>
-      </c>
-      <c r="C15" s="324"/>
-      <c r="D15" s="324"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="324"/>
-      <c r="G15" s="324"/>
+      <c r="A15" s="319" t="s">
+        <v>547</v>
+      </c>
+      <c r="C15" s="325"/>
+      <c r="D15" s="325"/>
+      <c r="E15" s="325"/>
+      <c r="F15" s="325"/>
+      <c r="G15" s="325"/>
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="150" t="s">
-        <v>547</v>
-      </c>
-      <c r="C16" s="325" t="s">
         <v>548</v>
       </c>
-      <c r="D16" s="325"/>
-      <c r="E16" s="325"/>
-      <c r="F16" s="325"/>
-      <c r="G16" s="325"/>
+      <c r="C16" s="326" t="s">
+        <v>549</v>
+      </c>
+      <c r="D16" s="326"/>
+      <c r="E16" s="326"/>
+      <c r="F16" s="326"/>
+      <c r="G16" s="326"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="150" t="s">
-        <v>549</v>
-      </c>
-      <c r="C17" s="326" t="n">
+        <v>550</v>
+      </c>
+      <c r="C17" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="327" t="str">
+      <c r="D17" s="328" t="str">
         <f aca="false">A4</f>
         <v>[:huomiot :ymparys :toimenpide 0 :nimi-fi]</v>
       </c>
-      <c r="E17" s="327"/>
-      <c r="F17" s="327"/>
-      <c r="G17" s="327"/>
+      <c r="E17" s="328"/>
+      <c r="F17" s="328"/>
+      <c r="G17" s="328"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="150" t="s">
-        <v>550</v>
-      </c>
-      <c r="C18" s="326" t="n">
+        <v>551</v>
+      </c>
+      <c r="C18" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="327" t="str">
+      <c r="D18" s="328" t="str">
         <f aca="false">A6</f>
         <v>[:huomiot :ymparys :toimenpide 1 :nimi-fi]</v>
       </c>
-      <c r="E18" s="327"/>
-      <c r="F18" s="327"/>
-      <c r="G18" s="327"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
+      <c r="G18" s="328"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="150" t="s">
-        <v>551</v>
-      </c>
-      <c r="C19" s="326" t="n">
+        <v>552</v>
+      </c>
+      <c r="C19" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="327" t="str">
+      <c r="D19" s="328" t="str">
         <f aca="false">A8</f>
         <v>[:huomiot :ymparys :toimenpide 2 :nimi-fi]</v>
       </c>
-      <c r="E19" s="327"/>
-      <c r="F19" s="327"/>
-      <c r="G19" s="327"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="328"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="150" t="s">
-        <v>552</v>
-      </c>
-      <c r="C20" s="328"/>
-      <c r="D20" s="329" t="s">
         <v>553</v>
       </c>
-      <c r="E20" s="329" t="s">
+      <c r="C20" s="329"/>
+      <c r="D20" s="330" t="s">
         <v>554</v>
       </c>
-      <c r="F20" s="329" t="s">
+      <c r="E20" s="330" t="s">
         <v>555</v>
       </c>
-      <c r="G20" s="330" t="s">
+      <c r="F20" s="330" t="s">
         <v>556</v>
+      </c>
+      <c r="G20" s="331" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="150" t="s">
-        <v>557</v>
-      </c>
-      <c r="C21" s="328"/>
+        <v>558</v>
+      </c>
+      <c r="C21" s="329"/>
       <c r="D21" s="108" t="s">
         <v>106</v>
       </c>
@@ -29686,276 +29778,276 @@
         <v>106</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="150" t="s">
-        <v>559</v>
-      </c>
-      <c r="C22" s="326" t="n">
+        <v>560</v>
+      </c>
+      <c r="C22" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="331" t="str">
+      <c r="D22" s="332" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :ymparys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E22" s="331" t="str">
+      <c r="E22" s="332" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :ymparys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F22" s="331" t="str">
+      <c r="F22" s="332" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :ymparys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G22" s="331" t="str">
+      <c r="G22" s="332" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :ymparys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="150" t="s">
-        <v>560</v>
-      </c>
-      <c r="C23" s="326" t="n">
+        <v>561</v>
+      </c>
+      <c r="C23" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="331" t="str">
+      <c r="D23" s="332" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :ymparys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E23" s="331" t="str">
+      <c r="E23" s="332" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :ymparys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F23" s="331" t="str">
+      <c r="F23" s="332" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :ymparys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G23" s="331" t="str">
+      <c r="G23" s="332" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :ymparys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="150" t="s">
-        <v>561</v>
-      </c>
-      <c r="C24" s="326" t="n">
+        <v>562</v>
+      </c>
+      <c r="C24" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D24" s="331" t="str">
+      <c r="D24" s="332" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :ymparys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E24" s="331" t="str">
+      <c r="E24" s="332" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :ymparys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F24" s="331" t="str">
+      <c r="F24" s="332" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :ymparys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G24" s="331" t="str">
+      <c r="G24" s="332" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :ymparys :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="150" t="s">
-        <v>562</v>
-      </c>
-      <c r="C25" s="332" t="s">
         <v>563</v>
+      </c>
+      <c r="C25" s="333" t="s">
+        <v>564</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="167"/>
       <c r="F25" s="167"/>
-      <c r="G25" s="333"/>
+      <c r="G25" s="334"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="150" t="s">
-        <v>564</v>
-      </c>
-      <c r="C26" s="324" t="str">
+        <v>565</v>
+      </c>
+      <c r="C26" s="325" t="str">
         <f aca="false">A22</f>
         <v>[:huomiot :alapohja-ylapohja :teksti-fi]</v>
       </c>
-      <c r="D26" s="324"/>
-      <c r="E26" s="324"/>
-      <c r="F26" s="324"/>
-      <c r="G26" s="324"/>
+      <c r="D26" s="325"/>
+      <c r="E26" s="325"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="325"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="150" t="s">
-        <v>565</v>
-      </c>
-      <c r="C27" s="324"/>
-      <c r="D27" s="324"/>
-      <c r="E27" s="324"/>
-      <c r="F27" s="324"/>
-      <c r="G27" s="324"/>
+        <v>566</v>
+      </c>
+      <c r="C27" s="325"/>
+      <c r="D27" s="325"/>
+      <c r="E27" s="325"/>
+      <c r="F27" s="325"/>
+      <c r="G27" s="325"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="150" t="s">
-        <v>566</v>
-      </c>
-      <c r="C28" s="324"/>
-      <c r="D28" s="324"/>
-      <c r="E28" s="324"/>
-      <c r="F28" s="324"/>
-      <c r="G28" s="324"/>
+        <v>567</v>
+      </c>
+      <c r="C28" s="325"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="325"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="150" t="s">
-        <v>567</v>
-      </c>
-      <c r="C29" s="324"/>
-      <c r="D29" s="324"/>
-      <c r="E29" s="324"/>
-      <c r="F29" s="324"/>
-      <c r="G29" s="324"/>
+        <v>568</v>
+      </c>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325"/>
+      <c r="E29" s="325"/>
+      <c r="F29" s="325"/>
+      <c r="G29" s="325"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="150" t="s">
-        <v>568</v>
-      </c>
-      <c r="C30" s="324"/>
-      <c r="D30" s="324"/>
-      <c r="E30" s="324"/>
-      <c r="F30" s="324"/>
-      <c r="G30" s="324"/>
+        <v>569</v>
+      </c>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
+      <c r="E30" s="325"/>
+      <c r="F30" s="325"/>
+      <c r="G30" s="325"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="150" t="s">
-        <v>569</v>
-      </c>
-      <c r="C31" s="324"/>
-      <c r="D31" s="324"/>
-      <c r="E31" s="324"/>
-      <c r="F31" s="324"/>
-      <c r="G31" s="324"/>
+        <v>570</v>
+      </c>
+      <c r="C31" s="325"/>
+      <c r="D31" s="325"/>
+      <c r="E31" s="325"/>
+      <c r="F31" s="325"/>
+      <c r="G31" s="325"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="150" t="s">
-        <v>570</v>
-      </c>
-      <c r="C32" s="324"/>
-      <c r="D32" s="324"/>
-      <c r="E32" s="324"/>
-      <c r="F32" s="324"/>
-      <c r="G32" s="324"/>
+        <v>571</v>
+      </c>
+      <c r="C32" s="325"/>
+      <c r="D32" s="325"/>
+      <c r="E32" s="325"/>
+      <c r="F32" s="325"/>
+      <c r="G32" s="325"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="150" t="s">
-        <v>571</v>
-      </c>
-      <c r="C33" s="324"/>
-      <c r="D33" s="324"/>
-      <c r="E33" s="324"/>
-      <c r="F33" s="324"/>
-      <c r="G33" s="324"/>
+        <v>572</v>
+      </c>
+      <c r="C33" s="325"/>
+      <c r="D33" s="325"/>
+      <c r="E33" s="325"/>
+      <c r="F33" s="325"/>
+      <c r="G33" s="325"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="150" t="s">
-        <v>572</v>
-      </c>
-      <c r="C34" s="324"/>
-      <c r="D34" s="324"/>
-      <c r="E34" s="324"/>
-      <c r="F34" s="324"/>
-      <c r="G34" s="324"/>
+        <v>573</v>
+      </c>
+      <c r="C34" s="325"/>
+      <c r="D34" s="325"/>
+      <c r="E34" s="325"/>
+      <c r="F34" s="325"/>
+      <c r="G34" s="325"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="150" t="s">
-        <v>573</v>
-      </c>
-      <c r="C35" s="324"/>
-      <c r="D35" s="324"/>
-      <c r="E35" s="324"/>
-      <c r="F35" s="324"/>
-      <c r="G35" s="324"/>
+        <v>574</v>
+      </c>
+      <c r="C35" s="325"/>
+      <c r="D35" s="325"/>
+      <c r="E35" s="325"/>
+      <c r="F35" s="325"/>
+      <c r="G35" s="325"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="150" t="s">
-        <v>574</v>
-      </c>
-      <c r="C36" s="325" t="s">
-        <v>548</v>
-      </c>
-      <c r="D36" s="325"/>
-      <c r="E36" s="325"/>
-      <c r="F36" s="325"/>
-      <c r="G36" s="325"/>
+        <v>575</v>
+      </c>
+      <c r="C36" s="326" t="s">
+        <v>549</v>
+      </c>
+      <c r="D36" s="326"/>
+      <c r="E36" s="326"/>
+      <c r="F36" s="326"/>
+      <c r="G36" s="326"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="150" t="s">
-        <v>575</v>
-      </c>
-      <c r="C37" s="326" t="n">
+        <v>576</v>
+      </c>
+      <c r="C37" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="327" t="str">
+      <c r="D37" s="328" t="str">
         <f aca="false">A24</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :nimi-fi]</v>
       </c>
-      <c r="E37" s="327"/>
-      <c r="F37" s="327"/>
-      <c r="G37" s="327"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="328"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="150" t="s">
-        <v>576</v>
-      </c>
-      <c r="C38" s="326" t="n">
+        <v>577</v>
+      </c>
+      <c r="C38" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="327" t="str">
+      <c r="D38" s="328" t="str">
         <f aca="false">A26</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :nimi-fi]</v>
       </c>
-      <c r="E38" s="327"/>
-      <c r="F38" s="327"/>
-      <c r="G38" s="327"/>
+      <c r="E38" s="328"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="328"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="150" t="s">
-        <v>577</v>
-      </c>
-      <c r="C39" s="326" t="n">
+        <v>578</v>
+      </c>
+      <c r="C39" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="327" t="str">
+      <c r="D39" s="328" t="str">
         <f aca="false">A28</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :nimi-fi]</v>
       </c>
-      <c r="E39" s="327"/>
-      <c r="F39" s="327"/>
-      <c r="G39" s="327"/>
+      <c r="E39" s="328"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="328"/>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="150" t="s">
-        <v>578</v>
-      </c>
-      <c r="C40" s="328"/>
-      <c r="D40" s="329" t="s">
-        <v>553</v>
-      </c>
-      <c r="E40" s="329" t="s">
+        <v>579</v>
+      </c>
+      <c r="C40" s="329"/>
+      <c r="D40" s="330" t="s">
         <v>554</v>
       </c>
-      <c r="F40" s="329" t="s">
+      <c r="E40" s="330" t="s">
         <v>555</v>
       </c>
-      <c r="G40" s="330" t="s">
+      <c r="F40" s="330" t="s">
         <v>556</v>
+      </c>
+      <c r="G40" s="331" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="150" t="s">
-        <v>579</v>
-      </c>
-      <c r="C41" s="328"/>
+        <v>580</v>
+      </c>
+      <c r="C41" s="329"/>
       <c r="D41" s="108" t="s">
         <v>106</v>
       </c>
@@ -29966,276 +30058,276 @@
         <v>106</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="150" t="s">
-        <v>580</v>
-      </c>
-      <c r="C42" s="326" t="n">
+        <v>581</v>
+      </c>
+      <c r="C42" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="331" t="str">
+      <c r="D42" s="332" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E42" s="331" t="str">
+      <c r="E42" s="332" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F42" s="331" t="str">
+      <c r="F42" s="332" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G42" s="331" t="str">
+      <c r="G42" s="332" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="150" t="s">
-        <v>581</v>
-      </c>
-      <c r="C43" s="326" t="n">
+        <v>582</v>
+      </c>
+      <c r="C43" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="331" t="str">
+      <c r="D43" s="332" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E43" s="331" t="str">
+      <c r="E43" s="332" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F43" s="331" t="str">
+      <c r="F43" s="332" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G43" s="331" t="str">
+      <c r="G43" s="332" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="150" t="s">
-        <v>582</v>
-      </c>
-      <c r="C44" s="326" t="n">
+        <v>583</v>
+      </c>
+      <c r="C44" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="331" t="str">
+      <c r="D44" s="332" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E44" s="331" t="str">
+      <c r="E44" s="332" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F44" s="331" t="str">
+      <c r="F44" s="332" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G44" s="331" t="str">
+      <c r="G44" s="332" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="150" t="s">
-        <v>583</v>
-      </c>
-      <c r="C45" s="332" t="s">
         <v>584</v>
       </c>
-      <c r="D45" s="334"/>
+      <c r="C45" s="333" t="s">
+        <v>585</v>
+      </c>
+      <c r="D45" s="335"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="333"/>
+      <c r="G45" s="334"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="150" t="s">
-        <v>585</v>
-      </c>
-      <c r="C46" s="324" t="str">
+        <v>586</v>
+      </c>
+      <c r="C46" s="325" t="str">
         <f aca="false">A42</f>
         <v>[:huomiot :lammitys :teksti-fi]</v>
       </c>
-      <c r="D46" s="324"/>
-      <c r="E46" s="324"/>
-      <c r="F46" s="324"/>
-      <c r="G46" s="324"/>
+      <c r="D46" s="325"/>
+      <c r="E46" s="325"/>
+      <c r="F46" s="325"/>
+      <c r="G46" s="325"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="150" t="s">
-        <v>586</v>
-      </c>
-      <c r="C47" s="324"/>
-      <c r="D47" s="324"/>
-      <c r="E47" s="324"/>
-      <c r="F47" s="324"/>
-      <c r="G47" s="324"/>
+        <v>587</v>
+      </c>
+      <c r="C47" s="325"/>
+      <c r="D47" s="325"/>
+      <c r="E47" s="325"/>
+      <c r="F47" s="325"/>
+      <c r="G47" s="325"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="150" t="s">
-        <v>587</v>
-      </c>
-      <c r="C48" s="324"/>
-      <c r="D48" s="324"/>
-      <c r="E48" s="324"/>
-      <c r="F48" s="324"/>
-      <c r="G48" s="324"/>
+        <v>588</v>
+      </c>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
+      <c r="E48" s="325"/>
+      <c r="F48" s="325"/>
+      <c r="G48" s="325"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="150" t="s">
-        <v>588</v>
-      </c>
-      <c r="C49" s="324"/>
-      <c r="D49" s="324"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="324"/>
-      <c r="G49" s="324"/>
+        <v>589</v>
+      </c>
+      <c r="C49" s="325"/>
+      <c r="D49" s="325"/>
+      <c r="E49" s="325"/>
+      <c r="F49" s="325"/>
+      <c r="G49" s="325"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="150" t="s">
-        <v>589</v>
-      </c>
-      <c r="C50" s="324"/>
-      <c r="D50" s="324"/>
-      <c r="E50" s="324"/>
-      <c r="F50" s="324"/>
-      <c r="G50" s="324"/>
+        <v>590</v>
+      </c>
+      <c r="C50" s="325"/>
+      <c r="D50" s="325"/>
+      <c r="E50" s="325"/>
+      <c r="F50" s="325"/>
+      <c r="G50" s="325"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="150" t="s">
-        <v>590</v>
-      </c>
-      <c r="C51" s="324"/>
-      <c r="D51" s="324"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="324"/>
-      <c r="G51" s="324"/>
+        <v>591</v>
+      </c>
+      <c r="C51" s="325"/>
+      <c r="D51" s="325"/>
+      <c r="E51" s="325"/>
+      <c r="F51" s="325"/>
+      <c r="G51" s="325"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="150" t="s">
-        <v>591</v>
-      </c>
-      <c r="C52" s="324"/>
-      <c r="D52" s="324"/>
-      <c r="E52" s="324"/>
-      <c r="F52" s="324"/>
-      <c r="G52" s="324"/>
+        <v>592</v>
+      </c>
+      <c r="C52" s="325"/>
+      <c r="D52" s="325"/>
+      <c r="E52" s="325"/>
+      <c r="F52" s="325"/>
+      <c r="G52" s="325"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="150" t="s">
-        <v>592</v>
-      </c>
-      <c r="C53" s="324"/>
-      <c r="D53" s="324"/>
-      <c r="E53" s="324"/>
-      <c r="F53" s="324"/>
-      <c r="G53" s="324"/>
+        <v>593</v>
+      </c>
+      <c r="C53" s="325"/>
+      <c r="D53" s="325"/>
+      <c r="E53" s="325"/>
+      <c r="F53" s="325"/>
+      <c r="G53" s="325"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="150" t="s">
-        <v>593</v>
-      </c>
-      <c r="C54" s="324"/>
-      <c r="D54" s="324"/>
-      <c r="E54" s="324"/>
-      <c r="F54" s="324"/>
-      <c r="G54" s="324"/>
+        <v>594</v>
+      </c>
+      <c r="C54" s="325"/>
+      <c r="D54" s="325"/>
+      <c r="E54" s="325"/>
+      <c r="F54" s="325"/>
+      <c r="G54" s="325"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="150" t="s">
-        <v>594</v>
-      </c>
-      <c r="C55" s="324"/>
-      <c r="D55" s="324"/>
-      <c r="E55" s="324"/>
-      <c r="F55" s="324"/>
-      <c r="G55" s="324"/>
+        <v>595</v>
+      </c>
+      <c r="C55" s="325"/>
+      <c r="D55" s="325"/>
+      <c r="E55" s="325"/>
+      <c r="F55" s="325"/>
+      <c r="G55" s="325"/>
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="150" t="s">
-        <v>595</v>
-      </c>
-      <c r="C56" s="325" t="s">
-        <v>548</v>
-      </c>
-      <c r="D56" s="325"/>
-      <c r="E56" s="325"/>
-      <c r="F56" s="325"/>
-      <c r="G56" s="325"/>
+        <v>596</v>
+      </c>
+      <c r="C56" s="326" t="s">
+        <v>549</v>
+      </c>
+      <c r="D56" s="326"/>
+      <c r="E56" s="326"/>
+      <c r="F56" s="326"/>
+      <c r="G56" s="326"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="150" t="s">
-        <v>596</v>
-      </c>
-      <c r="C57" s="326" t="n">
+        <v>597</v>
+      </c>
+      <c r="C57" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="327" t="str">
+      <c r="D57" s="328" t="str">
         <f aca="false">A44</f>
         <v>[:huomiot :lammitys :toimenpide 0 :nimi-fi]</v>
       </c>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
+      <c r="E57" s="328"/>
+      <c r="F57" s="328"/>
+      <c r="G57" s="328"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="150" t="s">
-        <v>597</v>
-      </c>
-      <c r="C58" s="326" t="n">
+        <v>598</v>
+      </c>
+      <c r="C58" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="327" t="str">
+      <c r="D58" s="328" t="str">
         <f aca="false">A46</f>
         <v>[:huomiot :lammitys :toimenpide 1 :nimi-fi]</v>
       </c>
-      <c r="E58" s="327"/>
-      <c r="F58" s="327"/>
-      <c r="G58" s="327"/>
+      <c r="E58" s="328"/>
+      <c r="F58" s="328"/>
+      <c r="G58" s="328"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="150" t="s">
-        <v>598</v>
-      </c>
-      <c r="C59" s="326" t="n">
+        <v>599</v>
+      </c>
+      <c r="C59" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D59" s="327" t="str">
+      <c r="D59" s="328" t="str">
         <f aca="false">A48</f>
         <v>[:huomiot :lammitys :toimenpide 2 :nimi-fi]</v>
       </c>
-      <c r="E59" s="327"/>
-      <c r="F59" s="327"/>
-      <c r="G59" s="327"/>
+      <c r="E59" s="328"/>
+      <c r="F59" s="328"/>
+      <c r="G59" s="328"/>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="150" t="s">
-        <v>599</v>
-      </c>
-      <c r="C60" s="328"/>
-      <c r="D60" s="329" t="s">
-        <v>553</v>
-      </c>
-      <c r="E60" s="329" t="s">
+        <v>600</v>
+      </c>
+      <c r="C60" s="329"/>
+      <c r="D60" s="330" t="s">
         <v>554</v>
       </c>
-      <c r="F60" s="329" t="s">
+      <c r="E60" s="330" t="s">
         <v>555</v>
       </c>
-      <c r="G60" s="330" t="s">
+      <c r="F60" s="330" t="s">
         <v>556</v>
+      </c>
+      <c r="G60" s="331" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150" t="s">
-        <v>600</v>
-      </c>
-      <c r="C61" s="328"/>
+        <v>601</v>
+      </c>
+      <c r="C61" s="329"/>
       <c r="D61" s="108" t="s">
         <v>106</v>
       </c>
@@ -30246,71 +30338,71 @@
         <v>106</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="326" t="n">
+      <c r="C62" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="331" t="str">
+      <c r="D62" s="332" t="str">
         <f aca="false">A50</f>
         <v>[:huomiot :lammitys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E62" s="331" t="str">
+      <c r="E62" s="332" t="str">
         <f aca="false">A51</f>
         <v>[:huomiot :lammitys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F62" s="331" t="str">
+      <c r="F62" s="332" t="str">
         <f aca="false">A52</f>
         <v>[:huomiot :lammitys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G62" s="331" t="str">
+      <c r="G62" s="332" t="str">
         <f aca="false">A53</f>
         <v>[:huomiot :lammitys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="326" t="n">
+      <c r="C63" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="331" t="str">
+      <c r="D63" s="332" t="str">
         <f aca="false">A54</f>
         <v>[:huomiot :lammitys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E63" s="331" t="str">
+      <c r="E63" s="332" t="str">
         <f aca="false">A55</f>
         <v>[:huomiot :lammitys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F63" s="331" t="str">
+      <c r="F63" s="332" t="str">
         <f aca="false">A56</f>
         <v>[:huomiot :lammitys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G63" s="335" t="str">
+      <c r="G63" s="336" t="str">
         <f aca="false">A57</f>
         <v>[:huomiot :lammitys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="326" t="n">
+      <c r="C64" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D64" s="331" t="str">
+      <c r="D64" s="332" t="str">
         <f aca="false">A58</f>
         <v>[:huomiot :lammitys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E64" s="331" t="str">
+      <c r="E64" s="332" t="str">
         <f aca="false">A59</f>
         <v>[:huomiot :lammitys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F64" s="331" t="str">
+      <c r="F64" s="332" t="str">
         <f aca="false">A60</f>
         <v>[:huomiot :lammitys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G64" s="331" t="str">
+      <c r="G64" s="332" t="str">
         <f aca="false">A61</f>
         <v>[:huomiot :lammitys :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -30340,167 +30432,167 @@
     <mergeCell ref="C60:C61"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AMJ1 B16:B40 A65:AMJ1048576 A4:AMJ15 C25:G35 C45:G55 H16:AMJ40 H2:AMJ3 B2:C3 H42:AMJ44 B42:C44">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B60 H45:AMJ60 H62:AMJ64 B62:B64">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:D39 C36">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="442">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="442">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D19 C16">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="444">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="445">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="444">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C64">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="446">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="445">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:D59 C56">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="447">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="446">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="448">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="447">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="449">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="448">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="450">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="449">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="450">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="454">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="455">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="454">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="456">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="455">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="457">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="456">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:F21">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="458">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="457">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="459">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="458">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 H41:AMJ41">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="460">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="459">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:F41">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="461">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="460">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="462">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="461">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61 H61:AMJ61">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="463">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="462">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:F61">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="464">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="463">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="465">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="464">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:F24">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="466">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="465">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:F44">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="467">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="466">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:E64 F62 F64">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="468">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="467">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64 G62 F63">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="469">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="468">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G44">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="470">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="469">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G24">
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="471">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="470">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30533,7 +30625,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="318" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="319" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="4" width="23.28"/>
@@ -30542,17 +30634,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="318" t="s">
-        <v>601</v>
-      </c>
-      <c r="C2" s="323" t="s">
+      <c r="A2" s="319" t="s">
         <v>602</v>
+      </c>
+      <c r="C2" s="324" t="s">
+        <v>603</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="167"/>
@@ -30560,188 +30652,188 @@
       <c r="G2" s="168"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="318" t="s">
-        <v>603</v>
-      </c>
-      <c r="C3" s="324" t="str">
+      <c r="A3" s="319" t="s">
+        <v>604</v>
+      </c>
+      <c r="C3" s="325" t="str">
         <f aca="false">A2</f>
         <v>[:huomiot :iv-ilmastointi :teksti-fi]</v>
       </c>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="318" t="s">
-        <v>604</v>
-      </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
+      <c r="A4" s="319" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="325"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="318" t="s">
-        <v>605</v>
-      </c>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
+      <c r="A5" s="319" t="s">
+        <v>606</v>
+      </c>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="318" t="s">
-        <v>606</v>
-      </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
+      <c r="A6" s="319" t="s">
+        <v>607</v>
+      </c>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="318" t="s">
-        <v>607</v>
-      </c>
-      <c r="C7" s="324"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
+      <c r="A7" s="319" t="s">
+        <v>608</v>
+      </c>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="325"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="318" t="s">
-        <v>608</v>
-      </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
+      <c r="A8" s="319" t="s">
+        <v>609</v>
+      </c>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="325"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="318" t="s">
-        <v>609</v>
-      </c>
-      <c r="C9" s="324"/>
-      <c r="D9" s="324"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="324"/>
-      <c r="G9" s="324"/>
+      <c r="A9" s="319" t="s">
+        <v>610</v>
+      </c>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
+      <c r="G9" s="325"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="318" t="s">
-        <v>610</v>
-      </c>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
+      <c r="A10" s="319" t="s">
+        <v>611</v>
+      </c>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
+      <c r="G10" s="325"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="318" t="s">
-        <v>611</v>
-      </c>
-      <c r="C11" s="324"/>
-      <c r="D11" s="324"/>
-      <c r="E11" s="324"/>
-      <c r="F11" s="324"/>
-      <c r="G11" s="324"/>
+      <c r="A11" s="319" t="s">
+        <v>612</v>
+      </c>
+      <c r="C11" s="325"/>
+      <c r="D11" s="325"/>
+      <c r="E11" s="325"/>
+      <c r="F11" s="325"/>
+      <c r="G11" s="325"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="318" t="s">
-        <v>612</v>
-      </c>
-      <c r="C12" s="324"/>
-      <c r="D12" s="324"/>
-      <c r="E12" s="324"/>
-      <c r="F12" s="324"/>
-      <c r="G12" s="324"/>
+      <c r="A12" s="319" t="s">
+        <v>613</v>
+      </c>
+      <c r="C12" s="325"/>
+      <c r="D12" s="325"/>
+      <c r="E12" s="325"/>
+      <c r="F12" s="325"/>
+      <c r="G12" s="325"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="150" t="s">
-        <v>613</v>
-      </c>
-      <c r="C13" s="336" t="s">
-        <v>548</v>
-      </c>
-      <c r="D13" s="336"/>
-      <c r="E13" s="336"/>
-      <c r="F13" s="336"/>
-      <c r="G13" s="336"/>
+        <v>614</v>
+      </c>
+      <c r="C13" s="337" t="s">
+        <v>549</v>
+      </c>
+      <c r="D13" s="337"/>
+      <c r="E13" s="337"/>
+      <c r="F13" s="337"/>
+      <c r="G13" s="337"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="150" t="s">
-        <v>614</v>
-      </c>
-      <c r="C14" s="326" t="n">
+        <v>615</v>
+      </c>
+      <c r="C14" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="337" t="str">
+      <c r="D14" s="338" t="str">
         <f aca="false">A4</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :nimi-fi]</v>
       </c>
-      <c r="E14" s="337"/>
-      <c r="F14" s="337"/>
-      <c r="G14" s="337"/>
+      <c r="E14" s="338"/>
+      <c r="F14" s="338"/>
+      <c r="G14" s="338"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="150" t="s">
-        <v>615</v>
-      </c>
-      <c r="C15" s="326" t="n">
+        <v>616</v>
+      </c>
+      <c r="C15" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="337" t="str">
+      <c r="D15" s="338" t="str">
         <f aca="false">A6</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :nimi-fi]</v>
       </c>
-      <c r="E15" s="337"/>
-      <c r="F15" s="337"/>
-      <c r="G15" s="337"/>
+      <c r="E15" s="338"/>
+      <c r="F15" s="338"/>
+      <c r="G15" s="338"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="150" t="s">
-        <v>616</v>
-      </c>
-      <c r="C16" s="326" t="n">
+        <v>617</v>
+      </c>
+      <c r="C16" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="337" t="str">
+      <c r="D16" s="338" t="str">
         <f aca="false">A8</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :nimi-fi]</v>
       </c>
-      <c r="E16" s="337"/>
-      <c r="F16" s="337"/>
-      <c r="G16" s="337"/>
+      <c r="E16" s="338"/>
+      <c r="F16" s="338"/>
+      <c r="G16" s="338"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="150" t="s">
-        <v>617</v>
-      </c>
-      <c r="C17" s="328"/>
-      <c r="D17" s="329" t="s">
-        <v>553</v>
-      </c>
-      <c r="E17" s="329" t="s">
+        <v>618</v>
+      </c>
+      <c r="C17" s="329"/>
+      <c r="D17" s="330" t="s">
         <v>554</v>
       </c>
-      <c r="F17" s="329" t="s">
+      <c r="E17" s="330" t="s">
         <v>555</v>
       </c>
-      <c r="G17" s="330" t="s">
+      <c r="F17" s="330" t="s">
         <v>556</v>
+      </c>
+      <c r="G17" s="331" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="150" t="s">
-        <v>618</v>
-      </c>
-      <c r="C18" s="328"/>
+        <v>619</v>
+      </c>
+      <c r="C18" s="329"/>
       <c r="D18" s="108" t="s">
         <v>106</v>
       </c>
@@ -30752,276 +30844,276 @@
         <v>106</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="150" t="s">
-        <v>619</v>
-      </c>
-      <c r="C19" s="326" t="n">
+        <v>620</v>
+      </c>
+      <c r="C19" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="331" t="str">
+      <c r="D19" s="332" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E19" s="331" t="str">
+      <c r="E19" s="332" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F19" s="331" t="str">
+      <c r="F19" s="332" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G19" s="331" t="str">
+      <c r="G19" s="332" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="150" t="s">
-        <v>620</v>
-      </c>
-      <c r="C20" s="326" t="n">
+        <v>621</v>
+      </c>
+      <c r="C20" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="331" t="str">
+      <c r="D20" s="332" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E20" s="331" t="str">
+      <c r="E20" s="332" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F20" s="331" t="str">
+      <c r="F20" s="332" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G20" s="331" t="str">
+      <c r="G20" s="332" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="150" t="s">
-        <v>621</v>
-      </c>
-      <c r="C21" s="326" t="n">
+        <v>622</v>
+      </c>
+      <c r="C21" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="331" t="str">
+      <c r="D21" s="332" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E21" s="331" t="str">
+      <c r="E21" s="332" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F21" s="331" t="str">
+      <c r="F21" s="332" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G21" s="331" t="str">
+      <c r="G21" s="332" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="150" t="s">
-        <v>622</v>
-      </c>
-      <c r="C22" s="332" t="s">
         <v>623</v>
       </c>
-      <c r="D22" s="334"/>
+      <c r="C22" s="333" t="s">
+        <v>624</v>
+      </c>
+      <c r="D22" s="335"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="333"/>
+      <c r="G22" s="334"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="150" t="s">
-        <v>624</v>
-      </c>
-      <c r="C23" s="324" t="str">
+        <v>625</v>
+      </c>
+      <c r="C23" s="325" t="str">
         <f aca="false">A22</f>
         <v>[:huomiot :valaistus-muut :teksti-fi]</v>
       </c>
-      <c r="D23" s="324"/>
-      <c r="E23" s="324"/>
-      <c r="F23" s="324"/>
-      <c r="G23" s="324"/>
+      <c r="D23" s="325"/>
+      <c r="E23" s="325"/>
+      <c r="F23" s="325"/>
+      <c r="G23" s="325"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="150" t="s">
-        <v>625</v>
-      </c>
-      <c r="C24" s="324"/>
-      <c r="D24" s="324"/>
-      <c r="E24" s="324"/>
-      <c r="F24" s="324"/>
-      <c r="G24" s="324"/>
+        <v>626</v>
+      </c>
+      <c r="C24" s="325"/>
+      <c r="D24" s="325"/>
+      <c r="E24" s="325"/>
+      <c r="F24" s="325"/>
+      <c r="G24" s="325"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="150" t="s">
-        <v>626</v>
-      </c>
-      <c r="C25" s="324"/>
-      <c r="D25" s="324"/>
-      <c r="E25" s="324"/>
-      <c r="F25" s="324"/>
-      <c r="G25" s="324"/>
+        <v>627</v>
+      </c>
+      <c r="C25" s="325"/>
+      <c r="D25" s="325"/>
+      <c r="E25" s="325"/>
+      <c r="F25" s="325"/>
+      <c r="G25" s="325"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="150" t="s">
-        <v>627</v>
-      </c>
-      <c r="C26" s="324"/>
-      <c r="D26" s="324"/>
-      <c r="E26" s="324"/>
-      <c r="F26" s="324"/>
-      <c r="G26" s="324"/>
+        <v>628</v>
+      </c>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
+      <c r="E26" s="325"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="325"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="150" t="s">
-        <v>628</v>
-      </c>
-      <c r="C27" s="324"/>
-      <c r="D27" s="324"/>
-      <c r="E27" s="324"/>
-      <c r="F27" s="324"/>
-      <c r="G27" s="324"/>
+        <v>629</v>
+      </c>
+      <c r="C27" s="325"/>
+      <c r="D27" s="325"/>
+      <c r="E27" s="325"/>
+      <c r="F27" s="325"/>
+      <c r="G27" s="325"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="150" t="s">
-        <v>629</v>
-      </c>
-      <c r="C28" s="324"/>
-      <c r="D28" s="324"/>
-      <c r="E28" s="324"/>
-      <c r="F28" s="324"/>
-      <c r="G28" s="324"/>
+        <v>630</v>
+      </c>
+      <c r="C28" s="325"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="325"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="150" t="s">
-        <v>630</v>
-      </c>
-      <c r="C29" s="324"/>
-      <c r="D29" s="324"/>
-      <c r="E29" s="324"/>
-      <c r="F29" s="324"/>
-      <c r="G29" s="324"/>
+        <v>631</v>
+      </c>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325"/>
+      <c r="E29" s="325"/>
+      <c r="F29" s="325"/>
+      <c r="G29" s="325"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="150" t="s">
-        <v>631</v>
-      </c>
-      <c r="C30" s="324"/>
-      <c r="D30" s="324"/>
-      <c r="E30" s="324"/>
-      <c r="F30" s="324"/>
-      <c r="G30" s="324"/>
+        <v>632</v>
+      </c>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
+      <c r="E30" s="325"/>
+      <c r="F30" s="325"/>
+      <c r="G30" s="325"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="150" t="s">
-        <v>632</v>
-      </c>
-      <c r="C31" s="324"/>
-      <c r="D31" s="324"/>
-      <c r="E31" s="324"/>
-      <c r="F31" s="324"/>
-      <c r="G31" s="324"/>
+        <v>633</v>
+      </c>
+      <c r="C31" s="325"/>
+      <c r="D31" s="325"/>
+      <c r="E31" s="325"/>
+      <c r="F31" s="325"/>
+      <c r="G31" s="325"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="150" t="s">
-        <v>633</v>
-      </c>
-      <c r="C32" s="324"/>
-      <c r="D32" s="324"/>
-      <c r="E32" s="324"/>
-      <c r="F32" s="324"/>
-      <c r="G32" s="324"/>
+        <v>634</v>
+      </c>
+      <c r="C32" s="325"/>
+      <c r="D32" s="325"/>
+      <c r="E32" s="325"/>
+      <c r="F32" s="325"/>
+      <c r="G32" s="325"/>
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="150" t="s">
-        <v>634</v>
-      </c>
-      <c r="C33" s="336" t="s">
-        <v>548</v>
-      </c>
-      <c r="D33" s="336"/>
-      <c r="E33" s="336"/>
-      <c r="F33" s="336"/>
-      <c r="G33" s="336"/>
+        <v>635</v>
+      </c>
+      <c r="C33" s="337" t="s">
+        <v>549</v>
+      </c>
+      <c r="D33" s="337"/>
+      <c r="E33" s="337"/>
+      <c r="F33" s="337"/>
+      <c r="G33" s="337"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="150" t="s">
-        <v>635</v>
-      </c>
-      <c r="C34" s="326" t="n">
+        <v>636</v>
+      </c>
+      <c r="C34" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="337" t="str">
+      <c r="D34" s="338" t="str">
         <f aca="false">A24</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :nimi-fi]</v>
       </c>
-      <c r="E34" s="337"/>
-      <c r="F34" s="337"/>
-      <c r="G34" s="337"/>
+      <c r="E34" s="338"/>
+      <c r="F34" s="338"/>
+      <c r="G34" s="338"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="150" t="s">
-        <v>636</v>
-      </c>
-      <c r="C35" s="326" t="n">
+        <v>637</v>
+      </c>
+      <c r="C35" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="337" t="str">
+      <c r="D35" s="338" t="str">
         <f aca="false">A26</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :nimi-fi]</v>
       </c>
-      <c r="E35" s="337"/>
-      <c r="F35" s="337"/>
-      <c r="G35" s="337"/>
+      <c r="E35" s="338"/>
+      <c r="F35" s="338"/>
+      <c r="G35" s="338"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="150" t="s">
-        <v>637</v>
-      </c>
-      <c r="C36" s="326" t="n">
+        <v>638</v>
+      </c>
+      <c r="C36" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="337" t="str">
+      <c r="D36" s="338" t="str">
         <f aca="false">A28</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-fi]</v>
       </c>
-      <c r="E36" s="337"/>
-      <c r="F36" s="337"/>
-      <c r="G36" s="337"/>
+      <c r="E36" s="338"/>
+      <c r="F36" s="338"/>
+      <c r="G36" s="338"/>
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="150" t="s">
-        <v>638</v>
-      </c>
-      <c r="C37" s="328"/>
-      <c r="D37" s="329" t="s">
-        <v>553</v>
-      </c>
-      <c r="E37" s="329" t="s">
+        <v>639</v>
+      </c>
+      <c r="C37" s="329"/>
+      <c r="D37" s="330" t="s">
         <v>554</v>
       </c>
-      <c r="F37" s="329" t="s">
+      <c r="E37" s="330" t="s">
         <v>555</v>
       </c>
-      <c r="G37" s="330" t="s">
+      <c r="F37" s="330" t="s">
         <v>556</v>
+      </c>
+      <c r="G37" s="331" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="150" t="s">
-        <v>639</v>
-      </c>
-      <c r="C38" s="328"/>
+        <v>640</v>
+      </c>
+      <c r="C38" s="329"/>
       <c r="D38" s="108" t="s">
         <v>106</v>
       </c>
@@ -31032,225 +31124,225 @@
         <v>106</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="150" t="s">
-        <v>640</v>
-      </c>
-      <c r="C39" s="326" t="n">
+        <v>641</v>
+      </c>
+      <c r="C39" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="331" t="str">
+      <c r="D39" s="332" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E39" s="331" t="str">
+      <c r="E39" s="332" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F39" s="331" t="str">
+      <c r="F39" s="332" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G39" s="331" t="str">
+      <c r="G39" s="332" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="150" t="s">
-        <v>641</v>
-      </c>
-      <c r="C40" s="326" t="n">
+        <v>642</v>
+      </c>
+      <c r="C40" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="331" t="str">
+      <c r="D40" s="332" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E40" s="331" t="str">
+      <c r="E40" s="332" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F40" s="331" t="str">
+      <c r="F40" s="332" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G40" s="331" t="str">
+      <c r="G40" s="332" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="150" t="s">
-        <v>642</v>
-      </c>
-      <c r="C41" s="326" t="n">
+        <v>643</v>
+      </c>
+      <c r="C41" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="D41" s="331" t="str">
+      <c r="D41" s="332" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E41" s="331" t="str">
+      <c r="E41" s="332" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F41" s="331" t="str">
+      <c r="F41" s="332" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G41" s="331" t="str">
+      <c r="G41" s="332" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="150" t="s">
-        <v>643</v>
-      </c>
-      <c r="C42" s="332" t="s">
         <v>644</v>
       </c>
-      <c r="D42" s="334"/>
+      <c r="C42" s="333" t="s">
+        <v>645</v>
+      </c>
+      <c r="D42" s="335"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
-      <c r="G42" s="333"/>
+      <c r="G42" s="334"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="150" t="s">
-        <v>645</v>
-      </c>
-      <c r="C43" s="324" t="str">
+        <v>646</v>
+      </c>
+      <c r="C43" s="325" t="str">
         <f aca="false">A42</f>
         <v>[:huomiot :suositukset-fi]</v>
       </c>
-      <c r="D43" s="324"/>
-      <c r="E43" s="324"/>
-      <c r="F43" s="324"/>
-      <c r="G43" s="324"/>
+      <c r="D43" s="325"/>
+      <c r="E43" s="325"/>
+      <c r="F43" s="325"/>
+      <c r="G43" s="325"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="150" t="s">
-        <v>646</v>
-      </c>
-      <c r="C44" s="324"/>
-      <c r="D44" s="324"/>
-      <c r="E44" s="324"/>
-      <c r="F44" s="324"/>
-      <c r="G44" s="324"/>
+        <v>647</v>
+      </c>
+      <c r="C44" s="325"/>
+      <c r="D44" s="325"/>
+      <c r="E44" s="325"/>
+      <c r="F44" s="325"/>
+      <c r="G44" s="325"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="150" t="s">
-        <v>647</v>
-      </c>
-      <c r="C45" s="324"/>
-      <c r="D45" s="324"/>
-      <c r="E45" s="324"/>
-      <c r="F45" s="324"/>
-      <c r="G45" s="324"/>
+        <v>648</v>
+      </c>
+      <c r="C45" s="325"/>
+      <c r="D45" s="325"/>
+      <c r="E45" s="325"/>
+      <c r="F45" s="325"/>
+      <c r="G45" s="325"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="150"/>
-      <c r="C46" s="324"/>
-      <c r="D46" s="324"/>
-      <c r="E46" s="324"/>
-      <c r="F46" s="324"/>
-      <c r="G46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
+      <c r="E46" s="325"/>
+      <c r="F46" s="325"/>
+      <c r="G46" s="325"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="150"/>
-      <c r="C47" s="324"/>
-      <c r="D47" s="324"/>
-      <c r="E47" s="324"/>
-      <c r="F47" s="324"/>
-      <c r="G47" s="324"/>
+      <c r="C47" s="325"/>
+      <c r="D47" s="325"/>
+      <c r="E47" s="325"/>
+      <c r="F47" s="325"/>
+      <c r="G47" s="325"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="150"/>
-      <c r="C48" s="324"/>
-      <c r="D48" s="324"/>
-      <c r="E48" s="324"/>
-      <c r="F48" s="324"/>
-      <c r="G48" s="324"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
+      <c r="E48" s="325"/>
+      <c r="F48" s="325"/>
+      <c r="G48" s="325"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="150"/>
-      <c r="C49" s="324"/>
-      <c r="D49" s="324"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="324"/>
-      <c r="G49" s="324"/>
+      <c r="C49" s="325"/>
+      <c r="D49" s="325"/>
+      <c r="E49" s="325"/>
+      <c r="F49" s="325"/>
+      <c r="G49" s="325"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="150"/>
-      <c r="C50" s="324"/>
-      <c r="D50" s="324"/>
-      <c r="E50" s="324"/>
-      <c r="F50" s="324"/>
-      <c r="G50" s="324"/>
+      <c r="C50" s="325"/>
+      <c r="D50" s="325"/>
+      <c r="E50" s="325"/>
+      <c r="F50" s="325"/>
+      <c r="G50" s="325"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="150"/>
-      <c r="C51" s="324"/>
-      <c r="D51" s="324"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="324"/>
-      <c r="G51" s="324"/>
+      <c r="C51" s="325"/>
+      <c r="D51" s="325"/>
+      <c r="E51" s="325"/>
+      <c r="F51" s="325"/>
+      <c r="G51" s="325"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="150"/>
-      <c r="C52" s="324"/>
-      <c r="D52" s="324"/>
-      <c r="E52" s="324"/>
-      <c r="F52" s="324"/>
-      <c r="G52" s="324"/>
+      <c r="C52" s="325"/>
+      <c r="D52" s="325"/>
+      <c r="E52" s="325"/>
+      <c r="F52" s="325"/>
+      <c r="G52" s="325"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="150"/>
-      <c r="C53" s="324"/>
-      <c r="D53" s="324"/>
-      <c r="E53" s="324"/>
-      <c r="F53" s="324"/>
-      <c r="G53" s="324"/>
+      <c r="C53" s="325"/>
+      <c r="D53" s="325"/>
+      <c r="E53" s="325"/>
+      <c r="F53" s="325"/>
+      <c r="G53" s="325"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="150"/>
-      <c r="C54" s="324"/>
-      <c r="D54" s="324"/>
-      <c r="E54" s="324"/>
-      <c r="F54" s="324"/>
-      <c r="G54" s="324"/>
+      <c r="C54" s="325"/>
+      <c r="D54" s="325"/>
+      <c r="E54" s="325"/>
+      <c r="F54" s="325"/>
+      <c r="G54" s="325"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="150"/>
-      <c r="C55" s="324"/>
-      <c r="D55" s="324"/>
-      <c r="E55" s="324"/>
-      <c r="F55" s="324"/>
-      <c r="G55" s="324"/>
+      <c r="C55" s="325"/>
+      <c r="D55" s="325"/>
+      <c r="E55" s="325"/>
+      <c r="F55" s="325"/>
+      <c r="G55" s="325"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="150"/>
-      <c r="C56" s="324"/>
-      <c r="D56" s="324"/>
-      <c r="E56" s="324"/>
-      <c r="F56" s="324"/>
-      <c r="G56" s="324"/>
+      <c r="C56" s="325"/>
+      <c r="D56" s="325"/>
+      <c r="E56" s="325"/>
+      <c r="F56" s="325"/>
+      <c r="G56" s="325"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="150"/>
-      <c r="C57" s="324"/>
-      <c r="D57" s="324"/>
-      <c r="E57" s="324"/>
-      <c r="F57" s="324"/>
-      <c r="G57" s="324"/>
+      <c r="C57" s="325"/>
+      <c r="D57" s="325"/>
+      <c r="E57" s="325"/>
+      <c r="F57" s="325"/>
+      <c r="G57" s="325"/>
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="323" t="s">
-        <v>648</v>
+      <c r="C58" s="324" t="s">
+        <v>649</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="167"/>
@@ -31267,48 +31359,48 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="150"/>
-      <c r="C60" s="299" t="s">
-        <v>649</v>
-      </c>
-      <c r="D60" s="299"/>
-      <c r="E60" s="299"/>
-      <c r="F60" s="299"/>
-      <c r="G60" s="299"/>
+      <c r="C60" s="300" t="s">
+        <v>650</v>
+      </c>
+      <c r="D60" s="300"/>
+      <c r="E60" s="300"/>
+      <c r="F60" s="300"/>
+      <c r="G60" s="300"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150"/>
-      <c r="C61" s="324" t="str">
+      <c r="C61" s="325" t="str">
         <f aca="false">A44</f>
         <v>[:huomiot :lisatietoja-fi]</v>
       </c>
-      <c r="D61" s="324"/>
-      <c r="E61" s="324"/>
-      <c r="F61" s="324"/>
-      <c r="G61" s="324"/>
+      <c r="D61" s="325"/>
+      <c r="E61" s="325"/>
+      <c r="F61" s="325"/>
+      <c r="G61" s="325"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="324"/>
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
+      <c r="C62" s="325"/>
+      <c r="D62" s="325"/>
+      <c r="E62" s="325"/>
+      <c r="F62" s="325"/>
+      <c r="G62" s="325"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="324"/>
-      <c r="D63" s="324"/>
-      <c r="E63" s="324"/>
-      <c r="F63" s="324"/>
-      <c r="G63" s="324"/>
+      <c r="C63" s="325"/>
+      <c r="D63" s="325"/>
+      <c r="E63" s="325"/>
+      <c r="F63" s="325"/>
+      <c r="G63" s="325"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="324"/>
-      <c r="D64" s="324"/>
-      <c r="E64" s="324"/>
-      <c r="F64" s="324"/>
-      <c r="G64" s="324"/>
+      <c r="C64" s="325"/>
+      <c r="D64" s="325"/>
+      <c r="E64" s="325"/>
+      <c r="F64" s="325"/>
+      <c r="G64" s="325"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="143"/>
@@ -31337,102 +31429,102 @@
     <mergeCell ref="C61:G64"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:D16 B13:C16 H13:AMJ17 B17 C45:C49 A65:AMJ1048576 A1:AMJ12 C42:G44 C57:G57 E59:AMJ59 A58:AMJ58 B59:B63 H60:AMJ64 C61:C63 B39:B57 H39:AMJ57 B19:B37 H19:AMJ37 C22:G22 C19:F21 D14">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="472">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="471">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="473">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="472">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:C64">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="474">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="473">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D36 C33 C23:G32 C39:C41">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="475">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="474">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:D37">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="476">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="475">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C56">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="477">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="476">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="478">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="477">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="479">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="478">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="480">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="479">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="481">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="480">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="482">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="481">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38 H38:AMJ38">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="483">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="482">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:F38">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="484">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="483">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="485">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="484">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 H18:AMJ18">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="486">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="485">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:F18">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="487">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="486">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="488">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="487">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:F41">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="489">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="488">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G21">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="490">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="489">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:G41">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="491">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="490">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31459,7 +31551,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="318" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="319" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="4" width="15.71"/>
@@ -31468,787 +31560,787 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="150" t="s">
-        <v>650</v>
-      </c>
-      <c r="C2" s="338" t="s">
         <v>651</v>
       </c>
-      <c r="D2" s="338"/>
-      <c r="E2" s="338"/>
-      <c r="F2" s="338"/>
-      <c r="G2" s="338"/>
-      <c r="H2" s="338"/>
-      <c r="I2" s="338"/>
+      <c r="C2" s="339" t="s">
+        <v>652</v>
+      </c>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="318" t="s">
-        <v>652</v>
-      </c>
-      <c r="C3" s="324" t="str">
+      <c r="A3" s="319" t="s">
+        <v>653</v>
+      </c>
+      <c r="C3" s="325" t="str">
         <f aca="false">A2</f>
         <v>[:lisamerkintoja-fi]</v>
       </c>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="324"/>
-      <c r="I3" s="324"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
+      <c r="H3" s="325"/>
+      <c r="I3" s="325"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="318" t="s">
-        <v>653</v>
-      </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
-      <c r="H4" s="324"/>
-      <c r="I4" s="324"/>
+      <c r="A4" s="319" t="s">
+        <v>654</v>
+      </c>
+      <c r="C4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="325"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="318" t="s">
-        <v>654</v>
-      </c>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
+      <c r="A5" s="319" t="s">
+        <v>655</v>
+      </c>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="H5" s="325"/>
+      <c r="I5" s="325"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="318" t="s">
-        <v>655</v>
-      </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
+      <c r="A6" s="319" t="s">
+        <v>656</v>
+      </c>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
+      <c r="H6" s="325"/>
+      <c r="I6" s="325"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="318" t="s">
-        <v>656</v>
-      </c>
-      <c r="C7" s="324"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
-      <c r="H7" s="324"/>
-      <c r="I7" s="324"/>
+      <c r="A7" s="319" t="s">
+        <v>657</v>
+      </c>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="325"/>
+      <c r="H7" s="325"/>
+      <c r="I7" s="325"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="318" t="s">
-        <v>657</v>
-      </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="324"/>
-      <c r="I8" s="324"/>
+      <c r="A8" s="319" t="s">
+        <v>658</v>
+      </c>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="325"/>
+      <c r="H8" s="325"/>
+      <c r="I8" s="325"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="318" t="s">
-        <v>658</v>
-      </c>
-      <c r="C9" s="324"/>
-      <c r="D9" s="324"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="324"/>
-      <c r="G9" s="324"/>
-      <c r="H9" s="324"/>
-      <c r="I9" s="324"/>
+      <c r="A9" s="319" t="s">
+        <v>659</v>
+      </c>
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
+      <c r="G9" s="325"/>
+      <c r="H9" s="325"/>
+      <c r="I9" s="325"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="318" t="s">
-        <v>659</v>
-      </c>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
-      <c r="H10" s="324"/>
-      <c r="I10" s="324"/>
+      <c r="A10" s="319" t="s">
+        <v>660</v>
+      </c>
+      <c r="C10" s="325"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
+      <c r="G10" s="325"/>
+      <c r="H10" s="325"/>
+      <c r="I10" s="325"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="318" t="s">
-        <v>660</v>
-      </c>
-      <c r="C11" s="324"/>
-      <c r="D11" s="324"/>
-      <c r="E11" s="324"/>
-      <c r="F11" s="324"/>
-      <c r="G11" s="324"/>
-      <c r="H11" s="324"/>
-      <c r="I11" s="324"/>
+      <c r="A11" s="319" t="s">
+        <v>661</v>
+      </c>
+      <c r="C11" s="325"/>
+      <c r="D11" s="325"/>
+      <c r="E11" s="325"/>
+      <c r="F11" s="325"/>
+      <c r="G11" s="325"/>
+      <c r="H11" s="325"/>
+      <c r="I11" s="325"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="318" t="s">
-        <v>661</v>
-      </c>
-      <c r="C12" s="324"/>
-      <c r="D12" s="324"/>
-      <c r="E12" s="324"/>
-      <c r="F12" s="324"/>
-      <c r="G12" s="324"/>
-      <c r="H12" s="324"/>
-      <c r="I12" s="324"/>
+      <c r="A12" s="319" t="s">
+        <v>662</v>
+      </c>
+      <c r="C12" s="325"/>
+      <c r="D12" s="325"/>
+      <c r="E12" s="325"/>
+      <c r="F12" s="325"/>
+      <c r="G12" s="325"/>
+      <c r="H12" s="325"/>
+      <c r="I12" s="325"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="318" t="s">
-        <v>662</v>
-      </c>
-      <c r="C13" s="324"/>
-      <c r="D13" s="324"/>
-      <c r="E13" s="324"/>
-      <c r="F13" s="324"/>
-      <c r="G13" s="324"/>
-      <c r="H13" s="324"/>
-      <c r="I13" s="324"/>
+      <c r="A13" s="319" t="s">
+        <v>663</v>
+      </c>
+      <c r="C13" s="325"/>
+      <c r="D13" s="325"/>
+      <c r="E13" s="325"/>
+      <c r="F13" s="325"/>
+      <c r="G13" s="325"/>
+      <c r="H13" s="325"/>
+      <c r="I13" s="325"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="318" t="s">
-        <v>663</v>
-      </c>
-      <c r="C14" s="324"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="324"/>
-      <c r="G14" s="324"/>
-      <c r="H14" s="324"/>
-      <c r="I14" s="324"/>
+      <c r="A14" s="319" t="s">
+        <v>664</v>
+      </c>
+      <c r="C14" s="325"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="325"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="325"/>
+      <c r="I14" s="325"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="318" t="s">
-        <v>664</v>
-      </c>
-      <c r="C15" s="324"/>
-      <c r="D15" s="324"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="324"/>
-      <c r="G15" s="324"/>
-      <c r="H15" s="324"/>
-      <c r="I15" s="324"/>
+      <c r="A15" s="319" t="s">
+        <v>665</v>
+      </c>
+      <c r="C15" s="325"/>
+      <c r="D15" s="325"/>
+      <c r="E15" s="325"/>
+      <c r="F15" s="325"/>
+      <c r="G15" s="325"/>
+      <c r="H15" s="325"/>
+      <c r="I15" s="325"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="318" t="s">
-        <v>665</v>
-      </c>
-      <c r="C16" s="324"/>
-      <c r="D16" s="324"/>
-      <c r="E16" s="324"/>
-      <c r="F16" s="324"/>
-      <c r="G16" s="324"/>
-      <c r="H16" s="324"/>
-      <c r="I16" s="324"/>
+      <c r="A16" s="319" t="s">
+        <v>666</v>
+      </c>
+      <c r="C16" s="325"/>
+      <c r="D16" s="325"/>
+      <c r="E16" s="325"/>
+      <c r="F16" s="325"/>
+      <c r="G16" s="325"/>
+      <c r="H16" s="325"/>
+      <c r="I16" s="325"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="318" t="s">
-        <v>666</v>
-      </c>
-      <c r="C17" s="324"/>
-      <c r="D17" s="324"/>
-      <c r="E17" s="324"/>
-      <c r="F17" s="324"/>
-      <c r="G17" s="324"/>
-      <c r="H17" s="324"/>
-      <c r="I17" s="324"/>
+      <c r="A17" s="319" t="s">
+        <v>667</v>
+      </c>
+      <c r="C17" s="325"/>
+      <c r="D17" s="325"/>
+      <c r="E17" s="325"/>
+      <c r="F17" s="325"/>
+      <c r="G17" s="325"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="325"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="318" t="s">
-        <v>667</v>
-      </c>
-      <c r="C18" s="324"/>
-      <c r="D18" s="324"/>
-      <c r="E18" s="324"/>
-      <c r="F18" s="324"/>
-      <c r="G18" s="324"/>
-      <c r="H18" s="324"/>
-      <c r="I18" s="324"/>
+      <c r="A18" s="319" t="s">
+        <v>668</v>
+      </c>
+      <c r="C18" s="325"/>
+      <c r="D18" s="325"/>
+      <c r="E18" s="325"/>
+      <c r="F18" s="325"/>
+      <c r="G18" s="325"/>
+      <c r="H18" s="325"/>
+      <c r="I18" s="325"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="318" t="s">
-        <v>668</v>
-      </c>
-      <c r="C19" s="324"/>
-      <c r="D19" s="324"/>
-      <c r="E19" s="324"/>
-      <c r="F19" s="324"/>
-      <c r="G19" s="324"/>
-      <c r="H19" s="324"/>
-      <c r="I19" s="324"/>
+      <c r="A19" s="319" t="s">
+        <v>669</v>
+      </c>
+      <c r="C19" s="325"/>
+      <c r="D19" s="325"/>
+      <c r="E19" s="325"/>
+      <c r="F19" s="325"/>
+      <c r="G19" s="325"/>
+      <c r="H19" s="325"/>
+      <c r="I19" s="325"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="318" t="s">
-        <v>669</v>
-      </c>
-      <c r="C20" s="324"/>
-      <c r="D20" s="324"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="324"/>
-      <c r="G20" s="324"/>
-      <c r="H20" s="324"/>
-      <c r="I20" s="324"/>
+      <c r="A20" s="319" t="s">
+        <v>670</v>
+      </c>
+      <c r="C20" s="325"/>
+      <c r="D20" s="325"/>
+      <c r="E20" s="325"/>
+      <c r="F20" s="325"/>
+      <c r="G20" s="325"/>
+      <c r="H20" s="325"/>
+      <c r="I20" s="325"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="318" t="s">
-        <v>670</v>
-      </c>
-      <c r="C21" s="324"/>
-      <c r="D21" s="324"/>
-      <c r="E21" s="324"/>
-      <c r="F21" s="324"/>
-      <c r="G21" s="324"/>
-      <c r="H21" s="324"/>
-      <c r="I21" s="324"/>
+      <c r="A21" s="319" t="s">
+        <v>671</v>
+      </c>
+      <c r="C21" s="325"/>
+      <c r="D21" s="325"/>
+      <c r="E21" s="325"/>
+      <c r="F21" s="325"/>
+      <c r="G21" s="325"/>
+      <c r="H21" s="325"/>
+      <c r="I21" s="325"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="318" t="s">
-        <v>671</v>
-      </c>
-      <c r="C22" s="324"/>
-      <c r="D22" s="324"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="324"/>
-      <c r="G22" s="324"/>
-      <c r="H22" s="324"/>
-      <c r="I22" s="324"/>
+      <c r="A22" s="319" t="s">
+        <v>672</v>
+      </c>
+      <c r="C22" s="325"/>
+      <c r="D22" s="325"/>
+      <c r="E22" s="325"/>
+      <c r="F22" s="325"/>
+      <c r="G22" s="325"/>
+      <c r="H22" s="325"/>
+      <c r="I22" s="325"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="318" t="s">
-        <v>672</v>
-      </c>
-      <c r="C23" s="324"/>
-      <c r="D23" s="324"/>
-      <c r="E23" s="324"/>
-      <c r="F23" s="324"/>
-      <c r="G23" s="324"/>
-      <c r="H23" s="324"/>
-      <c r="I23" s="324"/>
+      <c r="A23" s="319" t="s">
+        <v>673</v>
+      </c>
+      <c r="C23" s="325"/>
+      <c r="D23" s="325"/>
+      <c r="E23" s="325"/>
+      <c r="F23" s="325"/>
+      <c r="G23" s="325"/>
+      <c r="H23" s="325"/>
+      <c r="I23" s="325"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="318" t="s">
-        <v>673</v>
-      </c>
-      <c r="C24" s="324"/>
-      <c r="D24" s="324"/>
-      <c r="E24" s="324"/>
-      <c r="F24" s="324"/>
-      <c r="G24" s="324"/>
-      <c r="H24" s="324"/>
-      <c r="I24" s="324"/>
+      <c r="A24" s="319" t="s">
+        <v>674</v>
+      </c>
+      <c r="C24" s="325"/>
+      <c r="D24" s="325"/>
+      <c r="E24" s="325"/>
+      <c r="F24" s="325"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="318" t="s">
-        <v>674</v>
-      </c>
-      <c r="C25" s="324"/>
-      <c r="D25" s="324"/>
-      <c r="E25" s="324"/>
-      <c r="F25" s="324"/>
-      <c r="G25" s="324"/>
-      <c r="H25" s="324"/>
-      <c r="I25" s="324"/>
+      <c r="A25" s="319" t="s">
+        <v>675</v>
+      </c>
+      <c r="C25" s="325"/>
+      <c r="D25" s="325"/>
+      <c r="E25" s="325"/>
+      <c r="F25" s="325"/>
+      <c r="G25" s="325"/>
+      <c r="H25" s="325"/>
+      <c r="I25" s="325"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="318" t="s">
-        <v>675</v>
-      </c>
-      <c r="C26" s="324"/>
-      <c r="D26" s="324"/>
-      <c r="E26" s="324"/>
-      <c r="F26" s="324"/>
-      <c r="G26" s="324"/>
-      <c r="H26" s="324"/>
-      <c r="I26" s="324"/>
+      <c r="A26" s="319" t="s">
+        <v>676</v>
+      </c>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
+      <c r="E26" s="325"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="325"/>
+      <c r="H26" s="325"/>
+      <c r="I26" s="325"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="318" t="s">
-        <v>676</v>
-      </c>
-      <c r="C27" s="324"/>
-      <c r="D27" s="324"/>
-      <c r="E27" s="324"/>
-      <c r="F27" s="324"/>
-      <c r="G27" s="324"/>
-      <c r="H27" s="324"/>
-      <c r="I27" s="324"/>
+      <c r="A27" s="319" t="s">
+        <v>677</v>
+      </c>
+      <c r="C27" s="325"/>
+      <c r="D27" s="325"/>
+      <c r="E27" s="325"/>
+      <c r="F27" s="325"/>
+      <c r="G27" s="325"/>
+      <c r="H27" s="325"/>
+      <c r="I27" s="325"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="318" t="s">
-        <v>677</v>
-      </c>
-      <c r="C28" s="324"/>
-      <c r="D28" s="324"/>
-      <c r="E28" s="324"/>
-      <c r="F28" s="324"/>
-      <c r="G28" s="324"/>
-      <c r="H28" s="324"/>
-      <c r="I28" s="324"/>
+      <c r="A28" s="319" t="s">
+        <v>678</v>
+      </c>
+      <c r="C28" s="325"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="325"/>
+      <c r="I28" s="325"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="318" t="s">
-        <v>678</v>
-      </c>
-      <c r="C29" s="324"/>
-      <c r="D29" s="324"/>
-      <c r="E29" s="324"/>
-      <c r="F29" s="324"/>
-      <c r="G29" s="324"/>
-      <c r="H29" s="324"/>
-      <c r="I29" s="324"/>
+      <c r="A29" s="319" t="s">
+        <v>679</v>
+      </c>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325"/>
+      <c r="E29" s="325"/>
+      <c r="F29" s="325"/>
+      <c r="G29" s="325"/>
+      <c r="H29" s="325"/>
+      <c r="I29" s="325"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="318" t="s">
-        <v>679</v>
-      </c>
-      <c r="C30" s="324"/>
-      <c r="D30" s="324"/>
-      <c r="E30" s="324"/>
-      <c r="F30" s="324"/>
-      <c r="G30" s="324"/>
-      <c r="H30" s="324"/>
-      <c r="I30" s="324"/>
+      <c r="A30" s="319" t="s">
+        <v>680</v>
+      </c>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
+      <c r="E30" s="325"/>
+      <c r="F30" s="325"/>
+      <c r="G30" s="325"/>
+      <c r="H30" s="325"/>
+      <c r="I30" s="325"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="318" t="s">
-        <v>680</v>
-      </c>
-      <c r="C31" s="324"/>
-      <c r="D31" s="324"/>
-      <c r="E31" s="324"/>
-      <c r="F31" s="324"/>
-      <c r="G31" s="324"/>
-      <c r="H31" s="324"/>
-      <c r="I31" s="324"/>
+      <c r="A31" s="319" t="s">
+        <v>681</v>
+      </c>
+      <c r="C31" s="325"/>
+      <c r="D31" s="325"/>
+      <c r="E31" s="325"/>
+      <c r="F31" s="325"/>
+      <c r="G31" s="325"/>
+      <c r="H31" s="325"/>
+      <c r="I31" s="325"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="318" t="s">
-        <v>681</v>
-      </c>
-      <c r="C32" s="324"/>
-      <c r="D32" s="324"/>
-      <c r="E32" s="324"/>
-      <c r="F32" s="324"/>
-      <c r="G32" s="324"/>
-      <c r="H32" s="324"/>
-      <c r="I32" s="324"/>
+      <c r="A32" s="319" t="s">
+        <v>682</v>
+      </c>
+      <c r="C32" s="325"/>
+      <c r="D32" s="325"/>
+      <c r="E32" s="325"/>
+      <c r="F32" s="325"/>
+      <c r="G32" s="325"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="325"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="318" t="s">
-        <v>682</v>
-      </c>
-      <c r="C33" s="324"/>
-      <c r="D33" s="324"/>
-      <c r="E33" s="324"/>
-      <c r="F33" s="324"/>
-      <c r="G33" s="324"/>
-      <c r="H33" s="324"/>
-      <c r="I33" s="324"/>
+      <c r="A33" s="319" t="s">
+        <v>683</v>
+      </c>
+      <c r="C33" s="325"/>
+      <c r="D33" s="325"/>
+      <c r="E33" s="325"/>
+      <c r="F33" s="325"/>
+      <c r="G33" s="325"/>
+      <c r="H33" s="325"/>
+      <c r="I33" s="325"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="318" t="s">
-        <v>683</v>
-      </c>
-      <c r="C34" s="324"/>
-      <c r="D34" s="324"/>
-      <c r="E34" s="324"/>
-      <c r="F34" s="324"/>
-      <c r="G34" s="324"/>
-      <c r="H34" s="324"/>
-      <c r="I34" s="324"/>
+      <c r="A34" s="319" t="s">
+        <v>684</v>
+      </c>
+      <c r="C34" s="325"/>
+      <c r="D34" s="325"/>
+      <c r="E34" s="325"/>
+      <c r="F34" s="325"/>
+      <c r="G34" s="325"/>
+      <c r="H34" s="325"/>
+      <c r="I34" s="325"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="318" t="s">
-        <v>684</v>
-      </c>
-      <c r="C35" s="324"/>
-      <c r="D35" s="324"/>
-      <c r="E35" s="324"/>
-      <c r="F35" s="324"/>
-      <c r="G35" s="324"/>
-      <c r="H35" s="324"/>
-      <c r="I35" s="324"/>
+      <c r="A35" s="319" t="s">
+        <v>685</v>
+      </c>
+      <c r="C35" s="325"/>
+      <c r="D35" s="325"/>
+      <c r="E35" s="325"/>
+      <c r="F35" s="325"/>
+      <c r="G35" s="325"/>
+      <c r="H35" s="325"/>
+      <c r="I35" s="325"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="318" t="s">
-        <v>685</v>
-      </c>
-      <c r="C36" s="324"/>
-      <c r="D36" s="324"/>
-      <c r="E36" s="324"/>
-      <c r="F36" s="324"/>
-      <c r="G36" s="324"/>
-      <c r="H36" s="324"/>
-      <c r="I36" s="324"/>
+      <c r="A36" s="319" t="s">
+        <v>686</v>
+      </c>
+      <c r="C36" s="325"/>
+      <c r="D36" s="325"/>
+      <c r="E36" s="325"/>
+      <c r="F36" s="325"/>
+      <c r="G36" s="325"/>
+      <c r="H36" s="325"/>
+      <c r="I36" s="325"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="318" t="s">
-        <v>686</v>
-      </c>
-      <c r="C37" s="324"/>
-      <c r="D37" s="324"/>
-      <c r="E37" s="324"/>
-      <c r="F37" s="324"/>
-      <c r="G37" s="324"/>
-      <c r="H37" s="324"/>
-      <c r="I37" s="324"/>
+      <c r="A37" s="319" t="s">
+        <v>687</v>
+      </c>
+      <c r="C37" s="325"/>
+      <c r="D37" s="325"/>
+      <c r="E37" s="325"/>
+      <c r="F37" s="325"/>
+      <c r="G37" s="325"/>
+      <c r="H37" s="325"/>
+      <c r="I37" s="325"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="318" t="s">
-        <v>687</v>
-      </c>
-      <c r="C38" s="324"/>
-      <c r="D38" s="324"/>
-      <c r="E38" s="324"/>
-      <c r="F38" s="324"/>
-      <c r="G38" s="324"/>
-      <c r="H38" s="324"/>
-      <c r="I38" s="324"/>
+      <c r="A38" s="319" t="s">
+        <v>688</v>
+      </c>
+      <c r="C38" s="325"/>
+      <c r="D38" s="325"/>
+      <c r="E38" s="325"/>
+      <c r="F38" s="325"/>
+      <c r="G38" s="325"/>
+      <c r="H38" s="325"/>
+      <c r="I38" s="325"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="318" t="s">
-        <v>688</v>
-      </c>
-      <c r="C39" s="324"/>
-      <c r="D39" s="324"/>
-      <c r="E39" s="324"/>
-      <c r="F39" s="324"/>
-      <c r="G39" s="324"/>
-      <c r="H39" s="324"/>
-      <c r="I39" s="324"/>
+      <c r="A39" s="319" t="s">
+        <v>689</v>
+      </c>
+      <c r="C39" s="325"/>
+      <c r="D39" s="325"/>
+      <c r="E39" s="325"/>
+      <c r="F39" s="325"/>
+      <c r="G39" s="325"/>
+      <c r="H39" s="325"/>
+      <c r="I39" s="325"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="318" t="s">
-        <v>689</v>
-      </c>
-      <c r="C40" s="324"/>
-      <c r="D40" s="324"/>
-      <c r="E40" s="324"/>
-      <c r="F40" s="324"/>
-      <c r="G40" s="324"/>
-      <c r="H40" s="324"/>
-      <c r="I40" s="324"/>
+      <c r="A40" s="319" t="s">
+        <v>690</v>
+      </c>
+      <c r="C40" s="325"/>
+      <c r="D40" s="325"/>
+      <c r="E40" s="325"/>
+      <c r="F40" s="325"/>
+      <c r="G40" s="325"/>
+      <c r="H40" s="325"/>
+      <c r="I40" s="325"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="318" t="s">
-        <v>690</v>
-      </c>
-      <c r="C41" s="324"/>
-      <c r="D41" s="324"/>
-      <c r="E41" s="324"/>
-      <c r="F41" s="324"/>
-      <c r="G41" s="324"/>
-      <c r="H41" s="324"/>
-      <c r="I41" s="324"/>
+      <c r="A41" s="319" t="s">
+        <v>691</v>
+      </c>
+      <c r="C41" s="325"/>
+      <c r="D41" s="325"/>
+      <c r="E41" s="325"/>
+      <c r="F41" s="325"/>
+      <c r="G41" s="325"/>
+      <c r="H41" s="325"/>
+      <c r="I41" s="325"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="318" t="s">
-        <v>691</v>
-      </c>
-      <c r="C42" s="324"/>
-      <c r="D42" s="324"/>
-      <c r="E42" s="324"/>
-      <c r="F42" s="324"/>
-      <c r="G42" s="324"/>
-      <c r="H42" s="324"/>
-      <c r="I42" s="324"/>
+      <c r="A42" s="319" t="s">
+        <v>692</v>
+      </c>
+      <c r="C42" s="325"/>
+      <c r="D42" s="325"/>
+      <c r="E42" s="325"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="325"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="318" t="s">
-        <v>692</v>
-      </c>
-      <c r="C43" s="324"/>
-      <c r="D43" s="324"/>
-      <c r="E43" s="324"/>
-      <c r="F43" s="324"/>
-      <c r="G43" s="324"/>
-      <c r="H43" s="324"/>
-      <c r="I43" s="324"/>
+      <c r="A43" s="319" t="s">
+        <v>693</v>
+      </c>
+      <c r="C43" s="325"/>
+      <c r="D43" s="325"/>
+      <c r="E43" s="325"/>
+      <c r="F43" s="325"/>
+      <c r="G43" s="325"/>
+      <c r="H43" s="325"/>
+      <c r="I43" s="325"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="318" t="s">
-        <v>693</v>
-      </c>
-      <c r="C44" s="324"/>
-      <c r="D44" s="324"/>
-      <c r="E44" s="324"/>
-      <c r="F44" s="324"/>
-      <c r="G44" s="324"/>
-      <c r="H44" s="324"/>
-      <c r="I44" s="324"/>
+      <c r="A44" s="319" t="s">
+        <v>694</v>
+      </c>
+      <c r="C44" s="325"/>
+      <c r="D44" s="325"/>
+      <c r="E44" s="325"/>
+      <c r="F44" s="325"/>
+      <c r="G44" s="325"/>
+      <c r="H44" s="325"/>
+      <c r="I44" s="325"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="318" t="s">
-        <v>694</v>
-      </c>
-      <c r="C45" s="324"/>
-      <c r="D45" s="324"/>
-      <c r="E45" s="324"/>
-      <c r="F45" s="324"/>
-      <c r="G45" s="324"/>
-      <c r="H45" s="324"/>
-      <c r="I45" s="324"/>
+      <c r="A45" s="319" t="s">
+        <v>695</v>
+      </c>
+      <c r="C45" s="325"/>
+      <c r="D45" s="325"/>
+      <c r="E45" s="325"/>
+      <c r="F45" s="325"/>
+      <c r="G45" s="325"/>
+      <c r="H45" s="325"/>
+      <c r="I45" s="325"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="318" t="s">
-        <v>695</v>
-      </c>
-      <c r="C46" s="324"/>
-      <c r="D46" s="324"/>
-      <c r="E46" s="324"/>
-      <c r="F46" s="324"/>
-      <c r="G46" s="324"/>
-      <c r="H46" s="324"/>
-      <c r="I46" s="324"/>
+      <c r="A46" s="319" t="s">
+        <v>696</v>
+      </c>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
+      <c r="E46" s="325"/>
+      <c r="F46" s="325"/>
+      <c r="G46" s="325"/>
+      <c r="H46" s="325"/>
+      <c r="I46" s="325"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="318" t="s">
-        <v>696</v>
-      </c>
-      <c r="C47" s="324"/>
-      <c r="D47" s="324"/>
-      <c r="E47" s="324"/>
-      <c r="F47" s="324"/>
-      <c r="G47" s="324"/>
-      <c r="H47" s="324"/>
-      <c r="I47" s="324"/>
+      <c r="A47" s="319" t="s">
+        <v>697</v>
+      </c>
+      <c r="C47" s="325"/>
+      <c r="D47" s="325"/>
+      <c r="E47" s="325"/>
+      <c r="F47" s="325"/>
+      <c r="G47" s="325"/>
+      <c r="H47" s="325"/>
+      <c r="I47" s="325"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="318" t="s">
-        <v>697</v>
-      </c>
-      <c r="C48" s="324"/>
-      <c r="D48" s="324"/>
-      <c r="E48" s="324"/>
-      <c r="F48" s="324"/>
-      <c r="G48" s="324"/>
-      <c r="H48" s="324"/>
-      <c r="I48" s="324"/>
+      <c r="A48" s="319" t="s">
+        <v>698</v>
+      </c>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
+      <c r="E48" s="325"/>
+      <c r="F48" s="325"/>
+      <c r="G48" s="325"/>
+      <c r="H48" s="325"/>
+      <c r="I48" s="325"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="318" t="s">
-        <v>698</v>
-      </c>
-      <c r="C49" s="324"/>
-      <c r="D49" s="324"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="324"/>
-      <c r="G49" s="324"/>
-      <c r="H49" s="324"/>
-      <c r="I49" s="324"/>
+      <c r="A49" s="319" t="s">
+        <v>699</v>
+      </c>
+      <c r="C49" s="325"/>
+      <c r="D49" s="325"/>
+      <c r="E49" s="325"/>
+      <c r="F49" s="325"/>
+      <c r="G49" s="325"/>
+      <c r="H49" s="325"/>
+      <c r="I49" s="325"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="318" t="s">
-        <v>699</v>
-      </c>
-      <c r="C50" s="324"/>
-      <c r="D50" s="324"/>
-      <c r="E50" s="324"/>
-      <c r="F50" s="324"/>
-      <c r="G50" s="324"/>
-      <c r="H50" s="324"/>
-      <c r="I50" s="324"/>
+      <c r="A50" s="319" t="s">
+        <v>700</v>
+      </c>
+      <c r="C50" s="325"/>
+      <c r="D50" s="325"/>
+      <c r="E50" s="325"/>
+      <c r="F50" s="325"/>
+      <c r="G50" s="325"/>
+      <c r="H50" s="325"/>
+      <c r="I50" s="325"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="318" t="s">
-        <v>700</v>
-      </c>
-      <c r="C51" s="324"/>
-      <c r="D51" s="324"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="324"/>
-      <c r="G51" s="324"/>
-      <c r="H51" s="324"/>
-      <c r="I51" s="324"/>
+      <c r="A51" s="319" t="s">
+        <v>701</v>
+      </c>
+      <c r="C51" s="325"/>
+      <c r="D51" s="325"/>
+      <c r="E51" s="325"/>
+      <c r="F51" s="325"/>
+      <c r="G51" s="325"/>
+      <c r="H51" s="325"/>
+      <c r="I51" s="325"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="318" t="s">
-        <v>701</v>
-      </c>
-      <c r="C52" s="324"/>
-      <c r="D52" s="324"/>
-      <c r="E52" s="324"/>
-      <c r="F52" s="324"/>
-      <c r="G52" s="324"/>
-      <c r="H52" s="324"/>
-      <c r="I52" s="324"/>
+      <c r="A52" s="319" t="s">
+        <v>702</v>
+      </c>
+      <c r="C52" s="325"/>
+      <c r="D52" s="325"/>
+      <c r="E52" s="325"/>
+      <c r="F52" s="325"/>
+      <c r="G52" s="325"/>
+      <c r="H52" s="325"/>
+      <c r="I52" s="325"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="318" t="s">
-        <v>702</v>
-      </c>
-      <c r="C53" s="324"/>
-      <c r="D53" s="324"/>
-      <c r="E53" s="324"/>
-      <c r="F53" s="324"/>
-      <c r="G53" s="324"/>
-      <c r="H53" s="324"/>
-      <c r="I53" s="324"/>
+      <c r="A53" s="319" t="s">
+        <v>703</v>
+      </c>
+      <c r="C53" s="325"/>
+      <c r="D53" s="325"/>
+      <c r="E53" s="325"/>
+      <c r="F53" s="325"/>
+      <c r="G53" s="325"/>
+      <c r="H53" s="325"/>
+      <c r="I53" s="325"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="318" t="s">
-        <v>703</v>
-      </c>
-      <c r="C54" s="324"/>
-      <c r="D54" s="324"/>
-      <c r="E54" s="324"/>
-      <c r="F54" s="324"/>
-      <c r="G54" s="324"/>
-      <c r="H54" s="324"/>
-      <c r="I54" s="324"/>
+      <c r="A54" s="319" t="s">
+        <v>704</v>
+      </c>
+      <c r="C54" s="325"/>
+      <c r="D54" s="325"/>
+      <c r="E54" s="325"/>
+      <c r="F54" s="325"/>
+      <c r="G54" s="325"/>
+      <c r="H54" s="325"/>
+      <c r="I54" s="325"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="318" t="s">
-        <v>704</v>
-      </c>
-      <c r="C55" s="324"/>
-      <c r="D55" s="324"/>
-      <c r="E55" s="324"/>
-      <c r="F55" s="324"/>
-      <c r="G55" s="324"/>
-      <c r="H55" s="324"/>
-      <c r="I55" s="324"/>
+      <c r="A55" s="319" t="s">
+        <v>705</v>
+      </c>
+      <c r="C55" s="325"/>
+      <c r="D55" s="325"/>
+      <c r="E55" s="325"/>
+      <c r="F55" s="325"/>
+      <c r="G55" s="325"/>
+      <c r="H55" s="325"/>
+      <c r="I55" s="325"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="318" t="s">
-        <v>705</v>
-      </c>
-      <c r="C56" s="324"/>
-      <c r="D56" s="324"/>
-      <c r="E56" s="324"/>
-      <c r="F56" s="324"/>
-      <c r="G56" s="324"/>
-      <c r="H56" s="324"/>
-      <c r="I56" s="324"/>
+      <c r="A56" s="319" t="s">
+        <v>706</v>
+      </c>
+      <c r="C56" s="325"/>
+      <c r="D56" s="325"/>
+      <c r="E56" s="325"/>
+      <c r="F56" s="325"/>
+      <c r="G56" s="325"/>
+      <c r="H56" s="325"/>
+      <c r="I56" s="325"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="318" t="s">
-        <v>706</v>
-      </c>
-      <c r="C57" s="324"/>
-      <c r="D57" s="324"/>
-      <c r="E57" s="324"/>
-      <c r="F57" s="324"/>
-      <c r="G57" s="324"/>
-      <c r="H57" s="324"/>
-      <c r="I57" s="324"/>
+      <c r="A57" s="319" t="s">
+        <v>707</v>
+      </c>
+      <c r="C57" s="325"/>
+      <c r="D57" s="325"/>
+      <c r="E57" s="325"/>
+      <c r="F57" s="325"/>
+      <c r="G57" s="325"/>
+      <c r="H57" s="325"/>
+      <c r="I57" s="325"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="318" t="s">
-        <v>707</v>
-      </c>
-      <c r="C58" s="324"/>
-      <c r="D58" s="324"/>
-      <c r="E58" s="324"/>
-      <c r="F58" s="324"/>
-      <c r="G58" s="324"/>
-      <c r="H58" s="324"/>
-      <c r="I58" s="324"/>
+      <c r="A58" s="319" t="s">
+        <v>708</v>
+      </c>
+      <c r="C58" s="325"/>
+      <c r="D58" s="325"/>
+      <c r="E58" s="325"/>
+      <c r="F58" s="325"/>
+      <c r="G58" s="325"/>
+      <c r="H58" s="325"/>
+      <c r="I58" s="325"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="318" t="s">
-        <v>708</v>
-      </c>
-      <c r="C59" s="324"/>
-      <c r="D59" s="324"/>
-      <c r="E59" s="324"/>
-      <c r="F59" s="324"/>
-      <c r="G59" s="324"/>
-      <c r="H59" s="324"/>
-      <c r="I59" s="324"/>
+      <c r="A59" s="319" t="s">
+        <v>709</v>
+      </c>
+      <c r="C59" s="325"/>
+      <c r="D59" s="325"/>
+      <c r="E59" s="325"/>
+      <c r="F59" s="325"/>
+      <c r="G59" s="325"/>
+      <c r="H59" s="325"/>
+      <c r="I59" s="325"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="318" t="s">
-        <v>709</v>
-      </c>
-      <c r="C60" s="324"/>
-      <c r="D60" s="324"/>
-      <c r="E60" s="324"/>
-      <c r="F60" s="324"/>
-      <c r="G60" s="324"/>
-      <c r="H60" s="324"/>
-      <c r="I60" s="324"/>
+      <c r="A60" s="319" t="s">
+        <v>710</v>
+      </c>
+      <c r="C60" s="325"/>
+      <c r="D60" s="325"/>
+      <c r="E60" s="325"/>
+      <c r="F60" s="325"/>
+      <c r="G60" s="325"/>
+      <c r="H60" s="325"/>
+      <c r="I60" s="325"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="318" t="s">
-        <v>710</v>
-      </c>
-      <c r="C61" s="324"/>
-      <c r="D61" s="324"/>
-      <c r="E61" s="324"/>
-      <c r="F61" s="324"/>
-      <c r="G61" s="324"/>
-      <c r="H61" s="324"/>
-      <c r="I61" s="324"/>
+      <c r="A61" s="319" t="s">
+        <v>711</v>
+      </c>
+      <c r="C61" s="325"/>
+      <c r="D61" s="325"/>
+      <c r="E61" s="325"/>
+      <c r="F61" s="325"/>
+      <c r="G61" s="325"/>
+      <c r="H61" s="325"/>
+      <c r="I61" s="325"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="318" t="s">
-        <v>711</v>
-      </c>
-      <c r="C62" s="324"/>
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="324"/>
-      <c r="I62" s="324"/>
+      <c r="A62" s="319" t="s">
+        <v>712</v>
+      </c>
+      <c r="C62" s="325"/>
+      <c r="D62" s="325"/>
+      <c r="E62" s="325"/>
+      <c r="F62" s="325"/>
+      <c r="G62" s="325"/>
+      <c r="H62" s="325"/>
+      <c r="I62" s="325"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="318" t="s">
-        <v>712</v>
-      </c>
-      <c r="C63" s="324"/>
-      <c r="D63" s="324"/>
-      <c r="E63" s="324"/>
-      <c r="F63" s="324"/>
-      <c r="G63" s="324"/>
-      <c r="H63" s="324"/>
-      <c r="I63" s="324"/>
+      <c r="A63" s="319" t="s">
+        <v>713</v>
+      </c>
+      <c r="C63" s="325"/>
+      <c r="D63" s="325"/>
+      <c r="E63" s="325"/>
+      <c r="F63" s="325"/>
+      <c r="G63" s="325"/>
+      <c r="H63" s="325"/>
+      <c r="I63" s="325"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="318" t="s">
-        <v>713</v>
-      </c>
-      <c r="C64" s="324"/>
-      <c r="D64" s="324"/>
-      <c r="E64" s="324"/>
-      <c r="F64" s="324"/>
-      <c r="G64" s="324"/>
-      <c r="H64" s="324"/>
-      <c r="I64" s="324"/>
+      <c r="A64" s="319" t="s">
+        <v>714</v>
+      </c>
+      <c r="C64" s="325"/>
+      <c r="D64" s="325"/>
+      <c r="E64" s="325"/>
+      <c r="F64" s="325"/>
+      <c r="G64" s="325"/>
+      <c r="H64" s="325"/>
+      <c r="I64" s="325"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="318" t="s">
-        <v>714</v>
-      </c>
-      <c r="C65" s="324"/>
-      <c r="D65" s="324"/>
-      <c r="E65" s="324"/>
-      <c r="F65" s="324"/>
-      <c r="G65" s="324"/>
-      <c r="H65" s="324"/>
-      <c r="I65" s="324"/>
+      <c r="A65" s="319" t="s">
+        <v>715</v>
+      </c>
+      <c r="C65" s="325"/>
+      <c r="D65" s="325"/>
+      <c r="E65" s="325"/>
+      <c r="F65" s="325"/>
+      <c r="G65" s="325"/>
+      <c r="H65" s="325"/>
+      <c r="I65" s="325"/>
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="318" t="s">
-        <v>715</v>
+      <c r="A66" s="319" t="s">
+        <v>716</v>
       </c>
       <c r="C66" s="143"/>
       <c r="D66" s="144"/>
@@ -32259,373 +32351,373 @@
       <c r="I66" s="157"/>
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="318" t="s">
-        <v>716</v>
+      <c r="A67" s="319" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="318" t="s">
-        <v>717</v>
+      <c r="A68" s="319" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="318" t="s">
-        <v>718</v>
+      <c r="A69" s="319" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="318" t="s">
-        <v>719</v>
+      <c r="A70" s="319" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="318" t="s">
-        <v>720</v>
+      <c r="A71" s="319" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="318" t="s">
-        <v>721</v>
+      <c r="A72" s="319" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="318" t="s">
-        <v>722</v>
+      <c r="A73" s="319" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="318" t="s">
-        <v>723</v>
+      <c r="A74" s="319" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="318" t="s">
-        <v>724</v>
+      <c r="A75" s="319" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="318" t="s">
-        <v>725</v>
+      <c r="A76" s="319" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="318" t="s">
-        <v>726</v>
+      <c r="A77" s="319" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="318" t="s">
-        <v>727</v>
+      <c r="A78" s="319" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="318" t="s">
-        <v>728</v>
+      <c r="A79" s="319" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="318" t="s">
-        <v>729</v>
+      <c r="A80" s="319" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="318" t="s">
-        <v>730</v>
+      <c r="A81" s="319" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="318" t="s">
-        <v>731</v>
+      <c r="A82" s="319" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="318" t="s">
-        <v>732</v>
+      <c r="A83" s="319" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="318" t="s">
-        <v>733</v>
+      <c r="A84" s="319" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="318" t="s">
-        <v>734</v>
+      <c r="A85" s="319" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="318" t="s">
-        <v>735</v>
+      <c r="A86" s="319" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="318" t="s">
-        <v>736</v>
+      <c r="A87" s="319" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="318" t="s">
-        <v>737</v>
+      <c r="A88" s="319" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="318" t="s">
-        <v>738</v>
+      <c r="A89" s="319" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="318" t="s">
-        <v>739</v>
+      <c r="A90" s="319" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="318" t="s">
-        <v>740</v>
+      <c r="A91" s="319" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="318" t="s">
-        <v>741</v>
+      <c r="A92" s="319" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="318" t="s">
-        <v>742</v>
+      <c r="A93" s="319" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="318" t="s">
-        <v>743</v>
+      <c r="A94" s="319" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="318" t="s">
-        <v>744</v>
+      <c r="A95" s="319" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="318" t="s">
-        <v>745</v>
+      <c r="A96" s="319" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="318" t="s">
-        <v>746</v>
+      <c r="A97" s="319" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="318" t="s">
-        <v>747</v>
+      <c r="A98" s="319" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="318" t="s">
-        <v>748</v>
+      <c r="A99" s="319" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="318" t="s">
-        <v>749</v>
+      <c r="A100" s="319" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="318" t="s">
-        <v>750</v>
+      <c r="A101" s="319" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="318" t="s">
-        <v>751</v>
+      <c r="A102" s="319" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="318" t="s">
-        <v>752</v>
+      <c r="A103" s="319" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="318" t="s">
-        <v>753</v>
+      <c r="A104" s="319" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="318" t="s">
-        <v>754</v>
+      <c r="A105" s="319" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="318" t="s">
-        <v>755</v>
+      <c r="A106" s="319" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="318" t="s">
-        <v>756</v>
+      <c r="A107" s="319" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="318" t="s">
-        <v>757</v>
+      <c r="A108" s="319" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="318" t="s">
-        <v>758</v>
+      <c r="A109" s="319" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="318" t="s">
-        <v>759</v>
+      <c r="A110" s="319" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="318" t="s">
-        <v>760</v>
+      <c r="A111" s="319" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="318" t="s">
-        <v>761</v>
+      <c r="A112" s="319" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="318" t="s">
-        <v>762</v>
+      <c r="A113" s="319" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="318" t="s">
-        <v>763</v>
+      <c r="A114" s="319" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="318" t="s">
-        <v>764</v>
+      <c r="A115" s="319" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="318" t="s">
-        <v>765</v>
+      <c r="A116" s="319" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="318" t="s">
-        <v>766</v>
+      <c r="A117" s="319" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="318" t="s">
-        <v>767</v>
+      <c r="A118" s="319" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="318" t="s">
-        <v>768</v>
+      <c r="A119" s="319" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="318" t="s">
-        <v>769</v>
+      <c r="A120" s="319" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="318" t="s">
-        <v>770</v>
+      <c r="A121" s="319" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="318" t="s">
-        <v>771</v>
+      <c r="A122" s="319" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="318" t="s">
-        <v>772</v>
+      <c r="A123" s="319" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="318" t="s">
-        <v>773</v>
+      <c r="A124" s="319" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="318" t="s">
-        <v>774</v>
+      <c r="A125" s="319" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="318" t="s">
-        <v>775</v>
+      <c r="A126" s="319" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="318" t="s">
-        <v>776</v>
+      <c r="A127" s="319" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="318" t="s">
-        <v>777</v>
+      <c r="A128" s="319" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="318" t="s">
-        <v>778</v>
+      <c r="A129" s="319" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="318" t="s">
-        <v>779</v>
+      <c r="A130" s="319" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="318" t="s">
-        <v>780</v>
+      <c r="A131" s="319" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="318" t="s">
-        <v>781</v>
+      <c r="A132" s="319" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="318" t="s">
-        <v>782</v>
+      <c r="A133" s="319" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="318" t="s">
-        <v>783</v>
+      <c r="A134" s="319" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="318" t="s">
-        <v>784</v>
+      <c r="A135" s="319" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="318" t="s">
-        <v>785</v>
+      <c r="A136" s="319" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="318" t="s">
-        <v>786</v>
+      <c r="A137" s="319" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="318" t="s">
-        <v>787</v>
+      <c r="A138" s="319" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="318" t="s">
-        <v>788</v>
+      <c r="A139" s="319" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="318" t="s">
-        <v>789</v>
+      <c r="A140" s="319" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -32634,7 +32726,7 @@
     <mergeCell ref="C3:I65"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AMJ1 J2:AMJ2 B2:C2 A3:AMJ1048576">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="492">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="491">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -2199,6 +2199,7 @@
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">m</t>
     </r>
@@ -2210,6 +2211,7 @@
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -3388,7 +3390,7 @@
     <numFmt numFmtId="173" formatCode="#,##0.00"/>
     <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3641,21 +3643,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4584,7 +4571,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4880,15 +4867,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5096,7 +5083,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5124,7 +5111,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5216,7 +5203,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5292,11 +5279,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8992,9 +8979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>246600</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9008,7 +8995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="756360" cy="212760"/>
+          <a:ext cx="756000" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9029,9 +9016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
+      <xdr:colOff>146160</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9045,7 +9032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1099440" cy="212760"/>
+          <a:ext cx="1099080" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9066,9 +9053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>261360</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9082,7 +9069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1406520" cy="212760"/>
+          <a:ext cx="1406160" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9103,9 +9090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>343800</xdr:colOff>
+      <xdr:colOff>343440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>261360</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9119,7 +9106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1730520" cy="212760"/>
+          <a:ext cx="1730160" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9140,9 +9127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:colOff>216720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:rowOff>273960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9156,7 +9143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2037600" cy="225720"/>
+          <a:ext cx="2037240" cy="225360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9177,9 +9164,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160200</xdr:colOff>
+      <xdr:colOff>159840</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>261360</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9193,7 +9180,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2382480" cy="212760"/>
+          <a:ext cx="2382120" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9214,9 +9201,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>100440</xdr:colOff>
+      <xdr:colOff>100080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9230,7 +9217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2695680" cy="212760"/>
+          <a:ext cx="2695320" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9630,9 +9617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9642,7 +9629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6998760" cy="10062000"/>
+          <a:ext cx="6998400" cy="10061640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9728,9 +9715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9740,7 +9727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7016040" cy="265680"/>
+          <a:ext cx="7015680" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9794,9 +9781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433080</xdr:colOff>
+      <xdr:colOff>432720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9806,7 +9793,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="794880" cy="266760"/>
+          <a:ext cx="794520" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9858,9 +9845,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
+      <xdr:colOff>431640</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>195840</xdr:rowOff>
+      <xdr:rowOff>195480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9870,7 +9857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="794880" cy="266760"/>
+          <a:ext cx="794520" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19733,7 +19720,7 @@
   <dimension ref="A1:AC82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22572,7 +22559,7 @@
   <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+      <selection pane="topLeft" activeCell="M79" activeCellId="0" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23855,8 +23842,8 @@
       <c r="E73" s="213" t="s">
         <v>296</v>
       </c>
-      <c r="F73" s="180"/>
-      <c r="G73" s="180"/>
+      <c r="F73" s="214"/>
+      <c r="G73" s="214"/>
       <c r="H73" s="177"/>
       <c r="I73" s="175"/>
     </row>
@@ -23869,8 +23856,8 @@
       <c r="E74" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="214"/>
-      <c r="G74" s="215"/>
+      <c r="F74" s="215"/>
+      <c r="G74" s="214"/>
       <c r="H74" s="177"/>
       <c r="I74" s="175"/>
     </row>
@@ -23881,8 +23868,8 @@
       <c r="C75" s="172"/>
       <c r="D75" s="170"/>
       <c r="E75" s="195"/>
-      <c r="F75" s="215"/>
-      <c r="G75" s="215"/>
+      <c r="F75" s="214"/>
+      <c r="G75" s="214"/>
       <c r="H75" s="177"/>
       <c r="I75" s="175"/>
     </row>
@@ -23899,7 +23886,7 @@
         <v>[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</v>
       </c>
       <c r="F76" s="210"/>
-      <c r="G76" s="215"/>
+      <c r="G76" s="214"/>
       <c r="H76" s="177"/>
       <c r="I76" s="175"/>
       <c r="L76" s="193"/>
@@ -24972,8 +24959,8 @@
   </sheetPr>
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F77" activeCellId="0" sqref="F77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26347,9 +26334,9 @@
         <v>367</v>
       </c>
       <c r="E51" s="249"/>
-      <c r="F51" s="214"/>
-      <c r="G51" s="214"/>
-      <c r="H51" s="214"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="215"/>
+      <c r="H51" s="215"/>
       <c r="I51" s="180"/>
       <c r="J51" s="227"/>
       <c r="L51" s="233"/>
@@ -26457,7 +26444,7 @@
         <f aca="false">A96</f>
         <v>[:tulokset :nettotarve :tilojen-lammitys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H57" s="214"/>
+      <c r="H57" s="215"/>
       <c r="I57" s="182"/>
       <c r="J57" s="227"/>
     </row>
@@ -26478,7 +26465,7 @@
         <f aca="false">A98</f>
         <v>[:tulokset :nettotarve :ilmanvaihdon-lammitys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H58" s="215"/>
+      <c r="H58" s="214"/>
       <c r="I58" s="180"/>
       <c r="J58" s="228"/>
     </row>
@@ -26499,7 +26486,7 @@
         <f aca="false">A100</f>
         <v>[:tulokset :nettotarve :kayttoveden-valmistus-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H59" s="214"/>
+      <c r="H59" s="215"/>
       <c r="I59" s="180"/>
       <c r="J59" s="227"/>
     </row>
@@ -26520,7 +26507,7 @@
         <f aca="false">A102</f>
         <v>[:tulokset :nettotarve :jaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H60" s="215"/>
+      <c r="H60" s="214"/>
       <c r="I60" s="180"/>
       <c r="J60" s="228"/>
     </row>
@@ -26653,7 +26640,7 @@
         <f aca="false">A104</f>
         <v>[:tulokset :lampokuormat :aurinko-nettoala]</v>
       </c>
-      <c r="H69" s="215"/>
+      <c r="H69" s="214"/>
       <c r="I69" s="182"/>
       <c r="J69" s="227"/>
     </row>
@@ -26674,7 +26661,7 @@
         <f aca="false">A106</f>
         <v>[:tulokset :lampokuormat :ihmiset-nettoala]</v>
       </c>
-      <c r="H70" s="215"/>
+      <c r="H70" s="214"/>
       <c r="I70" s="180"/>
       <c r="J70" s="228"/>
     </row>
@@ -26695,7 +26682,7 @@
         <f aca="false">A108</f>
         <v>[:tulokset :lampokuormat :kuluttajalaitteet-nettoala]</v>
       </c>
-      <c r="H71" s="215"/>
+      <c r="H71" s="214"/>
       <c r="I71" s="180"/>
       <c r="J71" s="227"/>
     </row>
@@ -26716,7 +26703,7 @@
         <f aca="false">A110</f>
         <v>[:tulokset :lampokuormat :valaistus-nettoala]</v>
       </c>
-      <c r="H72" s="215"/>
+      <c r="H72" s="214"/>
       <c r="I72" s="180"/>
       <c r="J72" s="227"/>
     </row>
@@ -26737,7 +26724,7 @@
         <f aca="false">A112</f>
         <v>[:tulokset :lampokuormat :kvesi-nettoala]</v>
       </c>
-      <c r="H73" s="215"/>
+      <c r="H73" s="214"/>
       <c r="I73" s="180"/>
       <c r="J73" s="228"/>
     </row>
@@ -27559,7 +27546,7 @@
   </sheetPr>
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -27568,8 +27555,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="90" width="61.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="15.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="26" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="26" width="2.42"/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -4010,7 +4010,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="341">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5365,6 +5365,10 @@
     </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8979,9 +8983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>246240</xdr:colOff>
+      <xdr:colOff>245880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>259920</xdr:rowOff>
+      <xdr:rowOff>259560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8995,7 +8999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="756000" cy="212400"/>
+          <a:ext cx="755640" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9016,9 +9020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>259920</xdr:rowOff>
+      <xdr:rowOff>259560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9032,7 +9036,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1099080" cy="212400"/>
+          <a:ext cx="1098720" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9053,9 +9057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9069,7 +9073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1406160" cy="212400"/>
+          <a:ext cx="1405800" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9090,9 +9094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>343440</xdr:colOff>
+      <xdr:colOff>343080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9106,7 +9110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1730160" cy="212400"/>
+          <a:ext cx="1729800" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9127,9 +9131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>216720</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>273960</xdr:rowOff>
+      <xdr:rowOff>273600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9143,7 +9147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2037240" cy="225360"/>
+          <a:ext cx="2036880" cy="225000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9164,9 +9168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>159840</xdr:colOff>
+      <xdr:colOff>159480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9180,7 +9184,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2382120" cy="212400"/>
+          <a:ext cx="2381760" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9201,9 +9205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>100080</xdr:colOff>
+      <xdr:colOff>99720</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>259920</xdr:rowOff>
+      <xdr:rowOff>259560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9217,7 +9221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2695320" cy="212400"/>
+          <a:ext cx="2694960" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9617,9 +9621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
+      <xdr:colOff>316080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9629,7 +9633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6998400" cy="10061640"/>
+          <a:ext cx="6998040" cy="10061280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9715,9 +9719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9727,7 +9731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7015680" cy="265320"/>
+          <a:ext cx="7015320" cy="264960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9781,9 +9785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9793,7 +9797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="794520" cy="266400"/>
+          <a:ext cx="794160" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9845,9 +9849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>431640</xdr:colOff>
+      <xdr:colOff>431280</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>195480</xdr:rowOff>
+      <xdr:rowOff>195120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9857,7 +9861,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="794520" cy="266400"/>
+          <a:ext cx="794160" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24959,7 +24963,7 @@
   </sheetPr>
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -27555,8 +27559,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="90" width="61.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="15.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="26" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="26" width="2.42"/>
@@ -30606,8 +30610,8 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31344,7 +31348,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="155"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="150"/>
       <c r="C60" s="300" t="s">
         <v>650</v>
@@ -31354,47 +31358,47 @@
       <c r="F60" s="300"/>
       <c r="G60" s="300"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150"/>
-      <c r="C61" s="325" t="str">
+      <c r="C61" s="339" t="str">
         <f aca="false">A44</f>
         <v>[:huomiot :lisatietoja-fi]</v>
       </c>
-      <c r="D61" s="325"/>
-      <c r="E61" s="325"/>
-      <c r="F61" s="325"/>
-      <c r="G61" s="325"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D61" s="339"/>
+      <c r="E61" s="339"/>
+      <c r="F61" s="339"/>
+      <c r="G61" s="339"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="325"/>
-      <c r="D62" s="325"/>
-      <c r="E62" s="325"/>
-      <c r="F62" s="325"/>
-      <c r="G62" s="325"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C62" s="339"/>
+      <c r="D62" s="339"/>
+      <c r="E62" s="339"/>
+      <c r="F62" s="339"/>
+      <c r="G62" s="339"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="325"/>
-      <c r="D63" s="325"/>
-      <c r="E63" s="325"/>
-      <c r="F63" s="325"/>
-      <c r="G63" s="325"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C63" s="339"/>
+      <c r="D63" s="339"/>
+      <c r="E63" s="339"/>
+      <c r="F63" s="339"/>
+      <c r="G63" s="339"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="325"/>
-      <c r="D64" s="325"/>
-      <c r="E64" s="325"/>
-      <c r="F64" s="325"/>
-      <c r="G64" s="325"/>
+      <c r="C64" s="339"/>
+      <c r="D64" s="339"/>
+      <c r="E64" s="339"/>
+      <c r="F64" s="339"/>
+      <c r="G64" s="339"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C65" s="143"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="157"/>
+      <c r="C65" s="339"/>
+      <c r="D65" s="339"/>
+      <c r="E65" s="339"/>
+      <c r="F65" s="339"/>
+      <c r="G65" s="339"/>
     </row>
     <row r="66" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -31413,7 +31417,7 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C43:G57"/>
     <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G64"/>
+    <mergeCell ref="C61:G65"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:D16 B13:C16 H13:AMJ17 B17 C45:C49 A65:AMJ1048576 A1:AMJ12 C42:G44 C57:G57 E59:AMJ59 A58:AMJ58 B59:B63 H60:AMJ64 C61:C63 B39:B57 H39:AMJ57 B19:B37 H19:AMJ37 C22:G22 C19:F21 D14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="471">
@@ -31556,15 +31560,15 @@
       <c r="A2" s="150" t="s">
         <v>651</v>
       </c>
-      <c r="C2" s="339" t="s">
+      <c r="C2" s="340" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
+      <c r="H2" s="340"/>
+      <c r="I2" s="340"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="319" t="s">

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="792">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">[:perustiedot :katuosoite-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75416]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75418]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49525]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49527]</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
@@ -83,34 +83,34 @@
     <t xml:space="preserve">[:perustiedot :alakayttotarkoitus-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75420]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75422]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75424]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49529]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49531]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49533]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennustunnus:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75426]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49535]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennuksen valmistumisvuosi:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75428]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75430]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49537]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49539]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennuksen käyttötarkoitusluokka:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75432]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49541]</t>
   </si>
   <si>
     <t xml:space="preserve">Todistustunnus:</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">             Energiatehokkuusluokka</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75435]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75438]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49544]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49547]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennuksen laskennallinen kokonaisenergiankulutus (E-luku)</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">Muut sairaalat</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64377]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49551]</t>
   </si>
   <si>
     <t xml:space="preserve">YHTEENVETO RAKENNUKSEN ENERGIATEHOKKUUDESTA</t>
@@ -624,34 +624,34 @@
     <t xml:space="preserve">[:tulokset :e-luokka-rajat :kayttotarkoitus :label-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64379]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64381]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64384]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49553]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49555]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49558]</t>
   </si>
   <si>
     <t xml:space="preserve">ENERGIATEHOKKUUTTA PARANTAVAT TOIMENPITEET</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64387]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49561]</t>
   </si>
   <si>
     <t xml:space="preserve">Keskeiset suositukset rakennuksen energiatehokkuutta parantaviksi toimenpiteiksi</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64390]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49564]</t>
   </si>
   <si>
     <t xml:space="preserve">Tämä osio ei koske uudisrakennuksia</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64393]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64396]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49567]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49570]</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :e-luokka]</t>
@@ -1379,40 +1379,37 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :label-fi]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :label-sv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Määrä</t>
   </si>
   <si>
     <t xml:space="preserve">Tuotto</t>
   </si>
   <si>
+    <t xml:space="preserve">kpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :tuoton-hyotysuhde]</t>
   </si>
   <si>
-    <t xml:space="preserve">kpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh</t>
+    <t xml:space="preserve">Varaava tulisija</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :jaon-hyotysuhde]</t>
   </si>
   <si>
+    <t xml:space="preserve">Ilmalämpöpumppu</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampokerroin]</t>
   </si>
   <si>
-    <t xml:space="preserve">Varaava tulisija</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :apulaitteet]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilmalämpöpumppu</t>
+    <t xml:space="preserve">Jäähdytysjärjestelmä</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :tuoton-hyotysuhde]</t>
@@ -1421,7 +1418,7 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :jaon-hyotysuhde]</t>
   </si>
   <si>
-    <t xml:space="preserve">Jäähdytysjärjestelmä</t>
+    <t xml:space="preserve">Jäähdytyskauden painotettu kylmäkerroin</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampokerroin]</t>
@@ -1430,9 +1427,6 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :apulaitteet]</t>
   </si>
   <si>
-    <t xml:space="preserve">Jäähdytyskauden painotettu kylmäkerroin</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :takka :maara]</t>
   </si>
   <si>
@@ -1442,28 +1436,22 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :maara]</t>
   </si>
   <si>
+    <t xml:space="preserve">Lämmin käyttövesi</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</t>
   </si>
   <si>
-    <t xml:space="preserve">Lämmin käyttövesi</t>
+    <t xml:space="preserve">Ominaiskulutus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lämmitysenergian nettotarve</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lkvn-kaytto :ominaiskulutus]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :lkvn-kaytto :lammitysenergian-nettotarve]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ominaiskulutus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lämmitysenergian nettotarve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61257]</t>
   </si>
   <si>
     <r>
@@ -1520,25 +1508,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61259]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61261]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61263]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61265]</t>
+    <t xml:space="preserve">[:lahtotiedot :lkvn-kaytto :lammitysenergian-nettotarve]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49573]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49575]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49577]</t>
   </si>
   <si>
     <t xml:space="preserve">Sisäiset lämpökuormat eri käyttöasteilla</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61267]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61269]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49579]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49581]</t>
   </si>
   <si>
     <t xml:space="preserve">Käyttöaste</t>
@@ -1553,7 +1541,7 @@
     <t xml:space="preserve">Valaistus</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61271]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49583]</t>
   </si>
   <si>
     <r>
@@ -1579,16 +1567,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61273]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61275]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61277]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61279]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49585]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49587]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49589]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49591]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49593]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49595]</t>
   </si>
   <si>
     <t xml:space="preserve">E-LUVUN LASKENNAN TULOKSET</t>
@@ -1805,9 +1799,6 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :kertoimella-summa]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :nettoala-kertoimella-summa]</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2183,13 +2174,7 @@
     <t xml:space="preserve">[:tulokset :laskentatyokalu]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61281]</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTEUTUNUT ENERGIANKULUTUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61283]</t>
   </si>
   <si>
     <t xml:space="preserve">Saatavilla olevat ostoenergian määrät ilmoitetaan sellaisenaan ilman lämmöntarvelukukorjausta.</t>
@@ -3013,12 +2998,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3043,12 +3028,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 1 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3073,12 +3058,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3103,12 +3088,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3133,12 +3118,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3163,12 +3148,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3193,12 +3178,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 6 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3223,12 +3208,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 7 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3253,12 +3238,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 8 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3283,12 +3268,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 9 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3313,12 +3298,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 10 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3343,12 +3328,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3361,34 +3346,34 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :hyoty :lampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkosahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :tuulisahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muusahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkolampo]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muulampo]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :sahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :lampo]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :sahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :lampo]</t>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :hyoty :lampo]</t>
   </si>
 </sst>
 </file>
@@ -8978,9 +8963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>243720</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8994,7 +8979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="754200" cy="210600"/>
+          <a:ext cx="753480" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9015,9 +9000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
+      <xdr:colOff>143640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9031,7 +9016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1097280" cy="210600"/>
+          <a:ext cx="1096560" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9052,9 +9037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>16920</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>259200</xdr:rowOff>
+      <xdr:rowOff>258480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9068,7 +9053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1404360" cy="210600"/>
+          <a:ext cx="1403640" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9089,9 +9074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>341640</xdr:colOff>
+      <xdr:colOff>340920</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>259200</xdr:rowOff>
+      <xdr:rowOff>258480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9105,7 +9090,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1728360" cy="210600"/>
+          <a:ext cx="1727640" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9126,9 +9111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
+      <xdr:colOff>214200</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>272160</xdr:rowOff>
+      <xdr:rowOff>271440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9142,7 +9127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2035440" cy="223560"/>
+          <a:ext cx="2034720" cy="222840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9163,9 +9148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>158040</xdr:colOff>
+      <xdr:colOff>157320</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>259200</xdr:rowOff>
+      <xdr:rowOff>258480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9179,7 +9164,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2380320" cy="210600"/>
+          <a:ext cx="2379600" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9200,9 +9185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>97560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9216,7 +9201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2693520" cy="210600"/>
+          <a:ext cx="2692800" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9616,9 +9601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314640</xdr:colOff>
+      <xdr:colOff>313920</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9628,7 +9613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6996600" cy="10059840"/>
+          <a:ext cx="6995880" cy="10059120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9714,9 +9699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9726,7 +9711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7013880" cy="263520"/>
+          <a:ext cx="7013160" cy="262800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9780,9 +9765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>430920</xdr:colOff>
+      <xdr:colOff>430200</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9792,7 +9777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="792720" cy="264600"/>
+          <a:ext cx="792000" cy="263880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9844,9 +9829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429840</xdr:colOff>
+      <xdr:colOff>429120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>193680</xdr:rowOff>
+      <xdr:rowOff>192960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9856,7 +9841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="792720" cy="264600"/>
+          <a:ext cx="792000" cy="263880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10307,7 +10292,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="16" t="str">
         <f aca="false">A5</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--75416]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49525]</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -11755,7 +11740,7 @@
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="79" t="str">
         <f aca="false">A22</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--75435]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49544]</v>
       </c>
       <c r="D48" s="79"/>
       <c r="E48" s="79"/>
@@ -11767,7 +11752,7 @@
       <c r="K48" s="74"/>
       <c r="L48" s="80" t="str">
         <f aca="false">A22</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--75435]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49544]</v>
       </c>
       <c r="M48" s="80"/>
       <c r="N48" s="80"/>
@@ -19724,7 +19709,7 @@
   </sheetPr>
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -19862,7 +19847,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="99" t="str">
         <f aca="false">A2</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64377]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49551]</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="14"/>
@@ -20744,15 +20729,15 @@
       <c r="F29" s="14"/>
       <c r="H29" s="133" t="str">
         <f aca="false">A39</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64379]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49553]</v>
       </c>
       <c r="I29" s="134" t="str">
         <f aca="false">A40</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64381]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49555]</v>
       </c>
       <c r="J29" s="135" t="str">
         <f aca="false">A41</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64384]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49558]</v>
       </c>
       <c r="K29" s="131"/>
       <c r="M29" s="0"/>
@@ -20783,15 +20768,15 @@
       <c r="F30" s="14"/>
       <c r="H30" s="136" t="str">
         <f aca="false">A42</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64387]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49561]</v>
       </c>
       <c r="I30" s="137" t="str">
         <f aca="false">A43</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64390]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49564]</v>
       </c>
       <c r="J30" s="138" t="str">
         <f aca="false">A44</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64393]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49567]</v>
       </c>
       <c r="K30" s="131"/>
       <c r="M30" s="0"/>
@@ -20822,7 +20807,7 @@
       <c r="F31" s="14"/>
       <c r="H31" s="139" t="str">
         <f aca="false">A45</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64396]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49570]</v>
       </c>
       <c r="I31" s="140"/>
       <c r="J31" s="140"/>
@@ -22497,8 +22482,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M79" activeCellId="0" sqref="M79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23433,7 +23418,7 @@
       <c r="H51" s="169"/>
       <c r="I51" s="170"/>
     </row>
-    <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="9.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="160" t="s">
         <v>256</v>
       </c>
@@ -23455,23 +23440,26 @@
       </c>
       <c r="E53" s="196" t="str">
         <f aca="false">A64</f>
-        <v>[:lahtotiedot :lammitys :label-fi]</v>
+        <v>[:lahtotiedot :lammitys :lammitysmuoto-label-fi]</v>
       </c>
       <c r="F53" s="196"/>
       <c r="G53" s="196"/>
       <c r="H53" s="196"/>
       <c r="I53" s="177"/>
     </row>
-    <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="160" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="174"/>
       <c r="D54" s="179"/>
-      <c r="E54" s="179"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="179"/>
-      <c r="H54" s="179"/>
+      <c r="E54" s="196" t="str">
+        <f aca="false">A66</f>
+        <v>[:lahtotiedot :lammitys :lammonjako-label-fi]</v>
+      </c>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
       <c r="I54" s="177"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23553,19 +23541,19 @@
         <v>269</v>
       </c>
       <c r="E59" s="199" t="str">
-        <f aca="false">A66</f>
+        <f aca="false">A68</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :tuoton-hyotysuhde]</v>
       </c>
       <c r="F59" s="199" t="str">
-        <f aca="false">A67</f>
+        <f aca="false">A69</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :jaon-hyotysuhde]</v>
       </c>
       <c r="G59" s="188" t="str">
-        <f aca="false">A68</f>
+        <f aca="false">A70</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :lampokerroin]</v>
       </c>
       <c r="H59" s="188" t="str">
-        <f aca="false">A69</f>
+        <f aca="false">A71</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :apulaitteet]</v>
       </c>
       <c r="I59" s="177"/>
@@ -23580,19 +23568,19 @@
         <v>271</v>
       </c>
       <c r="E60" s="199" t="str">
-        <f aca="false">A70</f>
+        <f aca="false">A72</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :tuoton-hyotysuhde]</v>
       </c>
       <c r="F60" s="211" t="str">
-        <f aca="false">A71</f>
+        <f aca="false">A73</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :jaon-hyotysuhde]</v>
       </c>
       <c r="G60" s="188" t="str">
-        <f aca="false">A72</f>
+        <f aca="false">A74</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :lampokerroin]</v>
       </c>
       <c r="H60" s="188" t="str">
-        <f aca="false">A73</f>
+        <f aca="false">A75</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :apulaitteet]</v>
       </c>
       <c r="I60" s="177"/>
@@ -23639,7 +23627,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="160" t="s">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="175"/>
@@ -23651,15 +23639,15 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="160" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="C65" s="174"/>
       <c r="D65" s="172"/>
       <c r="E65" s="197" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F65" s="182" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G65" s="182"/>
       <c r="H65" s="179"/>
@@ -23667,15 +23655,15 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="160" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="172"/>
       <c r="E66" s="185" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F66" s="184" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G66" s="182"/>
       <c r="H66" s="179"/>
@@ -23683,7 +23671,7 @@
     </row>
     <row r="67" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="160" t="s">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="172"/>
@@ -23695,18 +23683,18 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="175" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E68" s="214" t="str">
-        <f aca="false">A74</f>
+        <f aca="false">A76</f>
         <v>[:lahtotiedot :lammitys :takka :maara]</v>
       </c>
       <c r="F68" s="214" t="str">
-        <f aca="false">A75</f>
+        <f aca="false">A77</f>
         <v>[:lahtotiedot :lammitys :takka :tuotto]</v>
       </c>
       <c r="G68" s="182"/>
@@ -23715,18 +23703,18 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E69" s="214" t="str">
-        <f aca="false">A76</f>
+        <f aca="false">A78</f>
         <v>[:lahtotiedot :lammitys :ilmalampopumppu :maara]</v>
       </c>
       <c r="F69" s="214" t="str">
-        <f aca="false">A77</f>
+        <f aca="false">A79</f>
         <v>[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</v>
       </c>
       <c r="G69" s="182"/>
@@ -23735,7 +23723,7 @@
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="179"/>
@@ -23747,12 +23735,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="168"/>
       <c r="D71" s="94" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -23762,7 +23750,7 @@
     </row>
     <row r="72" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="179"/>
@@ -23774,12 +23762,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="172"/>
       <c r="E73" s="215" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F73" s="216"/>
       <c r="G73" s="216"/>
@@ -23788,7 +23776,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="172"/>
@@ -23802,7 +23790,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C75" s="174"/>
       <c r="D75" s="172"/>
@@ -23814,14 +23802,14 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="175" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E76" s="188" t="str">
-        <f aca="false">A78</f>
+        <f aca="false">A80</f>
         <v>[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</v>
       </c>
       <c r="F76" s="212"/>
@@ -23832,7 +23820,7 @@
     </row>
     <row r="77" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="179"/>
@@ -23844,12 +23832,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="168"/>
       <c r="D78" s="94" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E78" s="169"/>
       <c r="F78" s="169"/>
@@ -23859,7 +23847,7 @@
     </row>
     <row r="79" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C79" s="174"/>
       <c r="D79" s="179"/>
@@ -23871,15 +23859,15 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C80" s="174"/>
       <c r="D80" s="179"/>
       <c r="E80" s="182" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F80" s="218" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G80" s="179"/>
       <c r="H80" s="179"/>
@@ -23887,12 +23875,12 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C81" s="174"/>
       <c r="D81" s="172"/>
       <c r="E81" s="184" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F81" s="185" t="s">
         <v>108</v>
@@ -23904,7 +23892,7 @@
     </row>
     <row r="82" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C82" s="174"/>
       <c r="D82" s="172"/>
@@ -23916,18 +23904,18 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C83" s="174"/>
       <c r="D83" s="175" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E83" s="214" t="str">
-        <f aca="false">A79</f>
+        <f aca="false">A81</f>
         <v>[:lahtotiedot :lkvn-kaytto :ominaiskulutus]</v>
       </c>
       <c r="F83" s="214" t="str">
-        <f aca="false">A80</f>
+        <f aca="false">A82</f>
         <v>[:lahtotiedot :lkvn-kaytto :lammitysenergian-nettotarve]</v>
       </c>
       <c r="G83" s="179"/>
@@ -23936,7 +23924,7 @@
     </row>
     <row r="84" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C84" s="174"/>
       <c r="D84" s="179"/>
@@ -23948,12 +23936,12 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="168"/>
       <c r="D85" s="94" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E85" s="169"/>
       <c r="F85" s="169"/>
@@ -23963,7 +23951,7 @@
     </row>
     <row r="86" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C86" s="174"/>
       <c r="D86" s="179"/>
@@ -23975,27 +23963,27 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C87" s="174"/>
       <c r="D87" s="172"/>
       <c r="E87" s="197" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F87" s="182" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G87" s="182" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H87" s="197" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I87" s="177"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C88" s="174"/>
       <c r="D88" s="172"/>
@@ -24003,19 +23991,19 @@
         <v>109</v>
       </c>
       <c r="F88" s="184" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G88" s="184" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H88" s="185" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I88" s="177"/>
     </row>
     <row r="89" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C89" s="174"/>
       <c r="D89" s="172"/>
@@ -24027,77 +24015,80 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C90" s="174"/>
       <c r="D90" s="219"/>
       <c r="E90" s="199" t="str">
-        <f aca="false">A81</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61257]</v>
+        <f aca="false">A83</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49573]</v>
       </c>
       <c r="F90" s="188" t="str">
-        <f aca="false">A82</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61259]</v>
+        <f aca="false">A84</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49575]</v>
       </c>
       <c r="G90" s="188" t="str">
-        <f aca="false">A83</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61261]</v>
+        <f aca="false">A85</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49577]</v>
       </c>
       <c r="H90" s="188" t="str">
-        <f aca="false">A84</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61263]</v>
+        <f aca="false">A86</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49579]</v>
       </c>
       <c r="I90" s="177"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C91" s="174"/>
       <c r="D91" s="219"/>
       <c r="E91" s="199" t="str">
-        <f aca="false">A85</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61265]</v>
+        <f aca="false">A87</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49581]</v>
       </c>
       <c r="F91" s="188" t="str">
-        <f aca="false">A86</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61267]</v>
+        <f aca="false">A88</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49583]</v>
       </c>
       <c r="G91" s="188" t="str">
-        <f aca="false">A87</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61269]</v>
+        <f aca="false">A89</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49585]</v>
       </c>
       <c r="H91" s="188" t="str">
-        <f aca="false">A88</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61271]</v>
+        <f aca="false">A90</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49587]</v>
       </c>
       <c r="I91" s="177"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C92" s="174"/>
       <c r="D92" s="219"/>
       <c r="E92" s="199" t="str">
-        <f aca="false">A89</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61273]</v>
+        <f aca="false">A91</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49589]</v>
       </c>
       <c r="F92" s="188" t="str">
-        <f aca="false">A90</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61275]</v>
+        <f aca="false">A92</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49591]</v>
       </c>
       <c r="G92" s="188" t="str">
-        <f aca="false">A91</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61277]</v>
+        <f aca="false">A93</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49593]</v>
       </c>
       <c r="H92" s="188" t="str">
-        <f aca="false">A92</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61279]</v>
+        <f aca="false">A94</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49595]</v>
       </c>
       <c r="I92" s="177"/>
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="160" t="s">
+        <v>320</v>
+      </c>
       <c r="C93" s="220"/>
       <c r="D93" s="221"/>
       <c r="E93" s="221"/>
@@ -24106,14 +24097,19 @@
       <c r="H93" s="221"/>
       <c r="I93" s="222"/>
     </row>
-    <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="160" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="E5:H6"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:I4 C2:D2 C8:I9 C13:C21 I13:I21 C22:I22 C94:I95 I5:I7 E10 C5:D7 C10:D11 F7 C12:I12 H10:I11 C102:I1048576 C96:G101 I96:I101 I2:IG2">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
@@ -24170,7 +24166,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:I24 C25:C35 C55:C64 E64:I64 I55:I63 C71:I72 C73:C76 H73:I76 E74:E75 C77:I79 C84:I86 C81:C83 C87:C92 I87:I92 C93:I93 I25:I35 C41:C47 I41:I47 D45:D47 G46:H47 C36:I37 C50:I52 C80:D80 G80:I83 C54:I54 C53 I53 C40:I40 F87:H87 G88:H89 E87:E89">
+  <conditionalFormatting sqref="C23:I24 C25:C35 C55:C64 E64:I64 I55:I63 C71:I72 C73:C76 H73:I76 E74:E75 C77:I79 C84:I86 C81:C83 C87:C92 I87:I92 C93:I93 I25:I35 C41:C47 I41:I47 D45:D47 G46:H47 C36:I37 C50:I51 C80:D80 G80:I83 F54:I54 C52:C53 I53 C40:I40 F87:H87 G88:H89 E87:E89 D52:I52 C54:D54">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
       <formula>"*"</formula>
     </cfRule>
@@ -24450,27 +24446,27 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E53:E54">
     <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="C38:I38 C39 I39">
     <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:I38 C39 I39">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
       <formula>"*"</formula>
     </cfRule>
@@ -24480,7 +24476,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29:E35">
     <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132">
       <formula>"*"</formula>
     </cfRule>
@@ -24490,7 +24486,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E35">
+  <conditionalFormatting sqref="F28">
     <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
       <formula>"*"</formula>
     </cfRule>
@@ -24500,7 +24496,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="F29:F35">
     <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136">
       <formula>"*"</formula>
     </cfRule>
@@ -24510,7 +24506,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F35">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
       <formula>"*"</formula>
     </cfRule>
@@ -24520,7 +24516,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G29:G35">
     <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140">
       <formula>"*"</formula>
     </cfRule>
@@ -24530,7 +24526,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G35">
+  <conditionalFormatting sqref="E45:F45 E46:E47">
     <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="142">
       <formula>"*"</formula>
     </cfRule>
@@ -24540,7 +24536,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45 E46:E47">
+  <conditionalFormatting sqref="F46">
     <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="144">
       <formula>"*"</formula>
     </cfRule>
@@ -24550,7 +24546,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F47">
     <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
       <formula>"*"</formula>
     </cfRule>
@@ -24560,7 +24556,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
       <formula>"*"</formula>
     </cfRule>
@@ -24570,7 +24566,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150">
       <formula>"*"</formula>
     </cfRule>
@@ -24580,7 +24576,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="E59">
     <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
       <formula>"*"</formula>
     </cfRule>
@@ -24590,7 +24586,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
+  <conditionalFormatting sqref="E60">
     <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="154">
       <formula>"*"</formula>
     </cfRule>
@@ -24600,7 +24596,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="F59">
     <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="156">
       <formula>"*"</formula>
     </cfRule>
@@ -24610,7 +24606,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="G59">
     <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
       <formula>"*"</formula>
     </cfRule>
@@ -24620,7 +24616,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="G60">
     <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
       <formula>"*"</formula>
     </cfRule>
@@ -24630,7 +24626,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
+  <conditionalFormatting sqref="H59:H60">
     <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162">
       <formula>"*"</formula>
     </cfRule>
@@ -24640,7 +24636,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59:H60">
+  <conditionalFormatting sqref="E68">
     <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
       <formula>"*"</formula>
     </cfRule>
@@ -24650,7 +24646,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="166">
       <formula>"*"</formula>
     </cfRule>
@@ -24660,7 +24656,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+  <conditionalFormatting sqref="E76">
     <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="168">
       <formula>"*"</formula>
     </cfRule>
@@ -24670,7 +24666,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+  <conditionalFormatting sqref="E83">
     <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="170">
       <formula>"*"</formula>
     </cfRule>
@@ -24680,7 +24676,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="F83">
     <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="172">
       <formula>"*"</formula>
     </cfRule>
@@ -24690,7 +24686,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
+  <conditionalFormatting sqref="E90:E92">
     <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="174">
       <formula>"*"</formula>
     </cfRule>
@@ -24700,7 +24696,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E92">
+  <conditionalFormatting sqref="F90:F92">
     <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="176">
       <formula>"*"</formula>
     </cfRule>
@@ -24710,7 +24706,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F92">
+  <conditionalFormatting sqref="G90:G92">
     <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="178">
       <formula>"*"</formula>
     </cfRule>
@@ -24720,7 +24716,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G92">
+  <conditionalFormatting sqref="H90:H92">
     <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="180">
       <formula>"*"</formula>
     </cfRule>
@@ -24730,7 +24726,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:H92">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="182">
       <formula>"*"</formula>
     </cfRule>
@@ -24740,7 +24736,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184">
       <formula>"*"</formula>
     </cfRule>
@@ -24750,22 +24746,22 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="K42">
     <cfRule type="cellIs" priority="129" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
+  <conditionalFormatting sqref="H16">
     <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="G16:G20">
     <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G20">
+  <conditionalFormatting sqref="E16">
     <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
       <formula>"*"</formula>
     </cfRule>
@@ -24775,7 +24771,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" priority="134" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
       <formula>"*"</formula>
     </cfRule>
@@ -24785,7 +24781,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" priority="136" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
       <formula>"*"</formula>
     </cfRule>
@@ -24795,7 +24791,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
       <formula>"*"</formula>
     </cfRule>
@@ -24805,7 +24801,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" priority="140" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
       <formula>"*"</formula>
     </cfRule>
@@ -24815,7 +24811,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+  <conditionalFormatting sqref="F20">
     <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
       <formula>"*"</formula>
     </cfRule>
@@ -24825,7 +24821,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="F19">
     <cfRule type="cellIs" priority="144" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
       <formula>"*"</formula>
     </cfRule>
@@ -24835,7 +24831,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="F18">
     <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
       <formula>"*"</formula>
     </cfRule>
@@ -24845,7 +24841,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" priority="148" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="205">
       <formula>"*"</formula>
     </cfRule>
@@ -24855,7 +24851,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="207">
       <formula>"*"</formula>
     </cfRule>
@@ -24865,12 +24861,12 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" priority="152" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="D53">
     <cfRule type="cellIs" priority="153" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
       <formula>"*"</formula>
     </cfRule>
@@ -24926,7 +24922,7 @@
       </c>
       <c r="C2" s="225"/>
       <c r="D2" s="165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E2" s="226"/>
       <c r="F2" s="165"/>
@@ -25036,11 +25032,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="160" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C9" s="174"/>
       <c r="D9" s="234" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
@@ -25067,7 +25063,7 @@
       </c>
       <c r="C10" s="174"/>
       <c r="D10" s="238" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E10" s="239" t="str">
         <f aca="false">A6</f>
@@ -25116,7 +25112,7 @@
       </c>
       <c r="C12" s="168"/>
       <c r="D12" s="94" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E12" s="169"/>
       <c r="F12" s="169"/>
@@ -25136,7 +25132,7 @@
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="160" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="179"/>
@@ -25162,16 +25158,16 @@
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="240" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="182" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="182" t="s">
         <v>330</v>
       </c>
-      <c r="E14" s="182" t="s">
+      <c r="G14" s="197" t="s">
         <v>331</v>
-      </c>
-      <c r="F14" s="182" t="s">
-        <v>332</v>
-      </c>
-      <c r="G14" s="197" t="s">
-        <v>333</v>
       </c>
       <c r="H14" s="197"/>
       <c r="I14" s="182"/>
@@ -25193,13 +25189,13 @@
       <c r="C15" s="174"/>
       <c r="D15" s="173"/>
       <c r="E15" s="182" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="182" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="197" t="s">
         <v>334</v>
-      </c>
-      <c r="F15" s="182" t="s">
-        <v>335</v>
-      </c>
-      <c r="G15" s="197" t="s">
-        <v>336</v>
       </c>
       <c r="H15" s="197"/>
       <c r="I15" s="184"/>
@@ -25227,7 +25223,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="243" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H16" s="244" t="s">
         <v>110</v>
@@ -25246,7 +25242,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="160" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C17" s="174"/>
       <c r="D17" s="172"/>
@@ -25376,7 +25372,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="160" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C21" s="174"/>
       <c r="D21" s="248" t="s">
@@ -25522,7 +25518,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="160" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C25" s="174"/>
       <c r="D25" s="251" t="str">
@@ -25563,7 +25559,7 @@
       </c>
       <c r="C26" s="174"/>
       <c r="D26" s="252" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E26" s="253" t="str">
         <f aca="false">A42</f>
@@ -25576,7 +25572,7 @@
       </c>
       <c r="H26" s="254" t="str">
         <f aca="false">A44</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :nettoala-kertoimella-summa]</v>
+        <v>[:tulokset :e-luku]</v>
       </c>
       <c r="I26" s="182"/>
       <c r="J26" s="230"/>
@@ -25618,7 +25614,7 @@
       </c>
       <c r="C28" s="168"/>
       <c r="D28" s="94" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E28" s="169"/>
       <c r="F28" s="169"/>
@@ -25661,7 +25657,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="160" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C30" s="174"/>
       <c r="D30" s="172"/>
@@ -25717,7 +25713,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="160" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C32" s="174"/>
       <c r="D32" s="255" t="str">
@@ -25748,7 +25744,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="160" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C33" s="174"/>
       <c r="D33" s="255" t="str">
@@ -25779,7 +25775,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="160" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C34" s="174"/>
       <c r="D34" s="255" t="str">
@@ -25810,7 +25806,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="160" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="255" t="str">
@@ -25841,7 +25837,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="160" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="255" t="str">
@@ -25872,7 +25868,7 @@
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="160" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C37" s="174"/>
       <c r="D37" s="179"/>
@@ -25894,11 +25890,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="160" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C38" s="168"/>
       <c r="D38" s="94" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E38" s="169"/>
       <c r="F38" s="169"/>
@@ -25918,7 +25914,7 @@
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="160" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C39" s="174"/>
       <c r="D39" s="179"/>
@@ -25940,19 +25936,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="160" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C40" s="174"/>
       <c r="D40" s="172"/>
       <c r="E40" s="172"/>
       <c r="F40" s="197" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" s="182" t="s">
+        <v>353</v>
+      </c>
+      <c r="H40" s="182" t="s">
         <v>354</v>
-      </c>
-      <c r="G40" s="182" t="s">
-        <v>355</v>
-      </c>
-      <c r="H40" s="182" t="s">
-        <v>356</v>
       </c>
       <c r="I40" s="182"/>
       <c r="J40" s="230"/>
@@ -25968,7 +25964,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="160" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C41" s="174"/>
       <c r="D41" s="172"/>
@@ -25996,7 +25992,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="160" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C42" s="174"/>
       <c r="D42" s="172"/>
@@ -26018,7 +26014,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="160" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C43" s="174"/>
       <c r="D43" s="175" t="s">
@@ -26042,11 +26038,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="160" t="s">
-        <v>360</v>
+        <v>23</v>
       </c>
       <c r="C44" s="174"/>
       <c r="D44" s="175" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E44" s="175"/>
       <c r="F44" s="246" t="str">
@@ -26074,11 +26070,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="160" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C45" s="174"/>
       <c r="D45" s="175" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E45" s="175"/>
       <c r="F45" s="188" t="str">
@@ -26106,11 +26102,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="160" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C46" s="174"/>
       <c r="D46" s="175" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E46" s="175"/>
       <c r="F46" s="188" t="str">
@@ -26138,11 +26134,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="160" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="175" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E47" s="175"/>
       <c r="F47" s="188" t="str">
@@ -26169,11 +26165,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="160" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C48" s="174"/>
       <c r="D48" s="175" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E48" s="175"/>
       <c r="F48" s="188" t="str">
@@ -26202,11 +26198,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="160" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C49" s="174"/>
       <c r="D49" s="175" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E49" s="175"/>
       <c r="F49" s="188" t="str">
@@ -26233,11 +26229,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="160" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C50" s="174"/>
       <c r="D50" s="252" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E50" s="252"/>
       <c r="F50" s="261" t="str">
@@ -26266,11 +26262,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="160" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C51" s="174"/>
       <c r="D51" s="262" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E51" s="252"/>
       <c r="F51" s="217"/>
@@ -26290,7 +26286,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="160" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C52" s="174"/>
       <c r="D52" s="179"/>
@@ -26312,11 +26308,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="160" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C53" s="168"/>
       <c r="D53" s="94" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E53" s="169"/>
       <c r="F53" s="169"/>
@@ -26327,7 +26323,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="160" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C54" s="174"/>
       <c r="D54" s="179"/>
@@ -26340,7 +26336,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="160" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C55" s="174"/>
       <c r="D55" s="172"/>
@@ -26356,7 +26352,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="160" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C56" s="174"/>
       <c r="D56" s="172"/>
@@ -26368,11 +26364,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="160" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C57" s="174"/>
       <c r="D57" s="175" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E57" s="175"/>
       <c r="F57" s="214" t="str">
@@ -26389,11 +26385,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="160" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C58" s="174"/>
       <c r="D58" s="175" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E58" s="175"/>
       <c r="F58" s="214" t="str">
@@ -26410,7 +26406,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="160" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C59" s="174"/>
       <c r="D59" s="175" t="s">
@@ -26431,11 +26427,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="160" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C60" s="174"/>
       <c r="D60" s="175" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E60" s="175"/>
       <c r="F60" s="214" t="str">
@@ -26452,7 +26448,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="160" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C61" s="174"/>
       <c r="D61" s="175"/>
@@ -26465,11 +26461,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="160" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C62" s="174"/>
       <c r="D62" s="213" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E62" s="213"/>
       <c r="F62" s="213"/>
@@ -26480,11 +26476,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="160" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C63" s="174"/>
       <c r="D63" s="213" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E63" s="213"/>
       <c r="F63" s="213"/>
@@ -26495,7 +26491,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="160" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="175"/>
@@ -26508,11 +26504,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="160" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C65" s="168"/>
       <c r="D65" s="94" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E65" s="169"/>
       <c r="F65" s="169"/>
@@ -26523,7 +26519,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="160" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="179"/>
@@ -26536,7 +26532,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="160" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="172"/>
@@ -26552,7 +26548,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="172"/>
@@ -26564,11 +26560,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E69" s="175"/>
       <c r="F69" s="214" t="str">
@@ -26585,11 +26581,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="175" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E70" s="175"/>
       <c r="F70" s="214" t="str">
@@ -26606,11 +26602,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C71" s="174"/>
       <c r="D71" s="175" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E71" s="175"/>
       <c r="F71" s="214" t="str">
@@ -26627,11 +26623,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="175" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E72" s="175"/>
       <c r="F72" s="214" t="str">
@@ -26648,11 +26644,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="175" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E73" s="175"/>
       <c r="F73" s="214" t="str">
@@ -26669,7 +26665,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="175"/>
@@ -26682,11 +26678,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C75" s="168"/>
       <c r="D75" s="94" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E75" s="169"/>
       <c r="F75" s="169"/>
@@ -26697,7 +26693,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="179"/>
@@ -26710,11 +26706,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="175" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E77" s="175"/>
       <c r="F77" s="263" t="str">
@@ -26728,7 +26724,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C78" s="220"/>
       <c r="D78" s="221"/>
@@ -26741,177 +26737,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="160" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="160" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="160" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="160" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="160" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="160" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="160" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="160" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="160" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="160" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="160" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="160" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="160" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="160" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="160" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="160" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="160" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="160" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="160" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="160" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="160" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -27407,25 +27403,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
+    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
       <formula>"tyhjä"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
+    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
       <formula>LEFT(D22,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
+    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="182">
       <formula>"- Valitse -"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
       <formula>LEFT(D20,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27435,30 +27431,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161">
+    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49">
-    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162">
+    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="166">
+    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
+    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
       <formula>"tyhjä"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
+    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
+    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
       <formula>"- Valitse -"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27510,11 +27506,11 @@
     </row>
     <row r="2" s="265" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="264" t="s">
-        <v>446</v>
+        <v>164</v>
       </c>
       <c r="C2" s="266"/>
       <c r="D2" s="267" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E2" s="267"/>
       <c r="F2" s="267"/>
@@ -27527,11 +27523,11 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>448</v>
+        <v>164</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="270"/>
@@ -27544,7 +27540,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="14"/>
@@ -27559,11 +27555,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
@@ -27576,7 +27572,7 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="14"/>
@@ -27591,7 +27587,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
@@ -27599,10 +27595,10 @@
       </c>
       <c r="E7" s="29" t="str">
         <f aca="false">A2</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61281]</v>
+        <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="F7" s="271" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H7" s="272"/>
       <c r="K7" s="14"/>
@@ -27611,7 +27607,7 @@
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="14"/>
@@ -27625,7 +27621,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="14"/>
@@ -27640,11 +27636,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="14"/>
@@ -27661,7 +27657,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="14"/>
@@ -27676,11 +27672,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="282" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E12" s="282"/>
       <c r="F12" s="282"/>
@@ -27700,11 +27696,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="282" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E13" s="282"/>
       <c r="F13" s="282"/>
@@ -27724,11 +27720,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="274" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E14" s="274"/>
       <c r="F14" s="282"/>
@@ -27748,11 +27744,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="274" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E15" s="274"/>
       <c r="F15" s="282"/>
@@ -27772,11 +27768,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="282" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E16" s="282"/>
       <c r="F16" s="282"/>
@@ -27796,7 +27792,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="289" t="str">
@@ -27821,7 +27817,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="289" t="str">
@@ -27846,7 +27842,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="289" t="str">
@@ -27871,7 +27867,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="289" t="str">
@@ -27896,7 +27892,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="289" t="str">
@@ -27921,7 +27917,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="290"/>
@@ -27940,7 +27936,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="294"/>
@@ -27956,22 +27952,22 @@
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="297" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E24" s="297"/>
       <c r="F24" s="297"/>
       <c r="G24" s="298" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H24" s="299" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I24" s="298" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J24" s="299" t="s">
         <v>107</v>
@@ -27984,7 +27980,7 @@
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
@@ -28000,11 +27996,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="282" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E26" s="282"/>
       <c r="F26" s="282"/>
@@ -28013,7 +28009,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="H26" s="303" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I26" s="276" t="n">
         <v>10</v>
@@ -28031,11 +28027,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="282" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E27" s="282"/>
       <c r="F27" s="282"/>
@@ -28044,7 +28040,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="H27" s="303" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I27" s="276" t="n">
         <v>1300</v>
@@ -28062,11 +28058,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="282" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E28" s="282"/>
       <c r="F28" s="282"/>
@@ -28075,7 +28071,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="H28" s="303" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I28" s="276" t="n">
         <v>1700</v>
@@ -28093,11 +28089,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="282" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E29" s="282"/>
       <c r="F29" s="282"/>
@@ -28106,7 +28102,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="H29" s="303" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I29" s="276" t="n">
         <v>4.7</v>
@@ -28124,7 +28120,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="307" t="str">
@@ -28158,7 +28154,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="307" t="str">
@@ -28192,7 +28188,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="310"/>
@@ -28214,7 +28210,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="310"/>
@@ -28236,7 +28232,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="310"/>
@@ -28258,7 +28254,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="310"/>
@@ -28280,7 +28276,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="310"/>
@@ -28302,7 +28298,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="310"/>
@@ -28324,7 +28320,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="310"/>
@@ -28346,7 +28342,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="310"/>
@@ -28368,7 +28364,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="294"/>
@@ -28384,11 +28380,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="312" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E41" s="312"/>
       <c r="F41" s="294"/>
@@ -28402,7 +28398,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="313"/>
@@ -28418,7 +28414,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="294"/>
@@ -28434,11 +28430,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="294"/>
@@ -28452,7 +28448,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
@@ -28468,7 +28464,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
@@ -28488,11 +28484,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
@@ -28512,11 +28508,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -28536,11 +28532,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -28560,11 +28556,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -28584,11 +28580,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="61"/>
@@ -28607,7 +28603,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
@@ -28622,11 +28618,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="144" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E53" s="144"/>
       <c r="F53" s="144"/>
@@ -28639,7 +28635,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="144"/>
@@ -28654,7 +28650,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="144"/>
@@ -28669,7 +28665,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="144"/>
@@ -28684,7 +28680,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="144"/>
@@ -28699,7 +28695,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C58" s="145"/>
       <c r="D58" s="146"/>
@@ -28715,47 +28711,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -29467,10 +29463,10 @@
     </row>
     <row r="2" s="324" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="323" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C2" s="325" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D2" s="325"/>
       <c r="E2" s="325"/>
@@ -29479,7 +29475,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="152" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C3" s="326" t="s">
         <v>155</v>
@@ -29491,7 +29487,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C4" s="145"/>
       <c r="D4" s="5"/>
@@ -29501,10 +29497,10 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C5" s="327" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="169"/>
@@ -29513,7 +29509,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C6" s="328" t="str">
         <f aca="false">A2</f>
@@ -29526,7 +29522,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -29536,7 +29532,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -29546,7 +29542,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -29556,7 +29552,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -29566,7 +29562,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -29576,7 +29572,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -29586,7 +29582,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -29596,7 +29592,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -29606,7 +29602,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -29616,10 +29612,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C16" s="329" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D16" s="329"/>
       <c r="E16" s="329"/>
@@ -29628,7 +29624,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C17" s="330" t="n">
         <v>1</v>
@@ -29643,7 +29639,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C18" s="330" t="n">
         <v>2</v>
@@ -29658,7 +29654,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>3</v>
@@ -29673,25 +29669,25 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C20" s="332"/>
       <c r="D20" s="333" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E20" s="333" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F20" s="333" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G20" s="334" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C21" s="332"/>
       <c r="D21" s="108" t="s">
@@ -29704,12 +29700,12 @@
         <v>107</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C22" s="330" t="n">
         <v>1</v>
@@ -29733,7 +29729,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C23" s="330" t="n">
         <v>2</v>
@@ -29757,7 +29753,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C24" s="330" t="n">
         <v>3</v>
@@ -29781,10 +29777,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C25" s="336" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="169"/>
@@ -29793,7 +29789,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C26" s="328" t="str">
         <f aca="false">A22</f>
@@ -29806,7 +29802,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -29816,7 +29812,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -29826,7 +29822,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -29836,7 +29832,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -29846,7 +29842,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -29856,7 +29852,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -29866,7 +29862,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -29876,7 +29872,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -29886,7 +29882,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -29896,10 +29892,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C36" s="329" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D36" s="329"/>
       <c r="E36" s="329"/>
@@ -29908,7 +29904,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C37" s="330" t="n">
         <v>1</v>
@@ -29923,7 +29919,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C38" s="330" t="n">
         <v>2</v>
@@ -29938,7 +29934,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>3</v>
@@ -29953,25 +29949,25 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C40" s="332"/>
       <c r="D40" s="333" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E40" s="333" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F40" s="333" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G40" s="334" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C41" s="332"/>
       <c r="D41" s="108" t="s">
@@ -29984,12 +29980,12 @@
         <v>107</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C42" s="330" t="n">
         <v>1</v>
@@ -30013,7 +30009,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C43" s="330" t="n">
         <v>2</v>
@@ -30037,7 +30033,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C44" s="330" t="n">
         <v>3</v>
@@ -30061,10 +30057,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C45" s="336" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D45" s="338"/>
       <c r="E45" s="30"/>
@@ -30073,7 +30069,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="152" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C46" s="328" t="str">
         <f aca="false">A42</f>
@@ -30086,7 +30082,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="152" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -30096,7 +30092,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="152" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -30106,7 +30102,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="152" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -30116,7 +30112,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="152" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -30126,7 +30122,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="152" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -30136,7 +30132,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="152" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -30146,7 +30142,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="152" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -30156,7 +30152,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="152" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -30166,7 +30162,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="152" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -30176,10 +30172,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="152" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C56" s="329" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D56" s="329"/>
       <c r="E56" s="329"/>
@@ -30188,7 +30184,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="152" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C57" s="330" t="n">
         <v>1</v>
@@ -30203,7 +30199,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="152" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C58" s="330" t="n">
         <v>2</v>
@@ -30218,7 +30214,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="152" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C59" s="330" t="n">
         <v>3</v>
@@ -30233,25 +30229,25 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="152" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C60" s="332"/>
       <c r="D60" s="333" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E60" s="333" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F60" s="333" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G60" s="334" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="152" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C61" s="332"/>
       <c r="D61" s="108" t="s">
@@ -30264,7 +30260,7 @@
         <v>107</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30567,10 +30563,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="322" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C2" s="327" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="169"/>
@@ -30579,7 +30575,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -30592,7 +30588,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -30602,7 +30598,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -30612,7 +30608,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -30622,7 +30618,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -30632,7 +30628,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -30642,7 +30638,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -30652,7 +30648,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -30662,7 +30658,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -30672,7 +30668,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -30682,10 +30678,10 @@
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="152" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C13" s="340" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D13" s="340"/>
       <c r="E13" s="340"/>
@@ -30694,7 +30690,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="152" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C14" s="330" t="n">
         <v>1</v>
@@ -30709,7 +30705,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="152" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C15" s="330" t="n">
         <v>2</v>
@@ -30724,7 +30720,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C16" s="330" t="n">
         <v>3</v>
@@ -30739,25 +30735,25 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C17" s="332"/>
       <c r="D17" s="333" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E17" s="333" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F17" s="333" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G17" s="334" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C18" s="332"/>
       <c r="D18" s="108" t="s">
@@ -30770,12 +30766,12 @@
         <v>107</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>1</v>
@@ -30799,7 +30795,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C20" s="330" t="n">
         <v>2</v>
@@ -30823,7 +30819,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C21" s="330" t="n">
         <v>3</v>
@@ -30847,10 +30843,10 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C22" s="336" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D22" s="338"/>
       <c r="E22" s="30"/>
@@ -30859,7 +30855,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C23" s="328" t="str">
         <f aca="false">A22</f>
@@ -30872,7 +30868,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -30882,7 +30878,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -30892,7 +30888,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -30902,7 +30898,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -30912,7 +30908,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -30922,7 +30918,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -30932,7 +30928,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -30942,7 +30938,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -30952,7 +30948,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -30962,10 +30958,10 @@
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C33" s="340" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D33" s="340"/>
       <c r="E33" s="340"/>
@@ -30974,7 +30970,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C34" s="330" t="n">
         <v>1</v>
@@ -30989,7 +30985,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C35" s="330" t="n">
         <v>2</v>
@@ -31004,7 +31000,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C36" s="330" t="n">
         <v>3</v>
@@ -31019,25 +31015,25 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C37" s="332"/>
       <c r="D37" s="333" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E37" s="333" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F37" s="333" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G37" s="334" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C38" s="332"/>
       <c r="D38" s="108" t="s">
@@ -31050,12 +31046,12 @@
         <v>107</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>1</v>
@@ -31079,7 +31075,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C40" s="330" t="n">
         <v>2</v>
@@ -31103,7 +31099,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C41" s="330" t="n">
         <v>3</v>
@@ -31127,10 +31123,10 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C42" s="336" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D42" s="338"/>
       <c r="E42" s="30"/>
@@ -31139,7 +31135,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C43" s="328" t="str">
         <f aca="false">A42</f>
@@ -31152,7 +31148,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -31162,7 +31158,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -31268,7 +31264,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="327" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="169"/>
@@ -31286,7 +31282,7 @@
     <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="152"/>
       <c r="C60" s="303" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D60" s="303"/>
       <c r="E60" s="303"/>
@@ -31493,10 +31489,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="152" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C2" s="343" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D2" s="343"/>
       <c r="E2" s="343"/>
@@ -31507,7 +31503,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -31522,7 +31518,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -31534,7 +31530,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -31546,7 +31542,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -31558,7 +31554,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -31570,7 +31566,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -31582,7 +31578,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -31594,7 +31590,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -31606,7 +31602,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -31618,7 +31614,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -31630,7 +31626,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -31642,7 +31638,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -31654,7 +31650,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -31666,7 +31662,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="322" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C16" s="328"/>
       <c r="D16" s="328"/>
@@ -31678,7 +31674,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="322" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C17" s="328"/>
       <c r="D17" s="328"/>
@@ -31690,7 +31686,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="322" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C18" s="328"/>
       <c r="D18" s="328"/>
@@ -31702,7 +31698,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="322" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C19" s="328"/>
       <c r="D19" s="328"/>
@@ -31714,7 +31710,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="322" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C20" s="328"/>
       <c r="D20" s="328"/>
@@ -31726,7 +31722,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="322" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C21" s="328"/>
       <c r="D21" s="328"/>
@@ -31738,7 +31734,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="322" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C22" s="328"/>
       <c r="D22" s="328"/>
@@ -31750,7 +31746,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="322" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C23" s="328"/>
       <c r="D23" s="328"/>
@@ -31762,7 +31758,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="322" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -31774,7 +31770,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="322" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -31786,7 +31782,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="322" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -31798,7 +31794,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="322" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -31810,7 +31806,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="322" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -31822,7 +31818,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="322" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -31834,7 +31830,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="322" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -31846,7 +31842,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="322" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -31858,7 +31854,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="322" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -31870,7 +31866,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="322" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -31882,7 +31878,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="322" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -31894,7 +31890,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="322" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -31906,7 +31902,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="322" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C36" s="328"/>
       <c r="D36" s="328"/>
@@ -31918,7 +31914,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="322" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C37" s="328"/>
       <c r="D37" s="328"/>
@@ -31930,7 +31926,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="322" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C38" s="328"/>
       <c r="D38" s="328"/>
@@ -31942,7 +31938,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="322" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C39" s="328"/>
       <c r="D39" s="328"/>
@@ -31954,7 +31950,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="322" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C40" s="328"/>
       <c r="D40" s="328"/>
@@ -31966,7 +31962,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="322" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C41" s="328"/>
       <c r="D41" s="328"/>
@@ -31978,7 +31974,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="322" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C42" s="328"/>
       <c r="D42" s="328"/>
@@ -31990,7 +31986,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="322" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C43" s="328"/>
       <c r="D43" s="328"/>
@@ -32002,7 +31998,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="322" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -32014,7 +32010,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="322" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -32026,7 +32022,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="322" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C46" s="328"/>
       <c r="D46" s="328"/>
@@ -32038,7 +32034,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="322" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -32050,7 +32046,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="322" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -32062,7 +32058,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="322" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -32074,7 +32070,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="322" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -32086,7 +32082,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="322" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -32098,7 +32094,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="322" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -32110,7 +32106,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="322" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -32122,7 +32118,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="322" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -32134,7 +32130,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="322" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -32146,7 +32142,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="322" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C56" s="328"/>
       <c r="D56" s="328"/>
@@ -32158,7 +32154,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="322" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C57" s="328"/>
       <c r="D57" s="328"/>
@@ -32170,7 +32166,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="322" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C58" s="328"/>
       <c r="D58" s="328"/>
@@ -32182,7 +32178,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="322" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C59" s="328"/>
       <c r="D59" s="328"/>
@@ -32194,7 +32190,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="322" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C60" s="328"/>
       <c r="D60" s="328"/>
@@ -32206,7 +32202,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="322" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C61" s="328"/>
       <c r="D61" s="328"/>
@@ -32218,7 +32214,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="322" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C62" s="328"/>
       <c r="D62" s="328"/>
@@ -32230,7 +32226,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="322" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C63" s="328"/>
       <c r="D63" s="328"/>
@@ -32242,7 +32238,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="322" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C64" s="328"/>
       <c r="D64" s="328"/>
@@ -32254,7 +32250,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="322" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C65" s="328"/>
       <c r="D65" s="328"/>
@@ -32266,7 +32262,7 @@
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="322" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C66" s="145"/>
       <c r="D66" s="146"/>
@@ -32278,372 +32274,372 @@
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="322" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="322" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="322" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="322" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="322" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="322" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="322" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="322" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="322" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="322" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="322" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="322" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="322" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="322" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="322" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="322" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="322" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="322" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="322" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="322" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="322" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="322" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="322" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="322" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="322" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="322" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="322" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="322" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="322" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="322" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="322" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="322" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="322" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="322" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="322" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="322" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="322" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="322" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="322" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="322" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="322" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="322" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="322" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="322" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="322" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="322" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="322" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="322" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="322" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="322" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="322" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="322" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="322" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="322" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="322" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="322" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="322" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="322" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="322" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="322" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="322" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="322" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="322" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="322" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="322" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="322" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="322" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="322" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="322" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="322" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="322" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="322" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="322" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="322" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -8963,9 +8963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>257400</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8979,7 +8979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="753480" cy="209880"/>
+          <a:ext cx="753120" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9000,9 +9000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>143640</xdr:colOff>
+      <xdr:colOff>143280</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>257400</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9016,7 +9016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1096560" cy="209880"/>
+          <a:ext cx="1096200" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9037,9 +9037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>258480</xdr:rowOff>
+      <xdr:rowOff>258120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9053,7 +9053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1403640" cy="209880"/>
+          <a:ext cx="1403280" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9074,9 +9074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>340920</xdr:colOff>
+      <xdr:colOff>340560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>258480</xdr:rowOff>
+      <xdr:rowOff>258120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9090,7 +9090,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1727640" cy="209880"/>
+          <a:ext cx="1727280" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9111,9 +9111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
+      <xdr:colOff>213840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>271440</xdr:rowOff>
+      <xdr:rowOff>271080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9127,7 +9127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2034720" cy="222840"/>
+          <a:ext cx="2034360" cy="222480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9148,9 +9148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>157320</xdr:colOff>
+      <xdr:colOff>156960</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>258480</xdr:rowOff>
+      <xdr:rowOff>258120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9164,7 +9164,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2379600" cy="209880"/>
+          <a:ext cx="2379240" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9185,9 +9185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
+      <xdr:colOff>97200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>257400</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9201,7 +9201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2692800" cy="209880"/>
+          <a:ext cx="2692440" cy="209520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9601,9 +9601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9613,7 +9613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6995880" cy="10059120"/>
+          <a:ext cx="6995520" cy="10058760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9699,9 +9699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9711,7 +9711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7013160" cy="262800"/>
+          <a:ext cx="7012800" cy="262440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9765,9 +9765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>430200</xdr:colOff>
+      <xdr:colOff>429840</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9777,7 +9777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="792000" cy="263880"/>
+          <a:ext cx="791640" cy="263520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9829,9 +9829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429120</xdr:colOff>
+      <xdr:colOff>428760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>192960</xdr:rowOff>
+      <xdr:rowOff>192600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9841,7 +9841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="792000" cy="263880"/>
+          <a:ext cx="791640" cy="263520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9894,8 +9894,8 @@
   </sheetPr>
   <dimension ref="A1:AK262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11751,8 +11751,8 @@
       <c r="J48" s="79"/>
       <c r="K48" s="74"/>
       <c r="L48" s="80" t="str">
-        <f aca="false">A22</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49544]</v>
+        <f aca="false">A23</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49547]</v>
       </c>
       <c r="M48" s="80"/>
       <c r="N48" s="80"/>
@@ -22482,7 +22482,7 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="791">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -1386,9 +1386,6 @@
   </si>
   <si>
     <t xml:space="preserve">kpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :tuoton-hyotysuhde]</t>
@@ -8963,9 +8960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8979,7 +8976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="753120" cy="209520"/>
+          <a:ext cx="752760" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9000,9 +8997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
+      <xdr:colOff>142920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9016,7 +9013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1096200" cy="209520"/>
+          <a:ext cx="1095840" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9037,9 +9034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>16200</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9053,7 +9050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1403280" cy="209520"/>
+          <a:ext cx="1402920" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9074,9 +9071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>340560</xdr:colOff>
+      <xdr:colOff>340200</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9090,7 +9087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1727280" cy="209520"/>
+          <a:ext cx="1726920" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9111,9 +9108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>213840</xdr:colOff>
+      <xdr:colOff>213480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>271080</xdr:rowOff>
+      <xdr:rowOff>270720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9127,7 +9124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2034360" cy="222480"/>
+          <a:ext cx="2034000" cy="222120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9148,9 +9145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>156960</xdr:colOff>
+      <xdr:colOff>156600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9164,7 +9161,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2379240" cy="209520"/>
+          <a:ext cx="2378880" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9185,9 +9182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9201,7 +9198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2692440" cy="209520"/>
+          <a:ext cx="2692080" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9601,9 +9598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9613,7 +9610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6995520" cy="10058760"/>
+          <a:ext cx="6995160" cy="10058400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9699,9 +9696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9711,7 +9708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7012800" cy="262440"/>
+          <a:ext cx="7012440" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9765,9 +9762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429840</xdr:colOff>
+      <xdr:colOff>429480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9777,7 +9774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="791640" cy="263520"/>
+          <a:ext cx="791280" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9829,9 +9826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428760</xdr:colOff>
+      <xdr:colOff>428400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>192600</xdr:rowOff>
+      <xdr:rowOff>192240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9841,7 +9838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="791640" cy="263520"/>
+          <a:ext cx="791280" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9894,7 +9891,7 @@
   </sheetPr>
   <dimension ref="A1:AK262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
@@ -22482,8 +22479,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F69" activeCellId="0" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23663,7 +23660,7 @@
         <v>279</v>
       </c>
       <c r="F66" s="184" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="G66" s="182"/>
       <c r="H66" s="179"/>
@@ -23683,11 +23680,11 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="175" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E68" s="214" t="str">
         <f aca="false">A76</f>
@@ -23703,11 +23700,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E69" s="214" t="str">
         <f aca="false">A78</f>
@@ -23723,7 +23720,7 @@
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="179"/>
@@ -23735,12 +23732,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="168"/>
       <c r="D71" s="94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -23750,7 +23747,7 @@
     </row>
     <row r="72" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="179"/>
@@ -23762,12 +23759,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="172"/>
       <c r="E73" s="215" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F73" s="216"/>
       <c r="G73" s="216"/>
@@ -23776,7 +23773,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="172"/>
@@ -23790,7 +23787,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C75" s="174"/>
       <c r="D75" s="172"/>
@@ -23802,11 +23799,11 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="175" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E76" s="188" t="str">
         <f aca="false">A80</f>
@@ -23820,7 +23817,7 @@
     </row>
     <row r="77" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="179"/>
@@ -23832,12 +23829,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="168"/>
       <c r="D78" s="94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E78" s="169"/>
       <c r="F78" s="169"/>
@@ -23847,7 +23844,7 @@
     </row>
     <row r="79" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C79" s="174"/>
       <c r="D79" s="179"/>
@@ -23859,15 +23856,15 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C80" s="174"/>
       <c r="D80" s="179"/>
       <c r="E80" s="182" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="218" t="s">
         <v>299</v>
-      </c>
-      <c r="F80" s="218" t="s">
-        <v>300</v>
       </c>
       <c r="G80" s="179"/>
       <c r="H80" s="179"/>
@@ -23875,12 +23872,12 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C81" s="174"/>
       <c r="D81" s="172"/>
       <c r="E81" s="184" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F81" s="185" t="s">
         <v>108</v>
@@ -23892,7 +23889,7 @@
     </row>
     <row r="82" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C82" s="174"/>
       <c r="D82" s="172"/>
@@ -23904,11 +23901,11 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" s="174"/>
       <c r="D83" s="175" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E83" s="214" t="str">
         <f aca="false">A81</f>
@@ -23924,7 +23921,7 @@
     </row>
     <row r="84" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C84" s="174"/>
       <c r="D84" s="179"/>
@@ -23936,12 +23933,12 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="168"/>
       <c r="D85" s="94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E85" s="169"/>
       <c r="F85" s="169"/>
@@ -23951,7 +23948,7 @@
     </row>
     <row r="86" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C86" s="174"/>
       <c r="D86" s="179"/>
@@ -23963,27 +23960,27 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C87" s="174"/>
       <c r="D87" s="172"/>
       <c r="E87" s="197" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="F87" s="182" t="s">
+      <c r="G87" s="182" t="s">
         <v>311</v>
       </c>
-      <c r="G87" s="182" t="s">
+      <c r="H87" s="197" t="s">
         <v>312</v>
-      </c>
-      <c r="H87" s="197" t="s">
-        <v>313</v>
       </c>
       <c r="I87" s="177"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" s="174"/>
       <c r="D88" s="172"/>
@@ -23991,19 +23988,19 @@
         <v>109</v>
       </c>
       <c r="F88" s="184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G88" s="184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H88" s="185" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I88" s="177"/>
     </row>
     <row r="89" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C89" s="174"/>
       <c r="D89" s="172"/>
@@ -24015,7 +24012,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C90" s="174"/>
       <c r="D90" s="219"/>
@@ -24039,7 +24036,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C91" s="174"/>
       <c r="D91" s="219"/>
@@ -24063,7 +24060,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C92" s="174"/>
       <c r="D92" s="219"/>
@@ -24087,7 +24084,7 @@
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="160" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C93" s="220"/>
       <c r="D93" s="221"/>
@@ -24099,7 +24096,7 @@
     </row>
     <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="160" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -24922,7 +24919,7 @@
       </c>
       <c r="C2" s="225"/>
       <c r="D2" s="165" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E2" s="226"/>
       <c r="F2" s="165"/>
@@ -25032,11 +25029,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="160" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="174"/>
       <c r="D9" s="234" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
@@ -25063,7 +25060,7 @@
       </c>
       <c r="C10" s="174"/>
       <c r="D10" s="238" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" s="239" t="str">
         <f aca="false">A6</f>
@@ -25112,7 +25109,7 @@
       </c>
       <c r="C12" s="168"/>
       <c r="D12" s="94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="169"/>
       <c r="F12" s="169"/>
@@ -25132,7 +25129,7 @@
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="160" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="179"/>
@@ -25158,16 +25155,16 @@
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="240" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="182" t="s">
         <v>328</v>
       </c>
-      <c r="E14" s="182" t="s">
+      <c r="F14" s="182" t="s">
         <v>329</v>
       </c>
-      <c r="F14" s="182" t="s">
+      <c r="G14" s="197" t="s">
         <v>330</v>
-      </c>
-      <c r="G14" s="197" t="s">
-        <v>331</v>
       </c>
       <c r="H14" s="197"/>
       <c r="I14" s="182"/>
@@ -25189,13 +25186,13 @@
       <c r="C15" s="174"/>
       <c r="D15" s="173"/>
       <c r="E15" s="182" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="182" t="s">
         <v>332</v>
       </c>
-      <c r="F15" s="182" t="s">
+      <c r="G15" s="197" t="s">
         <v>333</v>
-      </c>
-      <c r="G15" s="197" t="s">
-        <v>334</v>
       </c>
       <c r="H15" s="197"/>
       <c r="I15" s="184"/>
@@ -25223,7 +25220,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="243" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H16" s="244" t="s">
         <v>110</v>
@@ -25242,7 +25239,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="160" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C17" s="174"/>
       <c r="D17" s="172"/>
@@ -25372,7 +25369,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="160" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" s="174"/>
       <c r="D21" s="248" t="s">
@@ -25518,7 +25515,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="160" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C25" s="174"/>
       <c r="D25" s="251" t="str">
@@ -25559,7 +25556,7 @@
       </c>
       <c r="C26" s="174"/>
       <c r="D26" s="252" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E26" s="253" t="str">
         <f aca="false">A42</f>
@@ -25614,7 +25611,7 @@
       </c>
       <c r="C28" s="168"/>
       <c r="D28" s="94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" s="169"/>
       <c r="F28" s="169"/>
@@ -25657,7 +25654,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="160" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30" s="174"/>
       <c r="D30" s="172"/>
@@ -25713,7 +25710,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="160" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C32" s="174"/>
       <c r="D32" s="255" t="str">
@@ -25744,7 +25741,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="160" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C33" s="174"/>
       <c r="D33" s="255" t="str">
@@ -25775,7 +25772,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="160" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C34" s="174"/>
       <c r="D34" s="255" t="str">
@@ -25806,7 +25803,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="160" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="255" t="str">
@@ -25837,7 +25834,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="160" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="255" t="str">
@@ -25868,7 +25865,7 @@
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="160" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C37" s="174"/>
       <c r="D37" s="179"/>
@@ -25890,11 +25887,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="160" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C38" s="168"/>
       <c r="D38" s="94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E38" s="169"/>
       <c r="F38" s="169"/>
@@ -25914,7 +25911,7 @@
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="160" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" s="174"/>
       <c r="D39" s="179"/>
@@ -25936,19 +25933,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="160" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="174"/>
       <c r="D40" s="172"/>
       <c r="E40" s="172"/>
       <c r="F40" s="197" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" s="182" t="s">
         <v>352</v>
       </c>
-      <c r="G40" s="182" t="s">
+      <c r="H40" s="182" t="s">
         <v>353</v>
-      </c>
-      <c r="H40" s="182" t="s">
-        <v>354</v>
       </c>
       <c r="I40" s="182"/>
       <c r="J40" s="230"/>
@@ -25964,7 +25961,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="160" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" s="174"/>
       <c r="D41" s="172"/>
@@ -25992,7 +25989,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="160" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="174"/>
       <c r="D42" s="172"/>
@@ -26014,7 +26011,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C43" s="174"/>
       <c r="D43" s="175" t="s">
@@ -26042,7 +26039,7 @@
       </c>
       <c r="C44" s="174"/>
       <c r="D44" s="175" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E44" s="175"/>
       <c r="F44" s="246" t="str">
@@ -26070,11 +26067,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="160" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C45" s="174"/>
       <c r="D45" s="175" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E45" s="175"/>
       <c r="F45" s="188" t="str">
@@ -26102,11 +26099,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="160" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="174"/>
       <c r="D46" s="175" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" s="175"/>
       <c r="F46" s="188" t="str">
@@ -26134,11 +26131,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="160" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="175" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E47" s="175"/>
       <c r="F47" s="188" t="str">
@@ -26165,11 +26162,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" s="174"/>
       <c r="D48" s="175" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E48" s="175"/>
       <c r="F48" s="188" t="str">
@@ -26198,11 +26195,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="160" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C49" s="174"/>
       <c r="D49" s="175" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E49" s="175"/>
       <c r="F49" s="188" t="str">
@@ -26229,11 +26226,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="160" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C50" s="174"/>
       <c r="D50" s="252" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E50" s="252"/>
       <c r="F50" s="261" t="str">
@@ -26262,11 +26259,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="160" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C51" s="174"/>
       <c r="D51" s="262" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E51" s="252"/>
       <c r="F51" s="217"/>
@@ -26286,7 +26283,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="160" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C52" s="174"/>
       <c r="D52" s="179"/>
@@ -26308,11 +26305,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="160" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="168"/>
       <c r="D53" s="94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E53" s="169"/>
       <c r="F53" s="169"/>
@@ -26323,7 +26320,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="160" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="174"/>
       <c r="D54" s="179"/>
@@ -26336,7 +26333,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="160" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="174"/>
       <c r="D55" s="172"/>
@@ -26352,7 +26349,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="160" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="174"/>
       <c r="D56" s="172"/>
@@ -26364,11 +26361,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="160" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" s="174"/>
       <c r="D57" s="175" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E57" s="175"/>
       <c r="F57" s="214" t="str">
@@ -26385,11 +26382,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="160" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C58" s="174"/>
       <c r="D58" s="175" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E58" s="175"/>
       <c r="F58" s="214" t="str">
@@ -26406,7 +26403,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="160" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="174"/>
       <c r="D59" s="175" t="s">
@@ -26427,11 +26424,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="160" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C60" s="174"/>
       <c r="D60" s="175" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E60" s="175"/>
       <c r="F60" s="214" t="str">
@@ -26448,7 +26445,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="160" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C61" s="174"/>
       <c r="D61" s="175"/>
@@ -26461,11 +26458,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="160" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C62" s="174"/>
       <c r="D62" s="213" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E62" s="213"/>
       <c r="F62" s="213"/>
@@ -26476,11 +26473,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="160" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C63" s="174"/>
       <c r="D63" s="213" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E63" s="213"/>
       <c r="F63" s="213"/>
@@ -26491,7 +26488,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="160" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="175"/>
@@ -26504,11 +26501,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="160" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" s="168"/>
       <c r="D65" s="94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E65" s="169"/>
       <c r="F65" s="169"/>
@@ -26519,7 +26516,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="160" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="179"/>
@@ -26532,7 +26529,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="160" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="172"/>
@@ -26548,7 +26545,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="172"/>
@@ -26560,11 +26557,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E69" s="175"/>
       <c r="F69" s="214" t="str">
@@ -26581,11 +26578,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="175" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E70" s="175"/>
       <c r="F70" s="214" t="str">
@@ -26602,11 +26599,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C71" s="174"/>
       <c r="D71" s="175" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E71" s="175"/>
       <c r="F71" s="214" t="str">
@@ -26623,11 +26620,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="175" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72" s="175"/>
       <c r="F72" s="214" t="str">
@@ -26644,11 +26641,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="175" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E73" s="175"/>
       <c r="F73" s="214" t="str">
@@ -26665,7 +26662,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="175"/>
@@ -26678,11 +26675,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C75" s="168"/>
       <c r="D75" s="94" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E75" s="169"/>
       <c r="F75" s="169"/>
@@ -26693,7 +26690,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="179"/>
@@ -26706,11 +26703,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="175" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E77" s="175"/>
       <c r="F77" s="263" t="str">
@@ -26724,7 +26721,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C78" s="220"/>
       <c r="D78" s="221"/>
@@ -26737,177 +26734,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="160" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="160" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="160" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="160" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="160" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="160" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="160" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="160" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="160" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="160" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="160" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="160" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="160" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="160" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="160" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="160" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="160" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="160" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="160" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="160" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -27510,7 +27507,7 @@
       </c>
       <c r="C2" s="266"/>
       <c r="D2" s="267" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E2" s="267"/>
       <c r="F2" s="267"/>
@@ -27527,7 +27524,7 @@
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="270"/>
@@ -27540,7 +27537,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="14"/>
@@ -27555,11 +27552,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
@@ -27572,7 +27569,7 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="14"/>
@@ -27587,7 +27584,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
@@ -27598,7 +27595,7 @@
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="F7" s="271" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H7" s="272"/>
       <c r="K7" s="14"/>
@@ -27607,7 +27604,7 @@
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="14"/>
@@ -27621,7 +27618,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="14"/>
@@ -27636,11 +27633,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="14"/>
@@ -27657,7 +27654,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="14"/>
@@ -27672,11 +27669,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="282" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E12" s="282"/>
       <c r="F12" s="282"/>
@@ -27696,11 +27693,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="282" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E13" s="282"/>
       <c r="F13" s="282"/>
@@ -27720,11 +27717,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="274" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E14" s="274"/>
       <c r="F14" s="282"/>
@@ -27744,11 +27741,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="274" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E15" s="274"/>
       <c r="F15" s="282"/>
@@ -27768,11 +27765,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="282" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="282"/>
       <c r="F16" s="282"/>
@@ -27792,7 +27789,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="289" t="str">
@@ -27817,7 +27814,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="289" t="str">
@@ -27842,7 +27839,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="289" t="str">
@@ -27867,7 +27864,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="289" t="str">
@@ -27892,7 +27889,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="289" t="str">
@@ -27917,7 +27914,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="290"/>
@@ -27936,7 +27933,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="294"/>
@@ -27952,22 +27949,22 @@
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="297" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E24" s="297"/>
       <c r="F24" s="297"/>
       <c r="G24" s="298" t="s">
+        <v>473</v>
+      </c>
+      <c r="H24" s="299" t="s">
         <v>474</v>
       </c>
-      <c r="H24" s="299" t="s">
+      <c r="I24" s="298" t="s">
         <v>475</v>
-      </c>
-      <c r="I24" s="298" t="s">
-        <v>476</v>
       </c>
       <c r="J24" s="299" t="s">
         <v>107</v>
@@ -27980,7 +27977,7 @@
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
@@ -27996,11 +27993,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="282" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E26" s="282"/>
       <c r="F26" s="282"/>
@@ -28009,7 +28006,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="H26" s="303" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I26" s="276" t="n">
         <v>10</v>
@@ -28027,11 +28024,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="282" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E27" s="282"/>
       <c r="F27" s="282"/>
@@ -28040,7 +28037,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="H27" s="303" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I27" s="276" t="n">
         <v>1300</v>
@@ -28058,11 +28055,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="282" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E28" s="282"/>
       <c r="F28" s="282"/>
@@ -28071,7 +28068,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="H28" s="303" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I28" s="276" t="n">
         <v>1700</v>
@@ -28089,11 +28086,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="282" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E29" s="282"/>
       <c r="F29" s="282"/>
@@ -28102,7 +28099,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="H29" s="303" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I29" s="276" t="n">
         <v>4.7</v>
@@ -28120,7 +28117,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="307" t="str">
@@ -28154,7 +28151,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="307" t="str">
@@ -28188,7 +28185,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="310"/>
@@ -28210,7 +28207,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="310"/>
@@ -28232,7 +28229,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="310"/>
@@ -28254,7 +28251,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="310"/>
@@ -28276,7 +28273,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="310"/>
@@ -28298,7 +28295,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="310"/>
@@ -28320,7 +28317,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="310"/>
@@ -28342,7 +28339,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="310"/>
@@ -28364,7 +28361,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="294"/>
@@ -28380,11 +28377,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="312" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E41" s="312"/>
       <c r="F41" s="294"/>
@@ -28398,7 +28395,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="313"/>
@@ -28414,7 +28411,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="294"/>
@@ -28430,11 +28427,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="294"/>
@@ -28448,7 +28445,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
@@ -28464,7 +28461,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
@@ -28484,11 +28481,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
@@ -28508,11 +28505,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -28532,11 +28529,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -28556,11 +28553,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -28580,11 +28577,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="61"/>
@@ -28603,7 +28600,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
@@ -28618,11 +28615,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="144" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E53" s="144"/>
       <c r="F53" s="144"/>
@@ -28635,7 +28632,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="144"/>
@@ -28650,7 +28647,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="144"/>
@@ -28665,7 +28662,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="144"/>
@@ -28680,7 +28677,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="144"/>
@@ -28695,7 +28692,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C58" s="145"/>
       <c r="D58" s="146"/>
@@ -28711,47 +28708,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -29463,10 +29460,10 @@
     </row>
     <row r="2" s="324" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="323" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" s="325" t="s">
         <v>533</v>
-      </c>
-      <c r="C2" s="325" t="s">
-        <v>534</v>
       </c>
       <c r="D2" s="325"/>
       <c r="E2" s="325"/>
@@ -29475,7 +29472,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="152" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C3" s="326" t="s">
         <v>155</v>
@@ -29487,7 +29484,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C4" s="145"/>
       <c r="D4" s="5"/>
@@ -29497,10 +29494,10 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="327" t="s">
         <v>537</v>
-      </c>
-      <c r="C5" s="327" t="s">
-        <v>538</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="169"/>
@@ -29509,7 +29506,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C6" s="328" t="str">
         <f aca="false">A2</f>
@@ -29522,7 +29519,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -29532,7 +29529,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -29542,7 +29539,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -29552,7 +29549,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -29562,7 +29559,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -29572,7 +29569,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -29582,7 +29579,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -29592,7 +29589,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -29602,7 +29599,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -29612,10 +29609,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
+        <v>548</v>
+      </c>
+      <c r="C16" s="329" t="s">
         <v>549</v>
-      </c>
-      <c r="C16" s="329" t="s">
-        <v>550</v>
       </c>
       <c r="D16" s="329"/>
       <c r="E16" s="329"/>
@@ -29624,7 +29621,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C17" s="330" t="n">
         <v>1</v>
@@ -29639,7 +29636,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C18" s="330" t="n">
         <v>2</v>
@@ -29654,7 +29651,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>3</v>
@@ -29669,25 +29666,25 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C20" s="332"/>
       <c r="D20" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E20" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E20" s="333" t="s">
+      <c r="F20" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F20" s="333" t="s">
+      <c r="G20" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G20" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C21" s="332"/>
       <c r="D21" s="108" t="s">
@@ -29700,12 +29697,12 @@
         <v>107</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C22" s="330" t="n">
         <v>1</v>
@@ -29729,7 +29726,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C23" s="330" t="n">
         <v>2</v>
@@ -29753,7 +29750,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C24" s="330" t="n">
         <v>3</v>
@@ -29777,10 +29774,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
+        <v>563</v>
+      </c>
+      <c r="C25" s="336" t="s">
         <v>564</v>
-      </c>
-      <c r="C25" s="336" t="s">
-        <v>565</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="169"/>
@@ -29789,7 +29786,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C26" s="328" t="str">
         <f aca="false">A22</f>
@@ -29802,7 +29799,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -29812,7 +29809,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -29822,7 +29819,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -29832,7 +29829,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -29842,7 +29839,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -29852,7 +29849,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -29862,7 +29859,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -29872,7 +29869,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -29882,7 +29879,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -29892,10 +29889,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C36" s="329" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D36" s="329"/>
       <c r="E36" s="329"/>
@@ -29904,7 +29901,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C37" s="330" t="n">
         <v>1</v>
@@ -29919,7 +29916,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C38" s="330" t="n">
         <v>2</v>
@@ -29934,7 +29931,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>3</v>
@@ -29949,25 +29946,25 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C40" s="332"/>
       <c r="D40" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E40" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E40" s="333" t="s">
+      <c r="F40" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F40" s="333" t="s">
+      <c r="G40" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G40" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C41" s="332"/>
       <c r="D41" s="108" t="s">
@@ -29980,12 +29977,12 @@
         <v>107</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C42" s="330" t="n">
         <v>1</v>
@@ -30009,7 +30006,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C43" s="330" t="n">
         <v>2</v>
@@ -30033,7 +30030,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C44" s="330" t="n">
         <v>3</v>
@@ -30057,10 +30054,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="336" t="s">
         <v>585</v>
-      </c>
-      <c r="C45" s="336" t="s">
-        <v>586</v>
       </c>
       <c r="D45" s="338"/>
       <c r="E45" s="30"/>
@@ -30069,7 +30066,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="152" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C46" s="328" t="str">
         <f aca="false">A42</f>
@@ -30082,7 +30079,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="152" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -30092,7 +30089,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="152" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -30102,7 +30099,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="152" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -30112,7 +30109,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="152" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -30122,7 +30119,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="152" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -30132,7 +30129,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="152" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -30142,7 +30139,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="152" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -30152,7 +30149,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="152" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -30162,7 +30159,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="152" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -30172,10 +30169,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="152" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C56" s="329" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D56" s="329"/>
       <c r="E56" s="329"/>
@@ -30184,7 +30181,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C57" s="330" t="n">
         <v>1</v>
@@ -30199,7 +30196,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="152" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C58" s="330" t="n">
         <v>2</v>
@@ -30214,7 +30211,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="152" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C59" s="330" t="n">
         <v>3</v>
@@ -30229,25 +30226,25 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="152" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C60" s="332"/>
       <c r="D60" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E60" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E60" s="333" t="s">
+      <c r="F60" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F60" s="333" t="s">
+      <c r="G60" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G60" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="152" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C61" s="332"/>
       <c r="D61" s="108" t="s">
@@ -30260,7 +30257,7 @@
         <v>107</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30563,10 +30560,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="322" t="s">
+        <v>602</v>
+      </c>
+      <c r="C2" s="327" t="s">
         <v>603</v>
-      </c>
-      <c r="C2" s="327" t="s">
-        <v>604</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="169"/>
@@ -30575,7 +30572,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -30588,7 +30585,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -30598,7 +30595,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -30608,7 +30605,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -30618,7 +30615,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -30628,7 +30625,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -30638,7 +30635,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -30648,7 +30645,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -30658,7 +30655,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -30668,7 +30665,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -30678,10 +30675,10 @@
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="152" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C13" s="340" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D13" s="340"/>
       <c r="E13" s="340"/>
@@ -30690,7 +30687,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="152" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C14" s="330" t="n">
         <v>1</v>
@@ -30705,7 +30702,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="152" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C15" s="330" t="n">
         <v>2</v>
@@ -30720,7 +30717,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C16" s="330" t="n">
         <v>3</v>
@@ -30735,25 +30732,25 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C17" s="332"/>
       <c r="D17" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E17" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E17" s="333" t="s">
+      <c r="F17" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F17" s="333" t="s">
+      <c r="G17" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G17" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C18" s="332"/>
       <c r="D18" s="108" t="s">
@@ -30766,12 +30763,12 @@
         <v>107</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>1</v>
@@ -30795,7 +30792,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C20" s="330" t="n">
         <v>2</v>
@@ -30819,7 +30816,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C21" s="330" t="n">
         <v>3</v>
@@ -30843,10 +30840,10 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
+        <v>623</v>
+      </c>
+      <c r="C22" s="336" t="s">
         <v>624</v>
-      </c>
-      <c r="C22" s="336" t="s">
-        <v>625</v>
       </c>
       <c r="D22" s="338"/>
       <c r="E22" s="30"/>
@@ -30855,7 +30852,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C23" s="328" t="str">
         <f aca="false">A22</f>
@@ -30868,7 +30865,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -30878,7 +30875,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -30888,7 +30885,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -30898,7 +30895,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -30908,7 +30905,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -30918,7 +30915,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -30928,7 +30925,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -30938,7 +30935,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -30948,7 +30945,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -30958,10 +30955,10 @@
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C33" s="340" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D33" s="340"/>
       <c r="E33" s="340"/>
@@ -30970,7 +30967,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C34" s="330" t="n">
         <v>1</v>
@@ -30985,7 +30982,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C35" s="330" t="n">
         <v>2</v>
@@ -31000,7 +30997,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C36" s="330" t="n">
         <v>3</v>
@@ -31015,25 +31012,25 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C37" s="332"/>
       <c r="D37" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E37" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E37" s="333" t="s">
+      <c r="F37" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F37" s="333" t="s">
+      <c r="G37" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G37" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C38" s="332"/>
       <c r="D38" s="108" t="s">
@@ -31046,12 +31043,12 @@
         <v>107</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>1</v>
@@ -31075,7 +31072,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C40" s="330" t="n">
         <v>2</v>
@@ -31099,7 +31096,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C41" s="330" t="n">
         <v>3</v>
@@ -31123,10 +31120,10 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
+        <v>644</v>
+      </c>
+      <c r="C42" s="336" t="s">
         <v>645</v>
-      </c>
-      <c r="C42" s="336" t="s">
-        <v>646</v>
       </c>
       <c r="D42" s="338"/>
       <c r="E42" s="30"/>
@@ -31135,7 +31132,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C43" s="328" t="str">
         <f aca="false">A42</f>
@@ -31148,7 +31145,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -31158,7 +31155,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -31264,7 +31261,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="327" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="169"/>
@@ -31282,7 +31279,7 @@
     <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="152"/>
       <c r="C60" s="303" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D60" s="303"/>
       <c r="E60" s="303"/>
@@ -31489,10 +31486,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="152" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" s="343" t="s">
         <v>652</v>
-      </c>
-      <c r="C2" s="343" t="s">
-        <v>653</v>
       </c>
       <c r="D2" s="343"/>
       <c r="E2" s="343"/>
@@ -31503,7 +31500,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -31518,7 +31515,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -31530,7 +31527,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -31542,7 +31539,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -31554,7 +31551,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -31566,7 +31563,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -31578,7 +31575,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -31590,7 +31587,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -31602,7 +31599,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -31614,7 +31611,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -31626,7 +31623,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -31638,7 +31635,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -31650,7 +31647,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -31662,7 +31659,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="322" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C16" s="328"/>
       <c r="D16" s="328"/>
@@ -31674,7 +31671,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="322" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C17" s="328"/>
       <c r="D17" s="328"/>
@@ -31686,7 +31683,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="322" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C18" s="328"/>
       <c r="D18" s="328"/>
@@ -31698,7 +31695,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="322" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C19" s="328"/>
       <c r="D19" s="328"/>
@@ -31710,7 +31707,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="322" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C20" s="328"/>
       <c r="D20" s="328"/>
@@ -31722,7 +31719,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="322" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C21" s="328"/>
       <c r="D21" s="328"/>
@@ -31734,7 +31731,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="322" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C22" s="328"/>
       <c r="D22" s="328"/>
@@ -31746,7 +31743,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="322" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C23" s="328"/>
       <c r="D23" s="328"/>
@@ -31758,7 +31755,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="322" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -31770,7 +31767,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="322" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -31782,7 +31779,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="322" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -31794,7 +31791,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="322" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -31806,7 +31803,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="322" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -31818,7 +31815,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="322" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -31830,7 +31827,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="322" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -31842,7 +31839,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="322" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -31854,7 +31851,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="322" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -31866,7 +31863,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="322" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -31878,7 +31875,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="322" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -31890,7 +31887,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="322" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -31902,7 +31899,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="322" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C36" s="328"/>
       <c r="D36" s="328"/>
@@ -31914,7 +31911,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="322" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C37" s="328"/>
       <c r="D37" s="328"/>
@@ -31926,7 +31923,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="322" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C38" s="328"/>
       <c r="D38" s="328"/>
@@ -31938,7 +31935,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="322" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C39" s="328"/>
       <c r="D39" s="328"/>
@@ -31950,7 +31947,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="322" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C40" s="328"/>
       <c r="D40" s="328"/>
@@ -31962,7 +31959,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="322" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C41" s="328"/>
       <c r="D41" s="328"/>
@@ -31974,7 +31971,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="322" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C42" s="328"/>
       <c r="D42" s="328"/>
@@ -31986,7 +31983,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="322" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C43" s="328"/>
       <c r="D43" s="328"/>
@@ -31998,7 +31995,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="322" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -32010,7 +32007,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="322" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -32022,7 +32019,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="322" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C46" s="328"/>
       <c r="D46" s="328"/>
@@ -32034,7 +32031,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="322" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -32046,7 +32043,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="322" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -32058,7 +32055,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="322" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -32070,7 +32067,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="322" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -32082,7 +32079,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="322" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -32094,7 +32091,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="322" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -32106,7 +32103,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="322" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -32118,7 +32115,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="322" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -32130,7 +32127,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="322" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -32142,7 +32139,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="322" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C56" s="328"/>
       <c r="D56" s="328"/>
@@ -32154,7 +32151,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="322" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C57" s="328"/>
       <c r="D57" s="328"/>
@@ -32166,7 +32163,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="322" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C58" s="328"/>
       <c r="D58" s="328"/>
@@ -32178,7 +32175,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="322" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C59" s="328"/>
       <c r="D59" s="328"/>
@@ -32190,7 +32187,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="322" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C60" s="328"/>
       <c r="D60" s="328"/>
@@ -32202,7 +32199,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="322" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C61" s="328"/>
       <c r="D61" s="328"/>
@@ -32214,7 +32211,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="322" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C62" s="328"/>
       <c r="D62" s="328"/>
@@ -32226,7 +32223,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="322" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C63" s="328"/>
       <c r="D63" s="328"/>
@@ -32238,7 +32235,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="322" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C64" s="328"/>
       <c r="D64" s="328"/>
@@ -32250,7 +32247,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="322" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C65" s="328"/>
       <c r="D65" s="328"/>
@@ -32262,7 +32259,7 @@
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="322" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C66" s="145"/>
       <c r="D66" s="146"/>
@@ -32274,372 +32271,372 @@
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="322" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="322" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="322" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="322" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="322" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="322" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="322" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="322" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="322" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="322" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="322" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="322" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="322" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="322" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="322" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="322" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="322" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="322" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="322" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="322" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="322" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="322" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="322" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="322" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="322" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="322" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="322" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="322" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="322" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="322" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="322" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="322" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="322" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="322" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="322" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="322" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="322" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="322" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="322" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="322" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="322" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="322" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="322" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="322" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="322" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="322" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="322" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="322" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="322" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="322" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="322" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="322" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="322" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="322" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="322" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="322" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="322" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="322" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="322" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="322" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="322" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="322" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="322" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="322" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="322" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="322" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="322" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="322" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="322" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="322" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="322" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="322" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="322" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="322" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -5003,7 +5003,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5011,7 +5011,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -8960,9 +8960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>242640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>256320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8976,12 +8976,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="752760" cy="209160"/>
+          <a:ext cx="752400" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -8997,9 +8997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142920</xdr:colOff>
+      <xdr:colOff>142560</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>256320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9013,12 +9013,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1095840" cy="209160"/>
+          <a:ext cx="1095480" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9034,9 +9034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>16200</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>257760</xdr:rowOff>
+      <xdr:rowOff>257400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9050,12 +9050,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1402920" cy="209160"/>
+          <a:ext cx="1402560" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9071,9 +9071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>340200</xdr:colOff>
+      <xdr:colOff>339840</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>257760</xdr:rowOff>
+      <xdr:rowOff>257400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9087,12 +9087,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1726920" cy="209160"/>
+          <a:ext cx="1726560" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9108,9 +9108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>213480</xdr:colOff>
+      <xdr:colOff>213120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>270720</xdr:rowOff>
+      <xdr:rowOff>270360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9124,12 +9124,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2034000" cy="222120"/>
+          <a:ext cx="2033640" cy="221760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9145,9 +9145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>257760</xdr:rowOff>
+      <xdr:rowOff>257400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9161,12 +9161,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2378880" cy="209160"/>
+          <a:ext cx="2378520" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9182,9 +9182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96840</xdr:colOff>
+      <xdr:colOff>96480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>256320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9198,12 +9198,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2692080" cy="209160"/>
+          <a:ext cx="2691720" cy="208800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9598,9 +9598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9610,7 +9610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6995160" cy="10058400"/>
+          <a:ext cx="6994800" cy="10058040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9695,10 +9695,10 @@
       <xdr:rowOff>128160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323280</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9708,7 +9708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7012440" cy="262080"/>
+          <a:ext cx="7012080" cy="261720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9727,7 +9727,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -9745,7 +9745,7 @@
             </a:rPr>
             <a:t>Energiatodistus perustuu lakiin rakennuksen energiatodistuksesta (50/2013). </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9762,9 +9762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429480</xdr:colOff>
+      <xdr:colOff>429120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9774,13 +9774,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="791280" cy="263160"/>
+          <a:ext cx="790920" cy="262800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9809,7 +9809,7 @@
             </a:rPr>
             <a:t>Uudisrakennusten</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9826,9 +9826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428400</xdr:colOff>
+      <xdr:colOff>428040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>192240</xdr:rowOff>
+      <xdr:rowOff>191880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9838,13 +9838,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="791280" cy="263160"/>
+          <a:ext cx="790920" cy="262800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9873,7 +9873,7 @@
             </a:rPr>
             <a:t>määräystaso 2012</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9891,8 +9891,8 @@
   </sheetPr>
   <dimension ref="A1:AK262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19679,18 +19679,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9:H11 J9:AMJ9 I10:AMJ11" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9:H11 J9:AMJ9 I10:AMJ11" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A11" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A11" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19707,7 +19707,7 @@
   <dimension ref="A1:AC82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22463,8 +22463,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -22479,8 +22479,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F69" activeCellId="0" sqref="F69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24869,14 +24869,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A49:E49 G49:AMJ49" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A49:E49 G49:AMJ49" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -24892,7 +24892,7 @@
   <dimension ref="A1:T113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25337,23 +25337,23 @@
       </c>
       <c r="C20" s="174"/>
       <c r="D20" s="248" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E20" s="214" t="str">
-        <f aca="false">A15</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
-      </c>
-      <c r="F20" s="246" t="str">
-        <f aca="false">A16</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kerroin]</v>
-      </c>
-      <c r="G20" s="214" t="str">
-        <f aca="false">A17</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</v>
-      </c>
-      <c r="H20" s="246" t="str">
-        <f aca="false">A18</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-nettoala-kertoimella]</v>
+        <f aca="false">A23</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
+      </c>
+      <c r="F20" s="249" t="str">
+        <f aca="false">A24</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kerroin]</v>
+      </c>
+      <c r="G20" s="247" t="str">
+        <f aca="false">A25</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kertoimella]</v>
+      </c>
+      <c r="H20" s="247" t="str">
+        <f aca="false">A26</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-nettoala-kertoimella]</v>
       </c>
       <c r="I20" s="182"/>
       <c r="J20" s="230"/>
@@ -25372,24 +25372,24 @@
         <v>336</v>
       </c>
       <c r="C21" s="174"/>
-      <c r="D21" s="248" t="s">
-        <v>121</v>
+      <c r="D21" s="250" t="s">
+        <v>119</v>
       </c>
       <c r="E21" s="214" t="str">
-        <f aca="false">A19</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
-      </c>
-      <c r="F21" s="249" t="str">
-        <f aca="false">A20</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kerroin]</v>
-      </c>
-      <c r="G21" s="247" t="str">
-        <f aca="false">A21</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kertoimella]</v>
-      </c>
-      <c r="H21" s="247" t="str">
-        <f aca="false">A22</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-nettoala-kertoimella]</v>
+        <f aca="false">A15</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
+      </c>
+      <c r="F21" s="246" t="str">
+        <f aca="false">A16</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kerroin]</v>
+      </c>
+      <c r="G21" s="214" t="str">
+        <f aca="false">A17</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</v>
+      </c>
+      <c r="H21" s="246" t="str">
+        <f aca="false">A18</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-nettoala-kertoimella]</v>
       </c>
       <c r="I21" s="182"/>
       <c r="J21" s="229"/>
@@ -25409,23 +25409,23 @@
       </c>
       <c r="C22" s="174"/>
       <c r="D22" s="250" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E22" s="214" t="str">
-        <f aca="false">A23</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
+        <f aca="false">A19</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
       </c>
       <c r="F22" s="249" t="str">
-        <f aca="false">A24</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kerroin]</v>
+        <f aca="false">A20</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kerroin]</v>
       </c>
       <c r="G22" s="247" t="str">
-        <f aca="false">A25</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kertoimella]</v>
+        <f aca="false">A21</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kertoimella]</v>
       </c>
       <c r="H22" s="247" t="str">
-        <f aca="false">A26</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-nettoala-kertoimella]</v>
+        <f aca="false">A22</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-nettoala-kertoimella]</v>
       </c>
       <c r="I22" s="182"/>
       <c r="J22" s="230"/>
@@ -25444,7 +25444,7 @@
         <v>118</v>
       </c>
       <c r="C23" s="174"/>
-      <c r="D23" s="250" t="str">
+      <c r="D23" s="248" t="str">
         <f aca="false">A27</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 0 :nimi]</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="174"/>
-      <c r="D24" s="250" t="str">
+      <c r="D24" s="248" t="str">
         <f aca="false">A32</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 1 :nimi]</v>
       </c>
@@ -27229,7 +27229,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F25 H20">
+  <conditionalFormatting sqref="F18:F25 H22">
     <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
       <formula>"*"</formula>
     </cfRule>
@@ -27269,12 +27269,12 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G25 G18:G19">
+  <conditionalFormatting sqref="G22:G25 G18:G20">
     <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H25 H18:H19">
+  <conditionalFormatting sqref="H22:H25 H18:H20">
     <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
       <formula>"*"</formula>
     </cfRule>
@@ -27299,7 +27299,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E25 G20">
+  <conditionalFormatting sqref="E19:E25 G22">
     <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
       <formula>"*"</formula>
     </cfRule>
@@ -27407,9 +27407,9 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
+  <conditionalFormatting sqref="D23:D24 D20">
     <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
-      <formula>LEFT(D22,1)="*"</formula>
+      <formula>LEFT(D20,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
@@ -27417,53 +27417,53 @@
       <formula>"- Valitse -"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
-      <formula>LEFT(D20,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
+    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49">
-    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161">
+    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
+    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
+    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
       <formula>"tyhjä"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
+    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
+    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
       <formula>"- Valitse -"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D22">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
+      <formula>LEFT(D22,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H44:H47 G47 G49:H49" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H44:H47 G47 G49:H49" type="none">
       <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -27479,7 +27479,7 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29422,8 +29422,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -29438,8 +29438,8 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K64" activeCellId="0" sqref="K64"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30516,14 +30516,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A63:F64 H63:AMJ64 G64" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A63:F64 H63:AMJ64 G64" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -30538,8 +30538,8 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31448,8 +31448,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -31465,7 +31465,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32650,8 +32650,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -2977,10 +2977,10 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampopumppu-tuotto-osuus]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampohavio-lammittamaton-tila]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampohavio-lammittamaton-tila]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :lampohavio-lammittamaton-tila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNUSED</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkosahko]</t>
@@ -8960,9 +8960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>242640</xdr:colOff>
+      <xdr:colOff>242280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>256320</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8976,7 +8976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="752400" cy="208800"/>
+          <a:ext cx="752040" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8997,9 +8997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142560</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>256320</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9013,7 +9013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1095480" cy="208800"/>
+          <a:ext cx="1095120" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9034,9 +9034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
+      <xdr:colOff>15480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>257400</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9050,7 +9050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1402560" cy="208800"/>
+          <a:ext cx="1402200" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9071,9 +9071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>339840</xdr:colOff>
+      <xdr:colOff>339480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>257400</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9087,7 +9087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1726560" cy="208800"/>
+          <a:ext cx="1726200" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9108,9 +9108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>213120</xdr:colOff>
+      <xdr:colOff>212760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>270360</xdr:rowOff>
+      <xdr:rowOff>270000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9124,7 +9124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2033640" cy="221760"/>
+          <a:ext cx="2033280" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9145,9 +9145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>155880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>257400</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9161,7 +9161,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2378520" cy="208800"/>
+          <a:ext cx="2378160" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9182,9 +9182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96480</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>256320</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9198,7 +9198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2691720" cy="208800"/>
+          <a:ext cx="2691360" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9598,9 +9598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9610,7 +9610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6994800" cy="10058040"/>
+          <a:ext cx="6994440" cy="10057680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9696,9 +9696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9708,7 +9708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7012080" cy="261720"/>
+          <a:ext cx="7011720" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9762,9 +9762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429120</xdr:colOff>
+      <xdr:colOff>428760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9774,7 +9774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="790920" cy="262800"/>
+          <a:ext cx="790560" cy="262440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9826,9 +9826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428040</xdr:colOff>
+      <xdr:colOff>427680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>191880</xdr:rowOff>
+      <xdr:rowOff>191520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9838,7 +9838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="790920" cy="262800"/>
+          <a:ext cx="790560" cy="262440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -45,20 +45,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="792">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:perustiedot :nimi]</t>
+    <t xml:space="preserve">[:perustiedot :nimi-fi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:perustiedot :nimi-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ENERGIATODISTUS</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :katuosoite-fi]</t>
   </si>
   <si>
-    <t xml:space="preserve">  ENERGIATODISTUS</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:perustiedot :katuosoite-sv]</t>
   </si>
   <si>
@@ -68,12 +71,12 @@
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49527]</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakennuksen nimi ja osoite:</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakennuksen nimi ja osoite:</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:perustiedot :valmistumisvuosi]</t>
   </si>
   <si>
@@ -89,33 +92,33 @@
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49531]</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakennustunnus:</t>
+  </si>
+  <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49533]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakennustunnus:</t>
+    <t xml:space="preserve">Rakennuksen valmistumisvuosi:</t>
   </si>
   <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49535]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakennuksen valmistumisvuosi:</t>
-  </si>
-  <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49537]</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakennuksen käyttötarkoitusluokka:</t>
+  </si>
+  <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49539]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakennuksen käyttötarkoitusluokka:</t>
+    <t xml:space="preserve">Todistustunnus:</t>
   </si>
   <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49541]</t>
   </si>
   <si>
-    <t xml:space="preserve">Todistustunnus:</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :e-luku]</t>
   </si>
   <si>
@@ -125,10 +128,10 @@
     <t xml:space="preserve">[:laatija-fullname]</t>
   </si>
   <si>
+    <t xml:space="preserve">             Energiatehokkuusluokka</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:perustiedot :yritys :nimi]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Energiatehokkuusluokka</t>
   </si>
   <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49544]</t>
@@ -4063,10 +4066,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4081,6 +4080,10 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -8960,9 +8963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>242280</xdr:colOff>
+      <xdr:colOff>241920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8976,7 +8979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="752040" cy="208440"/>
+          <a:ext cx="751680" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8997,9 +9000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142200</xdr:colOff>
+      <xdr:colOff>141840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9013,7 +9016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1095120" cy="208440"/>
+          <a:ext cx="1094760" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9034,9 +9037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
+      <xdr:colOff>15120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9050,7 +9053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1402200" cy="208440"/>
+          <a:ext cx="1401840" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9071,9 +9074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>339480</xdr:colOff>
+      <xdr:colOff>339120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9087,7 +9090,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1726200" cy="208440"/>
+          <a:ext cx="1725840" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9108,9 +9111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>270000</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9124,7 +9127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2033280" cy="221400"/>
+          <a:ext cx="2032920" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9145,9 +9148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
+      <xdr:colOff>155520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9161,7 +9164,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2378160" cy="208440"/>
+          <a:ext cx="2377800" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9182,9 +9185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
+      <xdr:colOff>95760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9198,7 +9201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2691360" cy="208440"/>
+          <a:ext cx="2691000" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9598,9 +9601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
+      <xdr:colOff>312120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9610,7 +9613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6994440" cy="10057680"/>
+          <a:ext cx="6994080" cy="10057320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9696,9 +9699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>322920</xdr:colOff>
+      <xdr:colOff>322560</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9708,7 +9711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7011720" cy="261360"/>
+          <a:ext cx="7011360" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9727,7 +9730,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -9745,7 +9748,7 @@
             </a:rPr>
             <a:t>Energiatodistus perustuu lakiin rakennuksen energiatodistuksesta (50/2013). </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9762,9 +9765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428760</xdr:colOff>
+      <xdr:colOff>428400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9774,7 +9777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="790560" cy="262440"/>
+          <a:ext cx="790200" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9809,7 +9812,7 @@
             </a:rPr>
             <a:t>Uudisrakennusten</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9826,9 +9829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>427680</xdr:colOff>
+      <xdr:colOff>427320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>191520</xdr:rowOff>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9838,7 +9841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="790560" cy="262440"/>
+          <a:ext cx="790200" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9873,7 +9876,7 @@
             </a:rPr>
             <a:t>määräystaso 2012</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9892,7 +9895,7 @@
   <dimension ref="A1:AK262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10154,31 +10157,31 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="7" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="16" t="str">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="15" t="str">
         <f aca="false">A2</f>
-        <v>[:perustiedot :nimi]</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="14"/>
+        <v>[:perustiedot :nimi-fi]</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="6"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
@@ -10198,28 +10201,28 @@
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
     </row>
-    <row r="8" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+    <row r="8" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="16" t="str">
-        <f aca="false">A3</f>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="15" t="str">
+        <f aca="false">A4</f>
         <v>[:perustiedot :katuosoite-fi]</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="6"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
@@ -10239,16 +10242,16 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="9" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="0"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -10257,7 +10260,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="13"/>
       <c r="R9" s="6"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
@@ -10277,28 +10280,28 @@
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
     </row>
-    <row r="10" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="16" t="str">
-        <f aca="false">A5</f>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15" t="str">
+        <f aca="false">A6</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49525]</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="6"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
@@ -10318,16 +10321,16 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+    <row r="11" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -10336,7 +10339,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="6"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
@@ -10356,12 +10359,12 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
     </row>
-    <row r="12" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+    <row r="12" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -10375,7 +10378,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="6"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
@@ -10395,19 +10398,19 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
     </row>
-    <row r="13" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+    <row r="13" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="I13" s="20" t="str">
-        <f aca="false">A7</f>
+        <f aca="false">A8</f>
         <v>[:perustiedot :rakennustunnus]</v>
       </c>
       <c r="J13" s="20"/>
@@ -10437,20 +10440,20 @@
       <c r="AK13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="21" t="str">
-        <f aca="false">A8</f>
+        <f aca="false">A9</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="J14" s="21"/>
@@ -10488,9 +10491,9 @@
       <c r="D15" s="23"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="24"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -10498,7 +10501,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="6"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
@@ -10529,10 +10532,10 @@
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="27" t="str">
-        <f aca="false">A9</f>
+        <f aca="false">A10</f>
         <v>[:perustiedot :alakayttotarkoitus-fi]</v>
       </c>
       <c r="J16" s="27"/>
@@ -10542,7 +10545,7 @@
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="6"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
@@ -10562,17 +10565,17 @@
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
     </row>
-    <row r="17" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+    <row r="17" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="I17" s="28" t="str">
         <f aca="false">A1</f>
         <v>[:id]</v>
@@ -10603,26 +10606,26 @@
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
     </row>
-    <row r="18" s="17" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+    <row r="18" s="16" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="6"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
@@ -10643,11 +10646,11 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="9.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -10661,7 +10664,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="6"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
@@ -10840,7 +10843,9 @@
       <c r="AK23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B24" s="4"/>
       <c r="C24" s="30"/>
       <c r="D24" s="40"/>
@@ -11102,7 +11107,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -11141,7 +11146,7 @@
       <c r="C32" s="50"/>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
@@ -11151,7 +11156,7 @@
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
       <c r="M32" s="53" t="str">
-        <f aca="false">A18</f>
+        <f aca="false">A19</f>
         <v>[:tulokset :e-luku]</v>
       </c>
       <c r="N32" s="53"/>
@@ -11191,7 +11196,7 @@
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N33" s="58"/>
       <c r="O33" s="58"/>
@@ -11327,7 +11332,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -11337,7 +11342,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="L37" s="63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M37" s="63"/>
       <c r="N37" s="63"/>
@@ -11375,11 +11380,11 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
       <c r="Q38" s="65"/>
       <c r="R38" s="6"/>
       <c r="S38" s="0"/>
@@ -11404,7 +11409,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="66" t="str">
-        <f aca="false">A20</f>
+        <f aca="false">A21</f>
         <v>[:laatija-fullname]</v>
       </c>
       <c r="D39" s="66"/>
@@ -11414,9 +11419,9 @@
       <c r="H39" s="66"/>
       <c r="I39" s="66"/>
       <c r="J39" s="66"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="66" t="str">
-        <f aca="false">A21</f>
+        <f aca="false">A22</f>
         <v>[:perustiedot :yritys :nimi]</v>
       </c>
       <c r="M39" s="66"/>
@@ -11453,7 +11458,7 @@
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
       <c r="N40" s="67"/>
@@ -11489,7 +11494,7 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
-      <c r="K41" s="14"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
       <c r="N41" s="67"/>
@@ -11553,8 +11558,8 @@
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="4"/>
-      <c r="C43" s="15" t="s">
-        <v>34</v>
+      <c r="C43" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="69"/>
@@ -11662,7 +11667,7 @@
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C46" s="73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="74"/>
       <c r="E46" s="74"/>
@@ -11673,7 +11678,7 @@
       <c r="J46" s="74"/>
       <c r="K46" s="74"/>
       <c r="L46" s="75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M46" s="76"/>
       <c r="N46" s="76"/>
@@ -11736,7 +11741,7 @@
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="79" t="str">
-        <f aca="false">A22</f>
+        <f aca="false">A23</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49544]</v>
       </c>
       <c r="D48" s="79"/>
@@ -11748,7 +11753,7 @@
       <c r="J48" s="79"/>
       <c r="K48" s="74"/>
       <c r="L48" s="80" t="str">
-        <f aca="false">A23</f>
+        <f aca="false">A24</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49547]</v>
       </c>
       <c r="M48" s="80"/>
@@ -12188,7 +12193,7 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="87"/>
       <c r="C61" s="89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C61='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12229,7 +12234,7 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="87"/>
       <c r="C62" s="89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D62" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C62='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12270,7 +12275,7 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="87"/>
       <c r="C63" s="89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C63='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12311,7 +12316,7 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="87"/>
       <c r="C64" s="89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D64" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C64='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12352,7 +12357,7 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="87"/>
       <c r="C65" s="89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C65='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12393,7 +12398,7 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="87"/>
       <c r="C66" s="89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D66" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C66='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12434,7 +12439,7 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="87"/>
       <c r="C67" s="89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D67" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C67='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12547,7 +12552,7 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="87"/>
       <c r="C70" s="88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D70" s="85"/>
       <c r="E70" s="85"/>
@@ -12699,7 +12704,7 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="87"/>
       <c r="C74" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D74" s="85"/>
       <c r="E74" s="85"/>
@@ -12737,7 +12742,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="87"/>
       <c r="C75" s="85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75" s="85"/>
       <c r="E75" s="85"/>
@@ -12775,7 +12780,7 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="87"/>
       <c r="C76" s="85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="87"/>
@@ -12785,7 +12790,7 @@
       <c r="I76" s="87"/>
       <c r="J76" s="85"/>
       <c r="K76" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L76" s="85"/>
       <c r="M76" s="85"/>
@@ -12815,7 +12820,7 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="87"/>
       <c r="C77" s="85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" s="87"/>
       <c r="E77" s="87"/>
@@ -12825,7 +12830,7 @@
       <c r="I77" s="87"/>
       <c r="J77" s="85"/>
       <c r="K77" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L77" s="85"/>
       <c r="M77" s="85"/>
@@ -12855,7 +12860,7 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="87"/>
       <c r="C78" s="85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78" s="87"/>
       <c r="E78" s="87"/>
@@ -12865,7 +12870,7 @@
       <c r="I78" s="87"/>
       <c r="J78" s="85"/>
       <c r="K78" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L78" s="85"/>
       <c r="M78" s="85"/>
@@ -12895,7 +12900,7 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="87"/>
       <c r="C79" s="85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D79" s="87"/>
       <c r="E79" s="87"/>
@@ -12905,7 +12910,7 @@
       <c r="I79" s="87"/>
       <c r="J79" s="85"/>
       <c r="K79" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L79" s="85"/>
       <c r="M79" s="85"/>
@@ -12935,7 +12940,7 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="87"/>
       <c r="C80" s="85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D80" s="87"/>
       <c r="E80" s="87"/>
@@ -12945,7 +12950,7 @@
       <c r="I80" s="87"/>
       <c r="J80" s="85"/>
       <c r="K80" s="87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L80" s="85"/>
       <c r="M80" s="85"/>
@@ -12975,7 +12980,7 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="87"/>
       <c r="C81" s="85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D81" s="87"/>
       <c r="E81" s="87"/>
@@ -12985,7 +12990,7 @@
       <c r="I81" s="87"/>
       <c r="J81" s="85"/>
       <c r="K81" s="87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L81" s="85"/>
       <c r="M81" s="85"/>
@@ -13015,7 +13020,7 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="87"/>
       <c r="C82" s="85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D82" s="87"/>
       <c r="E82" s="87"/>
@@ -13025,7 +13030,7 @@
       <c r="I82" s="87"/>
       <c r="J82" s="85"/>
       <c r="K82" s="87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L82" s="85"/>
       <c r="M82" s="85"/>
@@ -13055,7 +13060,7 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="87"/>
       <c r="C83" s="85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D83" s="87"/>
       <c r="E83" s="87"/>
@@ -13065,7 +13070,7 @@
       <c r="I83" s="87"/>
       <c r="J83" s="85"/>
       <c r="K83" s="87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L83" s="85"/>
       <c r="M83" s="85"/>
@@ -13095,7 +13100,7 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="87"/>
       <c r="C84" s="85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D84" s="87"/>
       <c r="E84" s="87"/>
@@ -13105,7 +13110,7 @@
       <c r="I84" s="87"/>
       <c r="J84" s="85"/>
       <c r="K84" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L84" s="85"/>
       <c r="M84" s="85"/>
@@ -13135,7 +13140,7 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="87"/>
       <c r="C85" s="85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D85" s="87"/>
       <c r="E85" s="87"/>
@@ -13145,7 +13150,7 @@
       <c r="I85" s="87"/>
       <c r="J85" s="85"/>
       <c r="K85" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L85" s="85"/>
       <c r="M85" s="85"/>
@@ -13175,7 +13180,7 @@
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="87"/>
       <c r="C86" s="85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D86" s="87"/>
       <c r="E86" s="87"/>
@@ -13185,7 +13190,7 @@
       <c r="I86" s="87"/>
       <c r="J86" s="85"/>
       <c r="K86" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L86" s="85"/>
       <c r="M86" s="85"/>
@@ -13215,7 +13220,7 @@
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="87"/>
       <c r="C87" s="85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D87" s="87"/>
       <c r="E87" s="87"/>
@@ -13225,7 +13230,7 @@
       <c r="I87" s="87"/>
       <c r="J87" s="85"/>
       <c r="K87" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L87" s="85"/>
       <c r="M87" s="85"/>
@@ -13255,7 +13260,7 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="87"/>
       <c r="C88" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D88" s="87"/>
       <c r="E88" s="87"/>
@@ -13265,7 +13270,7 @@
       <c r="I88" s="87"/>
       <c r="J88" s="85"/>
       <c r="K88" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L88" s="85"/>
       <c r="M88" s="85"/>
@@ -13295,7 +13300,7 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="87"/>
       <c r="C89" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D89" s="87"/>
       <c r="E89" s="87"/>
@@ -13305,7 +13310,7 @@
       <c r="I89" s="87"/>
       <c r="J89" s="85"/>
       <c r="K89" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L89" s="85"/>
       <c r="M89" s="85"/>
@@ -13335,7 +13340,7 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="87"/>
       <c r="C90" s="85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D90" s="87"/>
       <c r="E90" s="87"/>
@@ -13345,7 +13350,7 @@
       <c r="I90" s="87"/>
       <c r="J90" s="85"/>
       <c r="K90" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -13375,7 +13380,7 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="87"/>
       <c r="C91" s="85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D91" s="87"/>
       <c r="E91" s="87"/>
@@ -13385,7 +13390,7 @@
       <c r="I91" s="87"/>
       <c r="J91" s="85"/>
       <c r="K91" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L91" s="85"/>
       <c r="M91" s="85"/>
@@ -13415,7 +13420,7 @@
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="87"/>
       <c r="C92" s="85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D92" s="87"/>
       <c r="E92" s="87"/>
@@ -13425,7 +13430,7 @@
       <c r="I92" s="87"/>
       <c r="J92" s="85"/>
       <c r="K92" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L92" s="85"/>
       <c r="M92" s="85"/>
@@ -13455,7 +13460,7 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="87"/>
       <c r="C93" s="85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D93" s="87"/>
       <c r="E93" s="87"/>
@@ -13465,7 +13470,7 @@
       <c r="I93" s="87"/>
       <c r="J93" s="85"/>
       <c r="K93" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L93" s="85"/>
       <c r="M93" s="85"/>
@@ -13495,7 +13500,7 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="87"/>
       <c r="C94" s="85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D94" s="87"/>
       <c r="E94" s="87"/>
@@ -13505,7 +13510,7 @@
       <c r="I94" s="87"/>
       <c r="J94" s="85"/>
       <c r="K94" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
@@ -13535,7 +13540,7 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="87"/>
       <c r="C95" s="85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D95" s="87"/>
       <c r="E95" s="87"/>
@@ -13545,7 +13550,7 @@
       <c r="I95" s="87"/>
       <c r="J95" s="85"/>
       <c r="K95" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L95" s="85"/>
       <c r="M95" s="85"/>
@@ -13575,7 +13580,7 @@
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="87"/>
       <c r="C96" s="85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D96" s="87"/>
       <c r="E96" s="87"/>
@@ -13585,7 +13590,7 @@
       <c r="I96" s="87"/>
       <c r="J96" s="85"/>
       <c r="K96" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L96" s="85"/>
       <c r="M96" s="85"/>
@@ -13615,7 +13620,7 @@
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="87"/>
       <c r="C97" s="85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D97" s="87"/>
       <c r="E97" s="87"/>
@@ -13625,7 +13630,7 @@
       <c r="I97" s="87"/>
       <c r="J97" s="85"/>
       <c r="K97" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L97" s="85"/>
       <c r="M97" s="85"/>
@@ -13655,7 +13660,7 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="87"/>
       <c r="C98" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D98" s="87"/>
       <c r="E98" s="87"/>
@@ -13665,7 +13670,7 @@
       <c r="I98" s="87"/>
       <c r="J98" s="85"/>
       <c r="K98" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L98" s="85"/>
       <c r="M98" s="85"/>
@@ -13695,7 +13700,7 @@
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="87"/>
       <c r="C99" s="85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D99" s="87"/>
       <c r="E99" s="87"/>
@@ -13705,7 +13710,7 @@
       <c r="I99" s="87"/>
       <c r="J99" s="85"/>
       <c r="K99" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L99" s="85"/>
       <c r="M99" s="85"/>
@@ -13735,7 +13740,7 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="87"/>
       <c r="C100" s="85" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D100" s="87"/>
       <c r="E100" s="87"/>
@@ -13745,7 +13750,7 @@
       <c r="I100" s="87"/>
       <c r="J100" s="85"/>
       <c r="K100" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L100" s="85"/>
       <c r="M100" s="85"/>
@@ -13775,7 +13780,7 @@
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="87"/>
       <c r="C101" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D101" s="87"/>
       <c r="E101" s="87"/>
@@ -13785,7 +13790,7 @@
       <c r="I101" s="87"/>
       <c r="J101" s="85"/>
       <c r="K101" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L101" s="85"/>
       <c r="M101" s="85"/>
@@ -13815,7 +13820,7 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="87"/>
       <c r="C102" s="85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D102" s="87"/>
       <c r="E102" s="87"/>
@@ -13825,7 +13830,7 @@
       <c r="I102" s="87"/>
       <c r="J102" s="85"/>
       <c r="K102" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L102" s="85"/>
       <c r="M102" s="85"/>
@@ -13855,7 +13860,7 @@
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="87"/>
       <c r="C103" s="85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D103" s="87"/>
       <c r="E103" s="87"/>
@@ -13865,7 +13870,7 @@
       <c r="I103" s="87"/>
       <c r="J103" s="85"/>
       <c r="K103" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L103" s="85"/>
       <c r="M103" s="85"/>
@@ -13895,7 +13900,7 @@
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="87"/>
       <c r="C104" s="85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D104" s="87"/>
       <c r="E104" s="87"/>
@@ -13905,7 +13910,7 @@
       <c r="I104" s="87"/>
       <c r="J104" s="85"/>
       <c r="K104" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L104" s="85"/>
       <c r="M104" s="85"/>
@@ -13935,7 +13940,7 @@
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="87"/>
       <c r="C105" s="85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D105" s="87"/>
       <c r="E105" s="87"/>
@@ -13945,7 +13950,7 @@
       <c r="I105" s="87"/>
       <c r="J105" s="85"/>
       <c r="K105" s="87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L105" s="85"/>
       <c r="M105" s="85"/>
@@ -13975,7 +13980,7 @@
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="87"/>
       <c r="C106" s="85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D106" s="87"/>
       <c r="E106" s="87"/>
@@ -13985,7 +13990,7 @@
       <c r="I106" s="87"/>
       <c r="J106" s="85"/>
       <c r="K106" s="87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -14015,7 +14020,7 @@
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="87"/>
       <c r="C107" s="85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D107" s="87"/>
       <c r="E107" s="87"/>
@@ -14025,7 +14030,7 @@
       <c r="I107" s="87"/>
       <c r="J107" s="85"/>
       <c r="K107" s="87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L107" s="85"/>
       <c r="M107" s="85"/>
@@ -14055,7 +14060,7 @@
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="87"/>
       <c r="C108" s="85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D108" s="87"/>
       <c r="E108" s="87"/>
@@ -14065,7 +14070,7 @@
       <c r="I108" s="87"/>
       <c r="J108" s="85"/>
       <c r="K108" s="87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L108" s="85"/>
       <c r="M108" s="85"/>
@@ -19683,13 +19688,13 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A11" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A10:A12" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -19737,11 +19742,11 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="92"/>
       <c r="F2" s="92"/>
@@ -19770,11 +19775,11 @@
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="93"/>
       <c r="D3" s="94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="94"/>
       <c r="F3" s="95"/>
@@ -19803,16 +19808,16 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="97"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="98"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -19834,21 +19839,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="97"/>
       <c r="D5" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="99" t="str">
         <f aca="false">A2</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49551]</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="98"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
@@ -19870,14 +19875,14 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="100" t="str">
         <f aca="false">A3</f>
         <v>[:lahtotiedot :lammitys :lammitysmuoto-label-fi]</v>
@@ -19906,12 +19911,12 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="0"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="101" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitys :lammonjako-label-fi]</v>
@@ -19940,21 +19945,21 @@
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="str">
+        <v>99</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="str">
         <f aca="false">A7</f>
         <v>[:lahtotiedot :ilmanvaihto :label-fi]</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="98"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -19976,23 +19981,23 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="91"/>
       <c r="D9" s="102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="102"/>
       <c r="F9" s="102"/>
       <c r="G9" s="103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" s="104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" s="104"/>
       <c r="M9" s="0"/>
@@ -20015,7 +20020,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="102"/>
@@ -20046,7 +20051,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="105"/>
       <c r="D11" s="102"/>
@@ -20077,23 +20082,23 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="107"/>
       <c r="E12" s="107"/>
       <c r="F12" s="107"/>
       <c r="G12" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H12" s="109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I12" s="110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J12" s="108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K12" s="108"/>
       <c r="M12" s="0"/>
@@ -20116,12 +20121,12 @@
     </row>
     <row r="13" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="111"/>
       <c r="H13" s="111"/>
       <c r="I13" s="111"/>
@@ -20147,14 +20152,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E14" s="113"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="114" t="str">
         <f aca="false">A9</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo]</v>
@@ -20192,14 +20197,14 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" s="113"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="114" t="str">
         <f aca="false">A13</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko]</v>
@@ -20237,14 +20242,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E16" s="113"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="117" t="str">
         <f aca="false">A17</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
@@ -20282,14 +20287,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" s="113"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="114" t="str">
         <f aca="false">A21</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
@@ -20327,14 +20332,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" s="113"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="114" t="str">
         <f aca="false">A25</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
@@ -20372,7 +20377,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="118" t="str">
@@ -20418,7 +20423,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="0"/>
@@ -20449,11 +20454,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="113" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E21" s="113"/>
       <c r="F21" s="119"/>
@@ -20488,7 +20493,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="113"/>
@@ -20519,11 +20524,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="106"/>
       <c r="D23" s="126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" s="126"/>
       <c r="F23" s="107"/>
@@ -20556,16 +20561,16 @@
     </row>
     <row r="24" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="130"/>
       <c r="E24" s="130"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="14"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="131"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -20587,11 +20592,11 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" s="94"/>
       <c r="F25" s="95"/>
@@ -20620,16 +20625,16 @@
     </row>
     <row r="26" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C26" s="97"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="98"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -20651,20 +20656,20 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E27" s="61"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="13"/>
       <c r="H27" s="132" t="str">
         <f aca="false">A37</f>
         <v>[:tulokset :e-luokka-rajat :kayttotarkoitus :label-fi]</v>
       </c>
       <c r="I27" s="38"/>
-      <c r="J27" s="14"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="131"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -20686,15 +20691,15 @@
     </row>
     <row r="28" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="61"/>
       <c r="E28" s="130"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="13"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="131"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -20716,14 +20721,14 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E29" s="61"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="13"/>
       <c r="H29" s="133" t="str">
         <f aca="false">A39</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49553]</v>
@@ -20757,12 +20762,12 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="13"/>
       <c r="H30" s="136" t="str">
         <f aca="false">A42</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49561]</v>
@@ -20796,12 +20801,12 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="13"/>
       <c r="H31" s="139" t="str">
         <f aca="false">A45</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49570]</v>
@@ -20829,12 +20834,12 @@
     </row>
     <row r="32" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="13"/>
       <c r="H32" s="141"/>
       <c r="I32" s="141"/>
       <c r="J32" s="141"/>
@@ -20859,14 +20864,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E33" s="61"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="13"/>
       <c r="H33" s="142" t="str">
         <f aca="false">A46</f>
         <v>[:tulokset :e-luokka]</v>
@@ -20894,16 +20899,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="130"/>
       <c r="E34" s="130"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="143"/>
       <c r="H34" s="143"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="131"/>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -20925,11 +20930,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E35" s="144"/>
       <c r="F35" s="144"/>
@@ -20958,7 +20963,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="144"/>
@@ -20989,7 +20994,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="144"/>
@@ -21020,7 +21025,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="144"/>
@@ -21051,7 +21056,7 @@
     </row>
     <row r="39" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" s="145"/>
       <c r="D39" s="146"/>
@@ -21083,7 +21088,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -21105,11 +21110,11 @@
     </row>
     <row r="41" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C41" s="149"/>
       <c r="D41" s="150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -21138,11 +21143,11 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="94" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="94"/>
       <c r="F42" s="95"/>
@@ -21171,11 +21176,11 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43" s="153"/>
       <c r="D43" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -21202,16 +21207,16 @@
     </row>
     <row r="44" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C44" s="97"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
       <c r="K44" s="155"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -21233,7 +21238,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="156" t="str">
@@ -21267,7 +21272,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="156"/>
@@ -21298,7 +21303,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="156"/>
@@ -21329,7 +21334,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="156"/>
@@ -21977,7 +21982,7 @@
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C71" s="153"/>
       <c r="D71" s="144" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E71" s="144"/>
       <c r="F71" s="144"/>
@@ -22463,7 +22468,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -22502,12 +22507,12 @@
     </row>
     <row r="2" s="167" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="161"/>
       <c r="C2" s="164"/>
       <c r="D2" s="165" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" s="165"/>
       <c r="F2" s="165"/>
@@ -22517,12 +22522,12 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="168"/>
       <c r="D3" s="94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="169"/>
       <c r="F3" s="169"/>
@@ -22532,7 +22537,7 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="171"/>
       <c r="D4" s="172"/>
@@ -22544,11 +22549,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="160" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="174"/>
       <c r="D5" s="175" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="176" t="str">
         <f aca="false">A2</f>
@@ -22561,7 +22566,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="160" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="175"/>
@@ -22573,31 +22578,31 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="160" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="175" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E7" s="28" t="str">
         <f aca="false">A4</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="F7" s="175" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="178" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="H7" s="175" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I7" s="177"/>
     </row>
     <row r="8" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="160" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="179"/>
@@ -22609,12 +22614,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="160" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="168"/>
       <c r="D9" s="94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E9" s="169"/>
       <c r="F9" s="169"/>
@@ -22624,13 +22629,13 @@
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="160" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="174"/>
       <c r="D10" s="175"/>
       <c r="E10" s="180"/>
       <c r="F10" s="175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G10" s="172"/>
       <c r="H10" s="179"/>
@@ -22638,11 +22643,11 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="160" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" s="174"/>
       <c r="D11" s="175" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E11" s="181" t="str">
         <f aca="false">A6</f>
@@ -22655,7 +22660,7 @@
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="160" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" s="174"/>
       <c r="D12" s="179"/>
@@ -22667,47 +22672,47 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="160" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="172"/>
       <c r="E13" s="182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="182" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G13" s="182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H13" s="183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I13" s="177"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="160" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="172"/>
       <c r="E14" s="184" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F14" s="184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G14" s="184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H14" s="185" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I14" s="177"/>
     </row>
     <row r="15" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="160" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" s="174"/>
       <c r="D15" s="172"/>
@@ -22719,11 +22724,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="160" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174"/>
       <c r="D16" s="175" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" s="188" t="str">
         <f aca="false">A7</f>
@@ -22745,11 +22750,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="174"/>
       <c r="D17" s="175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="188" t="str">
         <f aca="false">A11</f>
@@ -22771,11 +22776,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="160" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="174"/>
       <c r="D18" s="175" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E18" s="188" t="str">
         <f aca="false">A15</f>
@@ -22797,11 +22802,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="160" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="174"/>
       <c r="D19" s="175" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E19" s="188" t="str">
         <f aca="false">A19</f>
@@ -22823,11 +22828,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="160" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="174"/>
       <c r="D20" s="175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E20" s="188" t="str">
         <f aca="false">A23</f>
@@ -22849,17 +22854,17 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="160" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="174"/>
       <c r="D21" s="175" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E21" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="188" t="str">
         <f aca="false">A27</f>
@@ -22873,7 +22878,7 @@
     </row>
     <row r="22" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="160" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="174"/>
       <c r="D22" s="179"/>
@@ -22885,12 +22890,12 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="160" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="85"/>
       <c r="C23" s="168"/>
       <c r="D23" s="94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E23" s="169"/>
       <c r="F23" s="169"/>
@@ -22900,7 +22905,7 @@
     </row>
     <row r="24" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="160" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" s="174"/>
       <c r="D24" s="179"/>
@@ -22912,18 +22917,18 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="160" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" s="174"/>
       <c r="D25" s="172"/>
       <c r="E25" s="182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" s="182" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="182" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H25" s="193"/>
       <c r="I25" s="177"/>
@@ -22931,25 +22936,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="160" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" s="174"/>
       <c r="D26" s="172"/>
       <c r="E26" s="184" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G26" s="184" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H26" s="193"/>
       <c r="I26" s="177"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="160" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C27" s="174"/>
       <c r="D27" s="172"/>
@@ -22961,11 +22966,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="160" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C28" s="174"/>
       <c r="D28" s="175" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E28" s="188" t="str">
         <f aca="false">A29</f>
@@ -22984,11 +22989,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="160" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="174"/>
       <c r="D29" s="175" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E29" s="188" t="str">
         <f aca="false">A32</f>
@@ -23007,11 +23012,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="160" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="174"/>
       <c r="D30" s="175" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E30" s="188" t="str">
         <f aca="false">A35</f>
@@ -23030,11 +23035,11 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="160" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C31" s="174"/>
       <c r="D31" s="175" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E31" s="188" t="str">
         <f aca="false">A38</f>
@@ -23053,11 +23058,11 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="160" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" s="174"/>
       <c r="D32" s="175" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E32" s="188" t="str">
         <f aca="false">A41</f>
@@ -23076,11 +23081,11 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="160" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C33" s="174"/>
       <c r="D33" s="175" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E33" s="188" t="str">
         <f aca="false">A44</f>
@@ -23099,11 +23104,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="160" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C34" s="174"/>
       <c r="D34" s="175" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E34" s="188" t="str">
         <f aca="false">A47</f>
@@ -23122,11 +23127,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="160" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="175" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E35" s="188" t="str">
         <f aca="false">A50</f>
@@ -23145,26 +23150,26 @@
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="160" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="179"/>
       <c r="E36" s="179"/>
       <c r="F36" s="179"/>
       <c r="G36" s="194" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H36" s="179"/>
       <c r="I36" s="177"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="160" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="168"/>
       <c r="D37" s="94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E37" s="169"/>
       <c r="F37" s="169"/>
@@ -23175,7 +23180,7 @@
     </row>
     <row r="38" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="174"/>
       <c r="D38" s="179"/>
@@ -23187,11 +23192,11 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C39" s="174"/>
       <c r="D39" s="175" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E39" s="196" t="str">
         <f aca="false">A53</f>
@@ -23205,7 +23210,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="160" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C40" s="174"/>
       <c r="D40" s="179"/>
@@ -23217,39 +23222,39 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="160" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C41" s="174"/>
       <c r="D41" s="172"/>
       <c r="E41" s="182" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F41" s="182" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G41" s="182" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H41" s="197" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I41" s="177"/>
       <c r="K41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="160" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C42" s="174"/>
       <c r="D42" s="172"/>
       <c r="E42" s="182" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F42" s="182" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G42" s="182" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H42" s="197"/>
       <c r="I42" s="177"/>
@@ -23257,27 +23262,27 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="160" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C43" s="174"/>
       <c r="D43" s="172"/>
       <c r="E43" s="184" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F43" s="184" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G43" s="184" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H43" s="198" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I43" s="177"/>
     </row>
     <row r="44" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="160" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C44" s="174"/>
       <c r="D44" s="172"/>
@@ -23289,11 +23294,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C45" s="174"/>
       <c r="D45" s="175" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E45" s="189" t="str">
         <f aca="false">A55</f>
@@ -23315,11 +23320,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C46" s="174"/>
       <c r="D46" s="175" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E46" s="189" t="str">
         <f aca="false">A59</f>
@@ -23330,20 +23335,20 @@
         <v>[:lahtotiedot :ilmanvaihto :erillispoistot :sfp]</v>
       </c>
       <c r="G46" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H46" s="200" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I46" s="177"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="160" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="175" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E47" s="189" t="str">
         <f aca="false">A61</f>
@@ -23354,16 +23359,16 @@
         <v>[:lahtotiedot :ilmanvaihto :ivjarjestelma :sfp]</v>
       </c>
       <c r="G47" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H47" s="201" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I47" s="177"/>
     </row>
     <row r="48" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="160" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C48" s="174"/>
       <c r="D48" s="202"/>
@@ -23375,11 +23380,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="205" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C49" s="174"/>
       <c r="D49" s="175" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="206" t="str">
@@ -23390,7 +23395,7 @@
     </row>
     <row r="50" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="160" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C50" s="174"/>
       <c r="D50" s="175"/>
@@ -23402,12 +23407,12 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="160" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B51" s="85"/>
       <c r="C51" s="168"/>
       <c r="D51" s="94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" s="169"/>
       <c r="F51" s="169"/>
@@ -23417,7 +23422,7 @@
     </row>
     <row r="52" customFormat="false" ht="9.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="160" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C52" s="174"/>
       <c r="D52" s="179"/>
@@ -23429,11 +23434,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="160" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53" s="174"/>
       <c r="D53" s="175" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E53" s="196" t="str">
         <f aca="false">A64</f>
@@ -23446,7 +23451,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="160" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C54" s="174"/>
       <c r="D54" s="179"/>
@@ -23461,65 +23466,65 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="160" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C55" s="174"/>
       <c r="D55" s="209"/>
       <c r="E55" s="182" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F55" s="210" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G55" s="182" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H55" s="197" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I55" s="177"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C56" s="174"/>
       <c r="D56" s="172"/>
       <c r="E56" s="182" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F56" s="210" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G56" s="182"/>
       <c r="H56" s="197" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I56" s="177"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C57" s="174"/>
       <c r="D57" s="172"/>
       <c r="E57" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" s="185" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" s="182" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57" s="182" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" s="185" t="s">
-        <v>108</v>
       </c>
       <c r="I57" s="177"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C58" s="174"/>
       <c r="D58" s="172"/>
@@ -23531,11 +23536,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C59" s="174"/>
       <c r="D59" s="175" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E59" s="199" t="str">
         <f aca="false">A68</f>
@@ -23558,11 +23563,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="160" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C60" s="174"/>
       <c r="D60" s="175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E60" s="199" t="str">
         <f aca="false">A72</f>
@@ -23584,7 +23589,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C61" s="174"/>
       <c r="D61" s="175"/>
@@ -23596,11 +23601,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="160" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="174"/>
       <c r="D62" s="213" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E62" s="175"/>
       <c r="F62" s="175"/>
@@ -23610,11 +23615,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="160" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C63" s="174"/>
       <c r="D63" s="213" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E63" s="175"/>
       <c r="F63" s="175"/>
@@ -23624,7 +23629,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="160" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="175"/>
@@ -23636,15 +23641,15 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="160" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="174"/>
       <c r="D65" s="172"/>
       <c r="E65" s="197" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F65" s="182" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G65" s="182"/>
       <c r="H65" s="179"/>
@@ -23652,15 +23657,15 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="160" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="172"/>
       <c r="E66" s="185" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F66" s="184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G66" s="182"/>
       <c r="H66" s="179"/>
@@ -23668,7 +23673,7 @@
     </row>
     <row r="67" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="160" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="172"/>
@@ -23680,11 +23685,11 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="175" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E68" s="214" t="str">
         <f aca="false">A76</f>
@@ -23700,11 +23705,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E69" s="214" t="str">
         <f aca="false">A78</f>
@@ -23720,7 +23725,7 @@
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="179"/>
@@ -23732,12 +23737,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="168"/>
       <c r="D71" s="94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -23747,7 +23752,7 @@
     </row>
     <row r="72" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="179"/>
@@ -23759,12 +23764,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="172"/>
       <c r="E73" s="215" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F73" s="216"/>
       <c r="G73" s="216"/>
@@ -23773,12 +23778,12 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="172"/>
       <c r="E74" s="185" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F74" s="217"/>
       <c r="G74" s="216"/>
@@ -23787,7 +23792,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C75" s="174"/>
       <c r="D75" s="172"/>
@@ -23799,11 +23804,11 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="175" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E76" s="188" t="str">
         <f aca="false">A80</f>
@@ -23817,7 +23822,7 @@
     </row>
     <row r="77" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="179"/>
@@ -23829,12 +23834,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="168"/>
       <c r="D78" s="94" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E78" s="169"/>
       <c r="F78" s="169"/>
@@ -23844,7 +23849,7 @@
     </row>
     <row r="79" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C79" s="174"/>
       <c r="D79" s="179"/>
@@ -23856,15 +23861,15 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C80" s="174"/>
       <c r="D80" s="179"/>
       <c r="E80" s="182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F80" s="218" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G80" s="179"/>
       <c r="H80" s="179"/>
@@ -23872,15 +23877,15 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C81" s="174"/>
       <c r="D81" s="172"/>
       <c r="E81" s="184" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F81" s="185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G81" s="179"/>
       <c r="H81" s="179"/>
@@ -23889,7 +23894,7 @@
     </row>
     <row r="82" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C82" s="174"/>
       <c r="D82" s="172"/>
@@ -23901,11 +23906,11 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C83" s="174"/>
       <c r="D83" s="175" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E83" s="214" t="str">
         <f aca="false">A81</f>
@@ -23921,7 +23926,7 @@
     </row>
     <row r="84" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C84" s="174"/>
       <c r="D84" s="179"/>
@@ -23933,12 +23938,12 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="168"/>
       <c r="D85" s="94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E85" s="169"/>
       <c r="F85" s="169"/>
@@ -23948,7 +23953,7 @@
     </row>
     <row r="86" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C86" s="174"/>
       <c r="D86" s="179"/>
@@ -23960,47 +23965,47 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C87" s="174"/>
       <c r="D87" s="172"/>
       <c r="E87" s="197" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F87" s="182" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G87" s="182" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H87" s="197" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I87" s="177"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C88" s="174"/>
       <c r="D88" s="172"/>
       <c r="E88" s="185" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F88" s="184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G88" s="184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H88" s="185" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I88" s="177"/>
     </row>
     <row r="89" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C89" s="174"/>
       <c r="D89" s="172"/>
@@ -24012,7 +24017,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C90" s="174"/>
       <c r="D90" s="219"/>
@@ -24036,7 +24041,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C91" s="174"/>
       <c r="D91" s="219"/>
@@ -24060,7 +24065,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C92" s="174"/>
       <c r="D92" s="219"/>
@@ -24084,7 +24089,7 @@
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="160" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C93" s="220"/>
       <c r="D93" s="221"/>
@@ -24096,7 +24101,7 @@
     </row>
     <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="160" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -24875,7 +24880,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -24915,11 +24920,11 @@
     </row>
     <row r="2" s="224" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="225"/>
       <c r="D2" s="165" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E2" s="226"/>
       <c r="F2" s="165"/>
@@ -24930,11 +24935,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="168"/>
       <c r="D3" s="94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="169"/>
       <c r="F3" s="169"/>
@@ -24945,7 +24950,7 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="171"/>
       <c r="D4" s="172"/>
@@ -24958,11 +24963,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="160" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="174"/>
       <c r="D5" s="231" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="232" t="str">
         <f aca="false">A2</f>
@@ -24976,7 +24981,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="231"/>
@@ -24989,7 +24994,7 @@
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="160" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="231"/>
@@ -25002,11 +25007,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="160" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="234" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E8" s="28" t="str">
         <f aca="false">A4</f>
@@ -25029,11 +25034,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="160" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C9" s="174"/>
       <c r="D9" s="234" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
@@ -25056,11 +25061,11 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="160" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="174"/>
       <c r="D10" s="238" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E10" s="239" t="str">
         <f aca="false">A6</f>
@@ -25083,7 +25088,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="160" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="174"/>
       <c r="D11" s="179"/>
@@ -25105,11 +25110,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="160" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="168"/>
       <c r="D12" s="94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E12" s="169"/>
       <c r="F12" s="169"/>
@@ -25129,7 +25134,7 @@
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="160" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="179"/>
@@ -25151,20 +25156,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="160" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="240" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E14" s="182" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F14" s="182" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G14" s="197" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H14" s="197"/>
       <c r="I14" s="182"/>
@@ -25181,18 +25186,18 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="160" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="174"/>
       <c r="D15" s="173"/>
       <c r="E15" s="182" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F15" s="182" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G15" s="197" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H15" s="197"/>
       <c r="I15" s="184"/>
@@ -25209,21 +25214,21 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="160" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="241"/>
       <c r="D16" s="242"/>
       <c r="E16" s="243" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="243" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="243" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H16" s="244" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" s="182"/>
       <c r="J16" s="230"/>
@@ -25239,7 +25244,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="160" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C17" s="174"/>
       <c r="D17" s="172"/>
@@ -25261,11 +25266,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="160" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="174"/>
       <c r="D18" s="245" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="214" t="str">
         <f aca="false">A7</f>
@@ -25297,11 +25302,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="160" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" s="174"/>
       <c r="D19" s="245" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="214" t="str">
         <f aca="false">A11</f>
@@ -25333,11 +25338,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="160" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" s="174"/>
       <c r="D20" s="248" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" s="214" t="str">
         <f aca="false">A23</f>
@@ -25369,11 +25374,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="160" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C21" s="174"/>
       <c r="D21" s="250" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E21" s="214" t="str">
         <f aca="false">A15</f>
@@ -25405,11 +25410,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="160" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" s="174"/>
       <c r="D22" s="250" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" s="214" t="str">
         <f aca="false">A19</f>
@@ -25441,7 +25446,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="160" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" s="174"/>
       <c r="D23" s="248" t="str">
@@ -25478,7 +25483,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="160" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="174"/>
       <c r="D24" s="248" t="str">
@@ -25515,7 +25520,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="160" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C25" s="174"/>
       <c r="D25" s="251" t="str">
@@ -25552,11 +25557,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="160" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="174"/>
       <c r="D26" s="252" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E26" s="253" t="str">
         <f aca="false">A42</f>
@@ -25585,7 +25590,7 @@
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="160" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="174"/>
       <c r="D27" s="179"/>
@@ -25607,11 +25612,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="160" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C28" s="168"/>
       <c r="D28" s="94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E28" s="169"/>
       <c r="F28" s="169"/>
@@ -25632,7 +25637,7 @@
     </row>
     <row r="29" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="160" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="174"/>
       <c r="D29" s="179"/>
@@ -25654,15 +25659,15 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="160" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C30" s="174"/>
       <c r="D30" s="172"/>
       <c r="F30" s="184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G30" s="184" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" s="179"/>
       <c r="I30" s="182"/>
@@ -25679,7 +25684,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="160" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31" s="174"/>
       <c r="D31" s="255" t="str">
@@ -25710,7 +25715,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="160" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C32" s="174"/>
       <c r="D32" s="255" t="str">
@@ -25741,7 +25746,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="160" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C33" s="174"/>
       <c r="D33" s="255" t="str">
@@ -25772,7 +25777,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="160" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C34" s="174"/>
       <c r="D34" s="255" t="str">
@@ -25803,7 +25808,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="160" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="255" t="str">
@@ -25834,7 +25839,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="160" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="255" t="str">
@@ -25865,7 +25870,7 @@
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="160" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="174"/>
       <c r="D37" s="179"/>
@@ -25887,11 +25892,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="160" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="168"/>
       <c r="D38" s="94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E38" s="169"/>
       <c r="F38" s="169"/>
@@ -25911,7 +25916,7 @@
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="160" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="174"/>
       <c r="D39" s="179"/>
@@ -25933,19 +25938,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="160" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C40" s="174"/>
       <c r="D40" s="172"/>
       <c r="E40" s="172"/>
       <c r="F40" s="197" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G40" s="182" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H40" s="182" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I40" s="182"/>
       <c r="J40" s="230"/>
@@ -25961,19 +25966,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="160" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C41" s="174"/>
       <c r="D41" s="172"/>
       <c r="E41" s="172"/>
       <c r="F41" s="185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H41" s="185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I41" s="184"/>
       <c r="J41" s="229"/>
@@ -25989,7 +25994,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="160" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C42" s="174"/>
       <c r="D42" s="172"/>
@@ -26011,11 +26016,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="174"/>
       <c r="D43" s="175" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E43" s="175"/>
       <c r="F43" s="0"/>
@@ -26035,11 +26040,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" s="174"/>
       <c r="D44" s="175" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E44" s="175"/>
       <c r="F44" s="246" t="str">
@@ -26051,7 +26056,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tilojen-lammitys :lampo]</v>
       </c>
       <c r="H44" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I44" s="182"/>
       <c r="J44" s="230"/>
@@ -26067,11 +26072,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="160" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C45" s="174"/>
       <c r="D45" s="175" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E45" s="175"/>
       <c r="F45" s="188" t="str">
@@ -26083,7 +26088,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tuloilman-lammitys :lampo]</v>
       </c>
       <c r="H45" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I45" s="184"/>
       <c r="J45" s="229"/>
@@ -26099,11 +26104,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="160" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="174"/>
       <c r="D46" s="175" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E46" s="175"/>
       <c r="F46" s="188" t="str">
@@ -26115,7 +26120,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :kayttoveden-valmistus :lampo]</v>
       </c>
       <c r="H46" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I46" s="182"/>
       <c r="J46" s="230"/>
@@ -26131,11 +26136,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="160" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="175" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E47" s="175"/>
       <c r="F47" s="188" t="str">
@@ -26143,10 +26148,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :iv-sahko]</v>
       </c>
       <c r="G47" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H47" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I47" s="182"/>
       <c r="J47" s="229"/>
@@ -26162,11 +26167,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="160" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C48" s="174"/>
       <c r="D48" s="175" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E48" s="175"/>
       <c r="F48" s="188" t="str">
@@ -26195,11 +26200,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="160" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C49" s="174"/>
       <c r="D49" s="175" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E49" s="175"/>
       <c r="F49" s="188" t="str">
@@ -26207,10 +26212,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :kuluttajalaitteet-ja-valaistus-sahko]</v>
       </c>
       <c r="G49" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H49" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I49" s="184"/>
       <c r="J49" s="229"/>
@@ -26226,11 +26231,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="160" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C50" s="174"/>
       <c r="D50" s="252" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E50" s="252"/>
       <c r="F50" s="261" t="str">
@@ -26259,11 +26264,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="160" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C51" s="174"/>
       <c r="D51" s="262" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E51" s="252"/>
       <c r="F51" s="217"/>
@@ -26283,7 +26288,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="160" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C52" s="174"/>
       <c r="D52" s="179"/>
@@ -26305,11 +26310,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="160" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C53" s="168"/>
       <c r="D53" s="94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E53" s="169"/>
       <c r="F53" s="169"/>
@@ -26320,7 +26325,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="160" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C54" s="174"/>
       <c r="D54" s="179"/>
@@ -26333,15 +26338,15 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="160" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C55" s="174"/>
       <c r="D55" s="172"/>
       <c r="F55" s="184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G55" s="184" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H55" s="184"/>
       <c r="I55" s="182"/>
@@ -26349,7 +26354,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="160" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" s="174"/>
       <c r="D56" s="172"/>
@@ -26361,11 +26366,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="160" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C57" s="174"/>
       <c r="D57" s="175" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E57" s="175"/>
       <c r="F57" s="214" t="str">
@@ -26382,11 +26387,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="160" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C58" s="174"/>
       <c r="D58" s="175" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E58" s="175"/>
       <c r="F58" s="214" t="str">
@@ -26403,11 +26408,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="160" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C59" s="174"/>
       <c r="D59" s="175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E59" s="175"/>
       <c r="F59" s="214" t="str">
@@ -26424,11 +26429,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="160" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C60" s="174"/>
       <c r="D60" s="175" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E60" s="175"/>
       <c r="F60" s="214" t="str">
@@ -26445,7 +26450,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="160" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C61" s="174"/>
       <c r="D61" s="175"/>
@@ -26458,11 +26463,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="160" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C62" s="174"/>
       <c r="D62" s="213" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E62" s="213"/>
       <c r="F62" s="213"/>
@@ -26473,11 +26478,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="160" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C63" s="174"/>
       <c r="D63" s="213" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E63" s="213"/>
       <c r="F63" s="213"/>
@@ -26488,7 +26493,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="160" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="175"/>
@@ -26501,11 +26506,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="160" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C65" s="168"/>
       <c r="D65" s="94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E65" s="169"/>
       <c r="F65" s="169"/>
@@ -26516,7 +26521,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="179"/>
@@ -26529,15 +26534,15 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="160" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="172"/>
       <c r="F67" s="184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G67" s="184" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H67" s="182"/>
       <c r="I67" s="182"/>
@@ -26545,7 +26550,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="172"/>
@@ -26557,11 +26562,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E69" s="175"/>
       <c r="F69" s="214" t="str">
@@ -26578,11 +26583,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="175" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E70" s="175"/>
       <c r="F70" s="214" t="str">
@@ -26599,11 +26604,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C71" s="174"/>
       <c r="D71" s="175" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E71" s="175"/>
       <c r="F71" s="214" t="str">
@@ -26620,11 +26625,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="175" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E72" s="175"/>
       <c r="F72" s="214" t="str">
@@ -26641,11 +26646,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="175" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E73" s="175"/>
       <c r="F73" s="214" t="str">
@@ -26662,7 +26667,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="175"/>
@@ -26675,11 +26680,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C75" s="168"/>
       <c r="D75" s="94" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E75" s="169"/>
       <c r="F75" s="169"/>
@@ -26690,7 +26695,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="179"/>
@@ -26703,11 +26708,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="175" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E77" s="175"/>
       <c r="F77" s="263" t="str">
@@ -26721,7 +26726,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C78" s="220"/>
       <c r="D78" s="221"/>
@@ -26734,177 +26739,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="160" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="160" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="160" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="160" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="160" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="160" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="160" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="160" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="160" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="160" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="160" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="160" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="160" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="160" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="160" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="160" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="160" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="160" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="160" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="160" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -27462,7 +27467,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -27503,11 +27508,11 @@
     </row>
     <row r="2" s="265" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="264" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" s="266"/>
       <c r="D2" s="267" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E2" s="267"/>
       <c r="F2" s="267"/>
@@ -27520,43 +27525,43 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="270"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="98"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4" s="97"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="98"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
@@ -27569,97 +27574,97 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C6" s="97"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="98"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="29" t="str">
         <f aca="false">A2</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="F7" s="271" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H7" s="272"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="98"/>
       <c r="P7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C8" s="97"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="98"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C9" s="97"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="98"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E10" s="61"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="273"/>
       <c r="H10" s="274"/>
       <c r="I10" s="275"/>
       <c r="J10" s="276" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10" s="277" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" s="278"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C11" s="97"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="279"/>
       <c r="H11" s="38"/>
       <c r="I11" s="112"/>
@@ -27669,11 +27674,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="282" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E12" s="282"/>
       <c r="F12" s="282"/>
@@ -27693,11 +27698,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="282" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E13" s="282"/>
       <c r="F13" s="282"/>
@@ -27717,11 +27722,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="274" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E14" s="274"/>
       <c r="F14" s="282"/>
@@ -27741,11 +27746,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="274" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E15" s="274"/>
       <c r="F15" s="282"/>
@@ -27765,11 +27770,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="282" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E16" s="282"/>
       <c r="F16" s="282"/>
@@ -27789,7 +27794,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="289" t="str">
@@ -27814,7 +27819,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="289" t="str">
@@ -27839,7 +27844,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="289" t="str">
@@ -27864,7 +27869,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="289" t="str">
@@ -27889,7 +27894,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="289" t="str">
@@ -27914,7 +27919,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="290"/>
@@ -27933,7 +27938,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="294"/>
@@ -27949,35 +27954,35 @@
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="297" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E24" s="297"/>
       <c r="F24" s="297"/>
       <c r="G24" s="298" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H24" s="299" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I24" s="298" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J24" s="299" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K24" s="300" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L24" s="301"/>
       <c r="Z24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
@@ -27993,11 +27998,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="282" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E26" s="282"/>
       <c r="F26" s="282"/>
@@ -28006,7 +28011,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="H26" s="303" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I26" s="276" t="n">
         <v>10</v>
@@ -28024,11 +28029,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="282" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E27" s="282"/>
       <c r="F27" s="282"/>
@@ -28037,7 +28042,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="H27" s="303" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I27" s="276" t="n">
         <v>1300</v>
@@ -28055,11 +28060,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="282" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E28" s="282"/>
       <c r="F28" s="282"/>
@@ -28068,7 +28073,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="H28" s="303" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I28" s="276" t="n">
         <v>1700</v>
@@ -28086,11 +28091,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="282" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E29" s="282"/>
       <c r="F29" s="282"/>
@@ -28099,7 +28104,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="H29" s="303" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I29" s="276" t="n">
         <v>4.7</v>
@@ -28117,7 +28122,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="307" t="str">
@@ -28151,7 +28156,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="307" t="str">
@@ -28185,7 +28190,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="310"/>
@@ -28207,7 +28212,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="310"/>
@@ -28229,7 +28234,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="310"/>
@@ -28251,7 +28256,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="310"/>
@@ -28273,7 +28278,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="310"/>
@@ -28295,7 +28300,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="310"/>
@@ -28317,7 +28322,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="310"/>
@@ -28339,7 +28344,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="310"/>
@@ -28361,7 +28366,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="294"/>
@@ -28377,11 +28382,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="312" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E41" s="312"/>
       <c r="F41" s="294"/>
@@ -28395,7 +28400,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="313"/>
@@ -28411,7 +28416,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="294"/>
@@ -28427,11 +28432,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="294"/>
@@ -28445,7 +28450,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
@@ -28461,7 +28466,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
@@ -28471,21 +28476,21 @@
       <c r="H46" s="284"/>
       <c r="I46" s="283"/>
       <c r="J46" s="276" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K46" s="277" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L46" s="278"/>
       <c r="Z46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
@@ -28505,11 +28510,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -28529,11 +28534,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -28553,11 +28558,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -28577,15 +28582,15 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="14"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="305" t="str">
@@ -28600,13 +28605,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
       <c r="F52" s="61"/>
-      <c r="G52" s="14"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -28615,11 +28620,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="144" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E53" s="144"/>
       <c r="F53" s="144"/>
@@ -28632,7 +28637,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="144"/>
@@ -28647,7 +28652,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="144"/>
@@ -28662,7 +28667,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="144"/>
@@ -28677,7 +28682,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="144"/>
@@ -28692,7 +28697,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C58" s="145"/>
       <c r="D58" s="146"/>
@@ -28708,47 +28713,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -29422,7 +29427,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -29460,10 +29465,10 @@
     </row>
     <row r="2" s="324" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="323" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C2" s="325" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D2" s="325"/>
       <c r="E2" s="325"/>
@@ -29472,10 +29477,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="152" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C3" s="326" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="326"/>
       <c r="E3" s="326"/>
@@ -29484,7 +29489,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C4" s="145"/>
       <c r="D4" s="5"/>
@@ -29494,10 +29499,10 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C5" s="327" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="169"/>
@@ -29506,7 +29511,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C6" s="328" t="str">
         <f aca="false">A2</f>
@@ -29519,7 +29524,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -29529,7 +29534,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -29539,7 +29544,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -29549,7 +29554,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -29559,7 +29564,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -29569,7 +29574,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -29579,7 +29584,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -29589,7 +29594,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -29599,7 +29604,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -29609,10 +29614,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C16" s="329" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D16" s="329"/>
       <c r="E16" s="329"/>
@@ -29621,7 +29626,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C17" s="330" t="n">
         <v>1</v>
@@ -29636,7 +29641,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C18" s="330" t="n">
         <v>2</v>
@@ -29651,7 +29656,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>3</v>
@@ -29666,43 +29671,43 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C20" s="332"/>
       <c r="D20" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E20" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F20" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G20" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C21" s="332"/>
       <c r="D21" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C22" s="330" t="n">
         <v>1</v>
@@ -29726,7 +29731,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C23" s="330" t="n">
         <v>2</v>
@@ -29750,7 +29755,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C24" s="330" t="n">
         <v>3</v>
@@ -29774,10 +29779,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C25" s="336" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="169"/>
@@ -29786,7 +29791,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C26" s="328" t="str">
         <f aca="false">A22</f>
@@ -29799,7 +29804,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -29809,7 +29814,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -29819,7 +29824,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -29829,7 +29834,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -29839,7 +29844,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -29849,7 +29854,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -29859,7 +29864,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -29869,7 +29874,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -29879,7 +29884,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -29889,10 +29894,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C36" s="329" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D36" s="329"/>
       <c r="E36" s="329"/>
@@ -29901,7 +29906,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C37" s="330" t="n">
         <v>1</v>
@@ -29916,7 +29921,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C38" s="330" t="n">
         <v>2</v>
@@ -29931,7 +29936,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>3</v>
@@ -29946,43 +29951,43 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C40" s="332"/>
       <c r="D40" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E40" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F40" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G40" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C41" s="332"/>
       <c r="D41" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C42" s="330" t="n">
         <v>1</v>
@@ -30006,7 +30011,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C43" s="330" t="n">
         <v>2</v>
@@ -30030,7 +30035,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C44" s="330" t="n">
         <v>3</v>
@@ -30054,10 +30059,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C45" s="336" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D45" s="338"/>
       <c r="E45" s="30"/>
@@ -30066,7 +30071,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="152" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C46" s="328" t="str">
         <f aca="false">A42</f>
@@ -30079,7 +30084,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="152" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -30089,7 +30094,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="152" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -30099,7 +30104,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="152" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -30109,7 +30114,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="152" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -30119,7 +30124,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="152" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -30129,7 +30134,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="152" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -30139,7 +30144,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="152" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -30149,7 +30154,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="152" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -30159,7 +30164,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="152" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -30169,10 +30174,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="152" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C56" s="329" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D56" s="329"/>
       <c r="E56" s="329"/>
@@ -30181,7 +30186,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="152" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C57" s="330" t="n">
         <v>1</v>
@@ -30196,7 +30201,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="152" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C58" s="330" t="n">
         <v>2</v>
@@ -30211,7 +30216,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="152" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C59" s="330" t="n">
         <v>3</v>
@@ -30226,38 +30231,38 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="152" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C60" s="332"/>
       <c r="D60" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E60" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F60" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G60" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="152" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C61" s="332"/>
       <c r="D61" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E61" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30522,7 +30527,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -30560,10 +30565,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="322" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C2" s="327" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="169"/>
@@ -30572,7 +30577,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -30585,7 +30590,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -30595,7 +30600,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -30605,7 +30610,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -30615,7 +30620,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -30625,7 +30630,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -30635,7 +30640,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -30645,7 +30650,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -30655,7 +30660,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -30665,7 +30670,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -30675,10 +30680,10 @@
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="152" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C13" s="340" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D13" s="340"/>
       <c r="E13" s="340"/>
@@ -30687,7 +30692,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="152" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C14" s="330" t="n">
         <v>1</v>
@@ -30702,7 +30707,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="152" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C15" s="330" t="n">
         <v>2</v>
@@ -30717,7 +30722,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C16" s="330" t="n">
         <v>3</v>
@@ -30732,43 +30737,43 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C17" s="332"/>
       <c r="D17" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E17" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F17" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G17" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C18" s="332"/>
       <c r="D18" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E18" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>1</v>
@@ -30792,7 +30797,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C20" s="330" t="n">
         <v>2</v>
@@ -30816,7 +30821,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C21" s="330" t="n">
         <v>3</v>
@@ -30840,10 +30845,10 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C22" s="336" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D22" s="338"/>
       <c r="E22" s="30"/>
@@ -30852,7 +30857,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C23" s="328" t="str">
         <f aca="false">A22</f>
@@ -30865,7 +30870,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -30875,7 +30880,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -30885,7 +30890,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -30895,7 +30900,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -30905,7 +30910,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -30915,7 +30920,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -30925,7 +30930,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -30935,7 +30940,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -30945,7 +30950,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -30955,10 +30960,10 @@
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C33" s="340" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D33" s="340"/>
       <c r="E33" s="340"/>
@@ -30967,7 +30972,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C34" s="330" t="n">
         <v>1</v>
@@ -30982,7 +30987,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C35" s="330" t="n">
         <v>2</v>
@@ -30997,7 +31002,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C36" s="330" t="n">
         <v>3</v>
@@ -31012,43 +31017,43 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C37" s="332"/>
       <c r="D37" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E37" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F37" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G37" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C38" s="332"/>
       <c r="D38" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F38" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>1</v>
@@ -31072,7 +31077,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C40" s="330" t="n">
         <v>2</v>
@@ -31096,7 +31101,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C41" s="330" t="n">
         <v>3</v>
@@ -31120,10 +31125,10 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C42" s="336" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D42" s="338"/>
       <c r="E42" s="30"/>
@@ -31132,7 +31137,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C43" s="328" t="str">
         <f aca="false">A42</f>
@@ -31145,7 +31150,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -31155,7 +31160,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -31261,7 +31266,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="327" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="169"/>
@@ -31271,7 +31276,7 @@
     <row r="59" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="152"/>
       <c r="C59" s="153"/>
-      <c r="D59" s="14"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="157"/>
@@ -31279,7 +31284,7 @@
     <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="152"/>
       <c r="C60" s="303" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D60" s="303"/>
       <c r="E60" s="303"/>
@@ -31448,7 +31453,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -31486,10 +31491,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="152" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C2" s="343" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D2" s="343"/>
       <c r="E2" s="343"/>
@@ -31500,7 +31505,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -31515,7 +31520,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -31527,7 +31532,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -31539,7 +31544,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -31551,7 +31556,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -31563,7 +31568,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -31575,7 +31580,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -31587,7 +31592,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -31599,7 +31604,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -31611,7 +31616,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -31623,7 +31628,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -31635,7 +31640,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -31647,7 +31652,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -31659,7 +31664,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="322" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C16" s="328"/>
       <c r="D16" s="328"/>
@@ -31671,7 +31676,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="322" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C17" s="328"/>
       <c r="D17" s="328"/>
@@ -31683,7 +31688,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="322" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C18" s="328"/>
       <c r="D18" s="328"/>
@@ -31695,7 +31700,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="322" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C19" s="328"/>
       <c r="D19" s="328"/>
@@ -31707,7 +31712,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="322" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C20" s="328"/>
       <c r="D20" s="328"/>
@@ -31719,7 +31724,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="322" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C21" s="328"/>
       <c r="D21" s="328"/>
@@ -31731,7 +31736,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="322" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C22" s="328"/>
       <c r="D22" s="328"/>
@@ -31743,7 +31748,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="322" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C23" s="328"/>
       <c r="D23" s="328"/>
@@ -31755,7 +31760,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="322" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -31767,7 +31772,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="322" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -31779,7 +31784,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="322" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -31791,7 +31796,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="322" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -31803,7 +31808,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="322" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -31815,7 +31820,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="322" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -31827,7 +31832,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="322" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -31839,7 +31844,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="322" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -31851,7 +31856,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="322" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -31863,7 +31868,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="322" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -31875,7 +31880,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="322" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -31887,7 +31892,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="322" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -31899,7 +31904,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="322" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C36" s="328"/>
       <c r="D36" s="328"/>
@@ -31911,7 +31916,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="322" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C37" s="328"/>
       <c r="D37" s="328"/>
@@ -31923,7 +31928,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="322" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C38" s="328"/>
       <c r="D38" s="328"/>
@@ -31935,7 +31940,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="322" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C39" s="328"/>
       <c r="D39" s="328"/>
@@ -31947,7 +31952,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="322" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C40" s="328"/>
       <c r="D40" s="328"/>
@@ -31959,7 +31964,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="322" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C41" s="328"/>
       <c r="D41" s="328"/>
@@ -31971,7 +31976,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="322" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C42" s="328"/>
       <c r="D42" s="328"/>
@@ -31983,7 +31988,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="322" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C43" s="328"/>
       <c r="D43" s="328"/>
@@ -31995,7 +32000,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="322" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -32007,7 +32012,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="322" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -32019,7 +32024,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="322" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C46" s="328"/>
       <c r="D46" s="328"/>
@@ -32031,7 +32036,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="322" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -32043,7 +32048,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="322" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -32055,7 +32060,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="322" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -32067,7 +32072,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="322" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -32079,7 +32084,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="322" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -32091,7 +32096,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="322" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -32103,7 +32108,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="322" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -32115,7 +32120,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="322" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -32127,7 +32132,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="322" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -32139,7 +32144,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="322" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C56" s="328"/>
       <c r="D56" s="328"/>
@@ -32151,7 +32156,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="322" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C57" s="328"/>
       <c r="D57" s="328"/>
@@ -32163,7 +32168,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="322" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C58" s="328"/>
       <c r="D58" s="328"/>
@@ -32175,7 +32180,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="322" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C59" s="328"/>
       <c r="D59" s="328"/>
@@ -32187,7 +32192,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="322" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C60" s="328"/>
       <c r="D60" s="328"/>
@@ -32199,7 +32204,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="322" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C61" s="328"/>
       <c r="D61" s="328"/>
@@ -32211,7 +32216,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="322" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C62" s="328"/>
       <c r="D62" s="328"/>
@@ -32223,7 +32228,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="322" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C63" s="328"/>
       <c r="D63" s="328"/>
@@ -32235,7 +32240,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="322" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C64" s="328"/>
       <c r="D64" s="328"/>
@@ -32247,7 +32252,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="322" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C65" s="328"/>
       <c r="D65" s="328"/>
@@ -32259,7 +32264,7 @@
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="322" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C66" s="145"/>
       <c r="D66" s="146"/>
@@ -32271,372 +32276,372 @@
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="322" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="322" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="322" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="322" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="322" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="322" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="322" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="322" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="322" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="322" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="322" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="322" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="322" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="322" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="322" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="322" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="322" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="322" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="322" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="322" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="322" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="322" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="322" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="322" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="322" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="322" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="322" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="322" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="322" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="322" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="322" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="322" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="322" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="322" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="322" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="322" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="322" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="322" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="322" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="322" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="322" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="322" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="322" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="322" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="322" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="322" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="322" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="322" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="322" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="322" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="322" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="322" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="322" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="322" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="322" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="322" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="322" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="322" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="322" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="322" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="322" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="322" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="322" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="322" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="322" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="322" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="322" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="322" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="322" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="322" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="322" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="322" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="322" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="322" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -32650,7 +32655,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -45,23 +45,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="791">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:perustiedot :nimi-fi]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:perustiedot :nimi-sv]</t>
+    <t xml:space="preserve">[:perustiedot :nimi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:perustiedot :katuosoite-fi]</t>
   </si>
   <si>
     <t xml:space="preserve">  ENERGIATODISTUS</t>
   </si>
   <si>
-    <t xml:space="preserve">[:perustiedot :katuosoite-fi]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:perustiedot :katuosoite-sv]</t>
   </si>
   <si>
@@ -71,12 +68,12 @@
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49527]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rakennuksen nimi ja osoite:</t>
   </si>
   <si>
-    <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:perustiedot :valmistumisvuosi]</t>
   </si>
   <si>
@@ -92,33 +89,33 @@
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49531]</t>
   </si>
   <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49533]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rakennustunnus:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49533]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49535]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennuksen valmistumisvuosi:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49535]</t>
-  </si>
-  <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49537]</t>
   </si>
   <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49539]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rakennuksen käyttötarkoitusluokka:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49539]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49541]</t>
   </si>
   <si>
     <t xml:space="preserve">Todistustunnus:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49541]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :e-luku]</t>
   </si>
   <si>
@@ -128,10 +125,10 @@
     <t xml:space="preserve">[:laatija-fullname]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:perustiedot :yritys :nimi]</t>
+  </si>
+  <si>
     <t xml:space="preserve">             Energiatehokkuusluokka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:perustiedot :yritys :nimi]</t>
   </si>
   <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49544]</t>
@@ -4066,6 +4063,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4080,10 +4081,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -8963,9 +8960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>241920</xdr:colOff>
+      <xdr:colOff>242280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>255600</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8979,7 +8976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="751680" cy="208080"/>
+          <a:ext cx="752040" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9000,9 +8997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>141840</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>255600</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9016,7 +9013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1094760" cy="208080"/>
+          <a:ext cx="1095120" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9037,9 +9034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
+      <xdr:colOff>15480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9053,7 +9050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1401840" cy="208080"/>
+          <a:ext cx="1402200" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9074,9 +9071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>339120</xdr:colOff>
+      <xdr:colOff>339480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9090,7 +9087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1725840" cy="208080"/>
+          <a:ext cx="1726200" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9111,9 +9108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>212400</xdr:colOff>
+      <xdr:colOff>212760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>270000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9127,7 +9124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2032920" cy="221040"/>
+          <a:ext cx="2033280" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9148,9 +9145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
+      <xdr:colOff>155880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9164,7 +9161,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2377800" cy="208080"/>
+          <a:ext cx="2378160" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9185,9 +9182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95760</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>255600</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9201,7 +9198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2691000" cy="208080"/>
+          <a:ext cx="2691360" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9601,9 +9598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9613,7 +9610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6994080" cy="10057320"/>
+          <a:ext cx="6994440" cy="10057680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9699,9 +9696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>322560</xdr:colOff>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9711,7 +9708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7011360" cy="261000"/>
+          <a:ext cx="7011720" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9730,7 +9727,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -9748,7 +9745,7 @@
             </a:rPr>
             <a:t>Energiatodistus perustuu lakiin rakennuksen energiatodistuksesta (50/2013). </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9765,9 +9762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428400</xdr:colOff>
+      <xdr:colOff>428760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9777,7 +9774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="790200" cy="262080"/>
+          <a:ext cx="790560" cy="262440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9812,7 +9809,7 @@
             </a:rPr>
             <a:t>Uudisrakennusten</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9829,9 +9826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>427320</xdr:colOff>
+      <xdr:colOff>427680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>191520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9841,7 +9838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="790200" cy="262080"/>
+          <a:ext cx="790560" cy="262440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9876,7 +9873,7 @@
             </a:rPr>
             <a:t>määräystaso 2012</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9895,7 +9892,7 @@
   <dimension ref="A1:AK262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10157,31 +10154,31 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="15" t="str">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="16" t="str">
         <f aca="false">A2</f>
-        <v>[:perustiedot :nimi-fi]</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="13"/>
+        <v>[:perustiedot :nimi]</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="6"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
@@ -10201,28 +10198,28 @@
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
     </row>
-    <row r="8" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+    <row r="8" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15" t="str">
-        <f aca="false">A4</f>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16" t="str">
+        <f aca="false">A3</f>
         <v>[:perustiedot :katuosoite-fi]</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="13"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="6"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
@@ -10242,16 +10239,16 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+    <row r="9" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="0"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -10260,7 +10257,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="6"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
@@ -10280,28 +10277,28 @@
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
     </row>
-    <row r="10" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+    <row r="10" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15" t="str">
-        <f aca="false">A6</f>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="16" t="str">
+        <f aca="false">A5</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49525]</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="13"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="6"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
@@ -10321,16 +10318,16 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+    <row r="11" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -10339,7 +10336,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="13"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="6"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
@@ -10359,12 +10356,12 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
     </row>
-    <row r="12" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+    <row r="12" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -10378,7 +10375,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="6"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
@@ -10398,19 +10395,19 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
     </row>
-    <row r="13" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+    <row r="13" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="I13" s="20" t="str">
-        <f aca="false">A8</f>
+        <f aca="false">A7</f>
         <v>[:perustiedot :rakennustunnus]</v>
       </c>
       <c r="J13" s="20"/>
@@ -10440,20 +10437,20 @@
       <c r="AK13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="21" t="str">
-        <f aca="false">A9</f>
+        <f aca="false">A8</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="J14" s="21"/>
@@ -10491,9 +10488,9 @@
       <c r="D15" s="23"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="24"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -10501,7 +10498,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="6"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
@@ -10532,10 +10529,10 @@
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="27" t="str">
-        <f aca="false">A10</f>
+        <f aca="false">A9</f>
         <v>[:perustiedot :alakayttotarkoitus-fi]</v>
       </c>
       <c r="J16" s="27"/>
@@ -10545,7 +10542,7 @@
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="6"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
@@ -10565,17 +10562,17 @@
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
     </row>
-    <row r="17" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="I17" s="28" t="str">
         <f aca="false">A1</f>
         <v>[:id]</v>
@@ -10606,26 +10603,26 @@
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
     </row>
-    <row r="18" s="16" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+    <row r="18" s="17" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
       <c r="R18" s="6"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
@@ -10646,11 +10643,11 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="9.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -10664,7 +10661,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="14"/>
       <c r="R19" s="6"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
@@ -10843,9 +10840,7 @@
       <c r="AK23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="30"/>
       <c r="D24" s="40"/>
@@ -11107,7 +11102,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -11146,7 +11141,7 @@
       <c r="C32" s="50"/>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
@@ -11156,7 +11151,7 @@
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
       <c r="M32" s="53" t="str">
-        <f aca="false">A19</f>
+        <f aca="false">A18</f>
         <v>[:tulokset :e-luku]</v>
       </c>
       <c r="N32" s="53"/>
@@ -11196,7 +11191,7 @@
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33" s="58"/>
       <c r="O33" s="58"/>
@@ -11332,7 +11327,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -11342,7 +11337,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="L37" s="63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M37" s="63"/>
       <c r="N37" s="63"/>
@@ -11380,11 +11375,11 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="65"/>
       <c r="R38" s="6"/>
       <c r="S38" s="0"/>
@@ -11409,7 +11404,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="66" t="str">
-        <f aca="false">A21</f>
+        <f aca="false">A20</f>
         <v>[:laatija-fullname]</v>
       </c>
       <c r="D39" s="66"/>
@@ -11419,9 +11414,9 @@
       <c r="H39" s="66"/>
       <c r="I39" s="66"/>
       <c r="J39" s="66"/>
-      <c r="K39" s="13"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="66" t="str">
-        <f aca="false">A22</f>
+        <f aca="false">A21</f>
         <v>[:perustiedot :yritys :nimi]</v>
       </c>
       <c r="M39" s="66"/>
@@ -11458,7 +11453,7 @@
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
-      <c r="K40" s="13"/>
+      <c r="K40" s="14"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
       <c r="N40" s="67"/>
@@ -11494,7 +11489,7 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
-      <c r="K41" s="13"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
       <c r="N41" s="67"/>
@@ -11558,8 +11553,8 @@
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="4"/>
-      <c r="C43" s="14" t="s">
-        <v>35</v>
+      <c r="C43" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="69"/>
@@ -11667,7 +11662,7 @@
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C46" s="73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" s="74"/>
       <c r="E46" s="74"/>
@@ -11678,7 +11673,7 @@
       <c r="J46" s="74"/>
       <c r="K46" s="74"/>
       <c r="L46" s="75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M46" s="76"/>
       <c r="N46" s="76"/>
@@ -11741,7 +11736,7 @@
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="79" t="str">
-        <f aca="false">A23</f>
+        <f aca="false">A22</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49544]</v>
       </c>
       <c r="D48" s="79"/>
@@ -11753,7 +11748,7 @@
       <c r="J48" s="79"/>
       <c r="K48" s="74"/>
       <c r="L48" s="80" t="str">
-        <f aca="false">A24</f>
+        <f aca="false">A23</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49547]</v>
       </c>
       <c r="M48" s="80"/>
@@ -12193,7 +12188,7 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="87"/>
       <c r="C61" s="89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C61='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12234,7 +12229,7 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="87"/>
       <c r="C62" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C62='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12275,7 +12270,7 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="87"/>
       <c r="C63" s="89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C63='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12316,7 +12311,7 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="87"/>
       <c r="C64" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C64='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12357,7 +12352,7 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="87"/>
       <c r="C65" s="89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C65='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12398,7 +12393,7 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="87"/>
       <c r="C66" s="89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D66" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C66='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12439,7 +12434,7 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="87"/>
       <c r="C67" s="89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D67" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C67='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12552,7 +12547,7 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="87"/>
       <c r="C70" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D70" s="85"/>
       <c r="E70" s="85"/>
@@ -12704,7 +12699,7 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="87"/>
       <c r="C74" s="88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D74" s="85"/>
       <c r="E74" s="85"/>
@@ -12742,7 +12737,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="87"/>
       <c r="C75" s="85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75" s="85"/>
       <c r="E75" s="85"/>
@@ -12780,7 +12775,7 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="87"/>
       <c r="C76" s="85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="87"/>
@@ -12790,7 +12785,7 @@
       <c r="I76" s="87"/>
       <c r="J76" s="85"/>
       <c r="K76" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L76" s="85"/>
       <c r="M76" s="85"/>
@@ -12820,7 +12815,7 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="87"/>
       <c r="C77" s="85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" s="87"/>
       <c r="E77" s="87"/>
@@ -12830,7 +12825,7 @@
       <c r="I77" s="87"/>
       <c r="J77" s="85"/>
       <c r="K77" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L77" s="85"/>
       <c r="M77" s="85"/>
@@ -12860,7 +12855,7 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="87"/>
       <c r="C78" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78" s="87"/>
       <c r="E78" s="87"/>
@@ -12870,7 +12865,7 @@
       <c r="I78" s="87"/>
       <c r="J78" s="85"/>
       <c r="K78" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L78" s="85"/>
       <c r="M78" s="85"/>
@@ -12900,7 +12895,7 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="87"/>
       <c r="C79" s="85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D79" s="87"/>
       <c r="E79" s="87"/>
@@ -12910,7 +12905,7 @@
       <c r="I79" s="87"/>
       <c r="J79" s="85"/>
       <c r="K79" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L79" s="85"/>
       <c r="M79" s="85"/>
@@ -12940,7 +12935,7 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="87"/>
       <c r="C80" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D80" s="87"/>
       <c r="E80" s="87"/>
@@ -12950,7 +12945,7 @@
       <c r="I80" s="87"/>
       <c r="J80" s="85"/>
       <c r="K80" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L80" s="85"/>
       <c r="M80" s="85"/>
@@ -12980,7 +12975,7 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="87"/>
       <c r="C81" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="87"/>
       <c r="E81" s="87"/>
@@ -12990,7 +12985,7 @@
       <c r="I81" s="87"/>
       <c r="J81" s="85"/>
       <c r="K81" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L81" s="85"/>
       <c r="M81" s="85"/>
@@ -13020,7 +13015,7 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="87"/>
       <c r="C82" s="85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" s="87"/>
       <c r="E82" s="87"/>
@@ -13030,7 +13025,7 @@
       <c r="I82" s="87"/>
       <c r="J82" s="85"/>
       <c r="K82" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L82" s="85"/>
       <c r="M82" s="85"/>
@@ -13060,7 +13055,7 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="87"/>
       <c r="C83" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D83" s="87"/>
       <c r="E83" s="87"/>
@@ -13070,7 +13065,7 @@
       <c r="I83" s="87"/>
       <c r="J83" s="85"/>
       <c r="K83" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L83" s="85"/>
       <c r="M83" s="85"/>
@@ -13100,7 +13095,7 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="87"/>
       <c r="C84" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D84" s="87"/>
       <c r="E84" s="87"/>
@@ -13110,7 +13105,7 @@
       <c r="I84" s="87"/>
       <c r="J84" s="85"/>
       <c r="K84" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L84" s="85"/>
       <c r="M84" s="85"/>
@@ -13140,7 +13135,7 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="87"/>
       <c r="C85" s="85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D85" s="87"/>
       <c r="E85" s="87"/>
@@ -13150,7 +13145,7 @@
       <c r="I85" s="87"/>
       <c r="J85" s="85"/>
       <c r="K85" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L85" s="85"/>
       <c r="M85" s="85"/>
@@ -13180,7 +13175,7 @@
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="87"/>
       <c r="C86" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D86" s="87"/>
       <c r="E86" s="87"/>
@@ -13190,7 +13185,7 @@
       <c r="I86" s="87"/>
       <c r="J86" s="85"/>
       <c r="K86" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L86" s="85"/>
       <c r="M86" s="85"/>
@@ -13220,7 +13215,7 @@
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="87"/>
       <c r="C87" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D87" s="87"/>
       <c r="E87" s="87"/>
@@ -13230,7 +13225,7 @@
       <c r="I87" s="87"/>
       <c r="J87" s="85"/>
       <c r="K87" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L87" s="85"/>
       <c r="M87" s="85"/>
@@ -13260,7 +13255,7 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="87"/>
       <c r="C88" s="85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D88" s="87"/>
       <c r="E88" s="87"/>
@@ -13270,7 +13265,7 @@
       <c r="I88" s="87"/>
       <c r="J88" s="85"/>
       <c r="K88" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L88" s="85"/>
       <c r="M88" s="85"/>
@@ -13300,7 +13295,7 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="87"/>
       <c r="C89" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D89" s="87"/>
       <c r="E89" s="87"/>
@@ -13310,7 +13305,7 @@
       <c r="I89" s="87"/>
       <c r="J89" s="85"/>
       <c r="K89" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L89" s="85"/>
       <c r="M89" s="85"/>
@@ -13340,7 +13335,7 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="87"/>
       <c r="C90" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" s="87"/>
       <c r="E90" s="87"/>
@@ -13350,7 +13345,7 @@
       <c r="I90" s="87"/>
       <c r="J90" s="85"/>
       <c r="K90" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -13380,7 +13375,7 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="87"/>
       <c r="C91" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D91" s="87"/>
       <c r="E91" s="87"/>
@@ -13390,7 +13385,7 @@
       <c r="I91" s="87"/>
       <c r="J91" s="85"/>
       <c r="K91" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L91" s="85"/>
       <c r="M91" s="85"/>
@@ -13420,7 +13415,7 @@
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="87"/>
       <c r="C92" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D92" s="87"/>
       <c r="E92" s="87"/>
@@ -13430,7 +13425,7 @@
       <c r="I92" s="87"/>
       <c r="J92" s="85"/>
       <c r="K92" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L92" s="85"/>
       <c r="M92" s="85"/>
@@ -13460,7 +13455,7 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="87"/>
       <c r="C93" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D93" s="87"/>
       <c r="E93" s="87"/>
@@ -13470,7 +13465,7 @@
       <c r="I93" s="87"/>
       <c r="J93" s="85"/>
       <c r="K93" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L93" s="85"/>
       <c r="M93" s="85"/>
@@ -13500,7 +13495,7 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="87"/>
       <c r="C94" s="85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D94" s="87"/>
       <c r="E94" s="87"/>
@@ -13510,7 +13505,7 @@
       <c r="I94" s="87"/>
       <c r="J94" s="85"/>
       <c r="K94" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
@@ -13540,7 +13535,7 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="87"/>
       <c r="C95" s="85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D95" s="87"/>
       <c r="E95" s="87"/>
@@ -13550,7 +13545,7 @@
       <c r="I95" s="87"/>
       <c r="J95" s="85"/>
       <c r="K95" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L95" s="85"/>
       <c r="M95" s="85"/>
@@ -13580,7 +13575,7 @@
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="87"/>
       <c r="C96" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D96" s="87"/>
       <c r="E96" s="87"/>
@@ -13590,7 +13585,7 @@
       <c r="I96" s="87"/>
       <c r="J96" s="85"/>
       <c r="K96" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L96" s="85"/>
       <c r="M96" s="85"/>
@@ -13620,7 +13615,7 @@
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="87"/>
       <c r="C97" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D97" s="87"/>
       <c r="E97" s="87"/>
@@ -13630,7 +13625,7 @@
       <c r="I97" s="87"/>
       <c r="J97" s="85"/>
       <c r="K97" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L97" s="85"/>
       <c r="M97" s="85"/>
@@ -13660,7 +13655,7 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="87"/>
       <c r="C98" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D98" s="87"/>
       <c r="E98" s="87"/>
@@ -13670,7 +13665,7 @@
       <c r="I98" s="87"/>
       <c r="J98" s="85"/>
       <c r="K98" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L98" s="85"/>
       <c r="M98" s="85"/>
@@ -13700,7 +13695,7 @@
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="87"/>
       <c r="C99" s="85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D99" s="87"/>
       <c r="E99" s="87"/>
@@ -13710,7 +13705,7 @@
       <c r="I99" s="87"/>
       <c r="J99" s="85"/>
       <c r="K99" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L99" s="85"/>
       <c r="M99" s="85"/>
@@ -13740,7 +13735,7 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="87"/>
       <c r="C100" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D100" s="87"/>
       <c r="E100" s="87"/>
@@ -13750,7 +13745,7 @@
       <c r="I100" s="87"/>
       <c r="J100" s="85"/>
       <c r="K100" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L100" s="85"/>
       <c r="M100" s="85"/>
@@ -13780,7 +13775,7 @@
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="87"/>
       <c r="C101" s="85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D101" s="87"/>
       <c r="E101" s="87"/>
@@ -13790,7 +13785,7 @@
       <c r="I101" s="87"/>
       <c r="J101" s="85"/>
       <c r="K101" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L101" s="85"/>
       <c r="M101" s="85"/>
@@ -13820,7 +13815,7 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="87"/>
       <c r="C102" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D102" s="87"/>
       <c r="E102" s="87"/>
@@ -13830,7 +13825,7 @@
       <c r="I102" s="87"/>
       <c r="J102" s="85"/>
       <c r="K102" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L102" s="85"/>
       <c r="M102" s="85"/>
@@ -13860,7 +13855,7 @@
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="87"/>
       <c r="C103" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D103" s="87"/>
       <c r="E103" s="87"/>
@@ -13870,7 +13865,7 @@
       <c r="I103" s="87"/>
       <c r="J103" s="85"/>
       <c r="K103" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L103" s="85"/>
       <c r="M103" s="85"/>
@@ -13900,7 +13895,7 @@
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="87"/>
       <c r="C104" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D104" s="87"/>
       <c r="E104" s="87"/>
@@ -13910,7 +13905,7 @@
       <c r="I104" s="87"/>
       <c r="J104" s="85"/>
       <c r="K104" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L104" s="85"/>
       <c r="M104" s="85"/>
@@ -13940,7 +13935,7 @@
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="87"/>
       <c r="C105" s="85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D105" s="87"/>
       <c r="E105" s="87"/>
@@ -13950,7 +13945,7 @@
       <c r="I105" s="87"/>
       <c r="J105" s="85"/>
       <c r="K105" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L105" s="85"/>
       <c r="M105" s="85"/>
@@ -13980,7 +13975,7 @@
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="87"/>
       <c r="C106" s="85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D106" s="87"/>
       <c r="E106" s="87"/>
@@ -13990,7 +13985,7 @@
       <c r="I106" s="87"/>
       <c r="J106" s="85"/>
       <c r="K106" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -14020,7 +14015,7 @@
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="87"/>
       <c r="C107" s="85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D107" s="87"/>
       <c r="E107" s="87"/>
@@ -14030,7 +14025,7 @@
       <c r="I107" s="87"/>
       <c r="J107" s="85"/>
       <c r="K107" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L107" s="85"/>
       <c r="M107" s="85"/>
@@ -14060,7 +14055,7 @@
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="87"/>
       <c r="C108" s="85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D108" s="87"/>
       <c r="E108" s="87"/>
@@ -14070,7 +14065,7 @@
       <c r="I108" s="87"/>
       <c r="J108" s="85"/>
       <c r="K108" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L108" s="85"/>
       <c r="M108" s="85"/>
@@ -19688,13 +19683,13 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A10:A12" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A11" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -19742,11 +19737,11 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="92"/>
       <c r="F2" s="92"/>
@@ -19775,11 +19770,11 @@
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="93"/>
       <c r="D3" s="94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="94"/>
       <c r="F3" s="95"/>
@@ -19808,16 +19803,16 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="97"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="98"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -19839,21 +19834,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="97"/>
       <c r="D5" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="99" t="str">
         <f aca="false">A2</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49551]</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="98"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
@@ -19875,14 +19870,14 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="100" t="str">
         <f aca="false">A3</f>
         <v>[:lahtotiedot :lammitys :lammitysmuoto-label-fi]</v>
@@ -19911,12 +19906,12 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="0"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="101" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitys :lammonjako-label-fi]</v>
@@ -19945,21 +19940,21 @@
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="str">
+        <v>98</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="str">
         <f aca="false">A7</f>
         <v>[:lahtotiedot :ilmanvaihto :label-fi]</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="98"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -19981,23 +19976,23 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="91"/>
       <c r="D9" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="102"/>
       <c r="F9" s="102"/>
       <c r="G9" s="103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="104" t="s">
         <v>103</v>
-      </c>
-      <c r="J9" s="104" t="s">
-        <v>104</v>
       </c>
       <c r="K9" s="104"/>
       <c r="M9" s="0"/>
@@ -20020,7 +20015,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="102"/>
@@ -20051,7 +20046,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="105"/>
       <c r="D11" s="102"/>
@@ -20082,23 +20077,23 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="107"/>
       <c r="E12" s="107"/>
       <c r="F12" s="107"/>
       <c r="G12" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="109" t="s">
+      <c r="I12" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="J12" s="108" t="s">
         <v>110</v>
-      </c>
-      <c r="J12" s="108" t="s">
-        <v>111</v>
       </c>
       <c r="K12" s="108"/>
       <c r="M12" s="0"/>
@@ -20121,12 +20116,12 @@
     </row>
     <row r="13" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="111"/>
       <c r="H13" s="111"/>
       <c r="I13" s="111"/>
@@ -20152,14 +20147,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="113"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="114" t="str">
         <f aca="false">A9</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo]</v>
@@ -20197,14 +20192,14 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="113"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="114" t="str">
         <f aca="false">A13</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko]</v>
@@ -20242,14 +20237,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="113"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="117" t="str">
         <f aca="false">A17</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
@@ -20287,14 +20282,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="113"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="114" t="str">
         <f aca="false">A21</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
@@ -20332,14 +20327,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="113"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="114" t="str">
         <f aca="false">A25</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
@@ -20377,7 +20372,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="118" t="str">
@@ -20423,7 +20418,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="0"/>
@@ -20454,11 +20449,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="113"/>
       <c r="F21" s="119"/>
@@ -20493,7 +20488,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="113"/>
@@ -20524,11 +20519,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="106"/>
       <c r="D23" s="126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="126"/>
       <c r="F23" s="107"/>
@@ -20561,16 +20556,16 @@
     </row>
     <row r="24" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="130"/>
       <c r="E24" s="130"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="13"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="131"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -20592,11 +20587,11 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="94"/>
       <c r="F25" s="95"/>
@@ -20625,16 +20620,16 @@
     </row>
     <row r="26" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="97"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="98"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -20656,20 +20651,20 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="61"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="14"/>
       <c r="H27" s="132" t="str">
         <f aca="false">A37</f>
         <v>[:tulokset :e-luokka-rajat :kayttotarkoitus :label-fi]</v>
       </c>
       <c r="I27" s="38"/>
-      <c r="J27" s="13"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="131"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -20691,15 +20686,15 @@
     </row>
     <row r="28" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="61"/>
       <c r="E28" s="130"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="14"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="131"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -20721,14 +20716,14 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="61"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="14"/>
       <c r="H29" s="133" t="str">
         <f aca="false">A39</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49553]</v>
@@ -20762,12 +20757,12 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="14"/>
       <c r="H30" s="136" t="str">
         <f aca="false">A42</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49561]</v>
@@ -20801,12 +20796,12 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="14"/>
       <c r="H31" s="139" t="str">
         <f aca="false">A45</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49570]</v>
@@ -20834,12 +20829,12 @@
     </row>
     <row r="32" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="14"/>
       <c r="H32" s="141"/>
       <c r="I32" s="141"/>
       <c r="J32" s="141"/>
@@ -20864,14 +20859,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="61"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="14"/>
       <c r="H33" s="142" t="str">
         <f aca="false">A46</f>
         <v>[:tulokset :e-luokka]</v>
@@ -20899,16 +20894,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="130"/>
       <c r="E34" s="130"/>
-      <c r="F34" s="13"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="143"/>
       <c r="H34" s="143"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="13"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="131"/>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -20930,11 +20925,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="144"/>
       <c r="F35" s="144"/>
@@ -20963,7 +20958,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="144"/>
@@ -20994,7 +20989,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="144"/>
@@ -21025,7 +21020,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="144"/>
@@ -21056,7 +21051,7 @@
     </row>
     <row r="39" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="145"/>
       <c r="D39" s="146"/>
@@ -21088,7 +21083,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -21110,11 +21105,11 @@
     </row>
     <row r="41" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="149"/>
       <c r="D41" s="150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -21143,11 +21138,11 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E42" s="94"/>
       <c r="F42" s="95"/>
@@ -21176,11 +21171,11 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="153"/>
       <c r="D43" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -21207,16 +21202,16 @@
     </row>
     <row r="44" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" s="97"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
       <c r="K44" s="155"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -21238,7 +21233,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="156" t="str">
@@ -21272,7 +21267,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="156"/>
@@ -21303,7 +21298,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="156"/>
@@ -21334,7 +21329,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="156"/>
@@ -21982,7 +21977,7 @@
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C71" s="153"/>
       <c r="D71" s="144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E71" s="144"/>
       <c r="F71" s="144"/>
@@ -22468,7 +22463,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -22507,12 +22502,12 @@
     </row>
     <row r="2" s="167" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="161"/>
       <c r="C2" s="164"/>
       <c r="D2" s="165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="165"/>
       <c r="F2" s="165"/>
@@ -22522,12 +22517,12 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="168"/>
       <c r="D3" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="169"/>
       <c r="F3" s="169"/>
@@ -22537,7 +22532,7 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="171"/>
       <c r="D4" s="172"/>
@@ -22549,11 +22544,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="174"/>
       <c r="D5" s="175" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="176" t="str">
         <f aca="false">A2</f>
@@ -22566,7 +22561,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="175"/>
@@ -22578,31 +22573,31 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="28" t="str">
         <f aca="false">A4</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="F7" s="175" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="178" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="H7" s="175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="177"/>
     </row>
     <row r="8" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="179"/>
@@ -22614,12 +22609,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="160" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="168"/>
       <c r="D9" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="169"/>
       <c r="F9" s="169"/>
@@ -22629,13 +22624,13 @@
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="160" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="174"/>
       <c r="D10" s="175"/>
       <c r="E10" s="180"/>
       <c r="F10" s="175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="172"/>
       <c r="H10" s="179"/>
@@ -22643,11 +22638,11 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="174"/>
       <c r="D11" s="175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="181" t="str">
         <f aca="false">A6</f>
@@ -22660,7 +22655,7 @@
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="160" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="174"/>
       <c r="D12" s="179"/>
@@ -22672,47 +22667,47 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="160" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="172"/>
       <c r="E13" s="182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="182" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="182" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="182" t="s">
+      <c r="H13" s="183" t="s">
         <v>181</v>
-      </c>
-      <c r="H13" s="183" t="s">
-        <v>182</v>
       </c>
       <c r="I13" s="177"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="160" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="172"/>
       <c r="E14" s="184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="184" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="184" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="H14" s="185" t="s">
         <v>185</v>
-      </c>
-      <c r="H14" s="185" t="s">
-        <v>186</v>
       </c>
       <c r="I14" s="177"/>
     </row>
     <row r="15" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="160" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="174"/>
       <c r="D15" s="172"/>
@@ -22724,11 +22719,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="160" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174"/>
       <c r="D16" s="175" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E16" s="188" t="str">
         <f aca="false">A7</f>
@@ -22750,11 +22745,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="160" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="174"/>
       <c r="D17" s="175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E17" s="188" t="str">
         <f aca="false">A11</f>
@@ -22776,11 +22771,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="160" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="174"/>
       <c r="D18" s="175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E18" s="188" t="str">
         <f aca="false">A15</f>
@@ -22802,11 +22797,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="160" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="174"/>
       <c r="D19" s="175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="188" t="str">
         <f aca="false">A19</f>
@@ -22828,11 +22823,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="174"/>
       <c r="D20" s="175" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="188" t="str">
         <f aca="false">A23</f>
@@ -22854,17 +22849,17 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="160" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="174"/>
       <c r="D21" s="175" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G21" s="188" t="str">
         <f aca="false">A27</f>
@@ -22878,7 +22873,7 @@
     </row>
     <row r="22" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="174"/>
       <c r="D22" s="179"/>
@@ -22890,12 +22885,12 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="160" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="85"/>
       <c r="C23" s="168"/>
       <c r="D23" s="94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="169"/>
       <c r="F23" s="169"/>
@@ -22905,7 +22900,7 @@
     </row>
     <row r="24" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="160" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="174"/>
       <c r="D24" s="179"/>
@@ -22917,18 +22912,18 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="160" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="174"/>
       <c r="D25" s="172"/>
       <c r="E25" s="182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="182" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H25" s="193"/>
       <c r="I25" s="177"/>
@@ -22936,25 +22931,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="174"/>
       <c r="D26" s="172"/>
       <c r="E26" s="184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="184" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H26" s="193"/>
       <c r="I26" s="177"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="160" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" s="174"/>
       <c r="D27" s="172"/>
@@ -22966,11 +22961,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="160" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" s="174"/>
       <c r="D28" s="175" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E28" s="188" t="str">
         <f aca="false">A29</f>
@@ -22989,11 +22984,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="160" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="174"/>
       <c r="D29" s="175" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="188" t="str">
         <f aca="false">A32</f>
@@ -23012,11 +23007,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="160" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" s="174"/>
       <c r="D30" s="175" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" s="188" t="str">
         <f aca="false">A35</f>
@@ -23035,11 +23030,11 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="160" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="174"/>
       <c r="D31" s="175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" s="188" t="str">
         <f aca="false">A38</f>
@@ -23058,11 +23053,11 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="160" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="174"/>
       <c r="D32" s="175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="188" t="str">
         <f aca="false">A41</f>
@@ -23081,11 +23076,11 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C33" s="174"/>
       <c r="D33" s="175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="188" t="str">
         <f aca="false">A44</f>
@@ -23104,11 +23099,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C34" s="174"/>
       <c r="D34" s="175" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E34" s="188" t="str">
         <f aca="false">A47</f>
@@ -23127,11 +23122,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="160" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="175" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="188" t="str">
         <f aca="false">A50</f>
@@ -23150,26 +23145,26 @@
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="160" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="179"/>
       <c r="E36" s="179"/>
       <c r="F36" s="179"/>
       <c r="G36" s="194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H36" s="179"/>
       <c r="I36" s="177"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="160" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="168"/>
       <c r="D37" s="94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="169"/>
       <c r="F37" s="169"/>
@@ -23180,7 +23175,7 @@
     </row>
     <row r="38" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="174"/>
       <c r="D38" s="179"/>
@@ -23192,11 +23187,11 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="160" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="174"/>
       <c r="D39" s="175" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E39" s="196" t="str">
         <f aca="false">A53</f>
@@ -23210,7 +23205,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="160" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="174"/>
       <c r="D40" s="179"/>
@@ -23222,39 +23217,39 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="160" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" s="174"/>
       <c r="D41" s="172"/>
       <c r="E41" s="182" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="182" t="s">
         <v>233</v>
       </c>
-      <c r="F41" s="182" t="s">
+      <c r="G41" s="182" t="s">
         <v>234</v>
       </c>
-      <c r="G41" s="182" t="s">
+      <c r="H41" s="197" t="s">
         <v>235</v>
-      </c>
-      <c r="H41" s="197" t="s">
-        <v>236</v>
       </c>
       <c r="I41" s="177"/>
       <c r="K41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="160" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C42" s="174"/>
       <c r="D42" s="172"/>
       <c r="E42" s="182" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="F42" s="182" t="s">
+      <c r="G42" s="182" t="s">
         <v>239</v>
-      </c>
-      <c r="G42" s="182" t="s">
-        <v>240</v>
       </c>
       <c r="H42" s="197"/>
       <c r="I42" s="177"/>
@@ -23262,27 +23257,27 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="160" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C43" s="174"/>
       <c r="D43" s="172"/>
       <c r="E43" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="184" t="s">
         <v>242</v>
       </c>
-      <c r="F43" s="184" t="s">
+      <c r="G43" s="184" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="198" t="s">
         <v>243</v>
-      </c>
-      <c r="G43" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="198" t="s">
-        <v>244</v>
       </c>
       <c r="I43" s="177"/>
     </row>
     <row r="44" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="160" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C44" s="174"/>
       <c r="D44" s="172"/>
@@ -23294,11 +23289,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="160" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="174"/>
       <c r="D45" s="175" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E45" s="189" t="str">
         <f aca="false">A55</f>
@@ -23320,11 +23315,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" s="174"/>
       <c r="D46" s="175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E46" s="189" t="str">
         <f aca="false">A59</f>
@@ -23335,20 +23330,20 @@
         <v>[:lahtotiedot :ilmanvaihto :erillispoistot :sfp]</v>
       </c>
       <c r="G46" s="192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H46" s="200" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I46" s="177"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="160" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="175" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="189" t="str">
         <f aca="false">A61</f>
@@ -23359,16 +23354,16 @@
         <v>[:lahtotiedot :ilmanvaihto :ivjarjestelma :sfp]</v>
       </c>
       <c r="G47" s="192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H47" s="201" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I47" s="177"/>
     </row>
     <row r="48" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="160" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C48" s="174"/>
       <c r="D48" s="202"/>
@@ -23380,11 +23375,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="205" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C49" s="174"/>
       <c r="D49" s="175" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="206" t="str">
@@ -23395,7 +23390,7 @@
     </row>
     <row r="50" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="160" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C50" s="174"/>
       <c r="D50" s="175"/>
@@ -23407,12 +23402,12 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="85"/>
       <c r="C51" s="168"/>
       <c r="D51" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E51" s="169"/>
       <c r="F51" s="169"/>
@@ -23422,7 +23417,7 @@
     </row>
     <row r="52" customFormat="false" ht="9.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="160" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C52" s="174"/>
       <c r="D52" s="179"/>
@@ -23434,11 +23429,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="160" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="174"/>
       <c r="D53" s="175" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E53" s="196" t="str">
         <f aca="false">A64</f>
@@ -23451,7 +23446,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="160" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="174"/>
       <c r="D54" s="179"/>
@@ -23466,65 +23461,65 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="160" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" s="174"/>
       <c r="D55" s="209"/>
       <c r="E55" s="182" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="210" t="s">
         <v>260</v>
       </c>
-      <c r="F55" s="210" t="s">
+      <c r="G55" s="182" t="s">
         <v>261</v>
       </c>
-      <c r="G55" s="182" t="s">
+      <c r="H55" s="197" t="s">
         <v>262</v>
-      </c>
-      <c r="H55" s="197" t="s">
-        <v>263</v>
       </c>
       <c r="I55" s="177"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="160" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="174"/>
       <c r="D56" s="172"/>
       <c r="E56" s="182" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F56" s="210" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G56" s="182"/>
       <c r="H56" s="197" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I56" s="177"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57" s="174"/>
       <c r="D57" s="172"/>
       <c r="E57" s="182" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" s="182" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G57" s="182" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H57" s="185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I57" s="177"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="160" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C58" s="174"/>
       <c r="D58" s="172"/>
@@ -23536,11 +23531,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="160" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C59" s="174"/>
       <c r="D59" s="175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E59" s="199" t="str">
         <f aca="false">A68</f>
@@ -23563,11 +23558,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="160" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C60" s="174"/>
       <c r="D60" s="175" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E60" s="199" t="str">
         <f aca="false">A72</f>
@@ -23589,7 +23584,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="160" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C61" s="174"/>
       <c r="D61" s="175"/>
@@ -23601,11 +23596,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="174"/>
       <c r="D62" s="213" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E62" s="175"/>
       <c r="F62" s="175"/>
@@ -23615,11 +23610,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="160" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C63" s="174"/>
       <c r="D63" s="213" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E63" s="175"/>
       <c r="F63" s="175"/>
@@ -23629,7 +23624,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="160" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="175"/>
@@ -23641,15 +23636,15 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="160" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="174"/>
       <c r="D65" s="172"/>
       <c r="E65" s="197" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" s="182" t="s">
         <v>278</v>
-      </c>
-      <c r="F65" s="182" t="s">
-        <v>279</v>
       </c>
       <c r="G65" s="182"/>
       <c r="H65" s="179"/>
@@ -23657,15 +23652,15 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="160" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="172"/>
       <c r="E66" s="185" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F66" s="184" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G66" s="182"/>
       <c r="H66" s="179"/>
@@ -23673,7 +23668,7 @@
     </row>
     <row r="67" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="172"/>
@@ -23685,11 +23680,11 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="175" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E68" s="214" t="str">
         <f aca="false">A76</f>
@@ -23705,11 +23700,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E69" s="214" t="str">
         <f aca="false">A78</f>
@@ -23725,7 +23720,7 @@
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="179"/>
@@ -23737,12 +23732,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="168"/>
       <c r="D71" s="94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -23752,7 +23747,7 @@
     </row>
     <row r="72" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="179"/>
@@ -23764,12 +23759,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="172"/>
       <c r="E73" s="215" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F73" s="216"/>
       <c r="G73" s="216"/>
@@ -23778,12 +23773,12 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="172"/>
       <c r="E74" s="185" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" s="217"/>
       <c r="G74" s="216"/>
@@ -23792,7 +23787,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C75" s="174"/>
       <c r="D75" s="172"/>
@@ -23804,11 +23799,11 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="175" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E76" s="188" t="str">
         <f aca="false">A80</f>
@@ -23822,7 +23817,7 @@
     </row>
     <row r="77" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="179"/>
@@ -23834,12 +23829,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="168"/>
       <c r="D78" s="94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E78" s="169"/>
       <c r="F78" s="169"/>
@@ -23849,7 +23844,7 @@
     </row>
     <row r="79" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C79" s="174"/>
       <c r="D79" s="179"/>
@@ -23861,15 +23856,15 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C80" s="174"/>
       <c r="D80" s="179"/>
       <c r="E80" s="182" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="218" t="s">
         <v>299</v>
-      </c>
-      <c r="F80" s="218" t="s">
-        <v>300</v>
       </c>
       <c r="G80" s="179"/>
       <c r="H80" s="179"/>
@@ -23877,15 +23872,15 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C81" s="174"/>
       <c r="D81" s="172"/>
       <c r="E81" s="184" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F81" s="185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G81" s="179"/>
       <c r="H81" s="179"/>
@@ -23894,7 +23889,7 @@
     </row>
     <row r="82" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C82" s="174"/>
       <c r="D82" s="172"/>
@@ -23906,11 +23901,11 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" s="174"/>
       <c r="D83" s="175" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E83" s="214" t="str">
         <f aca="false">A81</f>
@@ -23926,7 +23921,7 @@
     </row>
     <row r="84" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C84" s="174"/>
       <c r="D84" s="179"/>
@@ -23938,12 +23933,12 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="168"/>
       <c r="D85" s="94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E85" s="169"/>
       <c r="F85" s="169"/>
@@ -23953,7 +23948,7 @@
     </row>
     <row r="86" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C86" s="174"/>
       <c r="D86" s="179"/>
@@ -23965,47 +23960,47 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C87" s="174"/>
       <c r="D87" s="172"/>
       <c r="E87" s="197" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="F87" s="182" t="s">
+      <c r="G87" s="182" t="s">
         <v>311</v>
       </c>
-      <c r="G87" s="182" t="s">
+      <c r="H87" s="197" t="s">
         <v>312</v>
-      </c>
-      <c r="H87" s="197" t="s">
-        <v>313</v>
       </c>
       <c r="I87" s="177"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" s="174"/>
       <c r="D88" s="172"/>
       <c r="E88" s="185" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F88" s="184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G88" s="184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H88" s="185" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I88" s="177"/>
     </row>
     <row r="89" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C89" s="174"/>
       <c r="D89" s="172"/>
@@ -24017,7 +24012,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C90" s="174"/>
       <c r="D90" s="219"/>
@@ -24041,7 +24036,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C91" s="174"/>
       <c r="D91" s="219"/>
@@ -24065,7 +24060,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C92" s="174"/>
       <c r="D92" s="219"/>
@@ -24089,7 +24084,7 @@
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="160" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C93" s="220"/>
       <c r="D93" s="221"/>
@@ -24101,7 +24096,7 @@
     </row>
     <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="160" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -24880,7 +24875,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -24920,11 +24915,11 @@
     </row>
     <row r="2" s="224" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="225"/>
       <c r="D2" s="165" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E2" s="226"/>
       <c r="F2" s="165"/>
@@ -24935,11 +24930,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="168"/>
       <c r="D3" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="169"/>
       <c r="F3" s="169"/>
@@ -24950,7 +24945,7 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="171"/>
       <c r="D4" s="172"/>
@@ -24963,11 +24958,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="174"/>
       <c r="D5" s="231" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="232" t="str">
         <f aca="false">A2</f>
@@ -24981,7 +24976,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="231"/>
@@ -24994,7 +24989,7 @@
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="160" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="231"/>
@@ -25007,11 +25002,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="160" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="234" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="28" t="str">
         <f aca="false">A4</f>
@@ -25034,11 +25029,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="160" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="174"/>
       <c r="D9" s="234" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
@@ -25061,11 +25056,11 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="160" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="174"/>
       <c r="D10" s="238" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" s="239" t="str">
         <f aca="false">A6</f>
@@ -25088,7 +25083,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="174"/>
       <c r="D11" s="179"/>
@@ -25110,11 +25105,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="160" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="168"/>
       <c r="D12" s="94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="169"/>
       <c r="F12" s="169"/>
@@ -25134,7 +25129,7 @@
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="160" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="179"/>
@@ -25156,20 +25151,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="160" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="240" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="182" t="s">
         <v>328</v>
       </c>
-      <c r="E14" s="182" t="s">
+      <c r="F14" s="182" t="s">
         <v>329</v>
       </c>
-      <c r="F14" s="182" t="s">
+      <c r="G14" s="197" t="s">
         <v>330</v>
-      </c>
-      <c r="G14" s="197" t="s">
-        <v>331</v>
       </c>
       <c r="H14" s="197"/>
       <c r="I14" s="182"/>
@@ -25186,18 +25181,18 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="160" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="174"/>
       <c r="D15" s="173"/>
       <c r="E15" s="182" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="182" t="s">
         <v>332</v>
       </c>
-      <c r="F15" s="182" t="s">
+      <c r="G15" s="197" t="s">
         <v>333</v>
-      </c>
-      <c r="G15" s="197" t="s">
-        <v>334</v>
       </c>
       <c r="H15" s="197"/>
       <c r="I15" s="184"/>
@@ -25214,21 +25209,21 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="160" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="241"/>
       <c r="D16" s="242"/>
       <c r="E16" s="243" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="243" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="243" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" s="244" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" s="243" t="s">
-        <v>335</v>
-      </c>
-      <c r="H16" s="244" t="s">
-        <v>111</v>
       </c>
       <c r="I16" s="182"/>
       <c r="J16" s="230"/>
@@ -25244,7 +25239,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="160" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C17" s="174"/>
       <c r="D17" s="172"/>
@@ -25266,11 +25261,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="160" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="174"/>
       <c r="D18" s="245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="214" t="str">
         <f aca="false">A7</f>
@@ -25302,11 +25297,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="160" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="174"/>
       <c r="D19" s="245" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="214" t="str">
         <f aca="false">A11</f>
@@ -25338,11 +25333,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="174"/>
       <c r="D20" s="248" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="214" t="str">
         <f aca="false">A23</f>
@@ -25374,11 +25369,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="160" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" s="174"/>
       <c r="D21" s="250" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="214" t="str">
         <f aca="false">A15</f>
@@ -25410,11 +25405,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="160" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="174"/>
       <c r="D22" s="250" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="214" t="str">
         <f aca="false">A19</f>
@@ -25446,7 +25441,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="174"/>
       <c r="D23" s="248" t="str">
@@ -25483,7 +25478,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="174"/>
       <c r="D24" s="248" t="str">
@@ -25520,7 +25515,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="160" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C25" s="174"/>
       <c r="D25" s="251" t="str">
@@ -25557,11 +25552,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="160" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="174"/>
       <c r="D26" s="252" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E26" s="253" t="str">
         <f aca="false">A42</f>
@@ -25590,7 +25585,7 @@
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="160" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="174"/>
       <c r="D27" s="179"/>
@@ -25612,11 +25607,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="168"/>
       <c r="D28" s="94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" s="169"/>
       <c r="F28" s="169"/>
@@ -25637,7 +25632,7 @@
     </row>
     <row r="29" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="174"/>
       <c r="D29" s="179"/>
@@ -25659,15 +25654,15 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="160" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30" s="174"/>
       <c r="D30" s="172"/>
       <c r="F30" s="184" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="184" t="s">
         <v>108</v>
-      </c>
-      <c r="G30" s="184" t="s">
-        <v>109</v>
       </c>
       <c r="H30" s="179"/>
       <c r="I30" s="182"/>
@@ -25684,7 +25679,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="174"/>
       <c r="D31" s="255" t="str">
@@ -25715,7 +25710,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="160" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C32" s="174"/>
       <c r="D32" s="255" t="str">
@@ -25746,7 +25741,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="160" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C33" s="174"/>
       <c r="D33" s="255" t="str">
@@ -25777,7 +25772,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="160" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C34" s="174"/>
       <c r="D34" s="255" t="str">
@@ -25808,7 +25803,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="160" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="255" t="str">
@@ -25839,7 +25834,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="160" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="255" t="str">
@@ -25870,7 +25865,7 @@
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="160" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C37" s="174"/>
       <c r="D37" s="179"/>
@@ -25892,11 +25887,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="160" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C38" s="168"/>
       <c r="D38" s="94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E38" s="169"/>
       <c r="F38" s="169"/>
@@ -25916,7 +25911,7 @@
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="160" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" s="174"/>
       <c r="D39" s="179"/>
@@ -25938,19 +25933,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="160" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="174"/>
       <c r="D40" s="172"/>
       <c r="E40" s="172"/>
       <c r="F40" s="197" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" s="182" t="s">
         <v>352</v>
       </c>
-      <c r="G40" s="182" t="s">
+      <c r="H40" s="182" t="s">
         <v>353</v>
-      </c>
-      <c r="H40" s="182" t="s">
-        <v>354</v>
       </c>
       <c r="I40" s="182"/>
       <c r="J40" s="230"/>
@@ -25966,19 +25961,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="160" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" s="174"/>
       <c r="D41" s="172"/>
       <c r="E41" s="172"/>
       <c r="F41" s="185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G41" s="185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H41" s="185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" s="184"/>
       <c r="J41" s="229"/>
@@ -25994,7 +25989,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="160" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="174"/>
       <c r="D42" s="172"/>
@@ -26016,11 +26011,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C43" s="174"/>
       <c r="D43" s="175" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E43" s="175"/>
       <c r="F43" s="0"/>
@@ -26040,11 +26035,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="174"/>
       <c r="D44" s="175" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E44" s="175"/>
       <c r="F44" s="246" t="str">
@@ -26056,7 +26051,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tilojen-lammitys :lampo]</v>
       </c>
       <c r="H44" s="260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I44" s="182"/>
       <c r="J44" s="230"/>
@@ -26072,11 +26067,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="160" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C45" s="174"/>
       <c r="D45" s="175" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E45" s="175"/>
       <c r="F45" s="188" t="str">
@@ -26088,7 +26083,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tuloilman-lammitys :lampo]</v>
       </c>
       <c r="H45" s="260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I45" s="184"/>
       <c r="J45" s="229"/>
@@ -26104,11 +26099,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="160" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="174"/>
       <c r="D46" s="175" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" s="175"/>
       <c r="F46" s="188" t="str">
@@ -26120,7 +26115,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :kayttoveden-valmistus :lampo]</v>
       </c>
       <c r="H46" s="260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I46" s="182"/>
       <c r="J46" s="230"/>
@@ -26136,11 +26131,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="160" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="175" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E47" s="175"/>
       <c r="F47" s="188" t="str">
@@ -26148,10 +26143,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :iv-sahko]</v>
       </c>
       <c r="G47" s="260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H47" s="260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I47" s="182"/>
       <c r="J47" s="229"/>
@@ -26167,11 +26162,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" s="174"/>
       <c r="D48" s="175" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E48" s="175"/>
       <c r="F48" s="188" t="str">
@@ -26200,11 +26195,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="160" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C49" s="174"/>
       <c r="D49" s="175" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E49" s="175"/>
       <c r="F49" s="188" t="str">
@@ -26212,10 +26207,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :kuluttajalaitteet-ja-valaistus-sahko]</v>
       </c>
       <c r="G49" s="260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H49" s="260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I49" s="184"/>
       <c r="J49" s="229"/>
@@ -26231,11 +26226,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="160" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C50" s="174"/>
       <c r="D50" s="252" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E50" s="252"/>
       <c r="F50" s="261" t="str">
@@ -26264,11 +26259,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="160" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C51" s="174"/>
       <c r="D51" s="262" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E51" s="252"/>
       <c r="F51" s="217"/>
@@ -26288,7 +26283,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="160" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C52" s="174"/>
       <c r="D52" s="179"/>
@@ -26310,11 +26305,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="160" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="168"/>
       <c r="D53" s="94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E53" s="169"/>
       <c r="F53" s="169"/>
@@ -26325,7 +26320,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="160" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="174"/>
       <c r="D54" s="179"/>
@@ -26338,15 +26333,15 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="160" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="174"/>
       <c r="D55" s="172"/>
       <c r="F55" s="184" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="184" t="s">
         <v>108</v>
-      </c>
-      <c r="G55" s="184" t="s">
-        <v>109</v>
       </c>
       <c r="H55" s="184"/>
       <c r="I55" s="182"/>
@@ -26354,7 +26349,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="160" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="174"/>
       <c r="D56" s="172"/>
@@ -26366,11 +26361,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="160" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" s="174"/>
       <c r="D57" s="175" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E57" s="175"/>
       <c r="F57" s="214" t="str">
@@ -26387,11 +26382,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="160" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C58" s="174"/>
       <c r="D58" s="175" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E58" s="175"/>
       <c r="F58" s="214" t="str">
@@ -26408,11 +26403,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="160" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="174"/>
       <c r="D59" s="175" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E59" s="175"/>
       <c r="F59" s="214" t="str">
@@ -26429,11 +26424,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="160" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C60" s="174"/>
       <c r="D60" s="175" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E60" s="175"/>
       <c r="F60" s="214" t="str">
@@ -26450,7 +26445,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="160" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C61" s="174"/>
       <c r="D61" s="175"/>
@@ -26463,11 +26458,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="160" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C62" s="174"/>
       <c r="D62" s="213" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E62" s="213"/>
       <c r="F62" s="213"/>
@@ -26478,11 +26473,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="160" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C63" s="174"/>
       <c r="D63" s="213" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E63" s="213"/>
       <c r="F63" s="213"/>
@@ -26493,7 +26488,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="160" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="175"/>
@@ -26506,11 +26501,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="160" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" s="168"/>
       <c r="D65" s="94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E65" s="169"/>
       <c r="F65" s="169"/>
@@ -26521,7 +26516,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="160" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="179"/>
@@ -26534,15 +26529,15 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="160" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="172"/>
       <c r="F67" s="184" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" s="184" t="s">
         <v>108</v>
-      </c>
-      <c r="G67" s="184" t="s">
-        <v>109</v>
       </c>
       <c r="H67" s="182"/>
       <c r="I67" s="182"/>
@@ -26550,7 +26545,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="172"/>
@@ -26562,11 +26557,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E69" s="175"/>
       <c r="F69" s="214" t="str">
@@ -26583,11 +26578,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="175" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E70" s="175"/>
       <c r="F70" s="214" t="str">
@@ -26604,11 +26599,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C71" s="174"/>
       <c r="D71" s="175" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E71" s="175"/>
       <c r="F71" s="214" t="str">
@@ -26625,11 +26620,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="175" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72" s="175"/>
       <c r="F72" s="214" t="str">
@@ -26646,11 +26641,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="175" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E73" s="175"/>
       <c r="F73" s="214" t="str">
@@ -26667,7 +26662,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="175"/>
@@ -26680,11 +26675,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C75" s="168"/>
       <c r="D75" s="94" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E75" s="169"/>
       <c r="F75" s="169"/>
@@ -26695,7 +26690,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="179"/>
@@ -26708,11 +26703,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="175" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E77" s="175"/>
       <c r="F77" s="263" t="str">
@@ -26726,7 +26721,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C78" s="220"/>
       <c r="D78" s="221"/>
@@ -26739,177 +26734,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="160" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="160" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="160" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="160" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="160" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="160" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="160" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="160" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="160" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="160" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="160" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="160" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="160" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="160" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="160" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="160" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="160" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="160" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="160" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="160" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -27467,7 +27462,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -27508,11 +27503,11 @@
     </row>
     <row r="2" s="265" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="266"/>
       <c r="D2" s="267" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E2" s="267"/>
       <c r="F2" s="267"/>
@@ -27525,43 +27520,43 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="270"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="98"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" s="97"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="98"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
@@ -27574,97 +27569,97 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C6" s="97"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="98"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="29" t="str">
         <f aca="false">A2</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="F7" s="271" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H7" s="272"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="98"/>
       <c r="P7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" s="97"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="98"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C9" s="97"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="98"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E10" s="61"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="273"/>
       <c r="H10" s="274"/>
       <c r="I10" s="275"/>
       <c r="J10" s="276" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="277" t="s">
         <v>108</v>
-      </c>
-      <c r="K10" s="277" t="s">
-        <v>109</v>
       </c>
       <c r="L10" s="278"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C11" s="97"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="279"/>
       <c r="H11" s="38"/>
       <c r="I11" s="112"/>
@@ -27674,11 +27669,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="282" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E12" s="282"/>
       <c r="F12" s="282"/>
@@ -27698,11 +27693,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="282" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E13" s="282"/>
       <c r="F13" s="282"/>
@@ -27722,11 +27717,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="274" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E14" s="274"/>
       <c r="F14" s="282"/>
@@ -27746,11 +27741,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="274" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E15" s="274"/>
       <c r="F15" s="282"/>
@@ -27770,11 +27765,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="282" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="282"/>
       <c r="F16" s="282"/>
@@ -27794,7 +27789,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="289" t="str">
@@ -27819,7 +27814,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="289" t="str">
@@ -27844,7 +27839,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="289" t="str">
@@ -27869,7 +27864,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="289" t="str">
@@ -27894,7 +27889,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="289" t="str">
@@ -27919,7 +27914,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="290"/>
@@ -27938,7 +27933,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="294"/>
@@ -27954,35 +27949,35 @@
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="297" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E24" s="297"/>
       <c r="F24" s="297"/>
       <c r="G24" s="298" t="s">
+        <v>473</v>
+      </c>
+      <c r="H24" s="299" t="s">
         <v>474</v>
       </c>
-      <c r="H24" s="299" t="s">
+      <c r="I24" s="298" t="s">
         <v>475</v>
       </c>
-      <c r="I24" s="298" t="s">
-        <v>476</v>
-      </c>
       <c r="J24" s="299" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="300" t="s">
         <v>108</v>
-      </c>
-      <c r="K24" s="300" t="s">
-        <v>109</v>
       </c>
       <c r="L24" s="301"/>
       <c r="Z24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
@@ -27998,11 +27993,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="282" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E26" s="282"/>
       <c r="F26" s="282"/>
@@ -28011,7 +28006,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="H26" s="303" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I26" s="276" t="n">
         <v>10</v>
@@ -28029,11 +28024,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="282" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E27" s="282"/>
       <c r="F27" s="282"/>
@@ -28042,7 +28037,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="H27" s="303" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I27" s="276" t="n">
         <v>1300</v>
@@ -28060,11 +28055,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="282" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E28" s="282"/>
       <c r="F28" s="282"/>
@@ -28073,7 +28068,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="H28" s="303" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I28" s="276" t="n">
         <v>1700</v>
@@ -28091,11 +28086,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="282" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E29" s="282"/>
       <c r="F29" s="282"/>
@@ -28104,7 +28099,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="H29" s="303" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I29" s="276" t="n">
         <v>4.7</v>
@@ -28122,7 +28117,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="307" t="str">
@@ -28156,7 +28151,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="307" t="str">
@@ -28190,7 +28185,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="310"/>
@@ -28212,7 +28207,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="310"/>
@@ -28234,7 +28229,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="310"/>
@@ -28256,7 +28251,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="310"/>
@@ -28278,7 +28273,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="310"/>
@@ -28300,7 +28295,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="310"/>
@@ -28322,7 +28317,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="310"/>
@@ -28344,7 +28339,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="310"/>
@@ -28366,7 +28361,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="294"/>
@@ -28382,11 +28377,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="312" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E41" s="312"/>
       <c r="F41" s="294"/>
@@ -28400,7 +28395,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="313"/>
@@ -28416,7 +28411,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="294"/>
@@ -28432,11 +28427,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="294"/>
@@ -28450,7 +28445,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
@@ -28466,7 +28461,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
@@ -28476,21 +28471,21 @@
       <c r="H46" s="284"/>
       <c r="I46" s="283"/>
       <c r="J46" s="276" t="s">
+        <v>107</v>
+      </c>
+      <c r="K46" s="277" t="s">
         <v>108</v>
-      </c>
-      <c r="K46" s="277" t="s">
-        <v>109</v>
       </c>
       <c r="L46" s="278"/>
       <c r="Z46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
@@ -28510,11 +28505,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -28534,11 +28529,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -28558,11 +28553,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -28582,15 +28577,15 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="61"/>
-      <c r="G51" s="13"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="305" t="str">
@@ -28605,13 +28600,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
       <c r="F52" s="61"/>
-      <c r="G52" s="13"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -28620,11 +28615,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="144" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E53" s="144"/>
       <c r="F53" s="144"/>
@@ -28637,7 +28632,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="144"/>
@@ -28652,7 +28647,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="144"/>
@@ -28667,7 +28662,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="144"/>
@@ -28682,7 +28677,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="144"/>
@@ -28697,7 +28692,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C58" s="145"/>
       <c r="D58" s="146"/>
@@ -28713,47 +28708,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -29427,7 +29422,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -29465,10 +29460,10 @@
     </row>
     <row r="2" s="324" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="323" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" s="325" t="s">
         <v>533</v>
-      </c>
-      <c r="C2" s="325" t="s">
-        <v>534</v>
       </c>
       <c r="D2" s="325"/>
       <c r="E2" s="325"/>
@@ -29477,10 +29472,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="152" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C3" s="326" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="326"/>
       <c r="E3" s="326"/>
@@ -29489,7 +29484,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C4" s="145"/>
       <c r="D4" s="5"/>
@@ -29499,10 +29494,10 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="327" t="s">
         <v>537</v>
-      </c>
-      <c r="C5" s="327" t="s">
-        <v>538</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="169"/>
@@ -29511,7 +29506,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C6" s="328" t="str">
         <f aca="false">A2</f>
@@ -29524,7 +29519,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -29534,7 +29529,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -29544,7 +29539,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -29554,7 +29549,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -29564,7 +29559,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -29574,7 +29569,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -29584,7 +29579,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -29594,7 +29589,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -29604,7 +29599,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -29614,10 +29609,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
+        <v>548</v>
+      </c>
+      <c r="C16" s="329" t="s">
         <v>549</v>
-      </c>
-      <c r="C16" s="329" t="s">
-        <v>550</v>
       </c>
       <c r="D16" s="329"/>
       <c r="E16" s="329"/>
@@ -29626,7 +29621,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C17" s="330" t="n">
         <v>1</v>
@@ -29641,7 +29636,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C18" s="330" t="n">
         <v>2</v>
@@ -29656,7 +29651,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>3</v>
@@ -29671,43 +29666,43 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C20" s="332"/>
       <c r="D20" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E20" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E20" s="333" t="s">
+      <c r="F20" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F20" s="333" t="s">
+      <c r="G20" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G20" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C21" s="332"/>
       <c r="D21" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C22" s="330" t="n">
         <v>1</v>
@@ -29731,7 +29726,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C23" s="330" t="n">
         <v>2</v>
@@ -29755,7 +29750,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C24" s="330" t="n">
         <v>3</v>
@@ -29779,10 +29774,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
+        <v>563</v>
+      </c>
+      <c r="C25" s="336" t="s">
         <v>564</v>
-      </c>
-      <c r="C25" s="336" t="s">
-        <v>565</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="169"/>
@@ -29791,7 +29786,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C26" s="328" t="str">
         <f aca="false">A22</f>
@@ -29804,7 +29799,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -29814,7 +29809,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -29824,7 +29819,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -29834,7 +29829,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -29844,7 +29839,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -29854,7 +29849,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -29864,7 +29859,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -29874,7 +29869,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -29884,7 +29879,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -29894,10 +29889,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C36" s="329" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D36" s="329"/>
       <c r="E36" s="329"/>
@@ -29906,7 +29901,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C37" s="330" t="n">
         <v>1</v>
@@ -29921,7 +29916,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C38" s="330" t="n">
         <v>2</v>
@@ -29936,7 +29931,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>3</v>
@@ -29951,43 +29946,43 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C40" s="332"/>
       <c r="D40" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E40" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E40" s="333" t="s">
+      <c r="F40" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F40" s="333" t="s">
+      <c r="G40" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G40" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C41" s="332"/>
       <c r="D41" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C42" s="330" t="n">
         <v>1</v>
@@ -30011,7 +30006,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C43" s="330" t="n">
         <v>2</v>
@@ -30035,7 +30030,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C44" s="330" t="n">
         <v>3</v>
@@ -30059,10 +30054,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="336" t="s">
         <v>585</v>
-      </c>
-      <c r="C45" s="336" t="s">
-        <v>586</v>
       </c>
       <c r="D45" s="338"/>
       <c r="E45" s="30"/>
@@ -30071,7 +30066,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="152" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C46" s="328" t="str">
         <f aca="false">A42</f>
@@ -30084,7 +30079,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="152" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -30094,7 +30089,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="152" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -30104,7 +30099,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="152" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -30114,7 +30109,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="152" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -30124,7 +30119,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="152" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -30134,7 +30129,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="152" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -30144,7 +30139,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="152" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -30154,7 +30149,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="152" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -30164,7 +30159,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="152" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -30174,10 +30169,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="152" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C56" s="329" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D56" s="329"/>
       <c r="E56" s="329"/>
@@ -30186,7 +30181,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C57" s="330" t="n">
         <v>1</v>
@@ -30201,7 +30196,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="152" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C58" s="330" t="n">
         <v>2</v>
@@ -30216,7 +30211,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="152" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C59" s="330" t="n">
         <v>3</v>
@@ -30231,38 +30226,38 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="152" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C60" s="332"/>
       <c r="D60" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E60" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E60" s="333" t="s">
+      <c r="F60" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F60" s="333" t="s">
+      <c r="G60" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G60" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="152" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C61" s="332"/>
       <c r="D61" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30527,7 +30522,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -30565,10 +30560,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="322" t="s">
+        <v>602</v>
+      </c>
+      <c r="C2" s="327" t="s">
         <v>603</v>
-      </c>
-      <c r="C2" s="327" t="s">
-        <v>604</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="169"/>
@@ -30577,7 +30572,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -30590,7 +30585,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -30600,7 +30595,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -30610,7 +30605,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -30620,7 +30615,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -30630,7 +30625,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -30640,7 +30635,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -30650,7 +30645,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -30660,7 +30655,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -30670,7 +30665,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -30680,10 +30675,10 @@
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="152" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C13" s="340" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D13" s="340"/>
       <c r="E13" s="340"/>
@@ -30692,7 +30687,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="152" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C14" s="330" t="n">
         <v>1</v>
@@ -30707,7 +30702,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="152" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C15" s="330" t="n">
         <v>2</v>
@@ -30722,7 +30717,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C16" s="330" t="n">
         <v>3</v>
@@ -30737,43 +30732,43 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C17" s="332"/>
       <c r="D17" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E17" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E17" s="333" t="s">
+      <c r="F17" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F17" s="333" t="s">
+      <c r="G17" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G17" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C18" s="332"/>
       <c r="D18" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>1</v>
@@ -30797,7 +30792,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C20" s="330" t="n">
         <v>2</v>
@@ -30821,7 +30816,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C21" s="330" t="n">
         <v>3</v>
@@ -30845,10 +30840,10 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
+        <v>623</v>
+      </c>
+      <c r="C22" s="336" t="s">
         <v>624</v>
-      </c>
-      <c r="C22" s="336" t="s">
-        <v>625</v>
       </c>
       <c r="D22" s="338"/>
       <c r="E22" s="30"/>
@@ -30857,7 +30852,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C23" s="328" t="str">
         <f aca="false">A22</f>
@@ -30870,7 +30865,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -30880,7 +30875,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -30890,7 +30885,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -30900,7 +30895,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -30910,7 +30905,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -30920,7 +30915,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -30930,7 +30925,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -30940,7 +30935,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -30950,7 +30945,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -30960,10 +30955,10 @@
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C33" s="340" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D33" s="340"/>
       <c r="E33" s="340"/>
@@ -30972,7 +30967,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C34" s="330" t="n">
         <v>1</v>
@@ -30987,7 +30982,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C35" s="330" t="n">
         <v>2</v>
@@ -31002,7 +30997,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C36" s="330" t="n">
         <v>3</v>
@@ -31017,43 +31012,43 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C37" s="332"/>
       <c r="D37" s="333" t="s">
+        <v>554</v>
+      </c>
+      <c r="E37" s="333" t="s">
         <v>555</v>
       </c>
-      <c r="E37" s="333" t="s">
+      <c r="F37" s="333" t="s">
         <v>556</v>
       </c>
-      <c r="F37" s="333" t="s">
+      <c r="G37" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="G37" s="334" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C38" s="332"/>
       <c r="D38" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>1</v>
@@ -31077,7 +31072,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C40" s="330" t="n">
         <v>2</v>
@@ -31101,7 +31096,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C41" s="330" t="n">
         <v>3</v>
@@ -31125,10 +31120,10 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
+        <v>644</v>
+      </c>
+      <c r="C42" s="336" t="s">
         <v>645</v>
-      </c>
-      <c r="C42" s="336" t="s">
-        <v>646</v>
       </c>
       <c r="D42" s="338"/>
       <c r="E42" s="30"/>
@@ -31137,7 +31132,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C43" s="328" t="str">
         <f aca="false">A42</f>
@@ -31150,7 +31145,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -31160,7 +31155,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -31266,7 +31261,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="327" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="169"/>
@@ -31276,7 +31271,7 @@
     <row r="59" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="152"/>
       <c r="C59" s="153"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="157"/>
@@ -31284,7 +31279,7 @@
     <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="152"/>
       <c r="C60" s="303" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D60" s="303"/>
       <c r="E60" s="303"/>
@@ -31453,7 +31448,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -31491,10 +31486,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="152" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" s="343" t="s">
         <v>652</v>
-      </c>
-      <c r="C2" s="343" t="s">
-        <v>653</v>
       </c>
       <c r="D2" s="343"/>
       <c r="E2" s="343"/>
@@ -31505,7 +31500,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -31520,7 +31515,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -31532,7 +31527,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -31544,7 +31539,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -31556,7 +31551,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -31568,7 +31563,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -31580,7 +31575,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -31592,7 +31587,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -31604,7 +31599,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -31616,7 +31611,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -31628,7 +31623,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -31640,7 +31635,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -31652,7 +31647,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -31664,7 +31659,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="322" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C16" s="328"/>
       <c r="D16" s="328"/>
@@ -31676,7 +31671,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="322" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C17" s="328"/>
       <c r="D17" s="328"/>
@@ -31688,7 +31683,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="322" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C18" s="328"/>
       <c r="D18" s="328"/>
@@ -31700,7 +31695,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="322" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C19" s="328"/>
       <c r="D19" s="328"/>
@@ -31712,7 +31707,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="322" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C20" s="328"/>
       <c r="D20" s="328"/>
@@ -31724,7 +31719,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="322" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C21" s="328"/>
       <c r="D21" s="328"/>
@@ -31736,7 +31731,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="322" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C22" s="328"/>
       <c r="D22" s="328"/>
@@ -31748,7 +31743,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="322" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C23" s="328"/>
       <c r="D23" s="328"/>
@@ -31760,7 +31755,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="322" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -31772,7 +31767,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="322" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -31784,7 +31779,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="322" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -31796,7 +31791,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="322" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -31808,7 +31803,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="322" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -31820,7 +31815,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="322" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -31832,7 +31827,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="322" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -31844,7 +31839,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="322" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -31856,7 +31851,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="322" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -31868,7 +31863,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="322" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -31880,7 +31875,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="322" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -31892,7 +31887,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="322" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -31904,7 +31899,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="322" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C36" s="328"/>
       <c r="D36" s="328"/>
@@ -31916,7 +31911,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="322" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C37" s="328"/>
       <c r="D37" s="328"/>
@@ -31928,7 +31923,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="322" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C38" s="328"/>
       <c r="D38" s="328"/>
@@ -31940,7 +31935,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="322" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C39" s="328"/>
       <c r="D39" s="328"/>
@@ -31952,7 +31947,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="322" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C40" s="328"/>
       <c r="D40" s="328"/>
@@ -31964,7 +31959,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="322" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C41" s="328"/>
       <c r="D41" s="328"/>
@@ -31976,7 +31971,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="322" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C42" s="328"/>
       <c r="D42" s="328"/>
@@ -31988,7 +31983,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="322" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C43" s="328"/>
       <c r="D43" s="328"/>
@@ -32000,7 +31995,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="322" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -32012,7 +32007,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="322" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -32024,7 +32019,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="322" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C46" s="328"/>
       <c r="D46" s="328"/>
@@ -32036,7 +32031,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="322" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -32048,7 +32043,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="322" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -32060,7 +32055,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="322" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -32072,7 +32067,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="322" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -32084,7 +32079,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="322" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -32096,7 +32091,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="322" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -32108,7 +32103,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="322" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -32120,7 +32115,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="322" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -32132,7 +32127,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="322" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -32144,7 +32139,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="322" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C56" s="328"/>
       <c r="D56" s="328"/>
@@ -32156,7 +32151,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="322" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C57" s="328"/>
       <c r="D57" s="328"/>
@@ -32168,7 +32163,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="322" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C58" s="328"/>
       <c r="D58" s="328"/>
@@ -32180,7 +32175,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="322" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C59" s="328"/>
       <c r="D59" s="328"/>
@@ -32192,7 +32187,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="322" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C60" s="328"/>
       <c r="D60" s="328"/>
@@ -32204,7 +32199,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="322" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C61" s="328"/>
       <c r="D61" s="328"/>
@@ -32216,7 +32211,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="322" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C62" s="328"/>
       <c r="D62" s="328"/>
@@ -32228,7 +32223,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="322" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C63" s="328"/>
       <c r="D63" s="328"/>
@@ -32240,7 +32235,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="322" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C64" s="328"/>
       <c r="D64" s="328"/>
@@ -32252,7 +32247,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="322" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C65" s="328"/>
       <c r="D65" s="328"/>
@@ -32264,7 +32259,7 @@
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="322" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C66" s="145"/>
       <c r="D66" s="146"/>
@@ -32276,372 +32271,372 @@
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="322" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="322" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="322" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="322" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="322" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="322" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="322" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="322" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="322" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="322" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="322" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="322" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="322" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="322" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="322" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="322" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="322" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="322" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="322" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="322" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="322" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="322" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="322" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="322" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="322" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="322" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="322" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="322" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="322" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="322" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="322" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="322" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="322" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="322" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="322" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="322" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="322" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="322" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="322" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="322" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="322" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="322" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="322" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="322" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="322" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="322" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="322" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="322" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="322" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="322" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="322" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="322" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="322" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="322" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="322" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="322" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="322" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="322" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="322" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="322" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="322" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="322" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="322" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="322" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="322" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="322" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="322" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="322" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="322" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="322" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="322" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="322" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="322" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="322" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -32655,7 +32650,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-fi.xlsx
@@ -45,12 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="792">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:perustiedot :nimi]</t>
+    <t xml:space="preserve">[:perustiedot :nimi-fi]</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :katuosoite-fi]</t>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49547]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:perustiedot :nimi-sv]</t>
   </si>
   <si>
     <t xml:space="preserve">Rakennuksen laskennallinen kokonaisenergiankulutus (E-luku)</t>
@@ -8960,9 +8963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>242280</xdr:colOff>
+      <xdr:colOff>241920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8976,7 +8979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="752040" cy="208440"/>
+          <a:ext cx="751680" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8997,9 +9000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142200</xdr:colOff>
+      <xdr:colOff>141840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9013,7 +9016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1095120" cy="208440"/>
+          <a:ext cx="1094760" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9034,9 +9037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
+      <xdr:colOff>15120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9050,7 +9053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1402200" cy="208440"/>
+          <a:ext cx="1401840" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9071,9 +9074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>339480</xdr:colOff>
+      <xdr:colOff>339120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9087,7 +9090,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1726200" cy="208440"/>
+          <a:ext cx="1725840" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9108,9 +9111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>270000</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9124,7 +9127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2033280" cy="221400"/>
+          <a:ext cx="2032920" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9145,9 +9148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
+      <xdr:colOff>155520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9161,7 +9164,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2378160" cy="208440"/>
+          <a:ext cx="2377800" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9182,9 +9185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
+      <xdr:colOff>95760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9198,7 +9201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2691360" cy="208440"/>
+          <a:ext cx="2691000" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9598,9 +9601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
+      <xdr:colOff>312120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9610,7 +9613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6994440" cy="10057680"/>
+          <a:ext cx="6994080" cy="10057320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9696,9 +9699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>322920</xdr:colOff>
+      <xdr:colOff>322560</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9708,7 +9711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7011720" cy="261360"/>
+          <a:ext cx="7011360" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9727,7 +9730,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -9745,7 +9748,7 @@
             </a:rPr>
             <a:t>Energiatodistus perustuu lakiin rakennuksen energiatodistuksesta (50/2013). </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9762,9 +9765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428760</xdr:colOff>
+      <xdr:colOff>428400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9774,7 +9777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="790560" cy="262440"/>
+          <a:ext cx="790200" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9809,7 +9812,7 @@
             </a:rPr>
             <a:t>Uudisrakennusten</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9826,9 +9829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>427680</xdr:colOff>
+      <xdr:colOff>427320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>191520</xdr:rowOff>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9838,7 +9841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="790560" cy="262440"/>
+          <a:ext cx="790200" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9873,7 +9876,7 @@
             </a:rPr>
             <a:t>määräystaso 2012</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9892,7 +9895,7 @@
   <dimension ref="A1:AK262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10169,7 +10172,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="16" t="str">
         <f aca="false">A2</f>
-        <v>[:perustiedot :nimi]</v>
+        <v>[:perustiedot :nimi-fi]</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -10840,7 +10843,9 @@
       <c r="AK23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B24" s="4"/>
       <c r="C24" s="30"/>
       <c r="D24" s="40"/>
@@ -11141,7 +11146,7 @@
       <c r="C32" s="50"/>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
@@ -11191,7 +11196,7 @@
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N33" s="58"/>
       <c r="O33" s="58"/>
@@ -11327,7 +11332,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -11337,7 +11342,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="L37" s="63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M37" s="63"/>
       <c r="N37" s="63"/>
@@ -11554,7 +11559,7 @@
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="4"/>
       <c r="C43" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="69"/>
@@ -11662,7 +11667,7 @@
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C46" s="73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="74"/>
       <c r="E46" s="74"/>
@@ -11673,7 +11678,7 @@
       <c r="J46" s="74"/>
       <c r="K46" s="74"/>
       <c r="L46" s="75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M46" s="76"/>
       <c r="N46" s="76"/>
@@ -12188,7 +12193,7 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="87"/>
       <c r="C61" s="89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C61='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12229,7 +12234,7 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="87"/>
       <c r="C62" s="89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D62" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C62='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12270,7 +12275,7 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="87"/>
       <c r="C63" s="89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C63='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12311,7 +12316,7 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="87"/>
       <c r="C64" s="89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D64" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C64='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12352,7 +12357,7 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="87"/>
       <c r="C65" s="89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C65='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12393,7 +12398,7 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="87"/>
       <c r="C66" s="89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D66" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C66='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12434,7 +12439,7 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="87"/>
       <c r="C67" s="89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D67" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C67='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12547,7 +12552,7 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="87"/>
       <c r="C70" s="88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D70" s="85"/>
       <c r="E70" s="85"/>
@@ -12699,7 +12704,7 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="87"/>
       <c r="C74" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D74" s="85"/>
       <c r="E74" s="85"/>
@@ -12737,7 +12742,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="87"/>
       <c r="C75" s="85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75" s="85"/>
       <c r="E75" s="85"/>
@@ -12775,7 +12780,7 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="87"/>
       <c r="C76" s="85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="87"/>
@@ -12785,7 +12790,7 @@
       <c r="I76" s="87"/>
       <c r="J76" s="85"/>
       <c r="K76" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L76" s="85"/>
       <c r="M76" s="85"/>
@@ -12815,7 +12820,7 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="87"/>
       <c r="C77" s="85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" s="87"/>
       <c r="E77" s="87"/>
@@ -12825,7 +12830,7 @@
       <c r="I77" s="87"/>
       <c r="J77" s="85"/>
       <c r="K77" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L77" s="85"/>
       <c r="M77" s="85"/>
@@ -12855,7 +12860,7 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="87"/>
       <c r="C78" s="85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78" s="87"/>
       <c r="E78" s="87"/>
@@ -12865,7 +12870,7 @@
       <c r="I78" s="87"/>
       <c r="J78" s="85"/>
       <c r="K78" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L78" s="85"/>
       <c r="M78" s="85"/>
@@ -12895,7 +12900,7 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="87"/>
       <c r="C79" s="85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D79" s="87"/>
       <c r="E79" s="87"/>
@@ -12905,7 +12910,7 @@
       <c r="I79" s="87"/>
       <c r="J79" s="85"/>
       <c r="K79" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L79" s="85"/>
       <c r="M79" s="85"/>
@@ -12935,7 +12940,7 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="87"/>
       <c r="C80" s="85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D80" s="87"/>
       <c r="E80" s="87"/>
@@ -12945,7 +12950,7 @@
       <c r="I80" s="87"/>
       <c r="J80" s="85"/>
       <c r="K80" s="87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L80" s="85"/>
       <c r="M80" s="85"/>
@@ -12975,7 +12980,7 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="87"/>
       <c r="C81" s="85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D81" s="87"/>
       <c r="E81" s="87"/>
@@ -12985,7 +12990,7 @@
       <c r="I81" s="87"/>
       <c r="J81" s="85"/>
       <c r="K81" s="87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L81" s="85"/>
       <c r="M81" s="85"/>
@@ -13015,7 +13020,7 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="87"/>
       <c r="C82" s="85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D82" s="87"/>
       <c r="E82" s="87"/>
@@ -13025,7 +13030,7 @@
       <c r="I82" s="87"/>
       <c r="J82" s="85"/>
       <c r="K82" s="87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L82" s="85"/>
       <c r="M82" s="85"/>
@@ -13055,7 +13060,7 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="87"/>
       <c r="C83" s="85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D83" s="87"/>
       <c r="E83" s="87"/>
@@ -13065,7 +13070,7 @@
       <c r="I83" s="87"/>
       <c r="J83" s="85"/>
       <c r="K83" s="87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L83" s="85"/>
       <c r="M83" s="85"/>
@@ -13095,7 +13100,7 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="87"/>
       <c r="C84" s="85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D84" s="87"/>
       <c r="E84" s="87"/>
@@ -13105,7 +13110,7 @@
       <c r="I84" s="87"/>
       <c r="J84" s="85"/>
       <c r="K84" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L84" s="85"/>
       <c r="M84" s="85"/>
@@ -13135,7 +13140,7 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="87"/>
       <c r="C85" s="85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D85" s="87"/>
       <c r="E85" s="87"/>
@@ -13145,7 +13150,7 @@
       <c r="I85" s="87"/>
       <c r="J85" s="85"/>
       <c r="K85" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L85" s="85"/>
       <c r="M85" s="85"/>
@@ -13175,7 +13180,7 @@
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="87"/>
       <c r="C86" s="85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D86" s="87"/>
       <c r="E86" s="87"/>
@@ -13185,7 +13190,7 @@
       <c r="I86" s="87"/>
       <c r="J86" s="85"/>
       <c r="K86" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L86" s="85"/>
       <c r="M86" s="85"/>
@@ -13215,7 +13220,7 @@
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="87"/>
       <c r="C87" s="85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D87" s="87"/>
       <c r="E87" s="87"/>
@@ -13225,7 +13230,7 @@
       <c r="I87" s="87"/>
       <c r="J87" s="85"/>
       <c r="K87" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L87" s="85"/>
       <c r="M87" s="85"/>
@@ -13255,7 +13260,7 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="87"/>
       <c r="C88" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D88" s="87"/>
       <c r="E88" s="87"/>
@@ -13265,7 +13270,7 @@
       <c r="I88" s="87"/>
       <c r="J88" s="85"/>
       <c r="K88" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L88" s="85"/>
       <c r="M88" s="85"/>
@@ -13295,7 +13300,7 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="87"/>
       <c r="C89" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D89" s="87"/>
       <c r="E89" s="87"/>
@@ -13305,7 +13310,7 @@
       <c r="I89" s="87"/>
       <c r="J89" s="85"/>
       <c r="K89" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L89" s="85"/>
       <c r="M89" s="85"/>
@@ -13335,7 +13340,7 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="87"/>
       <c r="C90" s="85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D90" s="87"/>
       <c r="E90" s="87"/>
@@ -13345,7 +13350,7 @@
       <c r="I90" s="87"/>
       <c r="J90" s="85"/>
       <c r="K90" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -13375,7 +13380,7 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="87"/>
       <c r="C91" s="85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D91" s="87"/>
       <c r="E91" s="87"/>
@@ -13385,7 +13390,7 @@
       <c r="I91" s="87"/>
       <c r="J91" s="85"/>
       <c r="K91" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L91" s="85"/>
       <c r="M91" s="85"/>
@@ -13415,7 +13420,7 @@
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="87"/>
       <c r="C92" s="85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D92" s="87"/>
       <c r="E92" s="87"/>
@@ -13425,7 +13430,7 @@
       <c r="I92" s="87"/>
       <c r="J92" s="85"/>
       <c r="K92" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L92" s="85"/>
       <c r="M92" s="85"/>
@@ -13455,7 +13460,7 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="87"/>
       <c r="C93" s="85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D93" s="87"/>
       <c r="E93" s="87"/>
@@ -13465,7 +13470,7 @@
       <c r="I93" s="87"/>
       <c r="J93" s="85"/>
       <c r="K93" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L93" s="85"/>
       <c r="M93" s="85"/>
@@ -13495,7 +13500,7 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="87"/>
       <c r="C94" s="85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D94" s="87"/>
       <c r="E94" s="87"/>
@@ -13505,7 +13510,7 @@
       <c r="I94" s="87"/>
       <c r="J94" s="85"/>
       <c r="K94" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
@@ -13535,7 +13540,7 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="87"/>
       <c r="C95" s="85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D95" s="87"/>
       <c r="E95" s="87"/>
@@ -13545,7 +13550,7 @@
       <c r="I95" s="87"/>
       <c r="J95" s="85"/>
       <c r="K95" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L95" s="85"/>
       <c r="M95" s="85"/>
@@ -13575,7 +13580,7 @@
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="87"/>
       <c r="C96" s="85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D96" s="87"/>
       <c r="E96" s="87"/>
@@ -13585,7 +13590,7 @@
       <c r="I96" s="87"/>
       <c r="J96" s="85"/>
       <c r="K96" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L96" s="85"/>
       <c r="M96" s="85"/>
@@ -13615,7 +13620,7 @@
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="87"/>
       <c r="C97" s="85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D97" s="87"/>
       <c r="E97" s="87"/>
@@ -13625,7 +13630,7 @@
       <c r="I97" s="87"/>
       <c r="J97" s="85"/>
       <c r="K97" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L97" s="85"/>
       <c r="M97" s="85"/>
@@ -13655,7 +13660,7 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="87"/>
       <c r="C98" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D98" s="87"/>
       <c r="E98" s="87"/>
@@ -13665,7 +13670,7 @@
       <c r="I98" s="87"/>
       <c r="J98" s="85"/>
       <c r="K98" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L98" s="85"/>
       <c r="M98" s="85"/>
@@ -13695,7 +13700,7 @@
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="87"/>
       <c r="C99" s="85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D99" s="87"/>
       <c r="E99" s="87"/>
@@ -13705,7 +13710,7 @@
       <c r="I99" s="87"/>
       <c r="J99" s="85"/>
       <c r="K99" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L99" s="85"/>
       <c r="M99" s="85"/>
@@ -13735,7 +13740,7 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="87"/>
       <c r="C100" s="85" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D100" s="87"/>
       <c r="E100" s="87"/>
@@ -13745,7 +13750,7 @@
       <c r="I100" s="87"/>
       <c r="J100" s="85"/>
       <c r="K100" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L100" s="85"/>
       <c r="M100" s="85"/>
@@ -13775,7 +13780,7 @@
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="87"/>
       <c r="C101" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D101" s="87"/>
       <c r="E101" s="87"/>
@@ -13785,7 +13790,7 @@
       <c r="I101" s="87"/>
       <c r="J101" s="85"/>
       <c r="K101" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L101" s="85"/>
       <c r="M101" s="85"/>
@@ -13815,7 +13820,7 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="87"/>
       <c r="C102" s="85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D102" s="87"/>
       <c r="E102" s="87"/>
@@ -13825,7 +13830,7 @@
       <c r="I102" s="87"/>
       <c r="J102" s="85"/>
       <c r="K102" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L102" s="85"/>
       <c r="M102" s="85"/>
@@ -13855,7 +13860,7 @@
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="87"/>
       <c r="C103" s="85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D103" s="87"/>
       <c r="E103" s="87"/>
@@ -13865,7 +13870,7 @@
       <c r="I103" s="87"/>
       <c r="J103" s="85"/>
       <c r="K103" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L103" s="85"/>
       <c r="M103" s="85"/>
@@ -13895,7 +13900,7 @@
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="87"/>
       <c r="C104" s="85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D104" s="87"/>
       <c r="E104" s="87"/>
@@ -13905,7 +13910,7 @@
       <c r="I104" s="87"/>
       <c r="J104" s="85"/>
       <c r="K104" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L104" s="85"/>
       <c r="M104" s="85"/>
@@ -13935,7 +13940,7 @@
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="87"/>
       <c r="C105" s="85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D105" s="87"/>
       <c r="E105" s="87"/>
@@ -13945,7 +13950,7 @@
       <c r="I105" s="87"/>
       <c r="J105" s="85"/>
       <c r="K105" s="87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L105" s="85"/>
       <c r="M105" s="85"/>
@@ -13975,7 +13980,7 @@
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="87"/>
       <c r="C106" s="85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D106" s="87"/>
       <c r="E106" s="87"/>
@@ -13985,7 +13990,7 @@
       <c r="I106" s="87"/>
       <c r="J106" s="85"/>
       <c r="K106" s="87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -14015,7 +14020,7 @@
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="87"/>
       <c r="C107" s="85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D107" s="87"/>
       <c r="E107" s="87"/>
@@ -14025,7 +14030,7 @@
       <c r="I107" s="87"/>
       <c r="J107" s="85"/>
       <c r="K107" s="87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L107" s="85"/>
       <c r="M107" s="85"/>
@@ -14055,7 +14060,7 @@
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="87"/>
       <c r="C108" s="85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D108" s="87"/>
       <c r="E108" s="87"/>
@@ -14065,7 +14070,7 @@
       <c r="I108" s="87"/>
       <c r="J108" s="85"/>
       <c r="K108" s="87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L108" s="85"/>
       <c r="M108" s="85"/>
@@ -19689,7 +19694,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -19707,7 +19712,7 @@
   <dimension ref="A1:AC82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19737,11 +19742,11 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="92"/>
       <c r="F2" s="92"/>
@@ -19770,11 +19775,11 @@
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="93"/>
       <c r="D3" s="94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="94"/>
       <c r="F3" s="95"/>
@@ -19803,7 +19808,7 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="14"/>
@@ -19834,11 +19839,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="97"/>
       <c r="D5" s="61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -19870,11 +19875,11 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -19906,7 +19911,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="0"/>
@@ -19940,11 +19945,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -19976,23 +19981,23 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="91"/>
       <c r="D9" s="102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="102"/>
       <c r="F9" s="102"/>
       <c r="G9" s="103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" s="104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" s="104"/>
       <c r="M9" s="0"/>
@@ -20015,7 +20020,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="102"/>
@@ -20046,7 +20051,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="105"/>
       <c r="D11" s="102"/>
@@ -20077,23 +20082,23 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="107"/>
       <c r="E12" s="107"/>
       <c r="F12" s="107"/>
       <c r="G12" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H12" s="109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I12" s="110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J12" s="108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K12" s="108"/>
       <c r="M12" s="0"/>
@@ -20116,7 +20121,7 @@
     </row>
     <row r="13" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="14"/>
@@ -20147,11 +20152,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E14" s="113"/>
       <c r="F14" s="14"/>
@@ -20192,11 +20197,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" s="113"/>
       <c r="F15" s="14"/>
@@ -20237,11 +20242,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E16" s="113"/>
       <c r="F16" s="14"/>
@@ -20282,11 +20287,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" s="113"/>
       <c r="F17" s="14"/>
@@ -20327,11 +20332,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" s="113"/>
       <c r="F18" s="14"/>
@@ -20372,7 +20377,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="118" t="str">
@@ -20418,7 +20423,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="0"/>
@@ -20449,11 +20454,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="113" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E21" s="113"/>
       <c r="F21" s="119"/>
@@ -20488,7 +20493,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="113"/>
@@ -20519,11 +20524,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="106"/>
       <c r="D23" s="126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" s="126"/>
       <c r="F23" s="107"/>
@@ -20556,7 +20561,7 @@
     </row>
     <row r="24" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="130"/>
@@ -20587,11 +20592,11 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" s="94"/>
       <c r="F25" s="95"/>
@@ -20620,7 +20625,7 @@
     </row>
     <row r="26" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="14"/>
@@ -20651,11 +20656,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E27" s="61"/>
       <c r="F27" s="14"/>
@@ -20686,7 +20691,7 @@
     </row>
     <row r="28" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="61"/>
@@ -20716,11 +20721,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E29" s="61"/>
       <c r="F29" s="14"/>
@@ -20757,7 +20762,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="61"/>
@@ -20796,7 +20801,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="61"/>
@@ -20829,7 +20834,7 @@
     </row>
     <row r="32" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="61"/>
@@ -20859,11 +20864,11 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E33" s="61"/>
       <c r="F33" s="14"/>
@@ -20894,7 +20899,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="130"/>
@@ -20925,11 +20930,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E35" s="144"/>
       <c r="F35" s="144"/>
@@ -20989,7 +20994,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="144"/>
@@ -21020,7 +21025,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="144"/>
@@ -21051,7 +21056,7 @@
     </row>
     <row r="39" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" s="145"/>
       <c r="D39" s="146"/>
@@ -21083,7 +21088,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -21105,11 +21110,11 @@
     </row>
     <row r="41" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C41" s="149"/>
       <c r="D41" s="150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -21138,11 +21143,11 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="94" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="94"/>
       <c r="F42" s="95"/>
@@ -21171,11 +21176,11 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43" s="153"/>
       <c r="D43" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -21202,7 +21207,7 @@
     </row>
     <row r="44" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="14"/>
@@ -21233,7 +21238,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="156" t="str">
@@ -21267,7 +21272,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="156"/>
@@ -21298,7 +21303,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="156"/>
@@ -21329,7 +21334,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="156"/>
@@ -21977,7 +21982,7 @@
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C71" s="153"/>
       <c r="D71" s="144" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E71" s="144"/>
       <c r="F71" s="144"/>
@@ -22463,7 +22468,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -22480,7 +22485,7 @@
   <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22507,7 +22512,7 @@
       <c r="B2" s="161"/>
       <c r="C2" s="164"/>
       <c r="D2" s="165" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" s="165"/>
       <c r="F2" s="165"/>
@@ -22522,7 +22527,7 @@
       <c r="B3" s="85"/>
       <c r="C3" s="168"/>
       <c r="D3" s="94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="169"/>
       <c r="F3" s="169"/>
@@ -22544,11 +22549,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="160" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="174"/>
       <c r="D5" s="175" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="176" t="str">
         <f aca="false">A2</f>
@@ -22561,7 +22566,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="160" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="175"/>
@@ -22573,31 +22578,31 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="160" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="175" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E7" s="28" t="str">
         <f aca="false">A4</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="F7" s="175" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="178" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="H7" s="175" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I7" s="177"/>
     </row>
     <row r="8" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="160" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="179"/>
@@ -22609,12 +22614,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="160" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="168"/>
       <c r="D9" s="94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E9" s="169"/>
       <c r="F9" s="169"/>
@@ -22624,13 +22629,13 @@
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="160" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="174"/>
       <c r="D10" s="175"/>
       <c r="E10" s="180"/>
       <c r="F10" s="175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G10" s="172"/>
       <c r="H10" s="179"/>
@@ -22638,11 +22643,11 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="160" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" s="174"/>
       <c r="D11" s="175" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E11" s="181" t="str">
         <f aca="false">A6</f>
@@ -22655,7 +22660,7 @@
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="160" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" s="174"/>
       <c r="D12" s="179"/>
@@ -22667,47 +22672,47 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="160" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="172"/>
       <c r="E13" s="182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="182" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G13" s="182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H13" s="183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I13" s="177"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="160" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="172"/>
       <c r="E14" s="184" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F14" s="184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G14" s="184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H14" s="185" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I14" s="177"/>
     </row>
     <row r="15" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="160" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" s="174"/>
       <c r="D15" s="172"/>
@@ -22719,11 +22724,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="160" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174"/>
       <c r="D16" s="175" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" s="188" t="str">
         <f aca="false">A7</f>
@@ -22745,11 +22750,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="174"/>
       <c r="D17" s="175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="188" t="str">
         <f aca="false">A11</f>
@@ -22771,11 +22776,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="160" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="174"/>
       <c r="D18" s="175" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E18" s="188" t="str">
         <f aca="false">A15</f>
@@ -22797,11 +22802,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="160" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="174"/>
       <c r="D19" s="175" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E19" s="188" t="str">
         <f aca="false">A19</f>
@@ -22823,11 +22828,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="160" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="174"/>
       <c r="D20" s="175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E20" s="188" t="str">
         <f aca="false">A23</f>
@@ -22849,17 +22854,17 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="160" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="174"/>
       <c r="D21" s="175" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E21" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="188" t="str">
         <f aca="false">A27</f>
@@ -22873,7 +22878,7 @@
     </row>
     <row r="22" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="160" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="174"/>
       <c r="D22" s="179"/>
@@ -22885,12 +22890,12 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="160" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="85"/>
       <c r="C23" s="168"/>
       <c r="D23" s="94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E23" s="169"/>
       <c r="F23" s="169"/>
@@ -22900,7 +22905,7 @@
     </row>
     <row r="24" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="160" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" s="174"/>
       <c r="D24" s="179"/>
@@ -22912,18 +22917,18 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="160" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" s="174"/>
       <c r="D25" s="172"/>
       <c r="E25" s="182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" s="182" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="182" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H25" s="193"/>
       <c r="I25" s="177"/>
@@ -22931,25 +22936,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="160" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" s="174"/>
       <c r="D26" s="172"/>
       <c r="E26" s="184" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G26" s="184" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H26" s="193"/>
       <c r="I26" s="177"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="160" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C27" s="174"/>
       <c r="D27" s="172"/>
@@ -22961,11 +22966,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="160" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C28" s="174"/>
       <c r="D28" s="175" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E28" s="188" t="str">
         <f aca="false">A29</f>
@@ -22984,11 +22989,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="160" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="174"/>
       <c r="D29" s="175" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E29" s="188" t="str">
         <f aca="false">A32</f>
@@ -23007,11 +23012,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="160" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="174"/>
       <c r="D30" s="175" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E30" s="188" t="str">
         <f aca="false">A35</f>
@@ -23030,11 +23035,11 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="160" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C31" s="174"/>
       <c r="D31" s="175" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E31" s="188" t="str">
         <f aca="false">A38</f>
@@ -23053,11 +23058,11 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="160" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" s="174"/>
       <c r="D32" s="175" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E32" s="188" t="str">
         <f aca="false">A41</f>
@@ -23076,11 +23081,11 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="160" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C33" s="174"/>
       <c r="D33" s="175" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E33" s="188" t="str">
         <f aca="false">A44</f>
@@ -23099,11 +23104,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="160" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C34" s="174"/>
       <c r="D34" s="175" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E34" s="188" t="str">
         <f aca="false">A47</f>
@@ -23122,11 +23127,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="160" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="175" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E35" s="188" t="str">
         <f aca="false">A50</f>
@@ -23145,26 +23150,26 @@
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="160" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="179"/>
       <c r="E36" s="179"/>
       <c r="F36" s="179"/>
       <c r="G36" s="194" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H36" s="179"/>
       <c r="I36" s="177"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="160" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="168"/>
       <c r="D37" s="94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E37" s="169"/>
       <c r="F37" s="169"/>
@@ -23175,7 +23180,7 @@
     </row>
     <row r="38" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="174"/>
       <c r="D38" s="179"/>
@@ -23187,11 +23192,11 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C39" s="174"/>
       <c r="D39" s="175" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E39" s="196" t="str">
         <f aca="false">A53</f>
@@ -23205,7 +23210,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="160" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C40" s="174"/>
       <c r="D40" s="179"/>
@@ -23217,39 +23222,39 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="160" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C41" s="174"/>
       <c r="D41" s="172"/>
       <c r="E41" s="182" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F41" s="182" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G41" s="182" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H41" s="197" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I41" s="177"/>
       <c r="K41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="160" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C42" s="174"/>
       <c r="D42" s="172"/>
       <c r="E42" s="182" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F42" s="182" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G42" s="182" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H42" s="197"/>
       <c r="I42" s="177"/>
@@ -23257,27 +23262,27 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="160" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C43" s="174"/>
       <c r="D43" s="172"/>
       <c r="E43" s="184" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F43" s="184" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G43" s="184" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H43" s="198" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I43" s="177"/>
     </row>
     <row r="44" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="160" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C44" s="174"/>
       <c r="D44" s="172"/>
@@ -23289,11 +23294,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C45" s="174"/>
       <c r="D45" s="175" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E45" s="189" t="str">
         <f aca="false">A55</f>
@@ -23315,11 +23320,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C46" s="174"/>
       <c r="D46" s="175" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E46" s="189" t="str">
         <f aca="false">A59</f>
@@ -23330,20 +23335,20 @@
         <v>[:lahtotiedot :ilmanvaihto :erillispoistot :sfp]</v>
       </c>
       <c r="G46" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H46" s="200" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I46" s="177"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="160" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="175" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E47" s="189" t="str">
         <f aca="false">A61</f>
@@ -23354,16 +23359,16 @@
         <v>[:lahtotiedot :ilmanvaihto :ivjarjestelma :sfp]</v>
       </c>
       <c r="G47" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H47" s="201" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I47" s="177"/>
     </row>
     <row r="48" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="160" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C48" s="174"/>
       <c r="D48" s="202"/>
@@ -23375,11 +23380,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="205" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C49" s="174"/>
       <c r="D49" s="175" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="206" t="str">
@@ -23390,7 +23395,7 @@
     </row>
     <row r="50" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="160" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C50" s="174"/>
       <c r="D50" s="175"/>
@@ -23402,12 +23407,12 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="160" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B51" s="85"/>
       <c r="C51" s="168"/>
       <c r="D51" s="94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" s="169"/>
       <c r="F51" s="169"/>
@@ -23417,7 +23422,7 @@
     </row>
     <row r="52" customFormat="false" ht="9.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="160" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C52" s="174"/>
       <c r="D52" s="179"/>
@@ -23429,11 +23434,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="160" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53" s="174"/>
       <c r="D53" s="175" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E53" s="196" t="str">
         <f aca="false">A64</f>
@@ -23446,7 +23451,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="160" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C54" s="174"/>
       <c r="D54" s="179"/>
@@ -23461,65 +23466,65 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="160" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C55" s="174"/>
       <c r="D55" s="209"/>
       <c r="E55" s="182" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F55" s="210" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G55" s="182" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H55" s="197" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I55" s="177"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C56" s="174"/>
       <c r="D56" s="172"/>
       <c r="E56" s="182" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F56" s="210" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G56" s="182"/>
       <c r="H56" s="197" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I56" s="177"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C57" s="174"/>
       <c r="D57" s="172"/>
       <c r="E57" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" s="185" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" s="182" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57" s="182" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" s="185" t="s">
-        <v>108</v>
       </c>
       <c r="I57" s="177"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C58" s="174"/>
       <c r="D58" s="172"/>
@@ -23531,11 +23536,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C59" s="174"/>
       <c r="D59" s="175" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E59" s="199" t="str">
         <f aca="false">A68</f>
@@ -23558,11 +23563,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="160" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C60" s="174"/>
       <c r="D60" s="175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E60" s="199" t="str">
         <f aca="false">A72</f>
@@ -23584,7 +23589,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C61" s="174"/>
       <c r="D61" s="175"/>
@@ -23596,11 +23601,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="160" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="174"/>
       <c r="D62" s="213" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E62" s="175"/>
       <c r="F62" s="175"/>
@@ -23610,11 +23615,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="160" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C63" s="174"/>
       <c r="D63" s="213" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E63" s="175"/>
       <c r="F63" s="175"/>
@@ -23624,7 +23629,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="160" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="175"/>
@@ -23636,15 +23641,15 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="160" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="174"/>
       <c r="D65" s="172"/>
       <c r="E65" s="197" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F65" s="182" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G65" s="182"/>
       <c r="H65" s="179"/>
@@ -23652,15 +23657,15 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="160" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="172"/>
       <c r="E66" s="185" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F66" s="184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G66" s="182"/>
       <c r="H66" s="179"/>
@@ -23668,7 +23673,7 @@
     </row>
     <row r="67" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="160" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="172"/>
@@ -23680,11 +23685,11 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="175" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E68" s="214" t="str">
         <f aca="false">A76</f>
@@ -23700,11 +23705,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E69" s="214" t="str">
         <f aca="false">A78</f>
@@ -23720,7 +23725,7 @@
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="179"/>
@@ -23732,12 +23737,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="168"/>
       <c r="D71" s="94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -23747,7 +23752,7 @@
     </row>
     <row r="72" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="179"/>
@@ -23759,12 +23764,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="172"/>
       <c r="E73" s="215" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F73" s="216"/>
       <c r="G73" s="216"/>
@@ -23773,12 +23778,12 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="172"/>
       <c r="E74" s="185" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F74" s="217"/>
       <c r="G74" s="216"/>
@@ -23787,7 +23792,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C75" s="174"/>
       <c r="D75" s="172"/>
@@ -23799,11 +23804,11 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="175" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E76" s="188" t="str">
         <f aca="false">A80</f>
@@ -23817,7 +23822,7 @@
     </row>
     <row r="77" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="179"/>
@@ -23829,12 +23834,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="168"/>
       <c r="D78" s="94" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E78" s="169"/>
       <c r="F78" s="169"/>
@@ -23844,7 +23849,7 @@
     </row>
     <row r="79" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C79" s="174"/>
       <c r="D79" s="179"/>
@@ -23856,15 +23861,15 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C80" s="174"/>
       <c r="D80" s="179"/>
       <c r="E80" s="182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F80" s="218" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G80" s="179"/>
       <c r="H80" s="179"/>
@@ -23872,15 +23877,15 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C81" s="174"/>
       <c r="D81" s="172"/>
       <c r="E81" s="184" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F81" s="185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G81" s="179"/>
       <c r="H81" s="179"/>
@@ -23889,7 +23894,7 @@
     </row>
     <row r="82" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C82" s="174"/>
       <c r="D82" s="172"/>
@@ -23901,11 +23906,11 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C83" s="174"/>
       <c r="D83" s="175" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E83" s="214" t="str">
         <f aca="false">A81</f>
@@ -23921,7 +23926,7 @@
     </row>
     <row r="84" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C84" s="174"/>
       <c r="D84" s="179"/>
@@ -23933,12 +23938,12 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="168"/>
       <c r="D85" s="94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E85" s="169"/>
       <c r="F85" s="169"/>
@@ -23948,7 +23953,7 @@
     </row>
     <row r="86" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C86" s="174"/>
       <c r="D86" s="179"/>
@@ -23960,47 +23965,47 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C87" s="174"/>
       <c r="D87" s="172"/>
       <c r="E87" s="197" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F87" s="182" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G87" s="182" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H87" s="197" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I87" s="177"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C88" s="174"/>
       <c r="D88" s="172"/>
       <c r="E88" s="185" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F88" s="184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G88" s="184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H88" s="185" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I88" s="177"/>
     </row>
     <row r="89" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C89" s="174"/>
       <c r="D89" s="172"/>
@@ -24012,7 +24017,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C90" s="174"/>
       <c r="D90" s="219"/>
@@ -24036,7 +24041,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C91" s="174"/>
       <c r="D91" s="219"/>
@@ -24060,7 +24065,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C92" s="174"/>
       <c r="D92" s="219"/>
@@ -24084,7 +24089,7 @@
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="160" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C93" s="220"/>
       <c r="D93" s="221"/>
@@ -24096,7 +24101,7 @@
     </row>
     <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="160" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -24875,7 +24880,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -24892,7 +24897,7 @@
   <dimension ref="A1:T113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24919,7 +24924,7 @@
       </c>
       <c r="C2" s="225"/>
       <c r="D2" s="165" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E2" s="226"/>
       <c r="F2" s="165"/>
@@ -24934,7 +24939,7 @@
       </c>
       <c r="C3" s="168"/>
       <c r="D3" s="94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="169"/>
       <c r="F3" s="169"/>
@@ -24958,11 +24963,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="160" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="174"/>
       <c r="D5" s="231" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="232" t="str">
         <f aca="false">A2</f>
@@ -24989,7 +24994,7 @@
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="160" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="231"/>
@@ -25002,11 +25007,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="160" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="234" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E8" s="28" t="str">
         <f aca="false">A4</f>
@@ -25029,11 +25034,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="160" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C9" s="174"/>
       <c r="D9" s="234" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
@@ -25056,11 +25061,11 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="160" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="174"/>
       <c r="D10" s="238" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E10" s="239" t="str">
         <f aca="false">A6</f>
@@ -25083,7 +25088,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="160" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="174"/>
       <c r="D11" s="179"/>
@@ -25105,11 +25110,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="160" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="168"/>
       <c r="D12" s="94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E12" s="169"/>
       <c r="F12" s="169"/>
@@ -25129,7 +25134,7 @@
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="160" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="179"/>
@@ -25151,20 +25156,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="160" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="240" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E14" s="182" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F14" s="182" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G14" s="197" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H14" s="197"/>
       <c r="I14" s="182"/>
@@ -25181,18 +25186,18 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="160" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="174"/>
       <c r="D15" s="173"/>
       <c r="E15" s="182" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F15" s="182" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G15" s="197" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H15" s="197"/>
       <c r="I15" s="184"/>
@@ -25209,21 +25214,21 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="160" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="241"/>
       <c r="D16" s="242"/>
       <c r="E16" s="243" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="243" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="243" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H16" s="244" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" s="182"/>
       <c r="J16" s="230"/>
@@ -25239,7 +25244,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="160" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C17" s="174"/>
       <c r="D17" s="172"/>
@@ -25261,11 +25266,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="160" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="174"/>
       <c r="D18" s="245" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="214" t="str">
         <f aca="false">A7</f>
@@ -25297,11 +25302,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="160" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" s="174"/>
       <c r="D19" s="245" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="214" t="str">
         <f aca="false">A11</f>
@@ -25333,11 +25338,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="160" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" s="174"/>
       <c r="D20" s="248" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" s="214" t="str">
         <f aca="false">A23</f>
@@ -25369,11 +25374,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="160" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C21" s="174"/>
       <c r="D21" s="250" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E21" s="214" t="str">
         <f aca="false">A15</f>
@@ -25405,11 +25410,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="160" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" s="174"/>
       <c r="D22" s="250" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" s="214" t="str">
         <f aca="false">A19</f>
@@ -25441,7 +25446,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="160" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" s="174"/>
       <c r="D23" s="248" t="str">
@@ -25478,7 +25483,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="160" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="174"/>
       <c r="D24" s="248" t="str">
@@ -25515,7 +25520,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="160" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C25" s="174"/>
       <c r="D25" s="251" t="str">
@@ -25552,11 +25557,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="160" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="174"/>
       <c r="D26" s="252" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E26" s="253" t="str">
         <f aca="false">A42</f>
@@ -25585,7 +25590,7 @@
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="160" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="174"/>
       <c r="D27" s="179"/>
@@ -25607,11 +25612,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="160" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C28" s="168"/>
       <c r="D28" s="94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E28" s="169"/>
       <c r="F28" s="169"/>
@@ -25632,7 +25637,7 @@
     </row>
     <row r="29" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="160" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="174"/>
       <c r="D29" s="179"/>
@@ -25654,15 +25659,15 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="160" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C30" s="174"/>
       <c r="D30" s="172"/>
       <c r="F30" s="184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G30" s="184" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" s="179"/>
       <c r="I30" s="182"/>
@@ -25679,7 +25684,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="160" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31" s="174"/>
       <c r="D31" s="255" t="str">
@@ -25710,7 +25715,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="160" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C32" s="174"/>
       <c r="D32" s="255" t="str">
@@ -25741,7 +25746,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="160" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C33" s="174"/>
       <c r="D33" s="255" t="str">
@@ -25772,7 +25777,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="160" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C34" s="174"/>
       <c r="D34" s="255" t="str">
@@ -25803,7 +25808,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="160" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="255" t="str">
@@ -25834,7 +25839,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="160" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C36" s="174"/>
       <c r="D36" s="255" t="str">
@@ -25865,7 +25870,7 @@
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="160" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="174"/>
       <c r="D37" s="179"/>
@@ -25887,11 +25892,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="160" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="168"/>
       <c r="D38" s="94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E38" s="169"/>
       <c r="F38" s="169"/>
@@ -25911,7 +25916,7 @@
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="160" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="174"/>
       <c r="D39" s="179"/>
@@ -25933,19 +25938,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="160" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C40" s="174"/>
       <c r="D40" s="172"/>
       <c r="E40" s="172"/>
       <c r="F40" s="197" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G40" s="182" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H40" s="182" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I40" s="182"/>
       <c r="J40" s="230"/>
@@ -25961,19 +25966,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="160" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C41" s="174"/>
       <c r="D41" s="172"/>
       <c r="E41" s="172"/>
       <c r="F41" s="185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H41" s="185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I41" s="184"/>
       <c r="J41" s="229"/>
@@ -25989,7 +25994,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="160" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C42" s="174"/>
       <c r="D42" s="172"/>
@@ -26011,11 +26016,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="174"/>
       <c r="D43" s="175" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E43" s="175"/>
       <c r="F43" s="0"/>
@@ -26039,7 +26044,7 @@
       </c>
       <c r="C44" s="174"/>
       <c r="D44" s="175" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E44" s="175"/>
       <c r="F44" s="246" t="str">
@@ -26051,7 +26056,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tilojen-lammitys :lampo]</v>
       </c>
       <c r="H44" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I44" s="182"/>
       <c r="J44" s="230"/>
@@ -26067,11 +26072,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="160" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C45" s="174"/>
       <c r="D45" s="175" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E45" s="175"/>
       <c r="F45" s="188" t="str">
@@ -26083,7 +26088,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tuloilman-lammitys :lampo]</v>
       </c>
       <c r="H45" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I45" s="184"/>
       <c r="J45" s="229"/>
@@ -26099,11 +26104,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="160" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="174"/>
       <c r="D46" s="175" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E46" s="175"/>
       <c r="F46" s="188" t="str">
@@ -26115,7 +26120,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :kayttoveden-valmistus :lampo]</v>
       </c>
       <c r="H46" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I46" s="182"/>
       <c r="J46" s="230"/>
@@ -26131,11 +26136,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="160" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="175" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E47" s="175"/>
       <c r="F47" s="188" t="str">
@@ -26143,10 +26148,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :iv-sahko]</v>
       </c>
       <c r="G47" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H47" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I47" s="182"/>
       <c r="J47" s="229"/>
@@ -26162,11 +26167,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="160" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C48" s="174"/>
       <c r="D48" s="175" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E48" s="175"/>
       <c r="F48" s="188" t="str">
@@ -26195,11 +26200,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="160" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C49" s="174"/>
       <c r="D49" s="175" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E49" s="175"/>
       <c r="F49" s="188" t="str">
@@ -26207,10 +26212,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :kuluttajalaitteet-ja-valaistus-sahko]</v>
       </c>
       <c r="G49" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H49" s="260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I49" s="184"/>
       <c r="J49" s="229"/>
@@ -26226,11 +26231,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="160" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C50" s="174"/>
       <c r="D50" s="252" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E50" s="252"/>
       <c r="F50" s="261" t="str">
@@ -26259,11 +26264,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="160" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C51" s="174"/>
       <c r="D51" s="262" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E51" s="252"/>
       <c r="F51" s="217"/>
@@ -26283,7 +26288,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="160" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C52" s="174"/>
       <c r="D52" s="179"/>
@@ -26305,11 +26310,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="160" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C53" s="168"/>
       <c r="D53" s="94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E53" s="169"/>
       <c r="F53" s="169"/>
@@ -26320,7 +26325,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="160" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C54" s="174"/>
       <c r="D54" s="179"/>
@@ -26333,15 +26338,15 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="160" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C55" s="174"/>
       <c r="D55" s="172"/>
       <c r="F55" s="184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G55" s="184" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H55" s="184"/>
       <c r="I55" s="182"/>
@@ -26349,7 +26354,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="160" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" s="174"/>
       <c r="D56" s="172"/>
@@ -26361,11 +26366,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="160" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C57" s="174"/>
       <c r="D57" s="175" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E57" s="175"/>
       <c r="F57" s="214" t="str">
@@ -26382,11 +26387,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="160" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C58" s="174"/>
       <c r="D58" s="175" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E58" s="175"/>
       <c r="F58" s="214" t="str">
@@ -26403,11 +26408,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="160" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C59" s="174"/>
       <c r="D59" s="175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E59" s="175"/>
       <c r="F59" s="214" t="str">
@@ -26424,11 +26429,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="160" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C60" s="174"/>
       <c r="D60" s="175" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E60" s="175"/>
       <c r="F60" s="214" t="str">
@@ -26445,7 +26450,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="160" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C61" s="174"/>
       <c r="D61" s="175"/>
@@ -26458,11 +26463,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="160" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C62" s="174"/>
       <c r="D62" s="213" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E62" s="213"/>
       <c r="F62" s="213"/>
@@ -26473,11 +26478,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="160" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C63" s="174"/>
       <c r="D63" s="213" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E63" s="213"/>
       <c r="F63" s="213"/>
@@ -26488,7 +26493,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="160" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="175"/>
@@ -26501,11 +26506,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="160" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C65" s="168"/>
       <c r="D65" s="94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E65" s="169"/>
       <c r="F65" s="169"/>
@@ -26516,7 +26521,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="179"/>
@@ -26529,15 +26534,15 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="160" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="172"/>
       <c r="F67" s="184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G67" s="184" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H67" s="182"/>
       <c r="I67" s="182"/>
@@ -26545,7 +26550,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="160" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="172"/>
@@ -26557,11 +26562,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="160" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C69" s="174"/>
       <c r="D69" s="175" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E69" s="175"/>
       <c r="F69" s="214" t="str">
@@ -26578,11 +26583,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="160" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C70" s="174"/>
       <c r="D70" s="175" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E70" s="175"/>
       <c r="F70" s="214" t="str">
@@ -26599,11 +26604,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="160" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C71" s="174"/>
       <c r="D71" s="175" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E71" s="175"/>
       <c r="F71" s="214" t="str">
@@ -26620,11 +26625,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="160" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C72" s="174"/>
       <c r="D72" s="175" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E72" s="175"/>
       <c r="F72" s="214" t="str">
@@ -26641,11 +26646,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="160" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C73" s="174"/>
       <c r="D73" s="175" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E73" s="175"/>
       <c r="F73" s="214" t="str">
@@ -26662,7 +26667,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="160" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C74" s="174"/>
       <c r="D74" s="175"/>
@@ -26675,11 +26680,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="160" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C75" s="168"/>
       <c r="D75" s="94" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E75" s="169"/>
       <c r="F75" s="169"/>
@@ -26690,7 +26695,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="160" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C76" s="174"/>
       <c r="D76" s="179"/>
@@ -26703,11 +26708,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="160" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C77" s="174"/>
       <c r="D77" s="175" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E77" s="175"/>
       <c r="F77" s="263" t="str">
@@ -26721,7 +26726,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="160" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C78" s="220"/>
       <c r="D78" s="221"/>
@@ -26734,177 +26739,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="160" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="160" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="160" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="160" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="160" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="160" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="160" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="160" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="160" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="160" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="160" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="160" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="160" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="160" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="160" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="160" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="160" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="160" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="160" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="160" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="160" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="160" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="160" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="160" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="160" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="160" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="160" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="160" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="160" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="160" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="160" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="160" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="160" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="160" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -27462,7 +27467,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -27479,7 +27484,7 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27503,11 +27508,11 @@
     </row>
     <row r="2" s="265" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="264" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" s="266"/>
       <c r="D2" s="267" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E2" s="267"/>
       <c r="F2" s="267"/>
@@ -27520,11 +27525,11 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="270"/>
@@ -27537,7 +27542,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="14"/>
@@ -27552,11 +27557,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
@@ -27569,7 +27574,7 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="14"/>
@@ -27584,18 +27589,18 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="29" t="str">
         <f aca="false">A2</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="F7" s="271" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H7" s="272"/>
       <c r="K7" s="14"/>
@@ -27604,7 +27609,7 @@
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="14"/>
@@ -27618,7 +27623,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="14"/>
@@ -27633,11 +27638,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="14"/>
@@ -27645,16 +27650,16 @@
       <c r="H10" s="274"/>
       <c r="I10" s="275"/>
       <c r="J10" s="276" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10" s="277" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" s="278"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="14"/>
@@ -27669,11 +27674,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="282" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E12" s="282"/>
       <c r="F12" s="282"/>
@@ -27693,11 +27698,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="282" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E13" s="282"/>
       <c r="F13" s="282"/>
@@ -27717,11 +27722,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="274" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E14" s="274"/>
       <c r="F14" s="282"/>
@@ -27741,11 +27746,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="274" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E15" s="274"/>
       <c r="F15" s="282"/>
@@ -27765,11 +27770,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="282" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E16" s="282"/>
       <c r="F16" s="282"/>
@@ -27789,7 +27794,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="289" t="str">
@@ -27814,7 +27819,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="289" t="str">
@@ -27839,7 +27844,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="289" t="str">
@@ -27864,7 +27869,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="289" t="str">
@@ -27889,7 +27894,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="289" t="str">
@@ -27914,7 +27919,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="290"/>
@@ -27933,7 +27938,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="294"/>
@@ -27949,35 +27954,35 @@
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="297" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E24" s="297"/>
       <c r="F24" s="297"/>
       <c r="G24" s="298" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H24" s="299" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I24" s="298" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J24" s="299" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K24" s="300" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L24" s="301"/>
       <c r="Z24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
@@ -27993,11 +27998,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="282" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E26" s="282"/>
       <c r="F26" s="282"/>
@@ -28006,7 +28011,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="H26" s="303" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I26" s="276" t="n">
         <v>10</v>
@@ -28024,11 +28029,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="282" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E27" s="282"/>
       <c r="F27" s="282"/>
@@ -28037,7 +28042,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="H27" s="303" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I27" s="276" t="n">
         <v>1300</v>
@@ -28055,11 +28060,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="282" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E28" s="282"/>
       <c r="F28" s="282"/>
@@ -28068,7 +28073,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="H28" s="303" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I28" s="276" t="n">
         <v>1700</v>
@@ -28086,11 +28091,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="282" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E29" s="282"/>
       <c r="F29" s="282"/>
@@ -28099,7 +28104,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="H29" s="303" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I29" s="276" t="n">
         <v>4.7</v>
@@ -28117,7 +28122,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="307" t="str">
@@ -28151,7 +28156,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="307" t="str">
@@ -28185,7 +28190,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="310"/>
@@ -28207,7 +28212,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="310"/>
@@ -28229,7 +28234,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="310"/>
@@ -28251,7 +28256,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="310"/>
@@ -28273,7 +28278,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="310"/>
@@ -28295,7 +28300,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="310"/>
@@ -28317,7 +28322,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="310"/>
@@ -28339,7 +28344,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="310"/>
@@ -28361,7 +28366,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="294"/>
@@ -28377,11 +28382,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="312" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E41" s="312"/>
       <c r="F41" s="294"/>
@@ -28395,7 +28400,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="313"/>
@@ -28411,7 +28416,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="294"/>
@@ -28427,11 +28432,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="294"/>
@@ -28445,7 +28450,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
@@ -28461,7 +28466,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
@@ -28471,21 +28476,21 @@
       <c r="H46" s="284"/>
       <c r="I46" s="283"/>
       <c r="J46" s="276" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K46" s="277" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L46" s="278"/>
       <c r="Z46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
@@ -28505,11 +28510,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -28529,11 +28534,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -28553,11 +28558,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -28577,11 +28582,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="61"/>
@@ -28600,7 +28605,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
@@ -28615,11 +28620,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="144" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E53" s="144"/>
       <c r="F53" s="144"/>
@@ -28632,7 +28637,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="144"/>
@@ -28647,7 +28652,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="144"/>
@@ -28662,7 +28667,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="144"/>
@@ -28677,7 +28682,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="144"/>
@@ -28692,7 +28697,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C58" s="145"/>
       <c r="D58" s="146"/>
@@ -28708,47 +28713,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -29422,7 +29427,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -29439,7 +29444,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29460,10 +29465,10 @@
     </row>
     <row r="2" s="324" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="323" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C2" s="325" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D2" s="325"/>
       <c r="E2" s="325"/>
@@ -29472,10 +29477,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="152" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C3" s="326" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="326"/>
       <c r="E3" s="326"/>
@@ -29484,7 +29489,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C4" s="145"/>
       <c r="D4" s="5"/>
@@ -29494,10 +29499,10 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C5" s="327" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="169"/>
@@ -29506,7 +29511,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C6" s="328" t="str">
         <f aca="false">A2</f>
@@ -29519,7 +29524,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -29529,7 +29534,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -29539,7 +29544,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -29549,7 +29554,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -29559,7 +29564,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -29569,7 +29574,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -29579,7 +29584,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -29589,7 +29594,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -29599,7 +29604,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -29609,10 +29614,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C16" s="329" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D16" s="329"/>
       <c r="E16" s="329"/>
@@ -29621,7 +29626,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C17" s="330" t="n">
         <v>1</v>
@@ -29636,7 +29641,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C18" s="330" t="n">
         <v>2</v>
@@ -29651,7 +29656,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>3</v>
@@ -29666,43 +29671,43 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C20" s="332"/>
       <c r="D20" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E20" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F20" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G20" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C21" s="332"/>
       <c r="D21" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C22" s="330" t="n">
         <v>1</v>
@@ -29726,7 +29731,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C23" s="330" t="n">
         <v>2</v>
@@ -29750,7 +29755,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C24" s="330" t="n">
         <v>3</v>
@@ -29774,10 +29779,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C25" s="336" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="169"/>
@@ -29786,7 +29791,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C26" s="328" t="str">
         <f aca="false">A22</f>
@@ -29799,7 +29804,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -29809,7 +29814,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -29819,7 +29824,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -29829,7 +29834,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -29839,7 +29844,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -29849,7 +29854,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -29859,7 +29864,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -29869,7 +29874,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -29879,7 +29884,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -29889,10 +29894,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C36" s="329" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D36" s="329"/>
       <c r="E36" s="329"/>
@@ -29901,7 +29906,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C37" s="330" t="n">
         <v>1</v>
@@ -29916,7 +29921,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C38" s="330" t="n">
         <v>2</v>
@@ -29931,7 +29936,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>3</v>
@@ -29946,43 +29951,43 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C40" s="332"/>
       <c r="D40" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E40" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F40" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G40" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C41" s="332"/>
       <c r="D41" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C42" s="330" t="n">
         <v>1</v>
@@ -30006,7 +30011,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C43" s="330" t="n">
         <v>2</v>
@@ -30030,7 +30035,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C44" s="330" t="n">
         <v>3</v>
@@ -30054,10 +30059,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C45" s="336" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D45" s="338"/>
       <c r="E45" s="30"/>
@@ -30066,7 +30071,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="152" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C46" s="328" t="str">
         <f aca="false">A42</f>
@@ -30079,7 +30084,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="152" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -30089,7 +30094,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="152" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -30099,7 +30104,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="152" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -30109,7 +30114,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="152" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -30119,7 +30124,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="152" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -30129,7 +30134,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="152" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -30139,7 +30144,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="152" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -30149,7 +30154,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="152" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -30159,7 +30164,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="152" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -30169,10 +30174,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="152" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C56" s="329" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D56" s="329"/>
       <c r="E56" s="329"/>
@@ -30181,7 +30186,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="152" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C57" s="330" t="n">
         <v>1</v>
@@ -30196,7 +30201,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="152" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C58" s="330" t="n">
         <v>2</v>
@@ -30211,7 +30216,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="152" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C59" s="330" t="n">
         <v>3</v>
@@ -30226,38 +30231,38 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="152" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C60" s="332"/>
       <c r="D60" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E60" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F60" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G60" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="152" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C61" s="332"/>
       <c r="D61" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E61" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30522,7 +30527,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -30539,7 +30544,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30560,10 +30565,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="322" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C2" s="327" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="169"/>
@@ -30572,7 +30577,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -30585,7 +30590,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -30595,7 +30600,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -30605,7 +30610,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -30615,7 +30620,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -30625,7 +30630,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -30635,7 +30640,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -30645,7 +30650,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -30655,7 +30660,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -30665,7 +30670,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -30675,10 +30680,10 @@
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="152" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C13" s="340" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D13" s="340"/>
       <c r="E13" s="340"/>
@@ -30687,7 +30692,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="152" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C14" s="330" t="n">
         <v>1</v>
@@ -30702,7 +30707,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="152" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C15" s="330" t="n">
         <v>2</v>
@@ -30717,7 +30722,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="152" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C16" s="330" t="n">
         <v>3</v>
@@ -30732,43 +30737,43 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="152" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C17" s="332"/>
       <c r="D17" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E17" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F17" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G17" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="152" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C18" s="332"/>
       <c r="D18" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E18" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="152" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C19" s="330" t="n">
         <v>1</v>
@@ -30792,7 +30797,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C20" s="330" t="n">
         <v>2</v>
@@ -30816,7 +30821,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="152" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C21" s="330" t="n">
         <v>3</v>
@@ -30840,10 +30845,10 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="152" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C22" s="336" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D22" s="338"/>
       <c r="E22" s="30"/>
@@ -30852,7 +30857,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C23" s="328" t="str">
         <f aca="false">A22</f>
@@ -30865,7 +30870,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -30875,7 +30880,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="152" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -30885,7 +30890,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -30895,7 +30900,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="152" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -30905,7 +30910,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -30915,7 +30920,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="152" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -30925,7 +30930,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="152" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -30935,7 +30940,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="152" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -30945,7 +30950,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="152" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -30955,10 +30960,10 @@
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="152" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C33" s="340" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D33" s="340"/>
       <c r="E33" s="340"/>
@@ -30967,7 +30972,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="152" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C34" s="330" t="n">
         <v>1</v>
@@ -30982,7 +30987,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="152" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C35" s="330" t="n">
         <v>2</v>
@@ -30997,7 +31002,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="152" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C36" s="330" t="n">
         <v>3</v>
@@ -31012,43 +31017,43 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="152" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C37" s="332"/>
       <c r="D37" s="333" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E37" s="333" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F37" s="333" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G37" s="334" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="152" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C38" s="332"/>
       <c r="D38" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F38" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="152" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C39" s="330" t="n">
         <v>1</v>
@@ -31072,7 +31077,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="152" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C40" s="330" t="n">
         <v>2</v>
@@ -31096,7 +31101,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="152" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C41" s="330" t="n">
         <v>3</v>
@@ -31120,10 +31125,10 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="152" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C42" s="336" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D42" s="338"/>
       <c r="E42" s="30"/>
@@ -31132,7 +31137,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="152" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C43" s="328" t="str">
         <f aca="false">A42</f>
@@ -31145,7 +31150,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="152" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -31155,7 +31160,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="152" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -31261,7 +31266,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="327" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="169"/>
@@ -31279,7 +31284,7 @@
     <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="152"/>
       <c r="C60" s="303" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D60" s="303"/>
       <c r="E60" s="303"/>
@@ -31448,7 +31453,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -31465,7 +31470,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31486,10 +31491,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="152" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C2" s="343" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D2" s="343"/>
       <c r="E2" s="343"/>
@@ -31500,7 +31505,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="322" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C3" s="328" t="str">
         <f aca="false">A2</f>
@@ -31515,7 +31520,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="322" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C4" s="328"/>
       <c r="D4" s="328"/>
@@ -31527,7 +31532,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="322" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C5" s="328"/>
       <c r="D5" s="328"/>
@@ -31539,7 +31544,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="322" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C6" s="328"/>
       <c r="D6" s="328"/>
@@ -31551,7 +31556,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="322" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C7" s="328"/>
       <c r="D7" s="328"/>
@@ -31563,7 +31568,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="322" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C8" s="328"/>
       <c r="D8" s="328"/>
@@ -31575,7 +31580,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="322" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C9" s="328"/>
       <c r="D9" s="328"/>
@@ -31587,7 +31592,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="322" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C10" s="328"/>
       <c r="D10" s="328"/>
@@ -31599,7 +31604,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="322" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C11" s="328"/>
       <c r="D11" s="328"/>
@@ -31611,7 +31616,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="322" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C12" s="328"/>
       <c r="D12" s="328"/>
@@ -31623,7 +31628,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="322" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C13" s="328"/>
       <c r="D13" s="328"/>
@@ -31635,7 +31640,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="322" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C14" s="328"/>
       <c r="D14" s="328"/>
@@ -31647,7 +31652,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="322" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C15" s="328"/>
       <c r="D15" s="328"/>
@@ -31659,7 +31664,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="322" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C16" s="328"/>
       <c r="D16" s="328"/>
@@ -31671,7 +31676,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="322" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C17" s="328"/>
       <c r="D17" s="328"/>
@@ -31683,7 +31688,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="322" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C18" s="328"/>
       <c r="D18" s="328"/>
@@ -31695,7 +31700,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="322" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C19" s="328"/>
       <c r="D19" s="328"/>
@@ -31707,7 +31712,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="322" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C20" s="328"/>
       <c r="D20" s="328"/>
@@ -31719,7 +31724,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="322" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C21" s="328"/>
       <c r="D21" s="328"/>
@@ -31731,7 +31736,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="322" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C22" s="328"/>
       <c r="D22" s="328"/>
@@ -31743,7 +31748,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="322" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C23" s="328"/>
       <c r="D23" s="328"/>
@@ -31755,7 +31760,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="322" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C24" s="328"/>
       <c r="D24" s="328"/>
@@ -31767,7 +31772,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="322" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C25" s="328"/>
       <c r="D25" s="328"/>
@@ -31779,7 +31784,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="322" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C26" s="328"/>
       <c r="D26" s="328"/>
@@ -31791,7 +31796,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="322" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C27" s="328"/>
       <c r="D27" s="328"/>
@@ -31803,7 +31808,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="322" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C28" s="328"/>
       <c r="D28" s="328"/>
@@ -31815,7 +31820,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="322" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C29" s="328"/>
       <c r="D29" s="328"/>
@@ -31827,7 +31832,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="322" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C30" s="328"/>
       <c r="D30" s="328"/>
@@ -31839,7 +31844,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="322" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C31" s="328"/>
       <c r="D31" s="328"/>
@@ -31851,7 +31856,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="322" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C32" s="328"/>
       <c r="D32" s="328"/>
@@ -31863,7 +31868,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="322" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C33" s="328"/>
       <c r="D33" s="328"/>
@@ -31875,7 +31880,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="322" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="328"/>
@@ -31887,7 +31892,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="322" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C35" s="328"/>
       <c r="D35" s="328"/>
@@ -31899,7 +31904,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="322" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C36" s="328"/>
       <c r="D36" s="328"/>
@@ -31911,7 +31916,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="322" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C37" s="328"/>
       <c r="D37" s="328"/>
@@ -31923,7 +31928,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="322" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C38" s="328"/>
       <c r="D38" s="328"/>
@@ -31935,7 +31940,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="322" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C39" s="328"/>
       <c r="D39" s="328"/>
@@ -31947,7 +31952,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="322" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C40" s="328"/>
       <c r="D40" s="328"/>
@@ -31959,7 +31964,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="322" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C41" s="328"/>
       <c r="D41" s="328"/>
@@ -31971,7 +31976,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="322" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C42" s="328"/>
       <c r="D42" s="328"/>
@@ -31983,7 +31988,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="322" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C43" s="328"/>
       <c r="D43" s="328"/>
@@ -31995,7 +32000,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="322" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C44" s="328"/>
       <c r="D44" s="328"/>
@@ -32007,7 +32012,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="322" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C45" s="328"/>
       <c r="D45" s="328"/>
@@ -32019,7 +32024,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="322" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C46" s="328"/>
       <c r="D46" s="328"/>
@@ -32031,7 +32036,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="322" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C47" s="328"/>
       <c r="D47" s="328"/>
@@ -32043,7 +32048,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="322" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C48" s="328"/>
       <c r="D48" s="328"/>
@@ -32055,7 +32060,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="322" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C49" s="328"/>
       <c r="D49" s="328"/>
@@ -32067,7 +32072,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="322" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C50" s="328"/>
       <c r="D50" s="328"/>
@@ -32079,7 +32084,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="322" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C51" s="328"/>
       <c r="D51" s="328"/>
@@ -32091,7 +32096,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="322" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C52" s="328"/>
       <c r="D52" s="328"/>
@@ -32103,7 +32108,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="322" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C53" s="328"/>
       <c r="D53" s="328"/>
@@ -32115,7 +32120,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="322" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C54" s="328"/>
       <c r="D54" s="328"/>
@@ -32127,7 +32132,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="322" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C55" s="328"/>
       <c r="D55" s="328"/>
@@ -32139,7 +32144,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="322" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C56" s="328"/>
       <c r="D56" s="328"/>
@@ -32151,7 +32156,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="322" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C57" s="328"/>
       <c r="D57" s="328"/>
@@ -32163,7 +32168,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="322" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C58" s="328"/>
       <c r="D58" s="328"/>
@@ -32175,7 +32180,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="322" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C59" s="328"/>
       <c r="D59" s="328"/>
@@ -32187,7 +32192,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="322" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C60" s="328"/>
       <c r="D60" s="328"/>
@@ -32199,7 +32204,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="322" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C61" s="328"/>
       <c r="D61" s="328"/>
@@ -32211,7 +32216,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="322" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C62" s="328"/>
       <c r="D62" s="328"/>
@@ -32223,7 +32228,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="322" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C63" s="328"/>
       <c r="D63" s="328"/>
@@ -32235,7 +32240,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="322" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C64" s="328"/>
       <c r="D64" s="328"/>
@@ -32247,7 +32252,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="322" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C65" s="328"/>
       <c r="D65" s="328"/>
@@ -32259,7 +32264,7 @@
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="322" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C66" s="145"/>
       <c r="D66" s="146"/>
@@ -32271,372 +32276,372 @@
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="322" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="322" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="322" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="322" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="322" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="322" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="322" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="322" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="322" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="322" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="322" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="322" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="322" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="322" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="322" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="322" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="322" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="322" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="322" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="322" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="322" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="322" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="322" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="322" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="322" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="322" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="322" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="322" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="322" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="322" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="322" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="322" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="322" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="322" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="322" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="322" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="322" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="322" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="322" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="322" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="322" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="322" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="322" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="322" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="322" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="322" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="322" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="322" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="322" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="322" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="322" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="322" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="322" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="322" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="322" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="322" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="322" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="322" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="322" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="322" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="322" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="322" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="322" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="322" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="322" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="322" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="322" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="322" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="322" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="322" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="322" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="322" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="322" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="322" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -32650,7 +32655,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
